--- a/database/industries/ghaza/ghezar/product/monthly.xlsx
+++ b/database/industries/ghaza/ghezar/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghezar\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2A709A-3BD0-4615-9A75-B201875D529D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A57522-B9A4-47C5-96CC-26D7B2BAA3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="85">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 7 منتهی به 1397/07</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
     <t>سایر محصولات</t>
@@ -1522,8 +1522,8 @@
       <c r="AH11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI11" s="11" t="s">
-        <v>57</v>
+      <c r="AI11" s="11">
+        <v>0</v>
       </c>
       <c r="AJ11" s="11">
         <v>0</v>
@@ -1609,137 +1609,137 @@
       <c r="J12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>57</v>
+      <c r="K12" s="13">
+        <v>135</v>
       </c>
       <c r="L12" s="13">
-        <v>135</v>
+        <v>420</v>
       </c>
       <c r="M12" s="13">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="N12" s="13">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O12" s="13">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="P12" s="13">
-        <v>31</v>
+        <v>2328</v>
       </c>
       <c r="Q12" s="13">
-        <v>2328</v>
+        <v>104</v>
       </c>
       <c r="R12" s="13">
-        <v>104</v>
+        <v>313</v>
       </c>
       <c r="S12" s="13">
-        <v>313</v>
+        <v>1209</v>
       </c>
       <c r="T12" s="13">
-        <v>1209</v>
+        <v>2825</v>
       </c>
       <c r="U12" s="13">
-        <v>2825</v>
+        <v>227</v>
       </c>
       <c r="V12" s="13">
-        <v>227</v>
+        <v>288</v>
       </c>
       <c r="W12" s="13">
+        <v>150</v>
+      </c>
+      <c r="X12" s="13">
+        <v>265</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>324</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>731</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>723</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>618</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>1158</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>450</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>298</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>434</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>679</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>851</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>300</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>767</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>709</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>284</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>181</v>
+      </c>
+      <c r="AN12" s="13">
+        <v>570</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>114</v>
+      </c>
+      <c r="AP12" s="13">
         <v>288</v>
       </c>
-      <c r="X12" s="13">
-        <v>150</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>265</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>324</v>
-      </c>
-      <c r="AA12" s="13">
-        <v>731</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>723</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>618</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>1158</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>450</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>298</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>434</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>679</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>851</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>300</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>767</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>709</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>284</v>
-      </c>
-      <c r="AN12" s="13">
-        <v>181</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>570</v>
-      </c>
-      <c r="AP12" s="13">
-        <v>114</v>
-      </c>
       <c r="AQ12" s="13">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="AR12" s="13">
-        <v>315</v>
+        <v>379</v>
       </c>
       <c r="AS12" s="13">
-        <v>379</v>
+        <v>478</v>
       </c>
       <c r="AT12" s="13">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="AU12" s="13">
-        <v>464</v>
+        <v>153</v>
       </c>
       <c r="AV12" s="13">
-        <v>153</v>
+        <v>575</v>
       </c>
       <c r="AW12" s="13">
-        <v>575</v>
+        <v>918</v>
       </c>
       <c r="AX12" s="13">
-        <v>918</v>
+        <v>747</v>
       </c>
       <c r="AY12" s="13">
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="AZ12" s="13">
-        <v>725</v>
+        <v>396</v>
       </c>
       <c r="BA12" s="13">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="BB12" s="13">
-        <v>439</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1768,137 +1768,137 @@
       <c r="J13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>57</v>
+      <c r="K13" s="11">
+        <v>161</v>
       </c>
       <c r="L13" s="11">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="M13" s="11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N13" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O13" s="11">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="P13" s="11">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="11">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="R13" s="11">
+        <v>0</v>
+      </c>
+      <c r="S13" s="11">
+        <v>0</v>
+      </c>
+      <c r="T13" s="11">
+        <v>0</v>
+      </c>
+      <c r="U13" s="11">
+        <v>118</v>
+      </c>
+      <c r="V13" s="11">
+        <v>9</v>
+      </c>
+      <c r="W13" s="11">
+        <v>3</v>
+      </c>
+      <c r="X13" s="11">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>18</v>
+      </c>
+      <c r="Z13" s="11">
         <v>11</v>
       </c>
-      <c r="S13" s="11">
-        <v>0</v>
-      </c>
-      <c r="T13" s="11">
-        <v>0</v>
-      </c>
-      <c r="U13" s="11">
-        <v>0</v>
-      </c>
-      <c r="V13" s="11">
-        <v>118</v>
-      </c>
-      <c r="W13" s="11">
-        <v>9</v>
-      </c>
-      <c r="X13" s="11">
-        <v>3</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>4</v>
-      </c>
-      <c r="Z13" s="11">
-        <v>18</v>
-      </c>
       <c r="AA13" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB13" s="11">
         <v>12</v>
       </c>
       <c r="AC13" s="11">
+        <v>8</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>21</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>11</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>15</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>41</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>9</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>10</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>11</v>
+      </c>
+      <c r="AM13" s="11">
         <v>12</v>
       </c>
-      <c r="AD13" s="11">
-        <v>8</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>21</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>11</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>15</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>41</v>
-      </c>
-      <c r="AJ13" s="11">
-        <v>1</v>
-      </c>
-      <c r="AK13" s="11">
+      <c r="AN13" s="11">
+        <v>22</v>
+      </c>
+      <c r="AO13" s="11">
         <v>9</v>
       </c>
-      <c r="AL13" s="11">
-        <v>10</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>11</v>
-      </c>
-      <c r="AN13" s="11">
+      <c r="AP13" s="11">
+        <v>13</v>
+      </c>
+      <c r="AQ13" s="11">
         <v>12</v>
       </c>
-      <c r="AO13" s="11">
-        <v>22</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>9</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>13</v>
-      </c>
       <c r="AR13" s="11">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AS13" s="11">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AT13" s="11">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AU13" s="11">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AV13" s="11">
         <v>3</v>
       </c>
       <c r="AW13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="11">
         <v>3</v>
       </c>
-      <c r="AX13" s="11">
-        <v>0</v>
-      </c>
       <c r="AY13" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ13" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BA13" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1927,137 +1927,137 @@
       <c r="J14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>57</v>
+      <c r="K14" s="13">
+        <v>1950</v>
       </c>
       <c r="L14" s="13">
-        <v>1950</v>
+        <v>14077</v>
       </c>
       <c r="M14" s="13">
-        <v>14077</v>
+        <v>16688</v>
       </c>
       <c r="N14" s="13">
-        <v>16688</v>
+        <v>13227</v>
       </c>
       <c r="O14" s="13">
-        <v>13227</v>
+        <v>10712</v>
       </c>
       <c r="P14" s="13">
-        <v>10712</v>
+        <v>10409</v>
       </c>
       <c r="Q14" s="13">
-        <v>10409</v>
+        <v>8944</v>
       </c>
       <c r="R14" s="13">
-        <v>8944</v>
+        <v>9742</v>
       </c>
       <c r="S14" s="13">
-        <v>9742</v>
+        <v>11903</v>
       </c>
       <c r="T14" s="13">
-        <v>11903</v>
+        <v>12578</v>
       </c>
       <c r="U14" s="13">
-        <v>12578</v>
+        <v>12007</v>
       </c>
       <c r="V14" s="13">
-        <v>12007</v>
+        <v>14688</v>
       </c>
       <c r="W14" s="13">
-        <v>14688</v>
+        <v>13491</v>
       </c>
       <c r="X14" s="13">
-        <v>13491</v>
+        <v>8721</v>
       </c>
       <c r="Y14" s="13">
-        <v>8721</v>
+        <v>18921</v>
       </c>
       <c r="Z14" s="13">
-        <v>18921</v>
+        <v>16832</v>
       </c>
       <c r="AA14" s="13">
-        <v>16832</v>
+        <v>15223</v>
       </c>
       <c r="AB14" s="13">
-        <v>15223</v>
+        <v>14701</v>
       </c>
       <c r="AC14" s="13">
-        <v>14701</v>
+        <v>16461</v>
       </c>
       <c r="AD14" s="13">
-        <v>16461</v>
+        <v>20511</v>
       </c>
       <c r="AE14" s="13">
-        <v>20511</v>
+        <v>14290</v>
       </c>
       <c r="AF14" s="13">
-        <v>14290</v>
+        <v>13776</v>
       </c>
       <c r="AG14" s="13">
-        <v>13776</v>
+        <v>13012</v>
       </c>
       <c r="AH14" s="13">
-        <v>13012</v>
+        <v>15131</v>
       </c>
       <c r="AI14" s="13">
-        <v>15131</v>
+        <v>5265</v>
       </c>
       <c r="AJ14" s="13">
-        <v>5265</v>
+        <v>13388</v>
       </c>
       <c r="AK14" s="13">
-        <v>13388</v>
+        <v>19316</v>
       </c>
       <c r="AL14" s="13">
-        <v>19316</v>
+        <v>17826</v>
       </c>
       <c r="AM14" s="13">
-        <v>17826</v>
+        <v>18131</v>
       </c>
       <c r="AN14" s="13">
-        <v>18131</v>
+        <v>12233</v>
       </c>
       <c r="AO14" s="13">
-        <v>12233</v>
+        <v>11402</v>
       </c>
       <c r="AP14" s="13">
-        <v>11402</v>
+        <v>15418</v>
       </c>
       <c r="AQ14" s="13">
-        <v>15418</v>
+        <v>12006</v>
       </c>
       <c r="AR14" s="13">
-        <v>12006</v>
+        <v>12286</v>
       </c>
       <c r="AS14" s="13">
-        <v>12286</v>
+        <v>9342</v>
       </c>
       <c r="AT14" s="13">
-        <v>9342</v>
+        <v>10583</v>
       </c>
       <c r="AU14" s="13">
-        <v>10583</v>
+        <v>943</v>
       </c>
       <c r="AV14" s="13">
-        <v>943</v>
+        <v>11691</v>
       </c>
       <c r="AW14" s="13">
-        <v>11691</v>
+        <v>13437</v>
       </c>
       <c r="AX14" s="13">
-        <v>13437</v>
+        <v>7517</v>
       </c>
       <c r="AY14" s="13">
-        <v>7517</v>
+        <v>6414</v>
       </c>
       <c r="AZ14" s="13">
-        <v>6414</v>
+        <v>6984</v>
       </c>
       <c r="BA14" s="13">
-        <v>6984</v>
+        <v>5785</v>
       </c>
       <c r="BB14" s="13">
-        <v>5785</v>
+        <v>12055</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2086,137 +2086,137 @@
       <c r="J15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>57</v>
+      <c r="K15" s="11">
+        <v>827</v>
       </c>
       <c r="L15" s="11">
-        <v>827</v>
+        <v>2815</v>
       </c>
       <c r="M15" s="11">
-        <v>2815</v>
+        <v>2307</v>
       </c>
       <c r="N15" s="11">
-        <v>2307</v>
+        <v>3158</v>
       </c>
       <c r="O15" s="11">
-        <v>3158</v>
+        <v>2601</v>
       </c>
       <c r="P15" s="11">
-        <v>2601</v>
+        <v>2579</v>
       </c>
       <c r="Q15" s="11">
-        <v>2579</v>
+        <v>2387</v>
       </c>
       <c r="R15" s="11">
-        <v>2387</v>
+        <v>2661</v>
       </c>
       <c r="S15" s="11">
-        <v>2661</v>
+        <v>2988</v>
       </c>
       <c r="T15" s="11">
-        <v>2988</v>
+        <v>1539</v>
       </c>
       <c r="U15" s="11">
-        <v>1539</v>
+        <v>2912</v>
       </c>
       <c r="V15" s="11">
+        <v>2625</v>
+      </c>
+      <c r="W15" s="11">
+        <v>1837</v>
+      </c>
+      <c r="X15" s="11">
+        <v>1830</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>4665</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>3844</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>2602</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>3052</v>
+      </c>
+      <c r="AC15" s="11">
         <v>2912</v>
       </c>
-      <c r="W15" s="11">
-        <v>2625</v>
-      </c>
-      <c r="X15" s="11">
-        <v>1837</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>1830</v>
-      </c>
-      <c r="Z15" s="11">
-        <v>4665</v>
-      </c>
-      <c r="AA15" s="11">
-        <v>3844</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>2602</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>3052</v>
-      </c>
       <c r="AD15" s="11">
-        <v>2912</v>
+        <v>4109</v>
       </c>
       <c r="AE15" s="11">
-        <v>4109</v>
+        <v>3265</v>
       </c>
       <c r="AF15" s="11">
-        <v>3265</v>
+        <v>3210</v>
       </c>
       <c r="AG15" s="11">
-        <v>3210</v>
+        <v>3268</v>
       </c>
       <c r="AH15" s="11">
-        <v>3268</v>
+        <v>3041</v>
       </c>
       <c r="AI15" s="11">
-        <v>3041</v>
+        <v>1139</v>
       </c>
       <c r="AJ15" s="11">
-        <v>1139</v>
+        <v>2752</v>
       </c>
       <c r="AK15" s="11">
-        <v>2752</v>
+        <v>2340</v>
       </c>
       <c r="AL15" s="11">
-        <v>2340</v>
+        <v>2840</v>
       </c>
       <c r="AM15" s="11">
-        <v>2840</v>
+        <v>2910</v>
       </c>
       <c r="AN15" s="11">
-        <v>2910</v>
+        <v>3269</v>
       </c>
       <c r="AO15" s="11">
-        <v>3269</v>
+        <v>4102</v>
       </c>
       <c r="AP15" s="11">
-        <v>4102</v>
+        <v>3082</v>
       </c>
       <c r="AQ15" s="11">
-        <v>3082</v>
+        <v>3793</v>
       </c>
       <c r="AR15" s="11">
-        <v>3793</v>
+        <v>2875</v>
       </c>
       <c r="AS15" s="11">
-        <v>2875</v>
+        <v>2964</v>
       </c>
       <c r="AT15" s="11">
-        <v>2964</v>
+        <v>3135</v>
       </c>
       <c r="AU15" s="11">
-        <v>3135</v>
+        <v>53</v>
       </c>
       <c r="AV15" s="11">
-        <v>53</v>
+        <v>2604</v>
       </c>
       <c r="AW15" s="11">
-        <v>2604</v>
+        <v>4234</v>
       </c>
       <c r="AX15" s="11">
-        <v>4234</v>
+        <v>2562</v>
       </c>
       <c r="AY15" s="11">
-        <v>2562</v>
+        <v>2111</v>
       </c>
       <c r="AZ15" s="11">
-        <v>2111</v>
+        <v>2404</v>
       </c>
       <c r="BA15" s="11">
-        <v>2404</v>
+        <v>2003</v>
       </c>
       <c r="BB15" s="11">
-        <v>2003</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2245,137 +2245,137 @@
       <c r="J16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>57</v>
+      <c r="K16" s="13">
+        <v>84</v>
       </c>
       <c r="L16" s="13">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="M16" s="13">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N16" s="13">
+        <v>178</v>
+      </c>
+      <c r="O16" s="13">
+        <v>187</v>
+      </c>
+      <c r="P16" s="13">
+        <v>193</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>114</v>
+      </c>
+      <c r="R16" s="13">
+        <v>135</v>
+      </c>
+      <c r="S16" s="13">
+        <v>211</v>
+      </c>
+      <c r="T16" s="13">
+        <v>168</v>
+      </c>
+      <c r="U16" s="13">
+        <v>119</v>
+      </c>
+      <c r="V16" s="13">
+        <v>164</v>
+      </c>
+      <c r="W16" s="13">
+        <v>104</v>
+      </c>
+      <c r="X16" s="13">
+        <v>212</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>265</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>234</v>
+      </c>
+      <c r="AA16" s="13">
         <v>228</v>
       </c>
-      <c r="O16" s="13">
-        <v>178</v>
-      </c>
-      <c r="P16" s="13">
-        <v>187</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>193</v>
-      </c>
-      <c r="R16" s="13">
-        <v>114</v>
-      </c>
-      <c r="S16" s="13">
-        <v>135</v>
-      </c>
-      <c r="T16" s="13">
+      <c r="AB16" s="13">
+        <v>237</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>221</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>229</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>230</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>218</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>210</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>184</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>118</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>217</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>177</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>205</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>200</v>
+      </c>
+      <c r="AN16" s="13">
+        <v>197</v>
+      </c>
+      <c r="AO16" s="13">
         <v>211</v>
       </c>
-      <c r="U16" s="13">
-        <v>168</v>
-      </c>
-      <c r="V16" s="13">
-        <v>119</v>
-      </c>
-      <c r="W16" s="13">
-        <v>164</v>
-      </c>
-      <c r="X16" s="13">
-        <v>104</v>
-      </c>
-      <c r="Y16" s="13">
-        <v>212</v>
-      </c>
-      <c r="Z16" s="13">
-        <v>265</v>
-      </c>
-      <c r="AA16" s="13">
-        <v>234</v>
-      </c>
-      <c r="AB16" s="13">
-        <v>228</v>
-      </c>
-      <c r="AC16" s="13">
-        <v>237</v>
-      </c>
-      <c r="AD16" s="13">
-        <v>221</v>
-      </c>
-      <c r="AE16" s="13">
-        <v>229</v>
-      </c>
-      <c r="AF16" s="13">
-        <v>230</v>
-      </c>
-      <c r="AG16" s="13">
-        <v>218</v>
-      </c>
-      <c r="AH16" s="13">
-        <v>210</v>
-      </c>
-      <c r="AI16" s="13">
-        <v>184</v>
-      </c>
-      <c r="AJ16" s="13">
+      <c r="AP16" s="13">
+        <v>224</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>201</v>
+      </c>
+      <c r="AR16" s="13">
+        <v>169</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>127</v>
+      </c>
+      <c r="AT16" s="13">
+        <v>156</v>
+      </c>
+      <c r="AU16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="13">
         <v>118</v>
       </c>
-      <c r="AK16" s="13">
-        <v>217</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>177</v>
-      </c>
-      <c r="AM16" s="13">
-        <v>205</v>
-      </c>
-      <c r="AN16" s="13">
-        <v>200</v>
-      </c>
-      <c r="AO16" s="13">
-        <v>197</v>
-      </c>
-      <c r="AP16" s="13">
-        <v>211</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>224</v>
-      </c>
-      <c r="AR16" s="13">
-        <v>201</v>
-      </c>
-      <c r="AS16" s="13">
-        <v>169</v>
-      </c>
-      <c r="AT16" s="13">
-        <v>127</v>
-      </c>
-      <c r="AU16" s="13">
-        <v>156</v>
-      </c>
-      <c r="AV16" s="13">
-        <v>0</v>
-      </c>
       <c r="AW16" s="13">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="AX16" s="13">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="AY16" s="13">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="AZ16" s="13">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="BA16" s="13">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="BB16" s="13">
-        <v>194</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2404,137 +2404,137 @@
       <c r="J17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="11" t="s">
-        <v>57</v>
+      <c r="K17" s="11">
+        <v>299</v>
       </c>
       <c r="L17" s="11">
-        <v>299</v>
+        <v>543</v>
       </c>
       <c r="M17" s="11">
-        <v>543</v>
+        <v>303</v>
       </c>
       <c r="N17" s="11">
+        <v>396</v>
+      </c>
+      <c r="O17" s="11">
+        <v>194</v>
+      </c>
+      <c r="P17" s="11">
         <v>303</v>
       </c>
-      <c r="O17" s="11">
-        <v>396</v>
-      </c>
-      <c r="P17" s="11">
-        <v>194</v>
-      </c>
       <c r="Q17" s="11">
-        <v>303</v>
+        <v>168</v>
       </c>
       <c r="R17" s="11">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="S17" s="11">
+        <v>185</v>
+      </c>
+      <c r="T17" s="11">
+        <v>0</v>
+      </c>
+      <c r="U17" s="11">
+        <v>390</v>
+      </c>
+      <c r="V17" s="11">
+        <v>135</v>
+      </c>
+      <c r="W17" s="11">
+        <v>159</v>
+      </c>
+      <c r="X17" s="11">
+        <v>189</v>
+      </c>
+      <c r="Y17" s="11">
+        <v>245</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>318</v>
+      </c>
+      <c r="AA17" s="11">
+        <v>144</v>
+      </c>
+      <c r="AB17" s="11">
+        <v>139</v>
+      </c>
+      <c r="AC17" s="11">
+        <v>163</v>
+      </c>
+      <c r="AD17" s="11">
+        <v>138</v>
+      </c>
+      <c r="AE17" s="11">
+        <v>191</v>
+      </c>
+      <c r="AF17" s="11">
+        <v>173</v>
+      </c>
+      <c r="AG17" s="11">
+        <v>137</v>
+      </c>
+      <c r="AH17" s="11">
+        <v>68</v>
+      </c>
+      <c r="AI17" s="11">
+        <v>133</v>
+      </c>
+      <c r="AJ17" s="11">
+        <v>327</v>
+      </c>
+      <c r="AK17" s="11">
+        <v>146</v>
+      </c>
+      <c r="AL17" s="11">
+        <v>80</v>
+      </c>
+      <c r="AM17" s="11">
+        <v>127</v>
+      </c>
+      <c r="AN17" s="11">
         <v>186</v>
       </c>
-      <c r="T17" s="11">
-        <v>185</v>
-      </c>
-      <c r="U17" s="11">
-        <v>0</v>
-      </c>
-      <c r="V17" s="11">
-        <v>390</v>
-      </c>
-      <c r="W17" s="11">
-        <v>135</v>
-      </c>
-      <c r="X17" s="11">
-        <v>159</v>
-      </c>
-      <c r="Y17" s="11">
-        <v>189</v>
-      </c>
-      <c r="Z17" s="11">
-        <v>245</v>
-      </c>
-      <c r="AA17" s="11">
-        <v>318</v>
-      </c>
-      <c r="AB17" s="11">
-        <v>144</v>
-      </c>
-      <c r="AC17" s="11">
-        <v>139</v>
-      </c>
-      <c r="AD17" s="11">
-        <v>163</v>
-      </c>
-      <c r="AE17" s="11">
-        <v>138</v>
-      </c>
-      <c r="AF17" s="11">
-        <v>191</v>
-      </c>
-      <c r="AG17" s="11">
-        <v>173</v>
-      </c>
-      <c r="AH17" s="11">
-        <v>137</v>
-      </c>
-      <c r="AI17" s="11">
+      <c r="AO17" s="11">
+        <v>165</v>
+      </c>
+      <c r="AP17" s="11">
+        <v>179</v>
+      </c>
+      <c r="AQ17" s="11">
+        <v>151</v>
+      </c>
+      <c r="AR17" s="11">
+        <v>226</v>
+      </c>
+      <c r="AS17" s="11">
+        <v>232</v>
+      </c>
+      <c r="AT17" s="11">
+        <v>230</v>
+      </c>
+      <c r="AU17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="11">
+        <v>109</v>
+      </c>
+      <c r="AW17" s="11">
+        <v>178</v>
+      </c>
+      <c r="AX17" s="11">
+        <v>186</v>
+      </c>
+      <c r="AY17" s="11">
         <v>68</v>
       </c>
-      <c r="AJ17" s="11">
-        <v>133</v>
-      </c>
-      <c r="AK17" s="11">
-        <v>327</v>
-      </c>
-      <c r="AL17" s="11">
-        <v>146</v>
-      </c>
-      <c r="AM17" s="11">
-        <v>80</v>
-      </c>
-      <c r="AN17" s="11">
-        <v>127</v>
-      </c>
-      <c r="AO17" s="11">
-        <v>186</v>
-      </c>
-      <c r="AP17" s="11">
-        <v>165</v>
-      </c>
-      <c r="AQ17" s="11">
-        <v>179</v>
-      </c>
-      <c r="AR17" s="11">
-        <v>151</v>
-      </c>
-      <c r="AS17" s="11">
-        <v>226</v>
-      </c>
-      <c r="AT17" s="11">
-        <v>232</v>
-      </c>
-      <c r="AU17" s="11">
-        <v>230</v>
-      </c>
-      <c r="AV17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="11">
-        <v>109</v>
-      </c>
-      <c r="AX17" s="11">
-        <v>178</v>
-      </c>
-      <c r="AY17" s="11">
-        <v>186</v>
-      </c>
       <c r="AZ17" s="11">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="BA17" s="11">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="BB17" s="11">
-        <v>96</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2563,137 +2563,137 @@
       <c r="J18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K18" s="13" t="s">
-        <v>57</v>
+      <c r="K18" s="13">
+        <v>152</v>
       </c>
       <c r="L18" s="13">
-        <v>152</v>
+        <v>239</v>
       </c>
       <c r="M18" s="13">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="N18" s="13">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="O18" s="13">
-        <v>113</v>
+        <v>268</v>
       </c>
       <c r="P18" s="13">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="13">
+        <v>247</v>
+      </c>
+      <c r="R18" s="13">
+        <v>237</v>
+      </c>
+      <c r="S18" s="13">
+        <v>212</v>
+      </c>
+      <c r="T18" s="13">
+        <v>287</v>
+      </c>
+      <c r="U18" s="13">
+        <v>244</v>
+      </c>
+      <c r="V18" s="13">
+        <v>259</v>
+      </c>
+      <c r="W18" s="13">
+        <v>174</v>
+      </c>
+      <c r="X18" s="13">
+        <v>284</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>286</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>196</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>75</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>125</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>141</v>
+      </c>
+      <c r="AD18" s="13">
+        <v>147</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>230</v>
+      </c>
+      <c r="AF18" s="13">
+        <v>232</v>
+      </c>
+      <c r="AG18" s="13">
+        <v>216</v>
+      </c>
+      <c r="AH18" s="13">
+        <v>255</v>
+      </c>
+      <c r="AI18" s="13">
+        <v>101</v>
+      </c>
+      <c r="AJ18" s="13">
+        <v>259</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>183</v>
+      </c>
+      <c r="AL18" s="13">
+        <v>228</v>
+      </c>
+      <c r="AM18" s="13">
+        <v>74</v>
+      </c>
+      <c r="AN18" s="13">
+        <v>291</v>
+      </c>
+      <c r="AO18" s="13">
+        <v>194</v>
+      </c>
+      <c r="AP18" s="13">
+        <v>144</v>
+      </c>
+      <c r="AQ18" s="13">
+        <v>338</v>
+      </c>
+      <c r="AR18" s="13">
+        <v>221</v>
+      </c>
+      <c r="AS18" s="13">
+        <v>194</v>
+      </c>
+      <c r="AT18" s="13">
+        <v>219</v>
+      </c>
+      <c r="AU18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="13">
+        <v>245</v>
+      </c>
+      <c r="AX18" s="13">
+        <v>398</v>
+      </c>
+      <c r="AY18" s="13">
+        <v>332</v>
+      </c>
+      <c r="AZ18" s="13">
+        <v>351</v>
+      </c>
+      <c r="BA18" s="13">
+        <v>252</v>
+      </c>
+      <c r="BB18" s="13">
         <v>229</v>
-      </c>
-      <c r="R18" s="13">
-        <v>247</v>
-      </c>
-      <c r="S18" s="13">
-        <v>237</v>
-      </c>
-      <c r="T18" s="13">
-        <v>212</v>
-      </c>
-      <c r="U18" s="13">
-        <v>287</v>
-      </c>
-      <c r="V18" s="13">
-        <v>244</v>
-      </c>
-      <c r="W18" s="13">
-        <v>259</v>
-      </c>
-      <c r="X18" s="13">
-        <v>174</v>
-      </c>
-      <c r="Y18" s="13">
-        <v>284</v>
-      </c>
-      <c r="Z18" s="13">
-        <v>286</v>
-      </c>
-      <c r="AA18" s="13">
-        <v>196</v>
-      </c>
-      <c r="AB18" s="13">
-        <v>75</v>
-      </c>
-      <c r="AC18" s="13">
-        <v>125</v>
-      </c>
-      <c r="AD18" s="13">
-        <v>141</v>
-      </c>
-      <c r="AE18" s="13">
-        <v>147</v>
-      </c>
-      <c r="AF18" s="13">
-        <v>230</v>
-      </c>
-      <c r="AG18" s="13">
-        <v>232</v>
-      </c>
-      <c r="AH18" s="13">
-        <v>216</v>
-      </c>
-      <c r="AI18" s="13">
-        <v>255</v>
-      </c>
-      <c r="AJ18" s="13">
-        <v>101</v>
-      </c>
-      <c r="AK18" s="13">
-        <v>259</v>
-      </c>
-      <c r="AL18" s="13">
-        <v>183</v>
-      </c>
-      <c r="AM18" s="13">
-        <v>228</v>
-      </c>
-      <c r="AN18" s="13">
-        <v>74</v>
-      </c>
-      <c r="AO18" s="13">
-        <v>291</v>
-      </c>
-      <c r="AP18" s="13">
-        <v>194</v>
-      </c>
-      <c r="AQ18" s="13">
-        <v>144</v>
-      </c>
-      <c r="AR18" s="13">
-        <v>338</v>
-      </c>
-      <c r="AS18" s="13">
-        <v>221</v>
-      </c>
-      <c r="AT18" s="13">
-        <v>194</v>
-      </c>
-      <c r="AU18" s="13">
-        <v>219</v>
-      </c>
-      <c r="AV18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="13">
-        <v>245</v>
-      </c>
-      <c r="AY18" s="13">
-        <v>398</v>
-      </c>
-      <c r="AZ18" s="13">
-        <v>332</v>
-      </c>
-      <c r="BA18" s="13">
-        <v>351</v>
-      </c>
-      <c r="BB18" s="13">
-        <v>252</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2722,137 +2722,137 @@
       <c r="J19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>57</v>
+      <c r="K19" s="11">
+        <v>97</v>
       </c>
       <c r="L19" s="11">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="M19" s="11">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="N19" s="11">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="O19" s="11">
+        <v>201</v>
+      </c>
+      <c r="P19" s="11">
+        <v>137</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>24</v>
+      </c>
+      <c r="R19" s="11">
+        <v>115</v>
+      </c>
+      <c r="S19" s="11">
+        <v>110</v>
+      </c>
+      <c r="T19" s="11">
+        <v>136</v>
+      </c>
+      <c r="U19" s="11">
+        <v>40</v>
+      </c>
+      <c r="V19" s="11">
+        <v>95</v>
+      </c>
+      <c r="W19" s="11">
+        <v>152</v>
+      </c>
+      <c r="X19" s="11">
+        <v>223</v>
+      </c>
+      <c r="Y19" s="11">
+        <v>96</v>
+      </c>
+      <c r="Z19" s="11">
+        <v>119</v>
+      </c>
+      <c r="AA19" s="11">
+        <v>50</v>
+      </c>
+      <c r="AB19" s="11">
+        <v>46</v>
+      </c>
+      <c r="AC19" s="11">
+        <v>86</v>
+      </c>
+      <c r="AD19" s="11">
+        <v>25</v>
+      </c>
+      <c r="AE19" s="11">
+        <v>61</v>
+      </c>
+      <c r="AF19" s="11">
+        <v>77</v>
+      </c>
+      <c r="AG19" s="11">
+        <v>141</v>
+      </c>
+      <c r="AH19" s="11">
+        <v>116</v>
+      </c>
+      <c r="AI19" s="11">
+        <v>47</v>
+      </c>
+      <c r="AJ19" s="11">
+        <v>45</v>
+      </c>
+      <c r="AK19" s="11">
+        <v>40</v>
+      </c>
+      <c r="AL19" s="11">
+        <v>47</v>
+      </c>
+      <c r="AM19" s="11">
+        <v>38</v>
+      </c>
+      <c r="AN19" s="11">
+        <v>82</v>
+      </c>
+      <c r="AO19" s="11">
         <v>84</v>
       </c>
-      <c r="P19" s="11">
-        <v>201</v>
-      </c>
-      <c r="Q19" s="11">
-        <v>137</v>
-      </c>
-      <c r="R19" s="11">
-        <v>24</v>
-      </c>
-      <c r="S19" s="11">
-        <v>115</v>
-      </c>
-      <c r="T19" s="11">
-        <v>110</v>
-      </c>
-      <c r="U19" s="11">
-        <v>136</v>
-      </c>
-      <c r="V19" s="11">
+      <c r="AP19" s="11">
+        <v>29</v>
+      </c>
+      <c r="AQ19" s="11">
+        <v>17</v>
+      </c>
+      <c r="AR19" s="11">
+        <v>44</v>
+      </c>
+      <c r="AS19" s="11">
+        <v>45</v>
+      </c>
+      <c r="AT19" s="11">
+        <v>49</v>
+      </c>
+      <c r="AU19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="11">
+        <v>66</v>
+      </c>
+      <c r="AX19" s="11">
+        <v>77</v>
+      </c>
+      <c r="AY19" s="11">
+        <v>50</v>
+      </c>
+      <c r="AZ19" s="11">
+        <v>23</v>
+      </c>
+      <c r="BA19" s="11">
         <v>40</v>
       </c>
-      <c r="W19" s="11">
-        <v>95</v>
-      </c>
-      <c r="X19" s="11">
-        <v>152</v>
-      </c>
-      <c r="Y19" s="11">
-        <v>223</v>
-      </c>
-      <c r="Z19" s="11">
-        <v>96</v>
-      </c>
-      <c r="AA19" s="11">
-        <v>119</v>
-      </c>
-      <c r="AB19" s="11">
-        <v>50</v>
-      </c>
-      <c r="AC19" s="11">
-        <v>46</v>
-      </c>
-      <c r="AD19" s="11">
-        <v>86</v>
-      </c>
-      <c r="AE19" s="11">
-        <v>25</v>
-      </c>
-      <c r="AF19" s="11">
-        <v>61</v>
-      </c>
-      <c r="AG19" s="11">
-        <v>77</v>
-      </c>
-      <c r="AH19" s="11">
-        <v>141</v>
-      </c>
-      <c r="AI19" s="11">
-        <v>116</v>
-      </c>
-      <c r="AJ19" s="11">
-        <v>47</v>
-      </c>
-      <c r="AK19" s="11">
-        <v>45</v>
-      </c>
-      <c r="AL19" s="11">
-        <v>40</v>
-      </c>
-      <c r="AM19" s="11">
-        <v>47</v>
-      </c>
-      <c r="AN19" s="11">
-        <v>38</v>
-      </c>
-      <c r="AO19" s="11">
-        <v>82</v>
-      </c>
-      <c r="AP19" s="11">
-        <v>84</v>
-      </c>
-      <c r="AQ19" s="11">
-        <v>29</v>
-      </c>
-      <c r="AR19" s="11">
-        <v>17</v>
-      </c>
-      <c r="AS19" s="11">
-        <v>44</v>
-      </c>
-      <c r="AT19" s="11">
-        <v>45</v>
-      </c>
-      <c r="AU19" s="11">
-        <v>49</v>
-      </c>
-      <c r="AV19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX19" s="11">
-        <v>66</v>
-      </c>
-      <c r="AY19" s="11">
-        <v>77</v>
-      </c>
-      <c r="AZ19" s="11">
-        <v>50</v>
-      </c>
-      <c r="BA19" s="11">
-        <v>23</v>
-      </c>
       <c r="BB19" s="11">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2881,137 +2881,137 @@
       <c r="J20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>57</v>
+      <c r="K20" s="13">
+        <v>224</v>
       </c>
       <c r="L20" s="13">
-        <v>224</v>
+        <v>481</v>
       </c>
       <c r="M20" s="13">
-        <v>481</v>
+        <v>300</v>
       </c>
       <c r="N20" s="13">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="O20" s="13">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="P20" s="13">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="Q20" s="13">
-        <v>389</v>
+        <v>291</v>
       </c>
       <c r="R20" s="13">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="S20" s="13">
-        <v>283</v>
+        <v>385</v>
       </c>
       <c r="T20" s="13">
-        <v>385</v>
+        <v>183</v>
       </c>
       <c r="U20" s="13">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="V20" s="13">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="W20" s="13">
-        <v>288</v>
+        <v>169</v>
       </c>
       <c r="X20" s="13">
+        <v>323</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>467</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="13">
+        <v>97</v>
+      </c>
+      <c r="AB20" s="13">
+        <v>211</v>
+      </c>
+      <c r="AC20" s="13">
+        <v>261</v>
+      </c>
+      <c r="AD20" s="13">
+        <v>231</v>
+      </c>
+      <c r="AE20" s="13">
+        <v>466</v>
+      </c>
+      <c r="AF20" s="13">
+        <v>238</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>387</v>
+      </c>
+      <c r="AH20" s="13">
+        <v>421</v>
+      </c>
+      <c r="AI20" s="13">
+        <v>242</v>
+      </c>
+      <c r="AJ20" s="13">
+        <v>552</v>
+      </c>
+      <c r="AK20" s="13">
+        <v>133</v>
+      </c>
+      <c r="AL20" s="13">
+        <v>184</v>
+      </c>
+      <c r="AM20" s="13">
+        <v>465</v>
+      </c>
+      <c r="AN20" s="13">
+        <v>438</v>
+      </c>
+      <c r="AO20" s="13">
+        <v>277</v>
+      </c>
+      <c r="AP20" s="13">
+        <v>366</v>
+      </c>
+      <c r="AQ20" s="13">
+        <v>428</v>
+      </c>
+      <c r="AR20" s="13">
+        <v>453</v>
+      </c>
+      <c r="AS20" s="13">
+        <v>377</v>
+      </c>
+      <c r="AT20" s="13">
+        <v>373</v>
+      </c>
+      <c r="AU20" s="13">
+        <v>11</v>
+      </c>
+      <c r="AV20" s="13">
+        <v>226</v>
+      </c>
+      <c r="AW20" s="13">
+        <v>310</v>
+      </c>
+      <c r="AX20" s="13">
+        <v>184</v>
+      </c>
+      <c r="AY20" s="13">
         <v>169</v>
       </c>
-      <c r="Y20" s="13">
-        <v>323</v>
-      </c>
-      <c r="Z20" s="13">
-        <v>467</v>
-      </c>
-      <c r="AA20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="13">
-        <v>97</v>
-      </c>
-      <c r="AC20" s="13">
-        <v>211</v>
-      </c>
-      <c r="AD20" s="13">
-        <v>261</v>
-      </c>
-      <c r="AE20" s="13">
-        <v>231</v>
-      </c>
-      <c r="AF20" s="13">
-        <v>466</v>
-      </c>
-      <c r="AG20" s="13">
-        <v>238</v>
-      </c>
-      <c r="AH20" s="13">
-        <v>387</v>
-      </c>
-      <c r="AI20" s="13">
-        <v>421</v>
-      </c>
-      <c r="AJ20" s="13">
-        <v>242</v>
-      </c>
-      <c r="AK20" s="13">
-        <v>552</v>
-      </c>
-      <c r="AL20" s="13">
-        <v>133</v>
-      </c>
-      <c r="AM20" s="13">
-        <v>184</v>
-      </c>
-      <c r="AN20" s="13">
-        <v>465</v>
-      </c>
-      <c r="AO20" s="13">
-        <v>438</v>
-      </c>
-      <c r="AP20" s="13">
-        <v>277</v>
-      </c>
-      <c r="AQ20" s="13">
-        <v>366</v>
-      </c>
-      <c r="AR20" s="13">
-        <v>428</v>
-      </c>
-      <c r="AS20" s="13">
-        <v>453</v>
-      </c>
-      <c r="AT20" s="13">
-        <v>377</v>
-      </c>
-      <c r="AU20" s="13">
-        <v>373</v>
-      </c>
-      <c r="AV20" s="13">
-        <v>11</v>
-      </c>
-      <c r="AW20" s="13">
-        <v>226</v>
-      </c>
-      <c r="AX20" s="13">
-        <v>310</v>
-      </c>
-      <c r="AY20" s="13">
-        <v>184</v>
-      </c>
       <c r="AZ20" s="13">
-        <v>169</v>
+        <v>275</v>
       </c>
       <c r="BA20" s="13">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="BB20" s="13">
-        <v>246</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3112,65 +3112,65 @@
       <c r="AH21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI21" s="11" t="s">
-        <v>57</v>
+      <c r="AI21" s="11">
+        <v>1349</v>
       </c>
       <c r="AJ21" s="11">
-        <v>1349</v>
+        <v>4198</v>
       </c>
       <c r="AK21" s="11">
-        <v>4198</v>
+        <v>355</v>
       </c>
       <c r="AL21" s="11">
-        <v>355</v>
+        <v>524</v>
       </c>
       <c r="AM21" s="11">
-        <v>524</v>
+        <v>1088</v>
       </c>
       <c r="AN21" s="11">
-        <v>1088</v>
+        <v>2991</v>
       </c>
       <c r="AO21" s="11">
-        <v>2991</v>
+        <v>797</v>
       </c>
       <c r="AP21" s="11">
-        <v>797</v>
+        <v>3403</v>
       </c>
       <c r="AQ21" s="11">
-        <v>3403</v>
+        <v>5451</v>
       </c>
       <c r="AR21" s="11">
-        <v>5451</v>
+        <v>2065</v>
       </c>
       <c r="AS21" s="11">
-        <v>2065</v>
+        <v>2035</v>
       </c>
       <c r="AT21" s="11">
-        <v>2035</v>
+        <v>4308</v>
       </c>
       <c r="AU21" s="11">
-        <v>4308</v>
+        <v>477</v>
       </c>
       <c r="AV21" s="11">
-        <v>477</v>
+        <v>969</v>
       </c>
       <c r="AW21" s="11">
-        <v>969</v>
+        <v>913</v>
       </c>
       <c r="AX21" s="11">
-        <v>913</v>
+        <v>2068</v>
       </c>
       <c r="AY21" s="11">
-        <v>2068</v>
+        <v>181</v>
       </c>
       <c r="AZ21" s="11">
-        <v>181</v>
+        <v>443</v>
       </c>
       <c r="BA21" s="11">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="BB21" s="11">
-        <v>429</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3271,65 +3271,65 @@
       <c r="AH22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI22" s="13" t="s">
-        <v>57</v>
+      <c r="AI22" s="13">
+        <v>194</v>
       </c>
       <c r="AJ22" s="13">
-        <v>194</v>
+        <v>477</v>
       </c>
       <c r="AK22" s="13">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="AL22" s="13">
-        <v>482</v>
+        <v>210</v>
       </c>
       <c r="AM22" s="13">
-        <v>210</v>
+        <v>641</v>
       </c>
       <c r="AN22" s="13">
-        <v>641</v>
+        <v>420</v>
       </c>
       <c r="AO22" s="13">
-        <v>420</v>
+        <v>304</v>
       </c>
       <c r="AP22" s="13">
-        <v>304</v>
+        <v>982</v>
       </c>
       <c r="AQ22" s="13">
-        <v>982</v>
+        <v>494</v>
       </c>
       <c r="AR22" s="13">
-        <v>494</v>
+        <v>1338</v>
       </c>
       <c r="AS22" s="13">
-        <v>1338</v>
+        <v>771</v>
       </c>
       <c r="AT22" s="13">
-        <v>771</v>
+        <v>1063</v>
       </c>
       <c r="AU22" s="13">
-        <v>1063</v>
+        <v>230</v>
       </c>
       <c r="AV22" s="13">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AW22" s="13">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AX22" s="13">
-        <v>34</v>
+        <v>529</v>
       </c>
       <c r="AY22" s="13">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="AZ22" s="13">
-        <v>232</v>
+        <v>664</v>
       </c>
       <c r="BA22" s="13">
-        <v>664</v>
+        <v>137</v>
       </c>
       <c r="BB22" s="13">
-        <v>137</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3430,65 +3430,65 @@
       <c r="AH23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI23" s="11" t="s">
-        <v>57</v>
+      <c r="AI23" s="11">
+        <v>13</v>
       </c>
       <c r="AJ23" s="11">
+        <v>5</v>
+      </c>
+      <c r="AK23" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL23" s="11">
+        <v>21</v>
+      </c>
+      <c r="AM23" s="11">
+        <v>10</v>
+      </c>
+      <c r="AN23" s="11">
+        <v>8</v>
+      </c>
+      <c r="AO23" s="11">
         <v>13</v>
       </c>
-      <c r="AK23" s="11">
-        <v>5</v>
-      </c>
-      <c r="AL23" s="11">
+      <c r="AP23" s="11">
+        <v>12</v>
+      </c>
+      <c r="AQ23" s="11">
+        <v>15</v>
+      </c>
+      <c r="AR23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="11">
+        <v>102</v>
+      </c>
+      <c r="AT23" s="11">
+        <v>9</v>
+      </c>
+      <c r="AU23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="11">
+        <v>99</v>
+      </c>
+      <c r="AX23" s="11">
+        <v>-79</v>
+      </c>
+      <c r="AY23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="11">
+        <v>1</v>
+      </c>
+      <c r="BA23" s="11">
         <v>2</v>
       </c>
-      <c r="AM23" s="11">
-        <v>21</v>
-      </c>
-      <c r="AN23" s="11">
-        <v>10</v>
-      </c>
-      <c r="AO23" s="11">
-        <v>8</v>
-      </c>
-      <c r="AP23" s="11">
-        <v>13</v>
-      </c>
-      <c r="AQ23" s="11">
-        <v>12</v>
-      </c>
-      <c r="AR23" s="11">
-        <v>15</v>
-      </c>
-      <c r="AS23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="11">
-        <v>102</v>
-      </c>
-      <c r="AU23" s="11">
-        <v>9</v>
-      </c>
-      <c r="AV23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX23" s="11">
-        <v>99</v>
-      </c>
-      <c r="AY23" s="11">
-        <v>172</v>
-      </c>
-      <c r="AZ23" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA23" s="11">
+      <c r="BB23" s="11">
         <v>1</v>
-      </c>
-      <c r="BB23" s="11">
-        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3617,8 +3617,8 @@
       <c r="Y25" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z25" s="17" t="s">
-        <v>57</v>
+      <c r="Z25" s="17">
+        <v>0</v>
       </c>
       <c r="AA25" s="17">
         <v>0</v>
@@ -3730,136 +3730,136 @@
         <v>0</v>
       </c>
       <c r="K26" s="19">
-        <v>0</v>
+        <v>3929</v>
       </c>
       <c r="L26" s="19">
-        <v>3929</v>
+        <v>18887</v>
       </c>
       <c r="M26" s="19">
-        <v>18887</v>
+        <v>20185</v>
       </c>
       <c r="N26" s="19">
-        <v>20185</v>
+        <v>17407</v>
       </c>
       <c r="O26" s="19">
-        <v>17407</v>
+        <v>14311</v>
       </c>
       <c r="P26" s="19">
-        <v>14311</v>
+        <v>16647</v>
       </c>
       <c r="Q26" s="19">
-        <v>16647</v>
+        <v>12290</v>
       </c>
       <c r="R26" s="19">
-        <v>12290</v>
+        <v>13672</v>
       </c>
       <c r="S26" s="19">
-        <v>13672</v>
+        <v>17203</v>
       </c>
       <c r="T26" s="19">
-        <v>17203</v>
+        <v>17716</v>
       </c>
       <c r="U26" s="19">
-        <v>17716</v>
+        <v>16285</v>
       </c>
       <c r="V26" s="19">
-        <v>16285</v>
+        <v>18551</v>
       </c>
       <c r="W26" s="19">
-        <v>18551</v>
+        <v>16239</v>
       </c>
       <c r="X26" s="19">
-        <v>16239</v>
+        <v>12051</v>
       </c>
       <c r="Y26" s="19">
-        <v>12051</v>
+        <v>25287</v>
       </c>
       <c r="Z26" s="19">
-        <v>25287</v>
+        <v>22285</v>
       </c>
       <c r="AA26" s="19">
-        <v>22285</v>
+        <v>19154</v>
       </c>
       <c r="AB26" s="19">
-        <v>19154</v>
+        <v>19141</v>
       </c>
       <c r="AC26" s="19">
-        <v>19141</v>
+        <v>21411</v>
       </c>
       <c r="AD26" s="19">
-        <v>21411</v>
+        <v>25840</v>
       </c>
       <c r="AE26" s="19">
-        <v>25840</v>
+        <v>19052</v>
       </c>
       <c r="AF26" s="19">
-        <v>19052</v>
+        <v>18369</v>
       </c>
       <c r="AG26" s="19">
-        <v>18369</v>
+        <v>18065</v>
       </c>
       <c r="AH26" s="19">
-        <v>18065</v>
+        <v>20108</v>
       </c>
       <c r="AI26" s="19">
-        <v>20108</v>
+        <v>8902</v>
       </c>
       <c r="AJ26" s="19">
-        <v>8902</v>
+        <v>22996</v>
       </c>
       <c r="AK26" s="19">
-        <v>22996</v>
+        <v>23893</v>
       </c>
       <c r="AL26" s="19">
-        <v>23893</v>
+        <v>22460</v>
       </c>
       <c r="AM26" s="19">
-        <v>22460</v>
+        <v>23877</v>
       </c>
       <c r="AN26" s="19">
-        <v>23877</v>
+        <v>20707</v>
       </c>
       <c r="AO26" s="19">
-        <v>20707</v>
+        <v>17672</v>
       </c>
       <c r="AP26" s="19">
-        <v>17672</v>
+        <v>24140</v>
       </c>
       <c r="AQ26" s="19">
-        <v>24140</v>
+        <v>23221</v>
       </c>
       <c r="AR26" s="19">
-        <v>23221</v>
+        <v>20074</v>
       </c>
       <c r="AS26" s="19">
-        <v>20074</v>
+        <v>16696</v>
       </c>
       <c r="AT26" s="19">
-        <v>16696</v>
+        <v>20609</v>
       </c>
       <c r="AU26" s="19">
-        <v>20609</v>
+        <v>1870</v>
       </c>
       <c r="AV26" s="19">
-        <v>1870</v>
+        <v>16295</v>
       </c>
       <c r="AW26" s="19">
-        <v>16295</v>
+        <v>20605</v>
       </c>
       <c r="AX26" s="19">
-        <v>20605</v>
+        <v>14377</v>
       </c>
       <c r="AY26" s="19">
-        <v>14377</v>
+        <v>10510</v>
       </c>
       <c r="AZ26" s="19">
-        <v>10510</v>
+        <v>11865</v>
       </c>
       <c r="BA26" s="19">
-        <v>11865</v>
+        <v>9623</v>
       </c>
       <c r="BB26" s="19">
-        <v>9623</v>
+        <v>19444</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -4394,8 +4394,8 @@
       <c r="AH33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI33" s="11" t="s">
-        <v>57</v>
+      <c r="AI33" s="11">
+        <v>0</v>
       </c>
       <c r="AJ33" s="11">
         <v>0</v>
@@ -4481,137 +4481,137 @@
       <c r="J34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K34" s="13" t="s">
-        <v>57</v>
+      <c r="K34" s="13">
+        <v>74</v>
       </c>
       <c r="L34" s="13">
-        <v>74</v>
+        <v>378</v>
       </c>
       <c r="M34" s="13">
-        <v>378</v>
+        <v>99</v>
       </c>
       <c r="N34" s="13">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="O34" s="13">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="P34" s="13">
-        <v>63</v>
+        <v>2157</v>
       </c>
       <c r="Q34" s="13">
-        <v>2157</v>
+        <v>80</v>
       </c>
       <c r="R34" s="13">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="S34" s="13">
-        <v>201</v>
+        <v>1193</v>
       </c>
       <c r="T34" s="13">
-        <v>1193</v>
+        <v>220</v>
       </c>
       <c r="U34" s="13">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="V34" s="13">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="W34" s="13">
-        <v>310</v>
+        <v>134</v>
       </c>
       <c r="X34" s="13">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="Y34" s="13">
-        <v>239</v>
+        <v>365</v>
       </c>
       <c r="Z34" s="13">
-        <v>365</v>
+        <v>778</v>
       </c>
       <c r="AA34" s="13">
-        <v>778</v>
+        <v>579</v>
       </c>
       <c r="AB34" s="13">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="AC34" s="13">
-        <v>596</v>
+        <v>1031</v>
       </c>
       <c r="AD34" s="13">
-        <v>1031</v>
+        <v>491</v>
       </c>
       <c r="AE34" s="13">
-        <v>491</v>
+        <v>449</v>
       </c>
       <c r="AF34" s="13">
-        <v>449</v>
+        <v>534</v>
       </c>
       <c r="AG34" s="13">
-        <v>534</v>
+        <v>623</v>
       </c>
       <c r="AH34" s="13">
-        <v>623</v>
+        <v>838</v>
       </c>
       <c r="AI34" s="13">
-        <v>838</v>
+        <v>207</v>
       </c>
       <c r="AJ34" s="13">
-        <v>207</v>
+        <v>522</v>
       </c>
       <c r="AK34" s="13">
-        <v>522</v>
+        <v>690</v>
       </c>
       <c r="AL34" s="13">
-        <v>690</v>
+        <v>544</v>
       </c>
       <c r="AM34" s="13">
-        <v>544</v>
+        <v>247</v>
       </c>
       <c r="AN34" s="13">
-        <v>247</v>
+        <v>149</v>
       </c>
       <c r="AO34" s="13">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="AP34" s="13">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AQ34" s="13">
-        <v>193</v>
+        <v>370</v>
       </c>
       <c r="AR34" s="13">
-        <v>370</v>
+        <v>479</v>
       </c>
       <c r="AS34" s="13">
-        <v>479</v>
+        <v>398</v>
       </c>
       <c r="AT34" s="13">
-        <v>398</v>
+        <v>483</v>
       </c>
       <c r="AU34" s="13">
-        <v>483</v>
+        <v>146</v>
       </c>
       <c r="AV34" s="13">
-        <v>146</v>
+        <v>637</v>
       </c>
       <c r="AW34" s="13">
-        <v>637</v>
+        <v>833</v>
       </c>
       <c r="AX34" s="13">
-        <v>833</v>
+        <v>885</v>
       </c>
       <c r="AY34" s="13">
-        <v>885</v>
+        <v>806</v>
       </c>
       <c r="AZ34" s="13">
-        <v>806</v>
+        <v>513</v>
       </c>
       <c r="BA34" s="13">
-        <v>513</v>
+        <v>440</v>
       </c>
       <c r="BB34" s="13">
-        <v>440</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4640,83 +4640,83 @@
       <c r="J35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K35" s="11" t="s">
-        <v>57</v>
+      <c r="K35" s="11">
+        <v>4</v>
       </c>
       <c r="L35" s="11">
+        <v>23</v>
+      </c>
+      <c r="M35" s="11">
+        <v>6</v>
+      </c>
+      <c r="N35" s="11">
+        <v>19</v>
+      </c>
+      <c r="O35" s="11">
+        <v>10</v>
+      </c>
+      <c r="P35" s="11">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>15</v>
+      </c>
+      <c r="R35" s="11">
+        <v>37</v>
+      </c>
+      <c r="S35" s="11">
+        <v>51</v>
+      </c>
+      <c r="T35" s="11">
+        <v>48</v>
+      </c>
+      <c r="U35" s="11">
+        <v>46</v>
+      </c>
+      <c r="V35" s="11">
+        <v>77</v>
+      </c>
+      <c r="W35" s="11">
+        <v>2</v>
+      </c>
+      <c r="X35" s="11">
         <v>4</v>
       </c>
-      <c r="M35" s="11">
-        <v>23</v>
-      </c>
-      <c r="N35" s="11">
+      <c r="Y35" s="11">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="11">
+        <v>7</v>
+      </c>
+      <c r="AA35" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB35" s="11">
+        <v>8</v>
+      </c>
+      <c r="AC35" s="11">
+        <v>5</v>
+      </c>
+      <c r="AD35" s="11">
+        <v>7</v>
+      </c>
+      <c r="AE35" s="11">
         <v>6</v>
       </c>
-      <c r="O35" s="11">
-        <v>19</v>
-      </c>
-      <c r="P35" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q35" s="11">
+      <c r="AF35" s="11">
+        <v>5</v>
+      </c>
+      <c r="AG35" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH35" s="11">
         <v>13</v>
       </c>
-      <c r="R35" s="11">
-        <v>15</v>
-      </c>
-      <c r="S35" s="11">
-        <v>37</v>
-      </c>
-      <c r="T35" s="11">
-        <v>51</v>
-      </c>
-      <c r="U35" s="11">
-        <v>48</v>
-      </c>
-      <c r="V35" s="11">
-        <v>46</v>
-      </c>
-      <c r="W35" s="11">
-        <v>77</v>
-      </c>
-      <c r="X35" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y35" s="11">
-        <v>4</v>
-      </c>
-      <c r="Z35" s="11">
-        <v>5</v>
-      </c>
-      <c r="AA35" s="11">
-        <v>7</v>
-      </c>
-      <c r="AB35" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC35" s="11">
-        <v>8</v>
-      </c>
-      <c r="AD35" s="11">
-        <v>5</v>
-      </c>
-      <c r="AE35" s="11">
-        <v>7</v>
-      </c>
-      <c r="AF35" s="11">
+      <c r="AI35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="11">
         <v>6</v>
-      </c>
-      <c r="AG35" s="11">
-        <v>5</v>
-      </c>
-      <c r="AH35" s="11">
-        <v>6</v>
-      </c>
-      <c r="AI35" s="11">
-        <v>13</v>
-      </c>
-      <c r="AJ35" s="11">
-        <v>0</v>
       </c>
       <c r="AK35" s="11">
         <v>6</v>
@@ -4725,31 +4725,31 @@
         <v>6</v>
       </c>
       <c r="AM35" s="11">
+        <v>7</v>
+      </c>
+      <c r="AN35" s="11">
         <v>6</v>
       </c>
-      <c r="AN35" s="11">
+      <c r="AO35" s="11">
         <v>7</v>
       </c>
-      <c r="AO35" s="11">
-        <v>6</v>
-      </c>
       <c r="AP35" s="11">
+        <v>13</v>
+      </c>
+      <c r="AQ35" s="11">
         <v>7</v>
       </c>
-      <c r="AQ35" s="11">
-        <v>13</v>
-      </c>
       <c r="AR35" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS35" s="11">
         <v>7</v>
       </c>
-      <c r="AS35" s="11">
-        <v>8</v>
-      </c>
       <c r="AT35" s="11">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AU35" s="11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AV35" s="11">
         <v>0</v>
@@ -4764,10 +4764,10 @@
         <v>0</v>
       </c>
       <c r="AZ35" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA35" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB35" s="11">
         <v>0</v>
@@ -4799,137 +4799,137 @@
       <c r="J36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K36" s="13" t="s">
-        <v>57</v>
+      <c r="K36" s="13">
+        <v>2032</v>
       </c>
       <c r="L36" s="13">
-        <v>2032</v>
+        <v>13101</v>
       </c>
       <c r="M36" s="13">
-        <v>13101</v>
+        <v>13755</v>
       </c>
       <c r="N36" s="13">
-        <v>13755</v>
+        <v>12430</v>
       </c>
       <c r="O36" s="13">
-        <v>12430</v>
+        <v>10515</v>
       </c>
       <c r="P36" s="13">
-        <v>10515</v>
+        <v>10152</v>
       </c>
       <c r="Q36" s="13">
-        <v>10152</v>
+        <v>10861</v>
       </c>
       <c r="R36" s="13">
-        <v>10861</v>
+        <v>10092</v>
       </c>
       <c r="S36" s="13">
-        <v>10092</v>
+        <v>11884</v>
       </c>
       <c r="T36" s="13">
-        <v>11884</v>
+        <v>11992</v>
       </c>
       <c r="U36" s="13">
-        <v>11992</v>
+        <v>13446</v>
       </c>
       <c r="V36" s="13">
-        <v>13446</v>
+        <v>16727</v>
       </c>
       <c r="W36" s="13">
-        <v>16727</v>
+        <v>13395</v>
       </c>
       <c r="X36" s="13">
-        <v>13395</v>
+        <v>9796</v>
       </c>
       <c r="Y36" s="13">
-        <v>9796</v>
+        <v>13281</v>
       </c>
       <c r="Z36" s="13">
-        <v>13281</v>
+        <v>13264</v>
       </c>
       <c r="AA36" s="13">
-        <v>13264</v>
+        <v>13833</v>
       </c>
       <c r="AB36" s="13">
-        <v>13833</v>
+        <v>11275</v>
       </c>
       <c r="AC36" s="13">
-        <v>11275</v>
+        <v>16972</v>
       </c>
       <c r="AD36" s="13">
-        <v>16972</v>
+        <v>20277</v>
       </c>
       <c r="AE36" s="13">
-        <v>20277</v>
+        <v>9815</v>
       </c>
       <c r="AF36" s="13">
-        <v>9815</v>
+        <v>14661</v>
       </c>
       <c r="AG36" s="13">
-        <v>14661</v>
+        <v>12199</v>
       </c>
       <c r="AH36" s="13">
-        <v>12199</v>
+        <v>14504</v>
       </c>
       <c r="AI36" s="13">
-        <v>14504</v>
+        <v>6813</v>
       </c>
       <c r="AJ36" s="13">
-        <v>6813</v>
+        <v>10423</v>
       </c>
       <c r="AK36" s="13">
-        <v>10423</v>
+        <v>22437</v>
       </c>
       <c r="AL36" s="13">
-        <v>22437</v>
+        <v>19668</v>
       </c>
       <c r="AM36" s="13">
-        <v>19668</v>
+        <v>15370</v>
       </c>
       <c r="AN36" s="13">
-        <v>15370</v>
+        <v>12765</v>
       </c>
       <c r="AO36" s="13">
-        <v>12765</v>
+        <v>10898</v>
       </c>
       <c r="AP36" s="13">
-        <v>10898</v>
+        <v>13579</v>
       </c>
       <c r="AQ36" s="13">
-        <v>13579</v>
+        <v>9928</v>
       </c>
       <c r="AR36" s="13">
-        <v>9928</v>
+        <v>11979</v>
       </c>
       <c r="AS36" s="13">
-        <v>11979</v>
+        <v>9617</v>
       </c>
       <c r="AT36" s="13">
-        <v>9617</v>
+        <v>9553</v>
       </c>
       <c r="AU36" s="13">
-        <v>9553</v>
+        <v>1529</v>
       </c>
       <c r="AV36" s="13">
-        <v>1529</v>
+        <v>11211</v>
       </c>
       <c r="AW36" s="13">
-        <v>11211</v>
+        <v>13159</v>
       </c>
       <c r="AX36" s="13">
-        <v>13159</v>
+        <v>6587</v>
       </c>
       <c r="AY36" s="13">
-        <v>6587</v>
+        <v>5800</v>
       </c>
       <c r="AZ36" s="13">
-        <v>5800</v>
+        <v>8431</v>
       </c>
       <c r="BA36" s="13">
-        <v>8431</v>
+        <v>6359</v>
       </c>
       <c r="BB36" s="13">
-        <v>6359</v>
+        <v>10896</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4958,137 +4958,137 @@
       <c r="J37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K37" s="11" t="s">
-        <v>57</v>
+      <c r="K37" s="11">
+        <v>775</v>
       </c>
       <c r="L37" s="11">
-        <v>775</v>
+        <v>2743</v>
       </c>
       <c r="M37" s="11">
-        <v>2743</v>
+        <v>1619</v>
       </c>
       <c r="N37" s="11">
-        <v>1619</v>
+        <v>2664</v>
       </c>
       <c r="O37" s="11">
-        <v>2664</v>
+        <v>2527</v>
       </c>
       <c r="P37" s="11">
-        <v>2527</v>
+        <v>2172</v>
       </c>
       <c r="Q37" s="11">
-        <v>2172</v>
+        <v>2285</v>
       </c>
       <c r="R37" s="11">
-        <v>2285</v>
+        <v>2638</v>
       </c>
       <c r="S37" s="11">
-        <v>2638</v>
+        <v>2974</v>
       </c>
       <c r="T37" s="11">
+        <v>2839</v>
+      </c>
+      <c r="U37" s="11">
+        <v>2957</v>
+      </c>
+      <c r="V37" s="11">
+        <v>3562</v>
+      </c>
+      <c r="W37" s="11">
+        <v>1813</v>
+      </c>
+      <c r="X37" s="11">
+        <v>2494</v>
+      </c>
+      <c r="Y37" s="11">
+        <v>3483</v>
+      </c>
+      <c r="Z37" s="11">
+        <v>2868</v>
+      </c>
+      <c r="AA37" s="11">
+        <v>2396</v>
+      </c>
+      <c r="AB37" s="11">
+        <v>2340</v>
+      </c>
+      <c r="AC37" s="11">
+        <v>3056</v>
+      </c>
+      <c r="AD37" s="11">
+        <v>4129</v>
+      </c>
+      <c r="AE37" s="11">
+        <v>3129</v>
+      </c>
+      <c r="AF37" s="11">
+        <v>3152</v>
+      </c>
+      <c r="AG37" s="11">
+        <v>3085</v>
+      </c>
+      <c r="AH37" s="11">
+        <v>3132</v>
+      </c>
+      <c r="AI37" s="11">
+        <v>1415</v>
+      </c>
+      <c r="AJ37" s="11">
+        <v>2136</v>
+      </c>
+      <c r="AK37" s="11">
+        <v>2727</v>
+      </c>
+      <c r="AL37" s="11">
+        <v>3723</v>
+      </c>
+      <c r="AM37" s="11">
+        <v>2745</v>
+      </c>
+      <c r="AN37" s="11">
+        <v>3453</v>
+      </c>
+      <c r="AO37" s="11">
+        <v>3586</v>
+      </c>
+      <c r="AP37" s="11">
+        <v>3102</v>
+      </c>
+      <c r="AQ37" s="11">
+        <v>3229</v>
+      </c>
+      <c r="AR37" s="11">
+        <v>3088</v>
+      </c>
+      <c r="AS37" s="11">
+        <v>2626</v>
+      </c>
+      <c r="AT37" s="11">
         <v>2974</v>
       </c>
-      <c r="U37" s="11">
-        <v>2839</v>
-      </c>
-      <c r="V37" s="11">
-        <v>2957</v>
-      </c>
-      <c r="W37" s="11">
-        <v>3562</v>
-      </c>
-      <c r="X37" s="11">
-        <v>1813</v>
-      </c>
-      <c r="Y37" s="11">
-        <v>2494</v>
-      </c>
-      <c r="Z37" s="11">
-        <v>3483</v>
-      </c>
-      <c r="AA37" s="11">
-        <v>2868</v>
-      </c>
-      <c r="AB37" s="11">
+      <c r="AU37" s="11">
+        <v>504</v>
+      </c>
+      <c r="AV37" s="11">
+        <v>2423</v>
+      </c>
+      <c r="AW37" s="11">
+        <v>4156</v>
+      </c>
+      <c r="AX37" s="11">
         <v>2396</v>
       </c>
-      <c r="AC37" s="11">
-        <v>2340</v>
-      </c>
-      <c r="AD37" s="11">
-        <v>3056</v>
-      </c>
-      <c r="AE37" s="11">
-        <v>4129</v>
-      </c>
-      <c r="AF37" s="11">
-        <v>3129</v>
-      </c>
-      <c r="AG37" s="11">
-        <v>3152</v>
-      </c>
-      <c r="AH37" s="11">
-        <v>3085</v>
-      </c>
-      <c r="AI37" s="11">
-        <v>3132</v>
-      </c>
-      <c r="AJ37" s="11">
-        <v>1415</v>
-      </c>
-      <c r="AK37" s="11">
-        <v>2136</v>
-      </c>
-      <c r="AL37" s="11">
-        <v>2727</v>
-      </c>
-      <c r="AM37" s="11">
-        <v>3723</v>
-      </c>
-      <c r="AN37" s="11">
-        <v>2745</v>
-      </c>
-      <c r="AO37" s="11">
-        <v>3453</v>
-      </c>
-      <c r="AP37" s="11">
-        <v>3586</v>
-      </c>
-      <c r="AQ37" s="11">
-        <v>3102</v>
-      </c>
-      <c r="AR37" s="11">
-        <v>3229</v>
-      </c>
-      <c r="AS37" s="11">
-        <v>3088</v>
-      </c>
-      <c r="AT37" s="11">
-        <v>2626</v>
-      </c>
-      <c r="AU37" s="11">
-        <v>2974</v>
-      </c>
-      <c r="AV37" s="11">
-        <v>504</v>
-      </c>
-      <c r="AW37" s="11">
-        <v>2423</v>
-      </c>
-      <c r="AX37" s="11">
-        <v>4156</v>
-      </c>
       <c r="AY37" s="11">
-        <v>2396</v>
+        <v>1966</v>
       </c>
       <c r="AZ37" s="11">
-        <v>1966</v>
+        <v>2576</v>
       </c>
       <c r="BA37" s="11">
-        <v>2576</v>
+        <v>2155</v>
       </c>
       <c r="BB37" s="11">
-        <v>2155</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5117,137 +5117,137 @@
       <c r="J38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K38" s="13" t="s">
-        <v>57</v>
+      <c r="K38" s="13">
+        <v>55</v>
       </c>
       <c r="L38" s="13">
-        <v>55</v>
+        <v>236</v>
       </c>
       <c r="M38" s="13">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="N38" s="13">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="O38" s="13">
         <v>166</v>
       </c>
       <c r="P38" s="13">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="Q38" s="13">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="R38" s="13">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="S38" s="13">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="T38" s="13">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="U38" s="13">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="V38" s="13">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="W38" s="13">
-        <v>278</v>
+        <v>101</v>
       </c>
       <c r="X38" s="13">
+        <v>225</v>
+      </c>
+      <c r="Y38" s="13">
+        <v>240</v>
+      </c>
+      <c r="Z38" s="13">
+        <v>206</v>
+      </c>
+      <c r="AA38" s="13">
+        <v>196</v>
+      </c>
+      <c r="AB38" s="13">
+        <v>192</v>
+      </c>
+      <c r="AC38" s="13">
+        <v>208</v>
+      </c>
+      <c r="AD38" s="13">
+        <v>170</v>
+      </c>
+      <c r="AE38" s="13">
+        <v>199</v>
+      </c>
+      <c r="AF38" s="13">
+        <v>192</v>
+      </c>
+      <c r="AG38" s="13">
+        <v>188</v>
+      </c>
+      <c r="AH38" s="13">
+        <v>204</v>
+      </c>
+      <c r="AI38" s="13">
         <v>101</v>
       </c>
-      <c r="Y38" s="13">
-        <v>225</v>
-      </c>
-      <c r="Z38" s="13">
-        <v>240</v>
-      </c>
-      <c r="AA38" s="13">
+      <c r="AJ38" s="13">
+        <v>170</v>
+      </c>
+      <c r="AK38" s="13">
+        <v>159</v>
+      </c>
+      <c r="AL38" s="13">
+        <v>254</v>
+      </c>
+      <c r="AM38" s="13">
+        <v>184</v>
+      </c>
+      <c r="AN38" s="13">
+        <v>178</v>
+      </c>
+      <c r="AO38" s="13">
+        <v>184</v>
+      </c>
+      <c r="AP38" s="13">
         <v>206</v>
       </c>
-      <c r="AB38" s="13">
-        <v>196</v>
-      </c>
-      <c r="AC38" s="13">
-        <v>192</v>
-      </c>
-      <c r="AD38" s="13">
-        <v>208</v>
-      </c>
-      <c r="AE38" s="13">
-        <v>170</v>
-      </c>
-      <c r="AF38" s="13">
-        <v>199</v>
-      </c>
-      <c r="AG38" s="13">
-        <v>192</v>
-      </c>
-      <c r="AH38" s="13">
-        <v>188</v>
-      </c>
-      <c r="AI38" s="13">
-        <v>204</v>
-      </c>
-      <c r="AJ38" s="13">
-        <v>101</v>
-      </c>
-      <c r="AK38" s="13">
-        <v>170</v>
-      </c>
-      <c r="AL38" s="13">
-        <v>159</v>
-      </c>
-      <c r="AM38" s="13">
-        <v>254</v>
-      </c>
-      <c r="AN38" s="13">
-        <v>184</v>
-      </c>
-      <c r="AO38" s="13">
-        <v>178</v>
-      </c>
-      <c r="AP38" s="13">
-        <v>184</v>
-      </c>
       <c r="AQ38" s="13">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="AR38" s="13">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="AS38" s="13">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="AT38" s="13">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="AU38" s="13">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="AV38" s="13">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="AW38" s="13">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="AX38" s="13">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="AY38" s="13">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="AZ38" s="13">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="BA38" s="13">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="BB38" s="13">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5276,137 +5276,137 @@
       <c r="J39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K39" s="11" t="s">
-        <v>57</v>
+      <c r="K39" s="11">
+        <v>214</v>
       </c>
       <c r="L39" s="11">
-        <v>214</v>
+        <v>495</v>
       </c>
       <c r="M39" s="11">
-        <v>495</v>
+        <v>291</v>
       </c>
       <c r="N39" s="11">
-        <v>291</v>
+        <v>364</v>
       </c>
       <c r="O39" s="11">
-        <v>364</v>
+        <v>115</v>
       </c>
       <c r="P39" s="11">
-        <v>115</v>
+        <v>301</v>
       </c>
       <c r="Q39" s="11">
-        <v>301</v>
+        <v>108</v>
       </c>
       <c r="R39" s="11">
+        <v>212</v>
+      </c>
+      <c r="S39" s="11">
+        <v>208</v>
+      </c>
+      <c r="T39" s="11">
+        <v>156</v>
+      </c>
+      <c r="U39" s="11">
+        <v>353</v>
+      </c>
+      <c r="V39" s="11">
+        <v>199</v>
+      </c>
+      <c r="W39" s="11">
+        <v>152</v>
+      </c>
+      <c r="X39" s="11">
+        <v>277</v>
+      </c>
+      <c r="Y39" s="11">
+        <v>123</v>
+      </c>
+      <c r="Z39" s="11">
+        <v>208</v>
+      </c>
+      <c r="AA39" s="11">
+        <v>125</v>
+      </c>
+      <c r="AB39" s="11">
+        <v>104</v>
+      </c>
+      <c r="AC39" s="11">
+        <v>150</v>
+      </c>
+      <c r="AD39" s="11">
+        <v>131</v>
+      </c>
+      <c r="AE39" s="11">
+        <v>156</v>
+      </c>
+      <c r="AF39" s="11">
+        <v>123</v>
+      </c>
+      <c r="AG39" s="11">
+        <v>127</v>
+      </c>
+      <c r="AH39" s="11">
+        <v>121</v>
+      </c>
+      <c r="AI39" s="11">
+        <v>105</v>
+      </c>
+      <c r="AJ39" s="11">
+        <v>239</v>
+      </c>
+      <c r="AK39" s="11">
+        <v>120</v>
+      </c>
+      <c r="AL39" s="11">
+        <v>180</v>
+      </c>
+      <c r="AM39" s="11">
+        <v>121</v>
+      </c>
+      <c r="AN39" s="11">
+        <v>145</v>
+      </c>
+      <c r="AO39" s="11">
+        <v>157</v>
+      </c>
+      <c r="AP39" s="11">
+        <v>183</v>
+      </c>
+      <c r="AQ39" s="11">
         <v>108</v>
       </c>
-      <c r="S39" s="11">
-        <v>212</v>
-      </c>
-      <c r="T39" s="11">
-        <v>208</v>
-      </c>
-      <c r="U39" s="11">
-        <v>156</v>
-      </c>
-      <c r="V39" s="11">
-        <v>353</v>
-      </c>
-      <c r="W39" s="11">
-        <v>199</v>
-      </c>
-      <c r="X39" s="11">
-        <v>152</v>
-      </c>
-      <c r="Y39" s="11">
-        <v>277</v>
-      </c>
-      <c r="Z39" s="11">
-        <v>123</v>
-      </c>
-      <c r="AA39" s="11">
-        <v>208</v>
-      </c>
-      <c r="AB39" s="11">
-        <v>125</v>
-      </c>
-      <c r="AC39" s="11">
-        <v>104</v>
-      </c>
-      <c r="AD39" s="11">
-        <v>150</v>
-      </c>
-      <c r="AE39" s="11">
-        <v>131</v>
-      </c>
-      <c r="AF39" s="11">
-        <v>156</v>
-      </c>
-      <c r="AG39" s="11">
-        <v>123</v>
-      </c>
-      <c r="AH39" s="11">
+      <c r="AR39" s="11">
+        <v>225</v>
+      </c>
+      <c r="AS39" s="11">
+        <v>139</v>
+      </c>
+      <c r="AT39" s="11">
+        <v>173</v>
+      </c>
+      <c r="AU39" s="11">
+        <v>44</v>
+      </c>
+      <c r="AV39" s="11">
         <v>127</v>
       </c>
-      <c r="AI39" s="11">
-        <v>121</v>
-      </c>
-      <c r="AJ39" s="11">
-        <v>105</v>
-      </c>
-      <c r="AK39" s="11">
-        <v>239</v>
-      </c>
-      <c r="AL39" s="11">
-        <v>120</v>
-      </c>
-      <c r="AM39" s="11">
-        <v>180</v>
-      </c>
-      <c r="AN39" s="11">
-        <v>121</v>
-      </c>
-      <c r="AO39" s="11">
-        <v>145</v>
-      </c>
-      <c r="AP39" s="11">
-        <v>157</v>
-      </c>
-      <c r="AQ39" s="11">
-        <v>183</v>
-      </c>
-      <c r="AR39" s="11">
-        <v>108</v>
-      </c>
-      <c r="AS39" s="11">
-        <v>225</v>
-      </c>
-      <c r="AT39" s="11">
-        <v>139</v>
-      </c>
-      <c r="AU39" s="11">
-        <v>173</v>
-      </c>
-      <c r="AV39" s="11">
-        <v>44</v>
-      </c>
       <c r="AW39" s="11">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="AX39" s="11">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="AY39" s="11">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AZ39" s="11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="BA39" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BB39" s="11">
-        <v>100</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5435,137 +5435,137 @@
       <c r="J40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K40" s="13" t="s">
-        <v>57</v>
+      <c r="K40" s="13">
+        <v>58</v>
       </c>
       <c r="L40" s="13">
-        <v>58</v>
+        <v>311</v>
       </c>
       <c r="M40" s="13">
-        <v>311</v>
+        <v>169</v>
       </c>
       <c r="N40" s="13">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="O40" s="13">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="P40" s="13">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="Q40" s="13">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="R40" s="13">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="S40" s="13">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T40" s="13">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="U40" s="13">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="V40" s="13">
-        <v>243</v>
+        <v>381</v>
       </c>
       <c r="W40" s="13">
-        <v>381</v>
+        <v>172</v>
       </c>
       <c r="X40" s="13">
+        <v>223</v>
+      </c>
+      <c r="Y40" s="13">
+        <v>323</v>
+      </c>
+      <c r="Z40" s="13">
+        <v>117</v>
+      </c>
+      <c r="AA40" s="13">
+        <v>89</v>
+      </c>
+      <c r="AB40" s="13">
+        <v>96</v>
+      </c>
+      <c r="AC40" s="13">
+        <v>159</v>
+      </c>
+      <c r="AD40" s="13">
+        <v>153</v>
+      </c>
+      <c r="AE40" s="13">
+        <v>215</v>
+      </c>
+      <c r="AF40" s="13">
+        <v>225</v>
+      </c>
+      <c r="AG40" s="13">
+        <v>219</v>
+      </c>
+      <c r="AH40" s="13">
+        <v>249</v>
+      </c>
+      <c r="AI40" s="13">
+        <v>135</v>
+      </c>
+      <c r="AJ40" s="13">
+        <v>223</v>
+      </c>
+      <c r="AK40" s="13">
+        <v>221</v>
+      </c>
+      <c r="AL40" s="13">
+        <v>285</v>
+      </c>
+      <c r="AM40" s="13">
+        <v>97</v>
+      </c>
+      <c r="AN40" s="13">
+        <v>286</v>
+      </c>
+      <c r="AO40" s="13">
+        <v>210</v>
+      </c>
+      <c r="AP40" s="13">
+        <v>152</v>
+      </c>
+      <c r="AQ40" s="13">
+        <v>268</v>
+      </c>
+      <c r="AR40" s="13">
+        <v>218</v>
+      </c>
+      <c r="AS40" s="13">
+        <v>253</v>
+      </c>
+      <c r="AT40" s="13">
         <v>172</v>
       </c>
-      <c r="Y40" s="13">
-        <v>223</v>
-      </c>
-      <c r="Z40" s="13">
-        <v>323</v>
-      </c>
-      <c r="AA40" s="13">
-        <v>117</v>
-      </c>
-      <c r="AB40" s="13">
-        <v>89</v>
-      </c>
-      <c r="AC40" s="13">
-        <v>96</v>
-      </c>
-      <c r="AD40" s="13">
-        <v>159</v>
-      </c>
-      <c r="AE40" s="13">
-        <v>153</v>
-      </c>
-      <c r="AF40" s="13">
-        <v>215</v>
-      </c>
-      <c r="AG40" s="13">
-        <v>225</v>
-      </c>
-      <c r="AH40" s="13">
-        <v>219</v>
-      </c>
-      <c r="AI40" s="13">
-        <v>249</v>
-      </c>
-      <c r="AJ40" s="13">
-        <v>135</v>
-      </c>
-      <c r="AK40" s="13">
-        <v>223</v>
-      </c>
-      <c r="AL40" s="13">
-        <v>221</v>
-      </c>
-      <c r="AM40" s="13">
-        <v>285</v>
-      </c>
-      <c r="AN40" s="13">
-        <v>97</v>
-      </c>
-      <c r="AO40" s="13">
-        <v>286</v>
-      </c>
-      <c r="AP40" s="13">
+      <c r="AU40" s="13">
+        <v>45</v>
+      </c>
+      <c r="AV40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="13">
         <v>210</v>
       </c>
-      <c r="AQ40" s="13">
-        <v>152</v>
-      </c>
-      <c r="AR40" s="13">
-        <v>268</v>
-      </c>
-      <c r="AS40" s="13">
-        <v>218</v>
-      </c>
-      <c r="AT40" s="13">
-        <v>253</v>
-      </c>
-      <c r="AU40" s="13">
-        <v>172</v>
-      </c>
-      <c r="AV40" s="13">
-        <v>45</v>
-      </c>
-      <c r="AW40" s="13">
-        <v>0</v>
-      </c>
       <c r="AX40" s="13">
-        <v>210</v>
+        <v>398</v>
       </c>
       <c r="AY40" s="13">
-        <v>398</v>
+        <v>302</v>
       </c>
       <c r="AZ40" s="13">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="BA40" s="13">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="BB40" s="13">
-        <v>251</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5594,137 +5594,137 @@
       <c r="J41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K41" s="11" t="s">
-        <v>57</v>
+      <c r="K41" s="11">
+        <v>33</v>
       </c>
       <c r="L41" s="11">
+        <v>118</v>
+      </c>
+      <c r="M41" s="11">
+        <v>56</v>
+      </c>
+      <c r="N41" s="11">
+        <v>106</v>
+      </c>
+      <c r="O41" s="11">
+        <v>100</v>
+      </c>
+      <c r="P41" s="11">
+        <v>79</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>65</v>
+      </c>
+      <c r="R41" s="11">
+        <v>81</v>
+      </c>
+      <c r="S41" s="11">
+        <v>114</v>
+      </c>
+      <c r="T41" s="11">
+        <v>157</v>
+      </c>
+      <c r="U41" s="11">
+        <v>100</v>
+      </c>
+      <c r="V41" s="11">
+        <v>170</v>
+      </c>
+      <c r="W41" s="11">
+        <v>142</v>
+      </c>
+      <c r="X41" s="11">
+        <v>153</v>
+      </c>
+      <c r="Y41" s="11">
+        <v>206</v>
+      </c>
+      <c r="Z41" s="11">
         <v>33</v>
       </c>
-      <c r="M41" s="11">
-        <v>118</v>
-      </c>
-      <c r="N41" s="11">
-        <v>56</v>
-      </c>
-      <c r="O41" s="11">
-        <v>106</v>
-      </c>
-      <c r="P41" s="11">
-        <v>100</v>
-      </c>
-      <c r="Q41" s="11">
-        <v>79</v>
-      </c>
-      <c r="R41" s="11">
-        <v>65</v>
-      </c>
-      <c r="S41" s="11">
-        <v>81</v>
-      </c>
-      <c r="T41" s="11">
-        <v>114</v>
-      </c>
-      <c r="U41" s="11">
-        <v>157</v>
-      </c>
-      <c r="V41" s="11">
-        <v>100</v>
-      </c>
-      <c r="W41" s="11">
-        <v>170</v>
-      </c>
-      <c r="X41" s="11">
-        <v>142</v>
-      </c>
-      <c r="Y41" s="11">
-        <v>153</v>
-      </c>
-      <c r="Z41" s="11">
-        <v>206</v>
-      </c>
       <c r="AA41" s="11">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="AB41" s="11">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AC41" s="11">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="AD41" s="11">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="AE41" s="11">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="AF41" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG41" s="11">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AH41" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AI41" s="11">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="AJ41" s="11">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AK41" s="11">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AL41" s="11">
+        <v>110</v>
+      </c>
+      <c r="AM41" s="11">
+        <v>22</v>
+      </c>
+      <c r="AN41" s="11">
+        <v>87</v>
+      </c>
+      <c r="AO41" s="11">
+        <v>76</v>
+      </c>
+      <c r="AP41" s="11">
+        <v>46</v>
+      </c>
+      <c r="AQ41" s="11">
+        <v>19</v>
+      </c>
+      <c r="AR41" s="11">
+        <v>40</v>
+      </c>
+      <c r="AS41" s="11">
+        <v>32</v>
+      </c>
+      <c r="AT41" s="11">
+        <v>51</v>
+      </c>
+      <c r="AU41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="11">
+        <v>1</v>
+      </c>
+      <c r="AW41" s="11">
         <v>58</v>
       </c>
-      <c r="AM41" s="11">
-        <v>110</v>
-      </c>
-      <c r="AN41" s="11">
-        <v>22</v>
-      </c>
-      <c r="AO41" s="11">
-        <v>87</v>
-      </c>
-      <c r="AP41" s="11">
-        <v>76</v>
-      </c>
-      <c r="AQ41" s="11">
-        <v>46</v>
-      </c>
-      <c r="AR41" s="11">
-        <v>19</v>
-      </c>
-      <c r="AS41" s="11">
-        <v>40</v>
-      </c>
-      <c r="AT41" s="11">
-        <v>32</v>
-      </c>
-      <c r="AU41" s="11">
-        <v>51</v>
-      </c>
-      <c r="AV41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW41" s="11">
-        <v>1</v>
-      </c>
       <c r="AX41" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY41" s="11">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AZ41" s="11">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="BA41" s="11">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="BB41" s="11">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5753,137 +5753,137 @@
       <c r="J42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K42" s="13" t="s">
-        <v>57</v>
+      <c r="K42" s="13">
+        <v>114</v>
       </c>
       <c r="L42" s="13">
-        <v>114</v>
+        <v>398</v>
       </c>
       <c r="M42" s="13">
-        <v>398</v>
+        <v>252</v>
       </c>
       <c r="N42" s="13">
-        <v>252</v>
+        <v>116</v>
       </c>
       <c r="O42" s="13">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="P42" s="13">
-        <v>126</v>
+        <v>316</v>
       </c>
       <c r="Q42" s="13">
+        <v>255</v>
+      </c>
+      <c r="R42" s="13">
+        <v>258</v>
+      </c>
+      <c r="S42" s="13">
+        <v>235</v>
+      </c>
+      <c r="T42" s="13">
+        <v>264</v>
+      </c>
+      <c r="U42" s="13">
+        <v>300</v>
+      </c>
+      <c r="V42" s="13">
+        <v>338</v>
+      </c>
+      <c r="W42" s="13">
+        <v>151</v>
+      </c>
+      <c r="X42" s="13">
+        <v>251</v>
+      </c>
+      <c r="Y42" s="13">
+        <v>315</v>
+      </c>
+      <c r="Z42" s="13">
+        <v>49</v>
+      </c>
+      <c r="AA42" s="13">
+        <v>65</v>
+      </c>
+      <c r="AB42" s="13">
+        <v>86</v>
+      </c>
+      <c r="AC42" s="13">
+        <v>218</v>
+      </c>
+      <c r="AD42" s="13">
+        <v>209</v>
+      </c>
+      <c r="AE42" s="13">
+        <v>315</v>
+      </c>
+      <c r="AF42" s="13">
+        <v>298</v>
+      </c>
+      <c r="AG42" s="13">
+        <v>283</v>
+      </c>
+      <c r="AH42" s="13">
+        <v>282</v>
+      </c>
+      <c r="AI42" s="13">
+        <v>358</v>
+      </c>
+      <c r="AJ42" s="13">
+        <v>337</v>
+      </c>
+      <c r="AK42" s="13">
+        <v>160</v>
+      </c>
+      <c r="AL42" s="13">
+        <v>256</v>
+      </c>
+      <c r="AM42" s="13">
+        <v>290</v>
+      </c>
+      <c r="AN42" s="13">
+        <v>325</v>
+      </c>
+      <c r="AO42" s="13">
+        <v>276</v>
+      </c>
+      <c r="AP42" s="13">
         <v>316</v>
       </c>
-      <c r="R42" s="13">
-        <v>255</v>
-      </c>
-      <c r="S42" s="13">
-        <v>258</v>
-      </c>
-      <c r="T42" s="13">
-        <v>235</v>
-      </c>
-      <c r="U42" s="13">
-        <v>264</v>
-      </c>
-      <c r="V42" s="13">
-        <v>300</v>
-      </c>
-      <c r="W42" s="13">
-        <v>338</v>
-      </c>
-      <c r="X42" s="13">
-        <v>151</v>
-      </c>
-      <c r="Y42" s="13">
-        <v>251</v>
-      </c>
-      <c r="Z42" s="13">
-        <v>315</v>
-      </c>
-      <c r="AA42" s="13">
-        <v>49</v>
-      </c>
-      <c r="AB42" s="13">
-        <v>65</v>
-      </c>
-      <c r="AC42" s="13">
-        <v>86</v>
-      </c>
-      <c r="AD42" s="13">
-        <v>218</v>
-      </c>
-      <c r="AE42" s="13">
-        <v>209</v>
-      </c>
-      <c r="AF42" s="13">
-        <v>315</v>
-      </c>
-      <c r="AG42" s="13">
-        <v>298</v>
-      </c>
-      <c r="AH42" s="13">
-        <v>283</v>
-      </c>
-      <c r="AI42" s="13">
-        <v>282</v>
-      </c>
-      <c r="AJ42" s="13">
-        <v>358</v>
-      </c>
-      <c r="AK42" s="13">
-        <v>337</v>
-      </c>
-      <c r="AL42" s="13">
-        <v>160</v>
-      </c>
-      <c r="AM42" s="13">
-        <v>256</v>
-      </c>
-      <c r="AN42" s="13">
-        <v>290</v>
-      </c>
-      <c r="AO42" s="13">
-        <v>325</v>
-      </c>
-      <c r="AP42" s="13">
-        <v>276</v>
-      </c>
       <c r="AQ42" s="13">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AR42" s="13">
-        <v>328</v>
+        <v>400</v>
       </c>
       <c r="AS42" s="13">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="AT42" s="13">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="AU42" s="13">
-        <v>329</v>
+        <v>19</v>
       </c>
       <c r="AV42" s="13">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="AW42" s="13">
-        <v>195</v>
+        <v>295</v>
       </c>
       <c r="AX42" s="13">
-        <v>295</v>
+        <v>142</v>
       </c>
       <c r="AY42" s="13">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="AZ42" s="13">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="BA42" s="13">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="BB42" s="13">
-        <v>230</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5984,65 +5984,65 @@
       <c r="AH43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI43" s="11" t="s">
-        <v>57</v>
+      <c r="AI43" s="11">
+        <v>1187</v>
       </c>
       <c r="AJ43" s="11">
-        <v>1187</v>
+        <v>3233</v>
       </c>
       <c r="AK43" s="11">
-        <v>3233</v>
+        <v>225</v>
       </c>
       <c r="AL43" s="11">
-        <v>225</v>
+        <v>686</v>
       </c>
       <c r="AM43" s="11">
-        <v>686</v>
+        <v>1017</v>
       </c>
       <c r="AN43" s="11">
-        <v>1017</v>
+        <v>2907</v>
       </c>
       <c r="AO43" s="11">
-        <v>2907</v>
+        <v>886</v>
       </c>
       <c r="AP43" s="11">
-        <v>886</v>
+        <v>3204</v>
       </c>
       <c r="AQ43" s="11">
-        <v>3204</v>
+        <v>5547</v>
       </c>
       <c r="AR43" s="11">
-        <v>5547</v>
+        <v>1891</v>
       </c>
       <c r="AS43" s="11">
-        <v>1891</v>
+        <v>2328</v>
       </c>
       <c r="AT43" s="11">
-        <v>2328</v>
+        <v>4146</v>
       </c>
       <c r="AU43" s="11">
-        <v>4146</v>
+        <v>585</v>
       </c>
       <c r="AV43" s="11">
-        <v>585</v>
+        <v>1002</v>
       </c>
       <c r="AW43" s="11">
-        <v>1002</v>
+        <v>790</v>
       </c>
       <c r="AX43" s="11">
-        <v>790</v>
+        <v>2190</v>
       </c>
       <c r="AY43" s="11">
-        <v>2190</v>
+        <v>152</v>
       </c>
       <c r="AZ43" s="11">
-        <v>152</v>
+        <v>449</v>
       </c>
       <c r="BA43" s="11">
-        <v>449</v>
+        <v>327</v>
       </c>
       <c r="BB43" s="11">
-        <v>327</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -6143,65 +6143,65 @@
       <c r="AH44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI44" s="13" t="s">
-        <v>57</v>
+      <c r="AI44" s="13">
+        <v>186</v>
       </c>
       <c r="AJ44" s="13">
-        <v>186</v>
+        <v>413</v>
       </c>
       <c r="AK44" s="13">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AL44" s="13">
-        <v>415</v>
+        <v>325</v>
       </c>
       <c r="AM44" s="13">
-        <v>325</v>
+        <v>477</v>
       </c>
       <c r="AN44" s="13">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="AO44" s="13">
-        <v>493</v>
+        <v>315</v>
       </c>
       <c r="AP44" s="13">
-        <v>315</v>
+        <v>903</v>
       </c>
       <c r="AQ44" s="13">
-        <v>903</v>
+        <v>605</v>
       </c>
       <c r="AR44" s="13">
-        <v>605</v>
+        <v>1224</v>
       </c>
       <c r="AS44" s="13">
-        <v>1224</v>
+        <v>763</v>
       </c>
       <c r="AT44" s="13">
-        <v>763</v>
+        <v>1199</v>
       </c>
       <c r="AU44" s="13">
-        <v>1199</v>
+        <v>242</v>
       </c>
       <c r="AV44" s="13">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="AW44" s="13">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="AX44" s="13">
-        <v>153</v>
+        <v>266</v>
       </c>
       <c r="AY44" s="13">
-        <v>266</v>
+        <v>368</v>
       </c>
       <c r="AZ44" s="13">
-        <v>368</v>
+        <v>661</v>
       </c>
       <c r="BA44" s="13">
-        <v>661</v>
+        <v>112</v>
       </c>
       <c r="BB44" s="13">
-        <v>112</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6302,56 +6302,56 @@
       <c r="AH45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI45" s="11" t="s">
-        <v>57</v>
+      <c r="AI45" s="11">
+        <v>4</v>
       </c>
       <c r="AJ45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="11">
+        <v>14</v>
+      </c>
+      <c r="AL45" s="11">
+        <v>8</v>
+      </c>
+      <c r="AM45" s="11">
+        <v>23</v>
+      </c>
+      <c r="AN45" s="11">
+        <v>8</v>
+      </c>
+      <c r="AO45" s="11">
+        <v>15</v>
+      </c>
+      <c r="AP45" s="11">
+        <v>11</v>
+      </c>
+      <c r="AQ45" s="11">
+        <v>2</v>
+      </c>
+      <c r="AR45" s="11">
+        <v>13</v>
+      </c>
+      <c r="AS45" s="11">
+        <v>46</v>
+      </c>
+      <c r="AT45" s="11">
+        <v>62</v>
+      </c>
+      <c r="AU45" s="11">
         <v>4</v>
       </c>
-      <c r="AK45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL45" s="11">
-        <v>14</v>
-      </c>
-      <c r="AM45" s="11">
-        <v>8</v>
-      </c>
-      <c r="AN45" s="11">
-        <v>23</v>
-      </c>
-      <c r="AO45" s="11">
-        <v>8</v>
-      </c>
-      <c r="AP45" s="11">
-        <v>15</v>
-      </c>
-      <c r="AQ45" s="11">
-        <v>11</v>
-      </c>
-      <c r="AR45" s="11">
-        <v>2</v>
-      </c>
-      <c r="AS45" s="11">
-        <v>13</v>
-      </c>
-      <c r="AT45" s="11">
-        <v>46</v>
-      </c>
-      <c r="AU45" s="11">
-        <v>62</v>
-      </c>
       <c r="AV45" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW45" s="11">
         <v>0</v>
       </c>
       <c r="AX45" s="11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AY45" s="11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AZ45" s="11">
         <v>1</v>
@@ -6360,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="BB45" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6489,8 +6489,8 @@
       <c r="Y47" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z47" s="17" t="s">
-        <v>57</v>
+      <c r="Z47" s="17">
+        <v>0</v>
       </c>
       <c r="AA47" s="17">
         <v>0</v>
@@ -6703,8 +6703,8 @@
       <c r="Y49" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z49" s="17" t="s">
-        <v>57</v>
+      <c r="Z49" s="17">
+        <v>0</v>
       </c>
       <c r="AA49" s="17">
         <v>0</v>
@@ -6816,136 +6816,136 @@
         <v>0</v>
       </c>
       <c r="K50" s="19">
-        <v>0</v>
+        <v>3359</v>
       </c>
       <c r="L50" s="19">
-        <v>3359</v>
+        <v>17803</v>
       </c>
       <c r="M50" s="19">
-        <v>17803</v>
+        <v>16422</v>
       </c>
       <c r="N50" s="19">
-        <v>16422</v>
+        <v>16062</v>
       </c>
       <c r="O50" s="19">
+        <v>13803</v>
+      </c>
+      <c r="P50" s="19">
+        <v>15544</v>
+      </c>
+      <c r="Q50" s="19">
+        <v>14020</v>
+      </c>
+      <c r="R50" s="19">
+        <v>13898</v>
+      </c>
+      <c r="S50" s="19">
+        <v>17074</v>
+      </c>
+      <c r="T50" s="19">
+        <v>16101</v>
+      </c>
+      <c r="U50" s="19">
+        <v>17893</v>
+      </c>
+      <c r="V50" s="19">
+        <v>22042</v>
+      </c>
+      <c r="W50" s="19">
         <v>16062</v>
       </c>
-      <c r="P50" s="19">
-        <v>13803</v>
-      </c>
-      <c r="Q50" s="19">
-        <v>15544</v>
-      </c>
-      <c r="R50" s="19">
-        <v>14020</v>
-      </c>
-      <c r="S50" s="19">
-        <v>13898</v>
-      </c>
-      <c r="T50" s="19">
-        <v>17074</v>
-      </c>
-      <c r="U50" s="19">
-        <v>16101</v>
-      </c>
-      <c r="V50" s="19">
-        <v>17893</v>
-      </c>
-      <c r="W50" s="19">
-        <v>22042</v>
-      </c>
       <c r="X50" s="19">
-        <v>16062</v>
+        <v>13662</v>
       </c>
       <c r="Y50" s="19">
-        <v>13662</v>
+        <v>18341</v>
       </c>
       <c r="Z50" s="19">
-        <v>18341</v>
+        <v>17530</v>
       </c>
       <c r="AA50" s="19">
-        <v>17530</v>
+        <v>17307</v>
       </c>
       <c r="AB50" s="19">
-        <v>17307</v>
+        <v>14710</v>
       </c>
       <c r="AC50" s="19">
-        <v>14710</v>
+        <v>21890</v>
       </c>
       <c r="AD50" s="19">
-        <v>21890</v>
+        <v>25621</v>
       </c>
       <c r="AE50" s="19">
-        <v>25621</v>
+        <v>14367</v>
       </c>
       <c r="AF50" s="19">
-        <v>14367</v>
+        <v>19272</v>
       </c>
       <c r="AG50" s="19">
-        <v>19272</v>
+        <v>16847</v>
       </c>
       <c r="AH50" s="19">
-        <v>16847</v>
+        <v>19462</v>
       </c>
       <c r="AI50" s="19">
-        <v>19462</v>
+        <v>10564</v>
       </c>
       <c r="AJ50" s="19">
-        <v>10564</v>
+        <v>17770</v>
       </c>
       <c r="AK50" s="19">
-        <v>17770</v>
+        <v>27232</v>
       </c>
       <c r="AL50" s="19">
-        <v>27232</v>
+        <v>26045</v>
       </c>
       <c r="AM50" s="19">
-        <v>26045</v>
+        <v>20600</v>
       </c>
       <c r="AN50" s="19">
-        <v>20600</v>
+        <v>20802</v>
       </c>
       <c r="AO50" s="19">
-        <v>20802</v>
+        <v>16809</v>
       </c>
       <c r="AP50" s="19">
-        <v>16809</v>
+        <v>21908</v>
       </c>
       <c r="AQ50" s="19">
-        <v>21908</v>
+        <v>20590</v>
       </c>
       <c r="AR50" s="19">
-        <v>20590</v>
+        <v>19733</v>
       </c>
       <c r="AS50" s="19">
-        <v>19733</v>
+        <v>16666</v>
       </c>
       <c r="AT50" s="19">
-        <v>16666</v>
+        <v>19284</v>
       </c>
       <c r="AU50" s="19">
-        <v>19284</v>
+        <v>3137</v>
       </c>
       <c r="AV50" s="19">
-        <v>3137</v>
+        <v>15689</v>
       </c>
       <c r="AW50" s="19">
-        <v>15689</v>
+        <v>19970</v>
       </c>
       <c r="AX50" s="19">
-        <v>19970</v>
+        <v>13232</v>
       </c>
       <c r="AY50" s="19">
-        <v>13232</v>
+        <v>9865</v>
       </c>
       <c r="AZ50" s="19">
-        <v>9865</v>
+        <v>13431</v>
       </c>
       <c r="BA50" s="19">
-        <v>13431</v>
+        <v>10154</v>
       </c>
       <c r="BB50" s="19">
-        <v>10154</v>
+        <v>18869</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -7480,8 +7480,8 @@
       <c r="AH57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI57" s="11" t="s">
-        <v>57</v>
+      <c r="AI57" s="11">
+        <v>0</v>
       </c>
       <c r="AJ57" s="11">
         <v>0</v>
@@ -7567,137 +7567,137 @@
       <c r="J58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K58" s="13" t="s">
-        <v>57</v>
+      <c r="K58" s="13">
+        <v>10105</v>
       </c>
       <c r="L58" s="13">
-        <v>10105</v>
+        <v>58183</v>
       </c>
       <c r="M58" s="13">
-        <v>58183</v>
+        <v>16425</v>
       </c>
       <c r="N58" s="13">
-        <v>16425</v>
+        <v>8222</v>
       </c>
       <c r="O58" s="13">
-        <v>8222</v>
+        <v>13079</v>
       </c>
       <c r="P58" s="13">
-        <v>13079</v>
+        <v>36717</v>
       </c>
       <c r="Q58" s="13">
-        <v>36717</v>
+        <v>13454</v>
       </c>
       <c r="R58" s="13">
-        <v>13454</v>
+        <v>29499</v>
       </c>
       <c r="S58" s="13">
-        <v>29499</v>
+        <v>55137</v>
       </c>
       <c r="T58" s="13">
-        <v>55137</v>
+        <v>32544</v>
       </c>
       <c r="U58" s="13">
-        <v>32544</v>
+        <v>39080</v>
       </c>
       <c r="V58" s="13">
-        <v>39080</v>
+        <v>45457</v>
       </c>
       <c r="W58" s="13">
-        <v>45457</v>
+        <v>19752</v>
       </c>
       <c r="X58" s="13">
-        <v>19752</v>
+        <v>358617</v>
       </c>
       <c r="Y58" s="13">
-        <v>358617</v>
+        <v>60401</v>
       </c>
       <c r="Z58" s="13">
-        <v>60401</v>
+        <v>108663</v>
       </c>
       <c r="AA58" s="13">
-        <v>108663</v>
+        <v>94348</v>
       </c>
       <c r="AB58" s="13">
-        <v>94348</v>
+        <v>107444</v>
       </c>
       <c r="AC58" s="13">
-        <v>107444</v>
+        <v>190049</v>
       </c>
       <c r="AD58" s="13">
-        <v>190049</v>
+        <v>134759</v>
       </c>
       <c r="AE58" s="13">
-        <v>134759</v>
+        <v>137151</v>
       </c>
       <c r="AF58" s="13">
-        <v>137151</v>
+        <v>191996</v>
       </c>
       <c r="AG58" s="13">
-        <v>191996</v>
+        <v>246892</v>
       </c>
       <c r="AH58" s="13">
-        <v>246892</v>
+        <v>373913</v>
       </c>
       <c r="AI58" s="13">
-        <v>373913</v>
+        <v>98738</v>
       </c>
       <c r="AJ58" s="13">
-        <v>98738</v>
+        <v>279757</v>
       </c>
       <c r="AK58" s="13">
-        <v>279757</v>
+        <v>356211</v>
       </c>
       <c r="AL58" s="13">
-        <v>356211</v>
+        <v>296506</v>
       </c>
       <c r="AM58" s="13">
-        <v>296506</v>
+        <v>116349</v>
       </c>
       <c r="AN58" s="13">
-        <v>116349</v>
+        <v>58505</v>
       </c>
       <c r="AO58" s="13">
-        <v>58505</v>
+        <v>103229</v>
       </c>
       <c r="AP58" s="13">
-        <v>103229</v>
+        <v>100868</v>
       </c>
       <c r="AQ58" s="13">
-        <v>100868</v>
+        <v>101907</v>
       </c>
       <c r="AR58" s="13">
-        <v>101907</v>
+        <v>149477</v>
       </c>
       <c r="AS58" s="13">
-        <v>149477</v>
+        <v>121351</v>
       </c>
       <c r="AT58" s="13">
-        <v>121351</v>
+        <v>154285</v>
       </c>
       <c r="AU58" s="13">
-        <v>154285</v>
+        <v>71739</v>
       </c>
       <c r="AV58" s="13">
-        <v>71739</v>
+        <v>182398</v>
       </c>
       <c r="AW58" s="13">
-        <v>182398</v>
+        <v>388392</v>
       </c>
       <c r="AX58" s="13">
-        <v>388392</v>
+        <v>438788</v>
       </c>
       <c r="AY58" s="13">
-        <v>438788</v>
+        <v>465754</v>
       </c>
       <c r="AZ58" s="13">
-        <v>465754</v>
+        <v>249163</v>
       </c>
       <c r="BA58" s="13">
-        <v>249163</v>
+        <v>254591</v>
       </c>
       <c r="BB58" s="13">
-        <v>254591</v>
+        <v>358699</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7726,137 +7726,137 @@
       <c r="J59" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K59" s="11" t="s">
-        <v>57</v>
+      <c r="K59" s="11">
+        <v>389</v>
       </c>
       <c r="L59" s="11">
-        <v>389</v>
+        <v>1498</v>
       </c>
       <c r="M59" s="11">
-        <v>1498</v>
+        <v>744</v>
       </c>
       <c r="N59" s="11">
-        <v>744</v>
+        <v>2020</v>
       </c>
       <c r="O59" s="11">
-        <v>2020</v>
+        <v>424</v>
       </c>
       <c r="P59" s="11">
-        <v>424</v>
+        <v>947</v>
       </c>
       <c r="Q59" s="11">
-        <v>947</v>
+        <v>1255</v>
       </c>
       <c r="R59" s="11">
-        <v>1255</v>
+        <v>2990</v>
       </c>
       <c r="S59" s="11">
-        <v>2990</v>
+        <v>3714</v>
       </c>
       <c r="T59" s="11">
-        <v>3714</v>
+        <v>4264</v>
       </c>
       <c r="U59" s="11">
-        <v>4264</v>
+        <v>4401</v>
       </c>
       <c r="V59" s="11">
-        <v>4401</v>
+        <v>5558</v>
       </c>
       <c r="W59" s="11">
-        <v>5558</v>
+        <v>274</v>
       </c>
       <c r="X59" s="11">
-        <v>274</v>
+        <v>197</v>
       </c>
       <c r="Y59" s="11">
-        <v>197</v>
+        <v>61</v>
       </c>
       <c r="Z59" s="11">
-        <v>61</v>
+        <v>1111</v>
       </c>
       <c r="AA59" s="11">
-        <v>1111</v>
+        <v>483</v>
       </c>
       <c r="AB59" s="11">
-        <v>483</v>
+        <v>961</v>
       </c>
       <c r="AC59" s="11">
-        <v>961</v>
+        <v>729</v>
       </c>
       <c r="AD59" s="11">
-        <v>729</v>
+        <v>807</v>
       </c>
       <c r="AE59" s="11">
-        <v>807</v>
+        <v>986</v>
       </c>
       <c r="AF59" s="11">
-        <v>986</v>
+        <v>753</v>
       </c>
       <c r="AG59" s="11">
-        <v>753</v>
+        <v>621</v>
       </c>
       <c r="AH59" s="11">
-        <v>621</v>
+        <v>1690</v>
       </c>
       <c r="AI59" s="11">
-        <v>1690</v>
+        <v>0</v>
       </c>
       <c r="AJ59" s="11">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="AK59" s="11">
-        <v>1010</v>
+        <v>805</v>
       </c>
       <c r="AL59" s="11">
-        <v>805</v>
+        <v>672</v>
       </c>
       <c r="AM59" s="11">
-        <v>672</v>
+        <v>893</v>
       </c>
       <c r="AN59" s="11">
-        <v>893</v>
+        <v>839</v>
       </c>
       <c r="AO59" s="11">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="AP59" s="11">
-        <v>829</v>
+        <v>1694</v>
       </c>
       <c r="AQ59" s="11">
-        <v>1694</v>
+        <v>926</v>
       </c>
       <c r="AR59" s="11">
-        <v>926</v>
+        <v>940</v>
       </c>
       <c r="AS59" s="11">
-        <v>940</v>
+        <v>1009</v>
       </c>
       <c r="AT59" s="11">
-        <v>1009</v>
+        <v>2247</v>
       </c>
       <c r="AU59" s="11">
-        <v>2247</v>
+        <v>17</v>
       </c>
       <c r="AV59" s="11">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AW59" s="11">
+        <v>44</v>
+      </c>
+      <c r="AX59" s="11">
         <v>2</v>
-      </c>
-      <c r="AX59" s="11">
-        <v>44</v>
       </c>
       <c r="AY59" s="11">
         <v>2</v>
       </c>
       <c r="AZ59" s="11">
-        <v>2</v>
+        <v>865</v>
       </c>
       <c r="BA59" s="11">
-        <v>865</v>
+        <v>10</v>
       </c>
       <c r="BB59" s="11">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7885,137 +7885,137 @@
       <c r="J60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K60" s="13" t="s">
-        <v>57</v>
+      <c r="K60" s="13">
+        <v>63911</v>
       </c>
       <c r="L60" s="13">
-        <v>63911</v>
+        <v>557327</v>
       </c>
       <c r="M60" s="13">
-        <v>557327</v>
+        <v>646946</v>
       </c>
       <c r="N60" s="13">
-        <v>646946</v>
+        <v>621464</v>
       </c>
       <c r="O60" s="13">
-        <v>621464</v>
+        <v>522152</v>
       </c>
       <c r="P60" s="13">
-        <v>522152</v>
+        <v>512632</v>
       </c>
       <c r="Q60" s="13">
-        <v>512632</v>
+        <v>545201</v>
       </c>
       <c r="R60" s="13">
-        <v>545201</v>
+        <v>495582</v>
       </c>
       <c r="S60" s="13">
-        <v>495582</v>
+        <v>603547</v>
       </c>
       <c r="T60" s="13">
-        <v>603547</v>
+        <v>586345</v>
       </c>
       <c r="U60" s="13">
-        <v>586345</v>
+        <v>659480</v>
       </c>
       <c r="V60" s="13">
-        <v>659480</v>
+        <v>851039</v>
       </c>
       <c r="W60" s="13">
-        <v>851039</v>
+        <v>675812</v>
       </c>
       <c r="X60" s="13">
-        <v>675812</v>
+        <v>544681</v>
       </c>
       <c r="Y60" s="13">
-        <v>544681</v>
+        <v>1043517</v>
       </c>
       <c r="Z60" s="13">
-        <v>1043517</v>
+        <v>1007923</v>
       </c>
       <c r="AA60" s="13">
-        <v>1007923</v>
+        <v>1019172</v>
       </c>
       <c r="AB60" s="13">
-        <v>1019172</v>
+        <v>854376</v>
       </c>
       <c r="AC60" s="13">
-        <v>854376</v>
+        <v>1293664</v>
       </c>
       <c r="AD60" s="13">
-        <v>1293664</v>
+        <v>1656363</v>
       </c>
       <c r="AE60" s="13">
-        <v>1656363</v>
+        <v>835325</v>
       </c>
       <c r="AF60" s="13">
-        <v>835325</v>
+        <v>1285037</v>
       </c>
       <c r="AG60" s="13">
-        <v>1285037</v>
+        <v>984172</v>
       </c>
       <c r="AH60" s="13">
-        <v>984172</v>
+        <v>1222339</v>
       </c>
       <c r="AI60" s="13">
-        <v>1222339</v>
+        <v>566003</v>
       </c>
       <c r="AJ60" s="13">
-        <v>566003</v>
+        <v>888768</v>
       </c>
       <c r="AK60" s="13">
-        <v>888768</v>
+        <v>1980433</v>
       </c>
       <c r="AL60" s="13">
-        <v>1980433</v>
+        <v>1563890</v>
       </c>
       <c r="AM60" s="13">
-        <v>1563890</v>
+        <v>1208470</v>
       </c>
       <c r="AN60" s="13">
-        <v>1208470</v>
+        <v>996961</v>
       </c>
       <c r="AO60" s="13">
-        <v>996961</v>
+        <v>838674</v>
       </c>
       <c r="AP60" s="13">
-        <v>838674</v>
+        <v>1027046</v>
       </c>
       <c r="AQ60" s="13">
-        <v>1027046</v>
+        <v>758393</v>
       </c>
       <c r="AR60" s="13">
-        <v>758393</v>
+        <v>913473</v>
       </c>
       <c r="AS60" s="13">
-        <v>913473</v>
+        <v>764171</v>
       </c>
       <c r="AT60" s="13">
-        <v>764171</v>
+        <v>788459</v>
       </c>
       <c r="AU60" s="13">
-        <v>788459</v>
+        <v>142009</v>
       </c>
       <c r="AV60" s="13">
-        <v>142009</v>
+        <v>2786230</v>
       </c>
       <c r="AW60" s="13">
-        <v>2786230</v>
+        <v>3315731</v>
       </c>
       <c r="AX60" s="13">
-        <v>3315731</v>
+        <v>1663541</v>
       </c>
       <c r="AY60" s="13">
-        <v>1663541</v>
+        <v>1465062</v>
       </c>
       <c r="AZ60" s="13">
-        <v>1465062</v>
+        <v>2114315</v>
       </c>
       <c r="BA60" s="13">
-        <v>2114315</v>
+        <v>1583838</v>
       </c>
       <c r="BB60" s="13">
-        <v>1583838</v>
+        <v>2708027</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -8044,137 +8044,137 @@
       <c r="J61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K61" s="11" t="s">
-        <v>57</v>
+      <c r="K61" s="11">
+        <v>22795</v>
       </c>
       <c r="L61" s="11">
-        <v>22795</v>
+        <v>135650</v>
       </c>
       <c r="M61" s="11">
-        <v>135650</v>
+        <v>91894</v>
       </c>
       <c r="N61" s="11">
-        <v>91894</v>
+        <v>157230</v>
       </c>
       <c r="O61" s="11">
-        <v>157230</v>
+        <v>147540</v>
       </c>
       <c r="P61" s="11">
-        <v>147540</v>
+        <v>128683</v>
       </c>
       <c r="Q61" s="11">
-        <v>128683</v>
+        <v>137616</v>
       </c>
       <c r="R61" s="11">
-        <v>137616</v>
+        <v>154389</v>
       </c>
       <c r="S61" s="11">
-        <v>154389</v>
+        <v>170076</v>
       </c>
       <c r="T61" s="11">
-        <v>170076</v>
+        <v>163167</v>
       </c>
       <c r="U61" s="11">
-        <v>163167</v>
+        <v>173569</v>
       </c>
       <c r="V61" s="11">
-        <v>173569</v>
+        <v>211943</v>
       </c>
       <c r="W61" s="11">
-        <v>211943</v>
+        <v>103838</v>
       </c>
       <c r="X61" s="11">
-        <v>103838</v>
+        <v>173290</v>
       </c>
       <c r="Y61" s="11">
-        <v>173290</v>
+        <v>320391</v>
       </c>
       <c r="Z61" s="11">
-        <v>320391</v>
+        <v>265065</v>
       </c>
       <c r="AA61" s="11">
-        <v>265065</v>
+        <v>220836</v>
       </c>
       <c r="AB61" s="11">
-        <v>220836</v>
+        <v>216962</v>
       </c>
       <c r="AC61" s="11">
-        <v>216962</v>
+        <v>292803</v>
       </c>
       <c r="AD61" s="11">
-        <v>292803</v>
+        <v>398130</v>
       </c>
       <c r="AE61" s="11">
-        <v>398130</v>
+        <v>314937</v>
       </c>
       <c r="AF61" s="11">
-        <v>314937</v>
+        <v>332294</v>
       </c>
       <c r="AG61" s="11">
-        <v>332294</v>
+        <v>307799</v>
       </c>
       <c r="AH61" s="11">
-        <v>307799</v>
+        <v>322048</v>
       </c>
       <c r="AI61" s="11">
-        <v>322048</v>
+        <v>149373</v>
       </c>
       <c r="AJ61" s="11">
-        <v>149373</v>
+        <v>229490</v>
       </c>
       <c r="AK61" s="11">
-        <v>229490</v>
+        <v>282099</v>
       </c>
       <c r="AL61" s="11">
-        <v>282099</v>
+        <v>377989</v>
       </c>
       <c r="AM61" s="11">
-        <v>377989</v>
+        <v>282479</v>
       </c>
       <c r="AN61" s="11">
-        <v>282479</v>
+        <v>342298</v>
       </c>
       <c r="AO61" s="11">
-        <v>342298</v>
+        <v>361616</v>
       </c>
       <c r="AP61" s="11">
-        <v>361616</v>
+        <v>317010</v>
       </c>
       <c r="AQ61" s="11">
-        <v>317010</v>
+        <v>320709</v>
       </c>
       <c r="AR61" s="11">
-        <v>320709</v>
+        <v>305179</v>
       </c>
       <c r="AS61" s="11">
-        <v>305179</v>
+        <v>276534</v>
       </c>
       <c r="AT61" s="11">
-        <v>276534</v>
+        <v>318270</v>
       </c>
       <c r="AU61" s="11">
-        <v>318270</v>
+        <v>57179</v>
       </c>
       <c r="AV61" s="11">
-        <v>57179</v>
+        <v>743627</v>
       </c>
       <c r="AW61" s="11">
-        <v>743627</v>
+        <v>1302328</v>
       </c>
       <c r="AX61" s="11">
-        <v>1302328</v>
+        <v>781302</v>
       </c>
       <c r="AY61" s="11">
-        <v>781302</v>
+        <v>629672</v>
       </c>
       <c r="AZ61" s="11">
-        <v>629672</v>
+        <v>817617</v>
       </c>
       <c r="BA61" s="11">
-        <v>817617</v>
+        <v>675159</v>
       </c>
       <c r="BB61" s="11">
-        <v>675159</v>
+        <v>715479</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8203,137 +8203,137 @@
       <c r="J62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K62" s="13" t="s">
-        <v>57</v>
+      <c r="K62" s="13">
+        <v>3781</v>
       </c>
       <c r="L62" s="13">
-        <v>3781</v>
+        <v>21845</v>
       </c>
       <c r="M62" s="13">
-        <v>21845</v>
+        <v>20126</v>
       </c>
       <c r="N62" s="13">
-        <v>20126</v>
+        <v>24108</v>
       </c>
       <c r="O62" s="13">
-        <v>24108</v>
+        <v>24175</v>
       </c>
       <c r="P62" s="13">
-        <v>24175</v>
+        <v>18985</v>
       </c>
       <c r="Q62" s="13">
-        <v>18985</v>
+        <v>19745</v>
       </c>
       <c r="R62" s="13">
-        <v>19745</v>
+        <v>21671</v>
       </c>
       <c r="S62" s="13">
-        <v>21671</v>
+        <v>27145</v>
       </c>
       <c r="T62" s="13">
-        <v>27145</v>
+        <v>22710</v>
       </c>
       <c r="U62" s="13">
-        <v>22710</v>
+        <v>24565</v>
       </c>
       <c r="V62" s="13">
-        <v>24565</v>
+        <v>39701</v>
       </c>
       <c r="W62" s="13">
-        <v>39701</v>
+        <v>14729</v>
       </c>
       <c r="X62" s="13">
-        <v>14729</v>
+        <v>50786</v>
       </c>
       <c r="Y62" s="13">
-        <v>50786</v>
+        <v>56395</v>
       </c>
       <c r="Z62" s="13">
-        <v>56395</v>
+        <v>49323</v>
       </c>
       <c r="AA62" s="13">
-        <v>49323</v>
+        <v>47045</v>
       </c>
       <c r="AB62" s="13">
-        <v>47045</v>
+        <v>46193</v>
       </c>
       <c r="AC62" s="13">
-        <v>46193</v>
+        <v>50540</v>
       </c>
       <c r="AD62" s="13">
-        <v>50540</v>
+        <v>43750</v>
       </c>
       <c r="AE62" s="13">
-        <v>43750</v>
+        <v>61447</v>
       </c>
       <c r="AF62" s="13">
-        <v>61447</v>
+        <v>60196</v>
       </c>
       <c r="AG62" s="13">
-        <v>60196</v>
+        <v>56916</v>
       </c>
       <c r="AH62" s="13">
-        <v>56916</v>
+        <v>61798</v>
       </c>
       <c r="AI62" s="13">
-        <v>61798</v>
+        <v>31477</v>
       </c>
       <c r="AJ62" s="13">
-        <v>31477</v>
+        <v>53770</v>
       </c>
       <c r="AK62" s="13">
-        <v>53770</v>
+        <v>47809</v>
       </c>
       <c r="AL62" s="13">
-        <v>47809</v>
+        <v>72368</v>
       </c>
       <c r="AM62" s="13">
-        <v>72368</v>
+        <v>53171</v>
       </c>
       <c r="AN62" s="13">
-        <v>53171</v>
+        <v>52107</v>
       </c>
       <c r="AO62" s="13">
-        <v>52107</v>
+        <v>52967</v>
       </c>
       <c r="AP62" s="13">
-        <v>52967</v>
+        <v>60628</v>
       </c>
       <c r="AQ62" s="13">
-        <v>60628</v>
+        <v>51287</v>
       </c>
       <c r="AR62" s="13">
-        <v>51287</v>
+        <v>48078</v>
       </c>
       <c r="AS62" s="13">
-        <v>48078</v>
+        <v>32370</v>
       </c>
       <c r="AT62" s="13">
-        <v>32370</v>
+        <v>39513</v>
       </c>
       <c r="AU62" s="13">
-        <v>39513</v>
+        <v>6745</v>
       </c>
       <c r="AV62" s="13">
-        <v>6745</v>
+        <v>65975</v>
       </c>
       <c r="AW62" s="13">
-        <v>65975</v>
+        <v>110448</v>
       </c>
       <c r="AX62" s="13">
-        <v>110448</v>
+        <v>138226</v>
       </c>
       <c r="AY62" s="13">
-        <v>138226</v>
+        <v>99021</v>
       </c>
       <c r="AZ62" s="13">
-        <v>99021</v>
+        <v>87340</v>
       </c>
       <c r="BA62" s="13">
-        <v>87340</v>
+        <v>110786</v>
       </c>
       <c r="BB62" s="13">
-        <v>110786</v>
+        <v>116071</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -8362,137 +8362,137 @@
       <c r="J63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K63" s="11" t="s">
-        <v>57</v>
+      <c r="K63" s="11">
+        <v>13857</v>
       </c>
       <c r="L63" s="11">
-        <v>13857</v>
+        <v>28239</v>
       </c>
       <c r="M63" s="11">
-        <v>28239</v>
+        <v>23133</v>
       </c>
       <c r="N63" s="11">
-        <v>23133</v>
+        <v>28294</v>
       </c>
       <c r="O63" s="11">
-        <v>28294</v>
+        <v>10068</v>
       </c>
       <c r="P63" s="11">
-        <v>10068</v>
+        <v>23307</v>
       </c>
       <c r="Q63" s="11">
-        <v>23307</v>
+        <v>10245</v>
       </c>
       <c r="R63" s="11">
-        <v>10245</v>
+        <v>17543</v>
       </c>
       <c r="S63" s="11">
-        <v>17543</v>
+        <v>26571</v>
       </c>
       <c r="T63" s="11">
-        <v>26571</v>
+        <v>14006</v>
       </c>
       <c r="U63" s="11">
-        <v>14006</v>
+        <v>28828</v>
       </c>
       <c r="V63" s="11">
-        <v>28828</v>
+        <v>18724</v>
       </c>
       <c r="W63" s="11">
-        <v>18724</v>
+        <v>12542</v>
       </c>
       <c r="X63" s="11">
-        <v>12542</v>
+        <v>28076</v>
       </c>
       <c r="Y63" s="11">
-        <v>28076</v>
+        <v>19615</v>
       </c>
       <c r="Z63" s="11">
-        <v>19615</v>
+        <v>27484</v>
       </c>
       <c r="AA63" s="11">
-        <v>27484</v>
+        <v>18402</v>
       </c>
       <c r="AB63" s="11">
-        <v>18402</v>
+        <v>16690</v>
       </c>
       <c r="AC63" s="11">
-        <v>16690</v>
+        <v>24946</v>
       </c>
       <c r="AD63" s="11">
-        <v>24946</v>
+        <v>22849</v>
       </c>
       <c r="AE63" s="11">
-        <v>22849</v>
+        <v>27697</v>
       </c>
       <c r="AF63" s="11">
-        <v>27697</v>
+        <v>21504</v>
       </c>
       <c r="AG63" s="11">
-        <v>21504</v>
+        <v>21096</v>
       </c>
       <c r="AH63" s="11">
-        <v>21096</v>
+        <v>20534</v>
       </c>
       <c r="AI63" s="11">
-        <v>20534</v>
+        <v>17970</v>
       </c>
       <c r="AJ63" s="11">
-        <v>17970</v>
+        <v>34127</v>
       </c>
       <c r="AK63" s="11">
-        <v>34127</v>
+        <v>16978</v>
       </c>
       <c r="AL63" s="11">
-        <v>16978</v>
+        <v>31214</v>
       </c>
       <c r="AM63" s="11">
-        <v>31214</v>
+        <v>21035</v>
       </c>
       <c r="AN63" s="11">
-        <v>21035</v>
+        <v>24884</v>
       </c>
       <c r="AO63" s="11">
-        <v>24884</v>
+        <v>27480</v>
       </c>
       <c r="AP63" s="11">
-        <v>27480</v>
+        <v>31785</v>
       </c>
       <c r="AQ63" s="11">
-        <v>31785</v>
+        <v>18679</v>
       </c>
       <c r="AR63" s="11">
-        <v>18679</v>
+        <v>38368</v>
       </c>
       <c r="AS63" s="11">
-        <v>38368</v>
+        <v>24941</v>
       </c>
       <c r="AT63" s="11">
-        <v>24941</v>
+        <v>31023</v>
       </c>
       <c r="AU63" s="11">
-        <v>31023</v>
+        <v>8348</v>
       </c>
       <c r="AV63" s="11">
-        <v>8348</v>
+        <v>50463</v>
       </c>
       <c r="AW63" s="11">
-        <v>50463</v>
+        <v>68547</v>
       </c>
       <c r="AX63" s="11">
-        <v>68547</v>
+        <v>41742</v>
       </c>
       <c r="AY63" s="11">
-        <v>41742</v>
+        <v>39813</v>
       </c>
       <c r="AZ63" s="11">
-        <v>39813</v>
+        <v>42838</v>
       </c>
       <c r="BA63" s="11">
-        <v>42838</v>
+        <v>42030</v>
       </c>
       <c r="BB63" s="11">
-        <v>42030</v>
+        <v>66226</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8521,137 +8521,137 @@
       <c r="J64" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K64" s="13" t="s">
-        <v>57</v>
+      <c r="K64" s="13">
+        <v>1601</v>
       </c>
       <c r="L64" s="13">
-        <v>1601</v>
+        <v>12434</v>
       </c>
       <c r="M64" s="13">
-        <v>12434</v>
+        <v>8070</v>
       </c>
       <c r="N64" s="13">
-        <v>8070</v>
+        <v>8141</v>
       </c>
       <c r="O64" s="13">
-        <v>8141</v>
+        <v>9500</v>
       </c>
       <c r="P64" s="13">
-        <v>9500</v>
+        <v>11708</v>
       </c>
       <c r="Q64" s="13">
-        <v>11708</v>
+        <v>11474</v>
       </c>
       <c r="R64" s="13">
-        <v>11474</v>
+        <v>11915</v>
       </c>
       <c r="S64" s="13">
-        <v>11915</v>
+        <v>12271</v>
       </c>
       <c r="T64" s="13">
-        <v>12271</v>
+        <v>13052</v>
       </c>
       <c r="U64" s="13">
-        <v>13052</v>
+        <v>12668</v>
       </c>
       <c r="V64" s="13">
-        <v>12668</v>
+        <v>19835</v>
       </c>
       <c r="W64" s="13">
-        <v>19835</v>
+        <v>8649</v>
       </c>
       <c r="X64" s="13">
-        <v>8649</v>
+        <v>19558</v>
       </c>
       <c r="Y64" s="13">
-        <v>19558</v>
+        <v>29217</v>
       </c>
       <c r="Z64" s="13">
-        <v>29217</v>
+        <v>10408</v>
       </c>
       <c r="AA64" s="13">
-        <v>10408</v>
+        <v>7859</v>
       </c>
       <c r="AB64" s="13">
-        <v>7859</v>
+        <v>8833</v>
       </c>
       <c r="AC64" s="13">
-        <v>8833</v>
+        <v>14069</v>
       </c>
       <c r="AD64" s="13">
-        <v>14069</v>
+        <v>14195</v>
       </c>
       <c r="AE64" s="13">
-        <v>14195</v>
+        <v>18763</v>
       </c>
       <c r="AF64" s="13">
-        <v>18763</v>
+        <v>19911</v>
       </c>
       <c r="AG64" s="13">
-        <v>19911</v>
+        <v>18547</v>
       </c>
       <c r="AH64" s="13">
-        <v>18547</v>
+        <v>20908</v>
       </c>
       <c r="AI64" s="13">
-        <v>20908</v>
+        <v>11762</v>
       </c>
       <c r="AJ64" s="13">
-        <v>11762</v>
+        <v>19634</v>
       </c>
       <c r="AK64" s="13">
-        <v>19634</v>
+        <v>18274</v>
       </c>
       <c r="AL64" s="13">
-        <v>18274</v>
+        <v>23989</v>
       </c>
       <c r="AM64" s="13">
-        <v>23989</v>
+        <v>8317</v>
       </c>
       <c r="AN64" s="13">
-        <v>8317</v>
+        <v>24266</v>
       </c>
       <c r="AO64" s="13">
-        <v>24266</v>
+        <v>17751</v>
       </c>
       <c r="AP64" s="13">
-        <v>17751</v>
+        <v>12850</v>
       </c>
       <c r="AQ64" s="13">
-        <v>12850</v>
+        <v>22491</v>
       </c>
       <c r="AR64" s="13">
-        <v>22491</v>
+        <v>18410</v>
       </c>
       <c r="AS64" s="13">
-        <v>18410</v>
+        <v>21385</v>
       </c>
       <c r="AT64" s="13">
-        <v>21385</v>
+        <v>14727</v>
       </c>
       <c r="AU64" s="13">
-        <v>14727</v>
+        <v>3724</v>
       </c>
       <c r="AV64" s="13">
-        <v>3724</v>
+        <v>0</v>
       </c>
       <c r="AW64" s="13">
-        <v>0</v>
+        <v>48188</v>
       </c>
       <c r="AX64" s="13">
-        <v>48188</v>
+        <v>91031</v>
       </c>
       <c r="AY64" s="13">
-        <v>91031</v>
+        <v>69274</v>
       </c>
       <c r="AZ64" s="13">
-        <v>69274</v>
+        <v>66077</v>
       </c>
       <c r="BA64" s="13">
-        <v>66077</v>
+        <v>56991</v>
       </c>
       <c r="BB64" s="13">
-        <v>56991</v>
+        <v>69028</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -8680,137 +8680,137 @@
       <c r="J65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K65" s="11" t="s">
-        <v>57</v>
+      <c r="K65" s="11">
+        <v>3395</v>
       </c>
       <c r="L65" s="11">
-        <v>3395</v>
+        <v>13479</v>
       </c>
       <c r="M65" s="11">
-        <v>13479</v>
+        <v>7639</v>
       </c>
       <c r="N65" s="11">
-        <v>7639</v>
+        <v>16499</v>
       </c>
       <c r="O65" s="11">
-        <v>16499</v>
+        <v>15743</v>
       </c>
       <c r="P65" s="11">
-        <v>15743</v>
+        <v>12651</v>
       </c>
       <c r="Q65" s="11">
-        <v>12651</v>
+        <v>10205</v>
       </c>
       <c r="R65" s="11">
-        <v>10205</v>
+        <v>12202</v>
       </c>
       <c r="S65" s="11">
-        <v>12202</v>
+        <v>17466</v>
       </c>
       <c r="T65" s="11">
-        <v>17466</v>
+        <v>22438</v>
       </c>
       <c r="U65" s="11">
-        <v>22438</v>
+        <v>15176</v>
       </c>
       <c r="V65" s="11">
-        <v>15176</v>
+        <v>26237</v>
       </c>
       <c r="W65" s="11">
-        <v>26237</v>
+        <v>20981</v>
       </c>
       <c r="X65" s="11">
-        <v>20981</v>
+        <v>36532</v>
       </c>
       <c r="Y65" s="11">
-        <v>36532</v>
+        <v>57270</v>
       </c>
       <c r="Z65" s="11">
-        <v>57270</v>
+        <v>8316</v>
       </c>
       <c r="AA65" s="11">
-        <v>8316</v>
+        <v>4065</v>
       </c>
       <c r="AB65" s="11">
-        <v>4065</v>
+        <v>2267</v>
       </c>
       <c r="AC65" s="11">
-        <v>2267</v>
+        <v>22808</v>
       </c>
       <c r="AD65" s="11">
-        <v>22808</v>
+        <v>14798</v>
       </c>
       <c r="AE65" s="11">
-        <v>14798</v>
+        <v>20571</v>
       </c>
       <c r="AF65" s="11">
-        <v>20571</v>
+        <v>20717</v>
       </c>
       <c r="AG65" s="11">
-        <v>20717</v>
+        <v>29009</v>
       </c>
       <c r="AH65" s="11">
-        <v>29009</v>
+        <v>29418</v>
       </c>
       <c r="AI65" s="11">
-        <v>29418</v>
+        <v>12655</v>
       </c>
       <c r="AJ65" s="11">
-        <v>12655</v>
+        <v>16567</v>
       </c>
       <c r="AK65" s="11">
-        <v>16567</v>
+        <v>13430</v>
       </c>
       <c r="AL65" s="11">
-        <v>13430</v>
+        <v>29327</v>
       </c>
       <c r="AM65" s="11">
-        <v>29327</v>
+        <v>5865</v>
       </c>
       <c r="AN65" s="11">
-        <v>5865</v>
+        <v>23529</v>
       </c>
       <c r="AO65" s="11">
-        <v>23529</v>
+        <v>20592</v>
       </c>
       <c r="AP65" s="11">
-        <v>20592</v>
+        <v>11910</v>
       </c>
       <c r="AQ65" s="11">
-        <v>11910</v>
+        <v>5129</v>
       </c>
       <c r="AR65" s="11">
-        <v>5129</v>
+        <v>10487</v>
       </c>
       <c r="AS65" s="11">
-        <v>10487</v>
+        <v>8206</v>
       </c>
       <c r="AT65" s="11">
-        <v>8206</v>
+        <v>13577</v>
       </c>
       <c r="AU65" s="11">
-        <v>13577</v>
+        <v>-35</v>
       </c>
       <c r="AV65" s="11">
-        <v>-35</v>
+        <v>322</v>
       </c>
       <c r="AW65" s="11">
-        <v>322</v>
+        <v>40809</v>
       </c>
       <c r="AX65" s="11">
-        <v>40809</v>
+        <v>42542</v>
       </c>
       <c r="AY65" s="11">
-        <v>42542</v>
+        <v>19311</v>
       </c>
       <c r="AZ65" s="11">
-        <v>19311</v>
+        <v>28976</v>
       </c>
       <c r="BA65" s="11">
-        <v>28976</v>
+        <v>17690</v>
       </c>
       <c r="BB65" s="11">
-        <v>17690</v>
+        <v>20910</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8839,137 +8839,137 @@
       <c r="J66" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K66" s="13" t="s">
-        <v>57</v>
+      <c r="K66" s="13">
+        <v>5163</v>
       </c>
       <c r="L66" s="13">
-        <v>5163</v>
+        <v>22633</v>
       </c>
       <c r="M66" s="13">
-        <v>22633</v>
+        <v>18108</v>
       </c>
       <c r="N66" s="13">
-        <v>18108</v>
+        <v>8192</v>
       </c>
       <c r="O66" s="13">
-        <v>8192</v>
+        <v>8763</v>
       </c>
       <c r="P66" s="13">
-        <v>8763</v>
+        <v>21113</v>
       </c>
       <c r="Q66" s="13">
-        <v>21113</v>
+        <v>17352</v>
       </c>
       <c r="R66" s="13">
-        <v>17352</v>
+        <v>17989</v>
       </c>
       <c r="S66" s="13">
-        <v>17989</v>
+        <v>17289</v>
       </c>
       <c r="T66" s="13">
-        <v>17289</v>
+        <v>18715</v>
       </c>
       <c r="U66" s="13">
-        <v>18715</v>
+        <v>21398</v>
       </c>
       <c r="V66" s="13">
-        <v>21398</v>
+        <v>25273</v>
       </c>
       <c r="W66" s="13">
-        <v>25273</v>
+        <v>11317</v>
       </c>
       <c r="X66" s="13">
-        <v>11317</v>
+        <v>20259</v>
       </c>
       <c r="Y66" s="13">
-        <v>20259</v>
+        <v>35526</v>
       </c>
       <c r="Z66" s="13">
-        <v>35526</v>
+        <v>5167</v>
       </c>
       <c r="AA66" s="13">
-        <v>5167</v>
+        <v>6007</v>
       </c>
       <c r="AB66" s="13">
-        <v>6007</v>
+        <v>8693</v>
       </c>
       <c r="AC66" s="13">
-        <v>8693</v>
+        <v>23786</v>
       </c>
       <c r="AD66" s="13">
-        <v>23786</v>
+        <v>25057</v>
       </c>
       <c r="AE66" s="13">
-        <v>25057</v>
+        <v>37003</v>
       </c>
       <c r="AF66" s="13">
-        <v>37003</v>
+        <v>32383</v>
       </c>
       <c r="AG66" s="13">
-        <v>32383</v>
+        <v>28459</v>
       </c>
       <c r="AH66" s="13">
-        <v>28459</v>
+        <v>30165</v>
       </c>
       <c r="AI66" s="13">
-        <v>30165</v>
+        <v>37837</v>
       </c>
       <c r="AJ66" s="13">
-        <v>37837</v>
+        <v>36353</v>
       </c>
       <c r="AK66" s="13">
-        <v>36353</v>
+        <v>15787</v>
       </c>
       <c r="AL66" s="13">
-        <v>15787</v>
+        <v>29392</v>
       </c>
       <c r="AM66" s="13">
-        <v>29392</v>
+        <v>34864</v>
       </c>
       <c r="AN66" s="13">
-        <v>34864</v>
+        <v>38488</v>
       </c>
       <c r="AO66" s="13">
-        <v>38488</v>
+        <v>32693</v>
       </c>
       <c r="AP66" s="13">
-        <v>32693</v>
+        <v>37838</v>
       </c>
       <c r="AQ66" s="13">
-        <v>37838</v>
+        <v>38609</v>
       </c>
       <c r="AR66" s="13">
-        <v>38609</v>
+        <v>48351</v>
       </c>
       <c r="AS66" s="13">
-        <v>48351</v>
+        <v>43690</v>
       </c>
       <c r="AT66" s="13">
-        <v>43690</v>
+        <v>41390</v>
       </c>
       <c r="AU66" s="13">
-        <v>41390</v>
+        <v>1729</v>
       </c>
       <c r="AV66" s="13">
-        <v>1729</v>
+        <v>65314</v>
       </c>
       <c r="AW66" s="13">
-        <v>65314</v>
+        <v>98534</v>
       </c>
       <c r="AX66" s="13">
-        <v>98534</v>
+        <v>48013</v>
       </c>
       <c r="AY66" s="13">
-        <v>48013</v>
+        <v>70118</v>
       </c>
       <c r="AZ66" s="13">
-        <v>70118</v>
+        <v>80911</v>
       </c>
       <c r="BA66" s="13">
-        <v>80911</v>
+        <v>74330</v>
       </c>
       <c r="BB66" s="13">
-        <v>74330</v>
+        <v>90419</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -9070,65 +9070,65 @@
       <c r="AH67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI67" s="11" t="s">
-        <v>57</v>
+      <c r="AI67" s="11">
+        <v>116620</v>
       </c>
       <c r="AJ67" s="11">
-        <v>116620</v>
+        <v>309568</v>
       </c>
       <c r="AK67" s="11">
-        <v>309568</v>
+        <v>21173</v>
       </c>
       <c r="AL67" s="11">
-        <v>21173</v>
+        <v>66694</v>
       </c>
       <c r="AM67" s="11">
-        <v>66694</v>
+        <v>99832</v>
       </c>
       <c r="AN67" s="11">
-        <v>99832</v>
+        <v>341273</v>
       </c>
       <c r="AO67" s="11">
-        <v>341273</v>
+        <v>97524</v>
       </c>
       <c r="AP67" s="11">
-        <v>97524</v>
+        <v>302812</v>
       </c>
       <c r="AQ67" s="11">
-        <v>302812</v>
+        <v>520476</v>
       </c>
       <c r="AR67" s="11">
-        <v>520476</v>
+        <v>183036</v>
       </c>
       <c r="AS67" s="11">
-        <v>183036</v>
+        <v>210854</v>
       </c>
       <c r="AT67" s="11">
-        <v>210854</v>
+        <v>368803</v>
       </c>
       <c r="AU67" s="11">
-        <v>368803</v>
+        <v>50271</v>
       </c>
       <c r="AV67" s="11">
-        <v>50271</v>
+        <v>87798</v>
       </c>
       <c r="AW67" s="11">
-        <v>87798</v>
+        <v>85431</v>
       </c>
       <c r="AX67" s="11">
-        <v>85431</v>
+        <v>210620</v>
       </c>
       <c r="AY67" s="11">
-        <v>210620</v>
+        <v>29453</v>
       </c>
       <c r="AZ67" s="11">
-        <v>29453</v>
+        <v>86442</v>
       </c>
       <c r="BA67" s="11">
-        <v>86442</v>
+        <v>60226</v>
       </c>
       <c r="BB67" s="11">
-        <v>60226</v>
+        <v>262478</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9229,65 +9229,65 @@
       <c r="AH68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI68" s="13" t="s">
-        <v>57</v>
+      <c r="AI68" s="13">
+        <v>18758</v>
       </c>
       <c r="AJ68" s="13">
-        <v>18758</v>
+        <v>40047</v>
       </c>
       <c r="AK68" s="13">
-        <v>40047</v>
+        <v>38955</v>
       </c>
       <c r="AL68" s="13">
-        <v>38955</v>
+        <v>32052</v>
       </c>
       <c r="AM68" s="13">
-        <v>32052</v>
+        <v>46364</v>
       </c>
       <c r="AN68" s="13">
-        <v>46364</v>
+        <v>54176</v>
       </c>
       <c r="AO68" s="13">
-        <v>54176</v>
+        <v>38711</v>
       </c>
       <c r="AP68" s="13">
-        <v>38711</v>
+        <v>94801</v>
       </c>
       <c r="AQ68" s="13">
-        <v>94801</v>
+        <v>57500</v>
       </c>
       <c r="AR68" s="13">
-        <v>57500</v>
+        <v>124393</v>
       </c>
       <c r="AS68" s="13">
-        <v>124393</v>
+        <v>76660</v>
       </c>
       <c r="AT68" s="13">
-        <v>76660</v>
+        <v>111746</v>
       </c>
       <c r="AU68" s="13">
-        <v>111746</v>
+        <v>21156</v>
       </c>
       <c r="AV68" s="13">
-        <v>21156</v>
+        <v>0</v>
       </c>
       <c r="AW68" s="13">
-        <v>0</v>
+        <v>17497</v>
       </c>
       <c r="AX68" s="13">
-        <v>17497</v>
+        <v>25520</v>
       </c>
       <c r="AY68" s="13">
-        <v>25520</v>
+        <v>46649</v>
       </c>
       <c r="AZ68" s="13">
-        <v>46649</v>
+        <v>119878</v>
       </c>
       <c r="BA68" s="13">
-        <v>119878</v>
+        <v>21157</v>
       </c>
       <c r="BB68" s="13">
-        <v>21157</v>
+        <v>446434</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -9388,65 +9388,65 @@
       <c r="AH69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI69" s="11" t="s">
-        <v>57</v>
+      <c r="AI69" s="11">
+        <v>943</v>
       </c>
       <c r="AJ69" s="11">
-        <v>943</v>
+        <v>0</v>
       </c>
       <c r="AK69" s="11">
-        <v>0</v>
+        <v>4324</v>
       </c>
       <c r="AL69" s="11">
-        <v>4324</v>
+        <v>2050</v>
       </c>
       <c r="AM69" s="11">
-        <v>2050</v>
+        <v>6310</v>
       </c>
       <c r="AN69" s="11">
-        <v>6310</v>
+        <v>2026</v>
       </c>
       <c r="AO69" s="11">
-        <v>2026</v>
+        <v>3966</v>
       </c>
       <c r="AP69" s="11">
-        <v>3966</v>
+        <v>1146</v>
       </c>
       <c r="AQ69" s="11">
-        <v>1146</v>
+        <v>168</v>
       </c>
       <c r="AR69" s="11">
-        <v>168</v>
+        <v>4244</v>
       </c>
       <c r="AS69" s="11">
-        <v>4244</v>
+        <v>13410</v>
       </c>
       <c r="AT69" s="11">
-        <v>13410</v>
+        <v>17769</v>
       </c>
       <c r="AU69" s="11">
-        <v>17769</v>
+        <v>308</v>
       </c>
       <c r="AV69" s="11">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="AW69" s="11">
         <v>0</v>
       </c>
       <c r="AX69" s="11">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="AY69" s="11">
-        <v>1920</v>
+        <v>54</v>
       </c>
       <c r="AZ69" s="11">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="BA69" s="11">
-        <v>220</v>
+        <v>282</v>
       </c>
       <c r="BB69" s="11">
-        <v>282</v>
+        <v>634</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -9577,8 +9577,8 @@
       <c r="Y71" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z71" s="17" t="s">
-        <v>57</v>
+      <c r="Z71" s="17">
+        <v>0</v>
       </c>
       <c r="AA71" s="17">
         <v>0</v>
@@ -9793,8 +9793,8 @@
       <c r="Y73" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z73" s="17" t="s">
-        <v>57</v>
+      <c r="Z73" s="17">
+        <v>0</v>
       </c>
       <c r="AA73" s="17">
         <v>0</v>
@@ -10009,8 +10009,8 @@
       <c r="Y75" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z75" s="11" t="s">
-        <v>57</v>
+      <c r="Z75" s="11">
+        <v>0</v>
       </c>
       <c r="AA75" s="11">
         <v>0</v>
@@ -10122,136 +10122,136 @@
         <v>0</v>
       </c>
       <c r="K76" s="19">
-        <v>0</v>
+        <v>124997</v>
       </c>
       <c r="L76" s="19">
-        <v>124997</v>
+        <v>851288</v>
       </c>
       <c r="M76" s="19">
-        <v>851288</v>
+        <v>833085</v>
       </c>
       <c r="N76" s="19">
-        <v>833085</v>
+        <v>874170</v>
       </c>
       <c r="O76" s="19">
-        <v>874170</v>
+        <v>751444</v>
       </c>
       <c r="P76" s="19">
-        <v>751444</v>
+        <v>766743</v>
       </c>
       <c r="Q76" s="19">
-        <v>766743</v>
+        <v>766547</v>
       </c>
       <c r="R76" s="19">
-        <v>766547</v>
+        <v>763780</v>
       </c>
       <c r="S76" s="19">
-        <v>763780</v>
+        <v>933216</v>
       </c>
       <c r="T76" s="19">
-        <v>933216</v>
+        <v>877241</v>
       </c>
       <c r="U76" s="19">
-        <v>877241</v>
+        <v>979165</v>
       </c>
       <c r="V76" s="19">
-        <v>979165</v>
+        <v>1243767</v>
       </c>
       <c r="W76" s="19">
-        <v>1243767</v>
+        <v>867894</v>
       </c>
       <c r="X76" s="19">
-        <v>867894</v>
+        <v>1231996</v>
       </c>
       <c r="Y76" s="19">
-        <v>1231996</v>
+        <v>1622393</v>
       </c>
       <c r="Z76" s="19">
-        <v>1622393</v>
+        <v>1483460</v>
       </c>
       <c r="AA76" s="19">
-        <v>1483460</v>
+        <v>1418217</v>
       </c>
       <c r="AB76" s="19">
-        <v>1418217</v>
+        <v>1262419</v>
       </c>
       <c r="AC76" s="19">
-        <v>1262419</v>
+        <v>1913394</v>
       </c>
       <c r="AD76" s="19">
-        <v>1913394</v>
+        <v>2310708</v>
       </c>
       <c r="AE76" s="19">
-        <v>2310708</v>
+        <v>1453880</v>
       </c>
       <c r="AF76" s="19">
-        <v>1453880</v>
+        <v>1964791</v>
       </c>
       <c r="AG76" s="19">
-        <v>1964791</v>
+        <v>1693511</v>
       </c>
       <c r="AH76" s="19">
-        <v>1693511</v>
+        <v>2082813</v>
       </c>
       <c r="AI76" s="19">
-        <v>2082813</v>
+        <v>1062136</v>
       </c>
       <c r="AJ76" s="19">
-        <v>1062136</v>
+        <v>1909091</v>
       </c>
       <c r="AK76" s="19">
-        <v>1909091</v>
+        <v>2796278</v>
       </c>
       <c r="AL76" s="19">
-        <v>2796278</v>
+        <v>2526143</v>
       </c>
       <c r="AM76" s="19">
-        <v>2526143</v>
+        <v>1883949</v>
       </c>
       <c r="AN76" s="19">
-        <v>1883949</v>
+        <v>1959352</v>
       </c>
       <c r="AO76" s="19">
-        <v>1959352</v>
+        <v>1596032</v>
       </c>
       <c r="AP76" s="19">
-        <v>1596032</v>
+        <v>2000388</v>
       </c>
       <c r="AQ76" s="19">
-        <v>2000388</v>
+        <v>1896274</v>
       </c>
       <c r="AR76" s="19">
-        <v>1896274</v>
+        <v>1844436</v>
       </c>
       <c r="AS76" s="19">
-        <v>1844436</v>
+        <v>1594581</v>
       </c>
       <c r="AT76" s="19">
-        <v>1594581</v>
+        <v>1901809</v>
       </c>
       <c r="AU76" s="19">
-        <v>1901809</v>
+        <v>363190</v>
       </c>
       <c r="AV76" s="19">
-        <v>363190</v>
+        <v>3982129</v>
       </c>
       <c r="AW76" s="19">
-        <v>3982129</v>
+        <v>5475949</v>
       </c>
       <c r="AX76" s="19">
-        <v>5475949</v>
+        <v>3483247</v>
       </c>
       <c r="AY76" s="19">
-        <v>3483247</v>
+        <v>2934183</v>
       </c>
       <c r="AZ76" s="19">
-        <v>2934183</v>
+        <v>3694642</v>
       </c>
       <c r="BA76" s="19">
-        <v>3694642</v>
+        <v>2897090</v>
       </c>
       <c r="BB76" s="19">
-        <v>2897090</v>
+        <v>4854409</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -10714,137 +10714,137 @@
       <c r="J83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K83" s="11" t="s">
-        <v>57</v>
+      <c r="K83" s="11">
+        <v>136554054</v>
       </c>
       <c r="L83" s="11">
-        <v>136554054</v>
+        <v>153923280</v>
       </c>
       <c r="M83" s="11">
-        <v>153923280</v>
+        <v>165909091</v>
       </c>
       <c r="N83" s="11">
-        <v>165909091</v>
+        <v>200536585</v>
       </c>
       <c r="O83" s="11">
-        <v>200536585</v>
+        <v>207603175</v>
       </c>
       <c r="P83" s="11">
-        <v>207603175</v>
+        <v>17022253</v>
       </c>
       <c r="Q83" s="11">
-        <v>17022253</v>
+        <v>168175000</v>
       </c>
       <c r="R83" s="11">
-        <v>168175000</v>
+        <v>146761194</v>
       </c>
       <c r="S83" s="11">
-        <v>146761194</v>
+        <v>46217100</v>
       </c>
       <c r="T83" s="11">
-        <v>46217100</v>
+        <v>147927273</v>
       </c>
       <c r="U83" s="11">
-        <v>147927273</v>
+        <v>142109091</v>
       </c>
       <c r="V83" s="11">
-        <v>142109091</v>
+        <v>146635484</v>
       </c>
       <c r="W83" s="11">
-        <v>146635484</v>
+        <v>147402985</v>
       </c>
       <c r="X83" s="11">
-        <v>147402985</v>
+        <v>1500489540</v>
       </c>
       <c r="Y83" s="11">
-        <v>1500489540</v>
+        <v>165482192</v>
       </c>
       <c r="Z83" s="11">
-        <v>165482192</v>
+        <v>139669666</v>
       </c>
       <c r="AA83" s="11">
-        <v>139669666</v>
+        <v>162949914</v>
       </c>
       <c r="AB83" s="11">
-        <v>162949914</v>
+        <v>180275168</v>
       </c>
       <c r="AC83" s="11">
-        <v>180275168</v>
+        <v>184334627</v>
       </c>
       <c r="AD83" s="11">
-        <v>184334627</v>
+        <v>274458248</v>
       </c>
       <c r="AE83" s="11">
-        <v>274458248</v>
+        <v>305458797</v>
       </c>
       <c r="AF83" s="11">
-        <v>305458797</v>
+        <v>359543071</v>
       </c>
       <c r="AG83" s="11">
-        <v>359543071</v>
+        <v>396295345</v>
       </c>
       <c r="AH83" s="11">
-        <v>396295345</v>
+        <v>446196897</v>
       </c>
       <c r="AI83" s="11">
-        <v>446196897</v>
+        <v>476995169</v>
       </c>
       <c r="AJ83" s="11">
-        <v>476995169</v>
+        <v>535932950</v>
       </c>
       <c r="AK83" s="11">
-        <v>535932950</v>
+        <v>516247826</v>
       </c>
       <c r="AL83" s="11">
-        <v>516247826</v>
+        <v>545047794</v>
       </c>
       <c r="AM83" s="11">
-        <v>545047794</v>
+        <v>471048583</v>
       </c>
       <c r="AN83" s="11">
-        <v>471048583</v>
+        <v>392651007</v>
       </c>
       <c r="AO83" s="11">
-        <v>392651007</v>
+        <v>518738693</v>
       </c>
       <c r="AP83" s="11">
-        <v>518738693</v>
+        <v>522632124</v>
       </c>
       <c r="AQ83" s="11">
-        <v>522632124</v>
+        <v>275424324</v>
       </c>
       <c r="AR83" s="11">
-        <v>275424324</v>
+        <v>312060543</v>
       </c>
       <c r="AS83" s="11">
-        <v>312060543</v>
+        <v>304902010</v>
       </c>
       <c r="AT83" s="11">
-        <v>304902010</v>
+        <v>319430642</v>
       </c>
       <c r="AU83" s="11">
-        <v>319430642</v>
+        <v>491363014</v>
       </c>
       <c r="AV83" s="11">
-        <v>491363014</v>
+        <v>286339089</v>
       </c>
       <c r="AW83" s="11">
-        <v>286339089</v>
+        <v>466256903</v>
       </c>
       <c r="AX83" s="11">
-        <v>466256903</v>
+        <v>495805650</v>
       </c>
       <c r="AY83" s="11">
-        <v>495805650</v>
+        <v>577858561</v>
       </c>
       <c r="AZ83" s="11">
-        <v>577858561</v>
+        <v>485697856</v>
       </c>
       <c r="BA83" s="11">
-        <v>485697856</v>
+        <v>578615909</v>
       </c>
       <c r="BB83" s="11">
-        <v>578615909</v>
+        <v>589965461</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -10873,117 +10873,117 @@
       <c r="J84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K84" s="13" t="s">
-        <v>57</v>
+      <c r="K84" s="13">
+        <v>97250000</v>
       </c>
       <c r="L84" s="13">
-        <v>97250000</v>
+        <v>65130435</v>
       </c>
       <c r="M84" s="13">
-        <v>65130435</v>
+        <v>124000000</v>
       </c>
       <c r="N84" s="13">
-        <v>124000000</v>
+        <v>106315789</v>
       </c>
       <c r="O84" s="13">
-        <v>106315789</v>
+        <v>42400000</v>
       </c>
       <c r="P84" s="13">
-        <v>42400000</v>
+        <v>72846154</v>
       </c>
       <c r="Q84" s="13">
-        <v>72846154</v>
+        <v>83666667</v>
       </c>
       <c r="R84" s="13">
-        <v>83666667</v>
+        <v>80810811</v>
       </c>
       <c r="S84" s="13">
-        <v>80810811</v>
+        <v>72823529</v>
       </c>
       <c r="T84" s="13">
-        <v>72823529</v>
+        <v>88833333</v>
       </c>
       <c r="U84" s="13">
-        <v>88833333</v>
+        <v>95673913</v>
       </c>
       <c r="V84" s="13">
-        <v>95673913</v>
+        <v>72181818</v>
       </c>
       <c r="W84" s="13">
-        <v>72181818</v>
+        <v>137000000</v>
       </c>
       <c r="X84" s="13">
-        <v>137000000</v>
+        <v>49250000</v>
       </c>
       <c r="Y84" s="13">
-        <v>49250000</v>
+        <v>12200000</v>
       </c>
       <c r="Z84" s="13">
-        <v>12200000</v>
+        <v>158714286</v>
       </c>
       <c r="AA84" s="13">
-        <v>158714286</v>
+        <v>161000000</v>
       </c>
       <c r="AB84" s="13">
-        <v>161000000</v>
+        <v>120125000</v>
       </c>
       <c r="AC84" s="13">
-        <v>120125000</v>
+        <v>145800000</v>
       </c>
       <c r="AD84" s="13">
-        <v>145800000</v>
+        <v>115285714</v>
       </c>
       <c r="AE84" s="13">
-        <v>115285714</v>
+        <v>164333333</v>
       </c>
       <c r="AF84" s="13">
-        <v>164333333</v>
+        <v>150600000</v>
       </c>
       <c r="AG84" s="13">
-        <v>150600000</v>
+        <v>103500000</v>
       </c>
       <c r="AH84" s="13">
-        <v>103500000</v>
-      </c>
-      <c r="AI84" s="13">
         <v>130000000</v>
       </c>
-      <c r="AJ84" s="13" t="s">
-        <v>57</v>
+      <c r="AI84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ84" s="13">
+        <v>168333333</v>
       </c>
       <c r="AK84" s="13">
-        <v>168333333</v>
+        <v>134166667</v>
       </c>
       <c r="AL84" s="13">
-        <v>134166667</v>
+        <v>112000000</v>
       </c>
       <c r="AM84" s="13">
-        <v>112000000</v>
+        <v>127571429</v>
       </c>
       <c r="AN84" s="13">
-        <v>127571429</v>
+        <v>139833333</v>
       </c>
       <c r="AO84" s="13">
-        <v>139833333</v>
+        <v>118428571</v>
       </c>
       <c r="AP84" s="13">
-        <v>118428571</v>
+        <v>130307692</v>
       </c>
       <c r="AQ84" s="13">
-        <v>130307692</v>
+        <v>132285714</v>
       </c>
       <c r="AR84" s="13">
-        <v>132285714</v>
+        <v>117500000</v>
       </c>
       <c r="AS84" s="13">
-        <v>117500000</v>
+        <v>144142857</v>
       </c>
       <c r="AT84" s="13">
-        <v>144142857</v>
-      </c>
-      <c r="AU84" s="13">
         <v>149800000</v>
       </c>
+      <c r="AU84" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AV84" s="13" t="s">
         <v>57</v>
       </c>
@@ -10996,11 +10996,11 @@
       <c r="AY84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ84" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA84" s="13">
+      <c r="AZ84" s="13">
         <v>432500000</v>
+      </c>
+      <c r="BA84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB84" s="13" t="s">
         <v>57</v>
@@ -11032,137 +11032,137 @@
       <c r="J85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K85" s="11" t="s">
-        <v>57</v>
+      <c r="K85" s="11">
+        <v>31452264</v>
       </c>
       <c r="L85" s="11">
-        <v>31452264</v>
+        <v>42540798</v>
       </c>
       <c r="M85" s="11">
-        <v>42540798</v>
+        <v>47033515</v>
       </c>
       <c r="N85" s="11">
-        <v>47033515</v>
+        <v>49997104</v>
       </c>
       <c r="O85" s="11">
-        <v>49997104</v>
+        <v>49657822</v>
       </c>
       <c r="P85" s="11">
-        <v>49657822</v>
+        <v>50495666</v>
       </c>
       <c r="Q85" s="11">
-        <v>50495666</v>
+        <v>50198048</v>
       </c>
       <c r="R85" s="11">
-        <v>50198048</v>
+        <v>49106421</v>
       </c>
       <c r="S85" s="11">
-        <v>49106421</v>
+        <v>50786520</v>
       </c>
       <c r="T85" s="11">
-        <v>50786520</v>
+        <v>48894680</v>
       </c>
       <c r="U85" s="11">
-        <v>48894680</v>
+        <v>49046557</v>
       </c>
       <c r="V85" s="11">
-        <v>49046557</v>
+        <v>50878161</v>
       </c>
       <c r="W85" s="11">
-        <v>50878161</v>
+        <v>50452557</v>
       </c>
       <c r="X85" s="11">
-        <v>50452557</v>
+        <v>55602389</v>
       </c>
       <c r="Y85" s="11">
-        <v>55602389</v>
+        <v>78572171</v>
       </c>
       <c r="Z85" s="11">
-        <v>78572171</v>
+        <v>75989370</v>
       </c>
       <c r="AA85" s="11">
-        <v>75989370</v>
+        <v>73676860</v>
       </c>
       <c r="AB85" s="11">
-        <v>73676860</v>
+        <v>75776142</v>
       </c>
       <c r="AC85" s="11">
-        <v>75776142</v>
+        <v>76223427</v>
       </c>
       <c r="AD85" s="11">
-        <v>76223427</v>
+        <v>81686788</v>
       </c>
       <c r="AE85" s="11">
-        <v>81686788</v>
+        <v>85106979</v>
       </c>
       <c r="AF85" s="11">
-        <v>85106979</v>
+        <v>87650024</v>
       </c>
       <c r="AG85" s="11">
-        <v>87650024</v>
+        <v>80676449</v>
       </c>
       <c r="AH85" s="11">
-        <v>80676449</v>
+        <v>84275993</v>
       </c>
       <c r="AI85" s="11">
-        <v>84275993</v>
+        <v>83076912</v>
       </c>
       <c r="AJ85" s="11">
-        <v>83076912</v>
+        <v>85269884</v>
       </c>
       <c r="AK85" s="11">
-        <v>85269884</v>
+        <v>88266390</v>
       </c>
       <c r="AL85" s="11">
-        <v>88266390</v>
+        <v>79514440</v>
       </c>
       <c r="AM85" s="11">
-        <v>79514440</v>
+        <v>78625244</v>
       </c>
       <c r="AN85" s="11">
-        <v>78625244</v>
+        <v>78101136</v>
       </c>
       <c r="AO85" s="11">
-        <v>78101136</v>
+        <v>76956689</v>
       </c>
       <c r="AP85" s="11">
-        <v>76956689</v>
+        <v>75634877</v>
       </c>
       <c r="AQ85" s="11">
-        <v>75634877</v>
+        <v>76389303</v>
       </c>
       <c r="AR85" s="11">
-        <v>76389303</v>
+        <v>76256198</v>
       </c>
       <c r="AS85" s="11">
-        <v>76256198</v>
+        <v>79460435</v>
       </c>
       <c r="AT85" s="11">
-        <v>79460435</v>
+        <v>82535225</v>
       </c>
       <c r="AU85" s="11">
-        <v>82535225</v>
+        <v>92877044</v>
       </c>
       <c r="AV85" s="11">
-        <v>92877044</v>
+        <v>248526447</v>
       </c>
       <c r="AW85" s="11">
-        <v>248526447</v>
+        <v>251974390</v>
       </c>
       <c r="AX85" s="11">
-        <v>251974390</v>
+        <v>252549112</v>
       </c>
       <c r="AY85" s="11">
-        <v>252549112</v>
+        <v>252596897</v>
       </c>
       <c r="AZ85" s="11">
-        <v>252596897</v>
+        <v>250778674</v>
       </c>
       <c r="BA85" s="11">
-        <v>250778674</v>
+        <v>249070294</v>
       </c>
       <c r="BB85" s="11">
-        <v>249070294</v>
+        <v>248534049</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11191,137 +11191,137 @@
       <c r="J86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K86" s="13" t="s">
-        <v>57</v>
+      <c r="K86" s="13">
+        <v>29412903</v>
       </c>
       <c r="L86" s="13">
-        <v>29412903</v>
+        <v>49453153</v>
       </c>
       <c r="M86" s="13">
-        <v>49453153</v>
+        <v>56759728</v>
       </c>
       <c r="N86" s="13">
-        <v>56759728</v>
+        <v>59020270</v>
       </c>
       <c r="O86" s="13">
-        <v>59020270</v>
+        <v>58385437</v>
       </c>
       <c r="P86" s="13">
-        <v>58385437</v>
+        <v>59246317</v>
       </c>
       <c r="Q86" s="13">
-        <v>59246317</v>
+        <v>60225821</v>
       </c>
       <c r="R86" s="13">
-        <v>60225821</v>
+        <v>58525019</v>
       </c>
       <c r="S86" s="13">
-        <v>58525019</v>
+        <v>57187626</v>
       </c>
       <c r="T86" s="13">
-        <v>57187626</v>
+        <v>57473406</v>
       </c>
       <c r="U86" s="13">
-        <v>57473406</v>
+        <v>58697667</v>
       </c>
       <c r="V86" s="13">
-        <v>58697667</v>
+        <v>59501123</v>
       </c>
       <c r="W86" s="13">
-        <v>59501123</v>
+        <v>57274131</v>
       </c>
       <c r="X86" s="13">
-        <v>57274131</v>
+        <v>69482759</v>
       </c>
       <c r="Y86" s="13">
-        <v>69482759</v>
+        <v>91987080</v>
       </c>
       <c r="Z86" s="13">
-        <v>91987080</v>
+        <v>92421548</v>
       </c>
       <c r="AA86" s="13">
-        <v>92421548</v>
+        <v>92168614</v>
       </c>
       <c r="AB86" s="13">
-        <v>92168614</v>
+        <v>92718803</v>
       </c>
       <c r="AC86" s="13">
-        <v>92718803</v>
+        <v>95812500</v>
       </c>
       <c r="AD86" s="13">
-        <v>95812500</v>
+        <v>96422863</v>
       </c>
       <c r="AE86" s="13">
-        <v>96422863</v>
+        <v>100651007</v>
       </c>
       <c r="AF86" s="13">
-        <v>100651007</v>
+        <v>105423223</v>
       </c>
       <c r="AG86" s="13">
-        <v>105423223</v>
+        <v>99772771</v>
       </c>
       <c r="AH86" s="13">
-        <v>99772771</v>
+        <v>102825032</v>
       </c>
       <c r="AI86" s="13">
-        <v>102825032</v>
+        <v>105563958</v>
       </c>
       <c r="AJ86" s="13">
-        <v>105563958</v>
+        <v>107439139</v>
       </c>
       <c r="AK86" s="13">
-        <v>107439139</v>
+        <v>103446645</v>
       </c>
       <c r="AL86" s="13">
-        <v>103446645</v>
+        <v>101528069</v>
       </c>
       <c r="AM86" s="13">
-        <v>101528069</v>
+        <v>102906740</v>
       </c>
       <c r="AN86" s="13">
-        <v>102906740</v>
+        <v>99130611</v>
       </c>
       <c r="AO86" s="13">
-        <v>99130611</v>
+        <v>100841049</v>
       </c>
       <c r="AP86" s="13">
-        <v>100841049</v>
+        <v>102195358</v>
       </c>
       <c r="AQ86" s="13">
-        <v>102195358</v>
+        <v>99321462</v>
       </c>
       <c r="AR86" s="13">
-        <v>99321462</v>
+        <v>98827396</v>
       </c>
       <c r="AS86" s="13">
-        <v>98827396</v>
+        <v>105306169</v>
       </c>
       <c r="AT86" s="13">
-        <v>105306169</v>
+        <v>107017485</v>
       </c>
       <c r="AU86" s="13">
-        <v>107017485</v>
+        <v>113450397</v>
       </c>
       <c r="AV86" s="13">
-        <v>113450397</v>
+        <v>306903426</v>
       </c>
       <c r="AW86" s="13">
-        <v>306903426</v>
+        <v>313360924</v>
       </c>
       <c r="AX86" s="13">
-        <v>313360924</v>
+        <v>326085977</v>
       </c>
       <c r="AY86" s="13">
-        <v>326085977</v>
+        <v>320280773</v>
       </c>
       <c r="AZ86" s="13">
-        <v>320280773</v>
+        <v>317397904</v>
       </c>
       <c r="BA86" s="13">
-        <v>317397904</v>
+        <v>313298840</v>
       </c>
       <c r="BB86" s="13">
-        <v>313298840</v>
+        <v>317990667</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -11350,137 +11350,137 @@
       <c r="J87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K87" s="11" t="s">
-        <v>57</v>
+      <c r="K87" s="11">
+        <v>68745455</v>
       </c>
       <c r="L87" s="11">
-        <v>68745455</v>
+        <v>92563559</v>
       </c>
       <c r="M87" s="11">
-        <v>92563559</v>
+        <v>115005714</v>
       </c>
       <c r="N87" s="11">
-        <v>115005714</v>
+        <v>145228916</v>
       </c>
       <c r="O87" s="11">
-        <v>145228916</v>
+        <v>145632530</v>
       </c>
       <c r="P87" s="11">
-        <v>145632530</v>
+        <v>146038462</v>
       </c>
       <c r="Q87" s="11">
-        <v>146038462</v>
+        <v>146259259</v>
       </c>
       <c r="R87" s="11">
-        <v>146259259</v>
+        <v>144473333</v>
       </c>
       <c r="S87" s="11">
-        <v>144473333</v>
+        <v>146729730</v>
       </c>
       <c r="T87" s="11">
-        <v>146729730</v>
+        <v>137636364</v>
       </c>
       <c r="U87" s="11">
-        <v>137636364</v>
+        <v>141994220</v>
       </c>
       <c r="V87" s="11">
-        <v>141994220</v>
+        <v>142809353</v>
       </c>
       <c r="W87" s="11">
-        <v>142809353</v>
+        <v>145831683</v>
       </c>
       <c r="X87" s="11">
-        <v>145831683</v>
+        <v>225715556</v>
       </c>
       <c r="Y87" s="11">
-        <v>225715556</v>
+        <v>234979167</v>
       </c>
       <c r="Z87" s="11">
-        <v>234979167</v>
+        <v>239432039</v>
       </c>
       <c r="AA87" s="11">
-        <v>239432039</v>
+        <v>240025510</v>
       </c>
       <c r="AB87" s="11">
-        <v>240025510</v>
+        <v>240588542</v>
       </c>
       <c r="AC87" s="11">
-        <v>240588542</v>
+        <v>242980769</v>
       </c>
       <c r="AD87" s="11">
-        <v>242980769</v>
+        <v>257352941</v>
       </c>
       <c r="AE87" s="11">
-        <v>257352941</v>
+        <v>308778894</v>
       </c>
       <c r="AF87" s="11">
-        <v>308778894</v>
+        <v>313520833</v>
       </c>
       <c r="AG87" s="11">
-        <v>313520833</v>
+        <v>302744681</v>
       </c>
       <c r="AH87" s="11">
-        <v>302744681</v>
+        <v>302931373</v>
       </c>
       <c r="AI87" s="11">
-        <v>302931373</v>
+        <v>311653465</v>
       </c>
       <c r="AJ87" s="11">
-        <v>311653465</v>
+        <v>316294118</v>
       </c>
       <c r="AK87" s="11">
-        <v>316294118</v>
+        <v>300685535</v>
       </c>
       <c r="AL87" s="11">
-        <v>300685535</v>
+        <v>284913386</v>
       </c>
       <c r="AM87" s="11">
-        <v>284913386</v>
+        <v>288972826</v>
       </c>
       <c r="AN87" s="11">
-        <v>288972826</v>
+        <v>292735955</v>
       </c>
       <c r="AO87" s="11">
-        <v>292735955</v>
+        <v>287864130</v>
       </c>
       <c r="AP87" s="11">
-        <v>287864130</v>
+        <v>294310680</v>
       </c>
       <c r="AQ87" s="11">
-        <v>294310680</v>
+        <v>286519553</v>
       </c>
       <c r="AR87" s="11">
-        <v>286519553</v>
+        <v>286178571</v>
       </c>
       <c r="AS87" s="11">
-        <v>286178571</v>
+        <v>305377358</v>
       </c>
       <c r="AT87" s="11">
-        <v>305377358</v>
+        <v>311125984</v>
       </c>
       <c r="AU87" s="11">
-        <v>311125984</v>
+        <v>355000000</v>
       </c>
       <c r="AV87" s="11">
-        <v>355000000</v>
+        <v>709408602</v>
       </c>
       <c r="AW87" s="11">
-        <v>709408602</v>
+        <v>731443709</v>
       </c>
       <c r="AX87" s="11">
-        <v>731443709</v>
+        <v>727505263</v>
       </c>
       <c r="AY87" s="11">
-        <v>727505263</v>
+        <v>728095588</v>
       </c>
       <c r="AZ87" s="11">
-        <v>728095588</v>
+        <v>727833333</v>
       </c>
       <c r="BA87" s="11">
-        <v>727833333</v>
+        <v>724091503</v>
       </c>
       <c r="BB87" s="11">
-        <v>724091503</v>
+        <v>720937888</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
@@ -11509,137 +11509,137 @@
       <c r="J88" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K88" s="13" t="s">
-        <v>57</v>
+      <c r="K88" s="13">
+        <v>64752336</v>
       </c>
       <c r="L88" s="13">
-        <v>64752336</v>
+        <v>57048485</v>
       </c>
       <c r="M88" s="13">
-        <v>57048485</v>
+        <v>79494845</v>
       </c>
       <c r="N88" s="13">
-        <v>79494845</v>
+        <v>77730769</v>
       </c>
       <c r="O88" s="13">
-        <v>77730769</v>
+        <v>87547826</v>
       </c>
       <c r="P88" s="13">
-        <v>87547826</v>
+        <v>77431894</v>
       </c>
       <c r="Q88" s="13">
-        <v>77431894</v>
+        <v>94861111</v>
       </c>
       <c r="R88" s="13">
-        <v>94861111</v>
+        <v>82750000</v>
       </c>
       <c r="S88" s="13">
-        <v>82750000</v>
+        <v>127745192</v>
       </c>
       <c r="T88" s="13">
-        <v>127745192</v>
+        <v>89782051</v>
       </c>
       <c r="U88" s="13">
-        <v>89782051</v>
+        <v>81665722</v>
       </c>
       <c r="V88" s="13">
-        <v>81665722</v>
+        <v>94090452</v>
       </c>
       <c r="W88" s="13">
-        <v>94090452</v>
+        <v>82513158</v>
       </c>
       <c r="X88" s="13">
-        <v>82513158</v>
+        <v>101357401</v>
       </c>
       <c r="Y88" s="13">
-        <v>101357401</v>
+        <v>159471545</v>
       </c>
       <c r="Z88" s="13">
-        <v>159471545</v>
+        <v>132134615</v>
       </c>
       <c r="AA88" s="13">
-        <v>132134615</v>
+        <v>147216000</v>
       </c>
       <c r="AB88" s="13">
-        <v>147216000</v>
+        <v>160480769</v>
       </c>
       <c r="AC88" s="13">
-        <v>160480769</v>
+        <v>166306667</v>
       </c>
       <c r="AD88" s="13">
-        <v>166306667</v>
+        <v>174419847</v>
       </c>
       <c r="AE88" s="13">
-        <v>174419847</v>
+        <v>177544872</v>
       </c>
       <c r="AF88" s="13">
-        <v>177544872</v>
+        <v>174829268</v>
       </c>
       <c r="AG88" s="13">
-        <v>174829268</v>
+        <v>166110236</v>
       </c>
       <c r="AH88" s="13">
-        <v>166110236</v>
+        <v>169702479</v>
       </c>
       <c r="AI88" s="13">
-        <v>169702479</v>
+        <v>171142857</v>
       </c>
       <c r="AJ88" s="13">
-        <v>171142857</v>
+        <v>142790795</v>
       </c>
       <c r="AK88" s="13">
-        <v>142790795</v>
+        <v>141483333</v>
       </c>
       <c r="AL88" s="13">
-        <v>141483333</v>
+        <v>173411111</v>
       </c>
       <c r="AM88" s="13">
-        <v>173411111</v>
+        <v>173842975</v>
       </c>
       <c r="AN88" s="13">
-        <v>173842975</v>
+        <v>171613793</v>
       </c>
       <c r="AO88" s="13">
-        <v>171613793</v>
+        <v>175031847</v>
       </c>
       <c r="AP88" s="13">
-        <v>175031847</v>
+        <v>173688525</v>
       </c>
       <c r="AQ88" s="13">
-        <v>173688525</v>
+        <v>172953704</v>
       </c>
       <c r="AR88" s="13">
-        <v>172953704</v>
+        <v>170524444</v>
       </c>
       <c r="AS88" s="13">
-        <v>170524444</v>
+        <v>179431655</v>
       </c>
       <c r="AT88" s="13">
-        <v>179431655</v>
+        <v>179323699</v>
       </c>
       <c r="AU88" s="13">
-        <v>179323699</v>
+        <v>189727273</v>
       </c>
       <c r="AV88" s="13">
-        <v>189727273</v>
+        <v>397346457</v>
       </c>
       <c r="AW88" s="13">
-        <v>397346457</v>
+        <v>415436364</v>
       </c>
       <c r="AX88" s="13">
-        <v>415436364</v>
+        <v>425938776</v>
       </c>
       <c r="AY88" s="13">
-        <v>425938776</v>
+        <v>432750000</v>
       </c>
       <c r="AZ88" s="13">
-        <v>432750000</v>
+        <v>424138614</v>
       </c>
       <c r="BA88" s="13">
-        <v>424138614</v>
+        <v>420300000</v>
       </c>
       <c r="BB88" s="13">
-        <v>420300000</v>
+        <v>416515723</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -11668,137 +11668,137 @@
       <c r="J89" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K89" s="11" t="s">
-        <v>57</v>
+      <c r="K89" s="11">
+        <v>27603448</v>
       </c>
       <c r="L89" s="11">
-        <v>27603448</v>
+        <v>39980707</v>
       </c>
       <c r="M89" s="11">
-        <v>39980707</v>
+        <v>47751479</v>
       </c>
       <c r="N89" s="11">
-        <v>47751479</v>
+        <v>52185897</v>
       </c>
       <c r="O89" s="11">
-        <v>52185897</v>
+        <v>52486188</v>
       </c>
       <c r="P89" s="11">
-        <v>52486188</v>
+        <v>52267857</v>
       </c>
       <c r="Q89" s="11">
-        <v>52267857</v>
+        <v>53120370</v>
       </c>
       <c r="R89" s="11">
-        <v>53120370</v>
+        <v>52030568</v>
       </c>
       <c r="S89" s="11">
-        <v>52030568</v>
+        <v>53352174</v>
       </c>
       <c r="T89" s="11">
-        <v>53352174</v>
+        <v>50200000</v>
       </c>
       <c r="U89" s="11">
-        <v>50200000</v>
+        <v>52131687</v>
       </c>
       <c r="V89" s="11">
-        <v>52131687</v>
+        <v>52060367</v>
       </c>
       <c r="W89" s="11">
-        <v>52060367</v>
+        <v>50284884</v>
       </c>
       <c r="X89" s="11">
-        <v>50284884</v>
+        <v>87704036</v>
       </c>
       <c r="Y89" s="11">
-        <v>87704036</v>
+        <v>90455108</v>
       </c>
       <c r="Z89" s="11">
-        <v>90455108</v>
+        <v>88957265</v>
       </c>
       <c r="AA89" s="11">
-        <v>88957265</v>
+        <v>88303371</v>
       </c>
       <c r="AB89" s="11">
-        <v>88303371</v>
+        <v>92010417</v>
       </c>
       <c r="AC89" s="11">
-        <v>92010417</v>
+        <v>88484277</v>
       </c>
       <c r="AD89" s="11">
-        <v>88484277</v>
+        <v>92777778</v>
       </c>
       <c r="AE89" s="11">
-        <v>92777778</v>
+        <v>87269767</v>
       </c>
       <c r="AF89" s="11">
-        <v>87269767</v>
+        <v>88493333</v>
       </c>
       <c r="AG89" s="11">
-        <v>88493333</v>
+        <v>84689498</v>
       </c>
       <c r="AH89" s="11">
-        <v>84689498</v>
+        <v>83967871</v>
       </c>
       <c r="AI89" s="11">
-        <v>83967871</v>
+        <v>87125926</v>
       </c>
       <c r="AJ89" s="11">
-        <v>87125926</v>
+        <v>88044843</v>
       </c>
       <c r="AK89" s="11">
-        <v>88044843</v>
+        <v>82687783</v>
       </c>
       <c r="AL89" s="11">
-        <v>82687783</v>
+        <v>84171930</v>
       </c>
       <c r="AM89" s="11">
-        <v>84171930</v>
+        <v>85742268</v>
       </c>
       <c r="AN89" s="11">
-        <v>85742268</v>
+        <v>84846154</v>
       </c>
       <c r="AO89" s="11">
-        <v>84846154</v>
+        <v>84528571</v>
       </c>
       <c r="AP89" s="11">
-        <v>84528571</v>
+        <v>84539474</v>
       </c>
       <c r="AQ89" s="11">
-        <v>84539474</v>
+        <v>83921642</v>
       </c>
       <c r="AR89" s="11">
-        <v>83921642</v>
+        <v>84449541</v>
       </c>
       <c r="AS89" s="11">
-        <v>84449541</v>
+        <v>84525692</v>
       </c>
       <c r="AT89" s="11">
-        <v>84525692</v>
+        <v>85622093</v>
       </c>
       <c r="AU89" s="11">
-        <v>85622093</v>
-      </c>
-      <c r="AV89" s="11">
         <v>82755556</v>
       </c>
-      <c r="AW89" s="11" t="s">
-        <v>57</v>
+      <c r="AV89" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW89" s="11">
+        <v>229466667</v>
       </c>
       <c r="AX89" s="11">
-        <v>229466667</v>
+        <v>228721106</v>
       </c>
       <c r="AY89" s="11">
-        <v>228721106</v>
+        <v>229384106</v>
       </c>
       <c r="AZ89" s="11">
-        <v>229384106</v>
+        <v>228640138</v>
       </c>
       <c r="BA89" s="11">
-        <v>228640138</v>
+        <v>227055777</v>
       </c>
       <c r="BB89" s="11">
-        <v>227055777</v>
+        <v>226321311</v>
       </c>
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.3">
@@ -11827,137 +11827,137 @@
       <c r="J90" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K90" s="13" t="s">
-        <v>57</v>
+      <c r="K90" s="13">
+        <v>102878788</v>
       </c>
       <c r="L90" s="13">
-        <v>102878788</v>
+        <v>114228814</v>
       </c>
       <c r="M90" s="13">
-        <v>114228814</v>
+        <v>136410714</v>
       </c>
       <c r="N90" s="13">
-        <v>136410714</v>
+        <v>155650943</v>
       </c>
       <c r="O90" s="13">
-        <v>155650943</v>
+        <v>157430000</v>
       </c>
       <c r="P90" s="13">
-        <v>157430000</v>
+        <v>160139241</v>
       </c>
       <c r="Q90" s="13">
-        <v>160139241</v>
+        <v>157000000</v>
       </c>
       <c r="R90" s="13">
-        <v>157000000</v>
+        <v>150641975</v>
       </c>
       <c r="S90" s="13">
-        <v>150641975</v>
+        <v>153210526</v>
       </c>
       <c r="T90" s="13">
-        <v>153210526</v>
+        <v>142917197</v>
       </c>
       <c r="U90" s="13">
-        <v>142917197</v>
+        <v>151760000</v>
       </c>
       <c r="V90" s="13">
-        <v>151760000</v>
+        <v>154335294</v>
       </c>
       <c r="W90" s="13">
-        <v>154335294</v>
+        <v>147753521</v>
       </c>
       <c r="X90" s="13">
-        <v>147753521</v>
+        <v>238771242</v>
       </c>
       <c r="Y90" s="13">
-        <v>238771242</v>
+        <v>278009709</v>
       </c>
       <c r="Z90" s="13">
-        <v>278009709</v>
+        <v>252000000</v>
       </c>
       <c r="AA90" s="13">
-        <v>252000000</v>
+        <v>193571429</v>
       </c>
       <c r="AB90" s="13">
-        <v>193571429</v>
+        <v>174384615</v>
       </c>
       <c r="AC90" s="13">
-        <v>174384615</v>
+        <v>250637363</v>
       </c>
       <c r="AD90" s="13">
-        <v>250637363</v>
+        <v>274037037</v>
       </c>
       <c r="AE90" s="13">
-        <v>274037037</v>
+        <v>247843373</v>
       </c>
       <c r="AF90" s="13">
-        <v>247843373</v>
+        <v>252646341</v>
       </c>
       <c r="AG90" s="13">
-        <v>252646341</v>
+        <v>247940171</v>
       </c>
       <c r="AH90" s="13">
-        <v>247940171</v>
+        <v>247210084</v>
       </c>
       <c r="AI90" s="13">
-        <v>247210084</v>
+        <v>238773585</v>
       </c>
       <c r="AJ90" s="13">
-        <v>238773585</v>
+        <v>243632353</v>
       </c>
       <c r="AK90" s="13">
-        <v>243632353</v>
+        <v>231551724</v>
       </c>
       <c r="AL90" s="13">
-        <v>231551724</v>
+        <v>266609091</v>
       </c>
       <c r="AM90" s="13">
-        <v>266609091</v>
+        <v>266590909</v>
       </c>
       <c r="AN90" s="13">
-        <v>266590909</v>
+        <v>270448276</v>
       </c>
       <c r="AO90" s="13">
-        <v>270448276</v>
+        <v>270947368</v>
       </c>
       <c r="AP90" s="13">
-        <v>270947368</v>
+        <v>258913043</v>
       </c>
       <c r="AQ90" s="13">
-        <v>258913043</v>
+        <v>269947368</v>
       </c>
       <c r="AR90" s="13">
-        <v>269947368</v>
+        <v>262175000</v>
       </c>
       <c r="AS90" s="13">
-        <v>262175000</v>
+        <v>256437500</v>
       </c>
       <c r="AT90" s="13">
-        <v>256437500</v>
-      </c>
-      <c r="AU90" s="13">
         <v>266215686</v>
       </c>
-      <c r="AV90" s="13" t="s">
-        <v>57</v>
+      <c r="AU90" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV90" s="13">
+        <v>322000000</v>
       </c>
       <c r="AW90" s="13">
-        <v>322000000</v>
+        <v>703603448</v>
       </c>
       <c r="AX90" s="13">
-        <v>703603448</v>
+        <v>709033333</v>
       </c>
       <c r="AY90" s="13">
-        <v>709033333</v>
+        <v>715222222</v>
       </c>
       <c r="AZ90" s="13">
-        <v>715222222</v>
+        <v>706731707</v>
       </c>
       <c r="BA90" s="13">
-        <v>706731707</v>
+        <v>680384615</v>
       </c>
       <c r="BB90" s="13">
-        <v>680384615</v>
+        <v>697000000</v>
       </c>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.3">
@@ -11986,137 +11986,137 @@
       <c r="J91" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K91" s="11" t="s">
-        <v>57</v>
+      <c r="K91" s="11">
+        <v>45289474</v>
       </c>
       <c r="L91" s="11">
-        <v>45289474</v>
+        <v>56866834</v>
       </c>
       <c r="M91" s="11">
-        <v>56866834</v>
+        <v>71857143</v>
       </c>
       <c r="N91" s="11">
-        <v>71857143</v>
+        <v>70620690</v>
       </c>
       <c r="O91" s="11">
-        <v>70620690</v>
+        <v>69547619</v>
       </c>
       <c r="P91" s="11">
-        <v>69547619</v>
+        <v>66813291</v>
       </c>
       <c r="Q91" s="11">
-        <v>66813291</v>
+        <v>68047059</v>
       </c>
       <c r="R91" s="11">
-        <v>68047059</v>
+        <v>69724806</v>
       </c>
       <c r="S91" s="11">
-        <v>69724806</v>
+        <v>73570213</v>
       </c>
       <c r="T91" s="11">
-        <v>73570213</v>
+        <v>70890152</v>
       </c>
       <c r="U91" s="11">
-        <v>70890152</v>
+        <v>71326667</v>
       </c>
       <c r="V91" s="11">
-        <v>71326667</v>
+        <v>74772189</v>
       </c>
       <c r="W91" s="11">
-        <v>74772189</v>
+        <v>74947020</v>
       </c>
       <c r="X91" s="11">
-        <v>74947020</v>
+        <v>80713147</v>
       </c>
       <c r="Y91" s="11">
-        <v>80713147</v>
+        <v>112780952</v>
       </c>
       <c r="Z91" s="11">
-        <v>112780952</v>
+        <v>105448980</v>
       </c>
       <c r="AA91" s="11">
-        <v>105448980</v>
+        <v>92415385</v>
       </c>
       <c r="AB91" s="11">
-        <v>92415385</v>
+        <v>101081395</v>
       </c>
       <c r="AC91" s="11">
-        <v>101081395</v>
+        <v>109110092</v>
       </c>
       <c r="AD91" s="11">
-        <v>109110092</v>
+        <v>119889952</v>
       </c>
       <c r="AE91" s="11">
-        <v>119889952</v>
+        <v>117469841</v>
       </c>
       <c r="AF91" s="11">
-        <v>117469841</v>
+        <v>108667785</v>
       </c>
       <c r="AG91" s="11">
-        <v>108667785</v>
+        <v>100561837</v>
       </c>
       <c r="AH91" s="11">
-        <v>100561837</v>
+        <v>106968085</v>
       </c>
       <c r="AI91" s="11">
-        <v>106968085</v>
+        <v>105689944</v>
       </c>
       <c r="AJ91" s="11">
-        <v>105689944</v>
+        <v>107872404</v>
       </c>
       <c r="AK91" s="11">
-        <v>107872404</v>
+        <v>98668750</v>
       </c>
       <c r="AL91" s="11">
-        <v>98668750</v>
+        <v>114812500</v>
       </c>
       <c r="AM91" s="11">
-        <v>114812500</v>
+        <v>120220690</v>
       </c>
       <c r="AN91" s="11">
-        <v>120220690</v>
+        <v>118424615</v>
       </c>
       <c r="AO91" s="11">
-        <v>118424615</v>
+        <v>118452899</v>
       </c>
       <c r="AP91" s="11">
-        <v>118452899</v>
+        <v>119740506</v>
       </c>
       <c r="AQ91" s="11">
-        <v>119740506</v>
+        <v>117710366</v>
       </c>
       <c r="AR91" s="11">
-        <v>117710366</v>
+        <v>120877500</v>
       </c>
       <c r="AS91" s="11">
-        <v>120877500</v>
+        <v>124472934</v>
       </c>
       <c r="AT91" s="11">
-        <v>124472934</v>
+        <v>125805471</v>
       </c>
       <c r="AU91" s="11">
-        <v>125805471</v>
+        <v>91000000</v>
       </c>
       <c r="AV91" s="11">
-        <v>91000000</v>
+        <v>334943590</v>
       </c>
       <c r="AW91" s="11">
-        <v>334943590</v>
+        <v>334013559</v>
       </c>
       <c r="AX91" s="11">
-        <v>334013559</v>
+        <v>338119718</v>
       </c>
       <c r="AY91" s="11">
-        <v>338119718</v>
+        <v>326130233</v>
       </c>
       <c r="AZ91" s="11">
-        <v>326130233</v>
+        <v>327574899</v>
       </c>
       <c r="BA91" s="11">
-        <v>327574899</v>
+        <v>323173913</v>
       </c>
       <c r="BB91" s="11">
-        <v>323173913</v>
+        <v>325248201</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.3">
@@ -12217,65 +12217,65 @@
       <c r="AH92" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI92" s="13" t="s">
-        <v>57</v>
+      <c r="AI92" s="13">
+        <v>98247683</v>
       </c>
       <c r="AJ92" s="13">
-        <v>98247683</v>
+        <v>95752552</v>
       </c>
       <c r="AK92" s="13">
-        <v>95752552</v>
+        <v>94102222</v>
       </c>
       <c r="AL92" s="13">
-        <v>94102222</v>
+        <v>97221574</v>
       </c>
       <c r="AM92" s="13">
-        <v>97221574</v>
+        <v>98163225</v>
       </c>
       <c r="AN92" s="13">
-        <v>98163225</v>
+        <v>117396973</v>
       </c>
       <c r="AO92" s="13">
-        <v>117396973</v>
+        <v>110072235</v>
       </c>
       <c r="AP92" s="13">
-        <v>110072235</v>
+        <v>94510612</v>
       </c>
       <c r="AQ92" s="13">
-        <v>94510612</v>
+        <v>93830178</v>
       </c>
       <c r="AR92" s="13">
-        <v>93830178</v>
+        <v>96793231</v>
       </c>
       <c r="AS92" s="13">
-        <v>96793231</v>
+        <v>90573024</v>
       </c>
       <c r="AT92" s="13">
-        <v>90573024</v>
+        <v>88953932</v>
       </c>
       <c r="AU92" s="13">
-        <v>88953932</v>
+        <v>85933333</v>
       </c>
       <c r="AV92" s="13">
-        <v>85933333</v>
+        <v>87622754</v>
       </c>
       <c r="AW92" s="13">
-        <v>87622754</v>
+        <v>108140506</v>
       </c>
       <c r="AX92" s="13">
-        <v>108140506</v>
+        <v>96173516</v>
       </c>
       <c r="AY92" s="13">
-        <v>96173516</v>
+        <v>193769737</v>
       </c>
       <c r="AZ92" s="13">
-        <v>193769737</v>
+        <v>192521158</v>
       </c>
       <c r="BA92" s="13">
-        <v>192521158</v>
+        <v>184177370</v>
       </c>
       <c r="BB92" s="13">
-        <v>184177370</v>
+        <v>172569362</v>
       </c>
     </row>
     <row r="93" spans="2:54" x14ac:dyDescent="0.3">
@@ -12376,65 +12376,65 @@
       <c r="AH93" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI93" s="11" t="s">
-        <v>57</v>
+      <c r="AI93" s="11">
+        <v>100849462</v>
       </c>
       <c r="AJ93" s="11">
-        <v>100849462</v>
+        <v>96966102</v>
       </c>
       <c r="AK93" s="11">
-        <v>96966102</v>
+        <v>93867470</v>
       </c>
       <c r="AL93" s="11">
-        <v>93867470</v>
+        <v>98621538</v>
       </c>
       <c r="AM93" s="11">
-        <v>98621538</v>
+        <v>97199161</v>
       </c>
       <c r="AN93" s="11">
-        <v>97199161</v>
+        <v>109890467</v>
       </c>
       <c r="AO93" s="11">
-        <v>109890467</v>
+        <v>122892063</v>
       </c>
       <c r="AP93" s="11">
-        <v>122892063</v>
+        <v>104984496</v>
       </c>
       <c r="AQ93" s="11">
-        <v>104984496</v>
+        <v>95041322</v>
       </c>
       <c r="AR93" s="11">
-        <v>95041322</v>
+        <v>101628268</v>
       </c>
       <c r="AS93" s="11">
-        <v>101628268</v>
+        <v>100471822</v>
       </c>
       <c r="AT93" s="11">
-        <v>100471822</v>
+        <v>93199333</v>
       </c>
       <c r="AU93" s="11">
-        <v>93199333</v>
-      </c>
-      <c r="AV93" s="11">
         <v>87421488</v>
       </c>
-      <c r="AW93" s="11" t="s">
-        <v>57</v>
+      <c r="AV93" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW93" s="11">
+        <v>114359477</v>
       </c>
       <c r="AX93" s="11">
-        <v>114359477</v>
+        <v>95939850</v>
       </c>
       <c r="AY93" s="11">
-        <v>95939850</v>
+        <v>126763587</v>
       </c>
       <c r="AZ93" s="11">
-        <v>126763587</v>
+        <v>181358548</v>
       </c>
       <c r="BA93" s="11">
-        <v>181358548</v>
+        <v>188901786</v>
       </c>
       <c r="BB93" s="11">
-        <v>188901786</v>
+        <v>167895449</v>
       </c>
     </row>
     <row r="94" spans="2:54" x14ac:dyDescent="0.3">
@@ -12535,65 +12535,65 @@
       <c r="AH94" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI94" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ94" s="13">
+      <c r="AI94" s="13">
         <v>235750000</v>
       </c>
-      <c r="AK94" s="13" t="s">
-        <v>57</v>
+      <c r="AJ94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK94" s="13">
+        <v>308857143</v>
       </c>
       <c r="AL94" s="13">
-        <v>308857143</v>
+        <v>256250000</v>
       </c>
       <c r="AM94" s="13">
-        <v>256250000</v>
+        <v>274347826</v>
       </c>
       <c r="AN94" s="13">
-        <v>274347826</v>
+        <v>253250000</v>
       </c>
       <c r="AO94" s="13">
-        <v>253250000</v>
+        <v>264400000</v>
       </c>
       <c r="AP94" s="13">
-        <v>264400000</v>
+        <v>104181818</v>
       </c>
       <c r="AQ94" s="13">
-        <v>104181818</v>
+        <v>84000000</v>
       </c>
       <c r="AR94" s="13">
-        <v>84000000</v>
+        <v>326461538</v>
       </c>
       <c r="AS94" s="13">
-        <v>326461538</v>
+        <v>291521739</v>
       </c>
       <c r="AT94" s="13">
-        <v>291521739</v>
+        <v>286596774</v>
       </c>
       <c r="AU94" s="13">
-        <v>286596774</v>
-      </c>
-      <c r="AV94" s="13">
         <v>77000000</v>
       </c>
+      <c r="AV94" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AW94" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AX94" s="13" t="s">
-        <v>57</v>
+      <c r="AX94" s="13">
+        <v>96000000</v>
       </c>
       <c r="AY94" s="13">
-        <v>96000000</v>
+        <v>54000000</v>
       </c>
       <c r="AZ94" s="13">
-        <v>54000000</v>
+        <v>220000000</v>
       </c>
       <c r="BA94" s="13">
-        <v>220000000</v>
+        <v>282000000</v>
       </c>
       <c r="BB94" s="13">
-        <v>282000000</v>
+        <v>317000000</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/ghaza/ghezar/product/monthly.xlsx
+++ b/database/industries/ghaza/ghezar/product/monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghezar\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A57522-B9A4-47C5-96CC-26D7B2BAA3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14886398-F83D-4BF7-9F96-501123139087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="85">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غزر-صنعتی زر ماکارون</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>سایر محصولات</t>
@@ -1519,8 +1519,8 @@
       <c r="AG11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH11" s="11" t="s">
-        <v>57</v>
+      <c r="AH11" s="11">
+        <v>0</v>
       </c>
       <c r="AI11" s="11">
         <v>0</v>
@@ -1606,140 +1606,140 @@
       <c r="I12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>57</v>
+      <c r="J12" s="13">
+        <v>135</v>
       </c>
       <c r="K12" s="13">
-        <v>135</v>
+        <v>420</v>
       </c>
       <c r="L12" s="13">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="M12" s="13">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N12" s="13">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="O12" s="13">
-        <v>31</v>
+        <v>2328</v>
       </c>
       <c r="P12" s="13">
-        <v>2328</v>
+        <v>104</v>
       </c>
       <c r="Q12" s="13">
-        <v>104</v>
+        <v>313</v>
       </c>
       <c r="R12" s="13">
-        <v>313</v>
+        <v>1209</v>
       </c>
       <c r="S12" s="13">
-        <v>1209</v>
+        <v>2825</v>
       </c>
       <c r="T12" s="13">
-        <v>2825</v>
+        <v>227</v>
       </c>
       <c r="U12" s="13">
-        <v>227</v>
+        <v>288</v>
       </c>
       <c r="V12" s="13">
+        <v>150</v>
+      </c>
+      <c r="W12" s="13">
+        <v>265</v>
+      </c>
+      <c r="X12" s="13">
+        <v>324</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>731</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>723</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>618</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>1158</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>450</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>298</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>434</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>679</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>851</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>300</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>767</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>709</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>284</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>181</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>570</v>
+      </c>
+      <c r="AN12" s="13">
+        <v>114</v>
+      </c>
+      <c r="AO12" s="13">
         <v>288</v>
       </c>
-      <c r="W12" s="13">
-        <v>150</v>
-      </c>
-      <c r="X12" s="13">
-        <v>265</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>324</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>731</v>
-      </c>
-      <c r="AA12" s="13">
-        <v>723</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>618</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>1158</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>450</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>298</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>434</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>679</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>851</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>300</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>767</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>709</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>284</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>181</v>
-      </c>
-      <c r="AN12" s="13">
-        <v>570</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>114</v>
-      </c>
       <c r="AP12" s="13">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="AQ12" s="13">
-        <v>315</v>
+        <v>379</v>
       </c>
       <c r="AR12" s="13">
-        <v>379</v>
+        <v>478</v>
       </c>
       <c r="AS12" s="13">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="AT12" s="13">
-        <v>464</v>
+        <v>153</v>
       </c>
       <c r="AU12" s="13">
-        <v>153</v>
+        <v>575</v>
       </c>
       <c r="AV12" s="13">
-        <v>575</v>
+        <v>918</v>
       </c>
       <c r="AW12" s="13">
-        <v>918</v>
+        <v>747</v>
       </c>
       <c r="AX12" s="13">
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="AY12" s="13">
-        <v>725</v>
+        <v>396</v>
       </c>
       <c r="AZ12" s="13">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="BA12" s="13">
-        <v>439</v>
+        <v>600</v>
       </c>
       <c r="BB12" s="13">
-        <v>600</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1765,140 +1765,140 @@
       <c r="I13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>57</v>
+      <c r="J13" s="11">
+        <v>161</v>
       </c>
       <c r="K13" s="11">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="L13" s="11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M13" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N13" s="11">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="O13" s="11">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="P13" s="11">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="11">
+        <v>0</v>
+      </c>
+      <c r="R13" s="11">
+        <v>0</v>
+      </c>
+      <c r="S13" s="11">
+        <v>0</v>
+      </c>
+      <c r="T13" s="11">
+        <v>118</v>
+      </c>
+      <c r="U13" s="11">
+        <v>9</v>
+      </c>
+      <c r="V13" s="11">
+        <v>3</v>
+      </c>
+      <c r="W13" s="11">
+        <v>4</v>
+      </c>
+      <c r="X13" s="11">
+        <v>18</v>
+      </c>
+      <c r="Y13" s="11">
         <v>11</v>
       </c>
-      <c r="R13" s="11">
-        <v>0</v>
-      </c>
-      <c r="S13" s="11">
-        <v>0</v>
-      </c>
-      <c r="T13" s="11">
-        <v>0</v>
-      </c>
-      <c r="U13" s="11">
-        <v>118</v>
-      </c>
-      <c r="V13" s="11">
-        <v>9</v>
-      </c>
-      <c r="W13" s="11">
-        <v>3</v>
-      </c>
-      <c r="X13" s="11">
-        <v>4</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>18</v>
-      </c>
       <c r="Z13" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA13" s="11">
         <v>12</v>
       </c>
       <c r="AB13" s="11">
+        <v>8</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>21</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>11</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>15</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>41</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>9</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>10</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>11</v>
+      </c>
+      <c r="AL13" s="11">
         <v>12</v>
       </c>
-      <c r="AC13" s="11">
-        <v>8</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>21</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>11</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>15</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>41</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ13" s="11">
+      <c r="AM13" s="11">
+        <v>22</v>
+      </c>
+      <c r="AN13" s="11">
         <v>9</v>
       </c>
-      <c r="AK13" s="11">
-        <v>10</v>
-      </c>
-      <c r="AL13" s="11">
-        <v>11</v>
-      </c>
-      <c r="AM13" s="11">
+      <c r="AO13" s="11">
+        <v>13</v>
+      </c>
+      <c r="AP13" s="11">
         <v>12</v>
       </c>
-      <c r="AN13" s="11">
-        <v>22</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>9</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>13</v>
-      </c>
       <c r="AQ13" s="11">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AR13" s="11">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AS13" s="11">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AT13" s="11">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AU13" s="11">
         <v>3</v>
       </c>
       <c r="AV13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="11">
         <v>3</v>
       </c>
-      <c r="AW13" s="11">
-        <v>0</v>
-      </c>
       <c r="AX13" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY13" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AZ13" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB13" s="11">
         <v>2</v>
-      </c>
-      <c r="BA13" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="11">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1924,140 +1924,140 @@
       <c r="I14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>57</v>
+      <c r="J14" s="13">
+        <v>1950</v>
       </c>
       <c r="K14" s="13">
-        <v>1950</v>
+        <v>14077</v>
       </c>
       <c r="L14" s="13">
-        <v>14077</v>
+        <v>16688</v>
       </c>
       <c r="M14" s="13">
-        <v>16688</v>
+        <v>13227</v>
       </c>
       <c r="N14" s="13">
-        <v>13227</v>
+        <v>10712</v>
       </c>
       <c r="O14" s="13">
-        <v>10712</v>
+        <v>10409</v>
       </c>
       <c r="P14" s="13">
-        <v>10409</v>
+        <v>8944</v>
       </c>
       <c r="Q14" s="13">
-        <v>8944</v>
+        <v>9742</v>
       </c>
       <c r="R14" s="13">
-        <v>9742</v>
+        <v>11903</v>
       </c>
       <c r="S14" s="13">
-        <v>11903</v>
+        <v>12578</v>
       </c>
       <c r="T14" s="13">
-        <v>12578</v>
+        <v>12007</v>
       </c>
       <c r="U14" s="13">
-        <v>12007</v>
+        <v>14688</v>
       </c>
       <c r="V14" s="13">
-        <v>14688</v>
+        <v>13491</v>
       </c>
       <c r="W14" s="13">
-        <v>13491</v>
+        <v>8721</v>
       </c>
       <c r="X14" s="13">
-        <v>8721</v>
+        <v>18921</v>
       </c>
       <c r="Y14" s="13">
-        <v>18921</v>
+        <v>16832</v>
       </c>
       <c r="Z14" s="13">
-        <v>16832</v>
+        <v>15223</v>
       </c>
       <c r="AA14" s="13">
-        <v>15223</v>
+        <v>14701</v>
       </c>
       <c r="AB14" s="13">
-        <v>14701</v>
+        <v>16461</v>
       </c>
       <c r="AC14" s="13">
-        <v>16461</v>
+        <v>20511</v>
       </c>
       <c r="AD14" s="13">
-        <v>20511</v>
+        <v>14290</v>
       </c>
       <c r="AE14" s="13">
-        <v>14290</v>
+        <v>13776</v>
       </c>
       <c r="AF14" s="13">
-        <v>13776</v>
+        <v>13012</v>
       </c>
       <c r="AG14" s="13">
-        <v>13012</v>
+        <v>15131</v>
       </c>
       <c r="AH14" s="13">
-        <v>15131</v>
+        <v>5265</v>
       </c>
       <c r="AI14" s="13">
-        <v>5265</v>
+        <v>13388</v>
       </c>
       <c r="AJ14" s="13">
-        <v>13388</v>
+        <v>19316</v>
       </c>
       <c r="AK14" s="13">
-        <v>19316</v>
+        <v>17826</v>
       </c>
       <c r="AL14" s="13">
-        <v>17826</v>
+        <v>18131</v>
       </c>
       <c r="AM14" s="13">
-        <v>18131</v>
+        <v>12233</v>
       </c>
       <c r="AN14" s="13">
-        <v>12233</v>
+        <v>11402</v>
       </c>
       <c r="AO14" s="13">
-        <v>11402</v>
+        <v>15418</v>
       </c>
       <c r="AP14" s="13">
-        <v>15418</v>
+        <v>12006</v>
       </c>
       <c r="AQ14" s="13">
-        <v>12006</v>
+        <v>12286</v>
       </c>
       <c r="AR14" s="13">
-        <v>12286</v>
+        <v>9342</v>
       </c>
       <c r="AS14" s="13">
-        <v>9342</v>
+        <v>10583</v>
       </c>
       <c r="AT14" s="13">
-        <v>10583</v>
+        <v>943</v>
       </c>
       <c r="AU14" s="13">
-        <v>943</v>
+        <v>11691</v>
       </c>
       <c r="AV14" s="13">
-        <v>11691</v>
+        <v>13437</v>
       </c>
       <c r="AW14" s="13">
-        <v>13437</v>
+        <v>7517</v>
       </c>
       <c r="AX14" s="13">
-        <v>7517</v>
+        <v>6414</v>
       </c>
       <c r="AY14" s="13">
-        <v>6414</v>
+        <v>6984</v>
       </c>
       <c r="AZ14" s="13">
-        <v>6984</v>
+        <v>5785</v>
       </c>
       <c r="BA14" s="13">
-        <v>5785</v>
+        <v>12055</v>
       </c>
       <c r="BB14" s="13">
-        <v>12055</v>
+        <v>7457</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2083,140 +2083,140 @@
       <c r="I15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>57</v>
+      <c r="J15" s="11">
+        <v>827</v>
       </c>
       <c r="K15" s="11">
-        <v>827</v>
+        <v>2815</v>
       </c>
       <c r="L15" s="11">
-        <v>2815</v>
+        <v>2307</v>
       </c>
       <c r="M15" s="11">
-        <v>2307</v>
+        <v>3158</v>
       </c>
       <c r="N15" s="11">
-        <v>3158</v>
+        <v>2601</v>
       </c>
       <c r="O15" s="11">
-        <v>2601</v>
+        <v>2579</v>
       </c>
       <c r="P15" s="11">
-        <v>2579</v>
+        <v>2387</v>
       </c>
       <c r="Q15" s="11">
-        <v>2387</v>
+        <v>2661</v>
       </c>
       <c r="R15" s="11">
-        <v>2661</v>
+        <v>2988</v>
       </c>
       <c r="S15" s="11">
-        <v>2988</v>
+        <v>1539</v>
       </c>
       <c r="T15" s="11">
-        <v>1539</v>
+        <v>2912</v>
       </c>
       <c r="U15" s="11">
+        <v>2625</v>
+      </c>
+      <c r="V15" s="11">
+        <v>1837</v>
+      </c>
+      <c r="W15" s="11">
+        <v>1830</v>
+      </c>
+      <c r="X15" s="11">
+        <v>4665</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>3844</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>2602</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>3052</v>
+      </c>
+      <c r="AB15" s="11">
         <v>2912</v>
       </c>
-      <c r="V15" s="11">
-        <v>2625</v>
-      </c>
-      <c r="W15" s="11">
-        <v>1837</v>
-      </c>
-      <c r="X15" s="11">
-        <v>1830</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>4665</v>
-      </c>
-      <c r="Z15" s="11">
-        <v>3844</v>
-      </c>
-      <c r="AA15" s="11">
-        <v>2602</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>3052</v>
-      </c>
       <c r="AC15" s="11">
-        <v>2912</v>
+        <v>4109</v>
       </c>
       <c r="AD15" s="11">
-        <v>4109</v>
+        <v>3265</v>
       </c>
       <c r="AE15" s="11">
-        <v>3265</v>
+        <v>3210</v>
       </c>
       <c r="AF15" s="11">
-        <v>3210</v>
+        <v>3268</v>
       </c>
       <c r="AG15" s="11">
-        <v>3268</v>
+        <v>3041</v>
       </c>
       <c r="AH15" s="11">
-        <v>3041</v>
+        <v>1139</v>
       </c>
       <c r="AI15" s="11">
-        <v>1139</v>
+        <v>2752</v>
       </c>
       <c r="AJ15" s="11">
-        <v>2752</v>
+        <v>2340</v>
       </c>
       <c r="AK15" s="11">
-        <v>2340</v>
+        <v>2840</v>
       </c>
       <c r="AL15" s="11">
-        <v>2840</v>
+        <v>2910</v>
       </c>
       <c r="AM15" s="11">
-        <v>2910</v>
+        <v>3269</v>
       </c>
       <c r="AN15" s="11">
-        <v>3269</v>
+        <v>4102</v>
       </c>
       <c r="AO15" s="11">
-        <v>4102</v>
+        <v>3082</v>
       </c>
       <c r="AP15" s="11">
-        <v>3082</v>
+        <v>3793</v>
       </c>
       <c r="AQ15" s="11">
-        <v>3793</v>
+        <v>2875</v>
       </c>
       <c r="AR15" s="11">
-        <v>2875</v>
+        <v>2964</v>
       </c>
       <c r="AS15" s="11">
-        <v>2964</v>
+        <v>3135</v>
       </c>
       <c r="AT15" s="11">
-        <v>3135</v>
+        <v>53</v>
       </c>
       <c r="AU15" s="11">
-        <v>53</v>
+        <v>2604</v>
       </c>
       <c r="AV15" s="11">
-        <v>2604</v>
+        <v>4234</v>
       </c>
       <c r="AW15" s="11">
-        <v>4234</v>
+        <v>2562</v>
       </c>
       <c r="AX15" s="11">
-        <v>2562</v>
+        <v>2111</v>
       </c>
       <c r="AY15" s="11">
-        <v>2111</v>
+        <v>2404</v>
       </c>
       <c r="AZ15" s="11">
-        <v>2404</v>
+        <v>2003</v>
       </c>
       <c r="BA15" s="11">
-        <v>2003</v>
+        <v>1917</v>
       </c>
       <c r="BB15" s="11">
-        <v>1917</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2242,140 +2242,140 @@
       <c r="I16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="13" t="s">
-        <v>57</v>
+      <c r="J16" s="13">
+        <v>84</v>
       </c>
       <c r="K16" s="13">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="L16" s="13">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M16" s="13">
+        <v>178</v>
+      </c>
+      <c r="N16" s="13">
+        <v>187</v>
+      </c>
+      <c r="O16" s="13">
+        <v>193</v>
+      </c>
+      <c r="P16" s="13">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>135</v>
+      </c>
+      <c r="R16" s="13">
+        <v>211</v>
+      </c>
+      <c r="S16" s="13">
+        <v>168</v>
+      </c>
+      <c r="T16" s="13">
+        <v>119</v>
+      </c>
+      <c r="U16" s="13">
+        <v>164</v>
+      </c>
+      <c r="V16" s="13">
+        <v>104</v>
+      </c>
+      <c r="W16" s="13">
+        <v>212</v>
+      </c>
+      <c r="X16" s="13">
+        <v>265</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>234</v>
+      </c>
+      <c r="Z16" s="13">
         <v>228</v>
       </c>
-      <c r="N16" s="13">
-        <v>178</v>
-      </c>
-      <c r="O16" s="13">
-        <v>187</v>
-      </c>
-      <c r="P16" s="13">
-        <v>193</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>114</v>
-      </c>
-      <c r="R16" s="13">
-        <v>135</v>
-      </c>
-      <c r="S16" s="13">
+      <c r="AA16" s="13">
+        <v>237</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>221</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>229</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>230</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>218</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>210</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>184</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>118</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>217</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>177</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>205</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>200</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>197</v>
+      </c>
+      <c r="AN16" s="13">
         <v>211</v>
       </c>
-      <c r="T16" s="13">
-        <v>168</v>
-      </c>
-      <c r="U16" s="13">
-        <v>119</v>
-      </c>
-      <c r="V16" s="13">
-        <v>164</v>
-      </c>
-      <c r="W16" s="13">
-        <v>104</v>
-      </c>
-      <c r="X16" s="13">
-        <v>212</v>
-      </c>
-      <c r="Y16" s="13">
-        <v>265</v>
-      </c>
-      <c r="Z16" s="13">
-        <v>234</v>
-      </c>
-      <c r="AA16" s="13">
-        <v>228</v>
-      </c>
-      <c r="AB16" s="13">
-        <v>237</v>
-      </c>
-      <c r="AC16" s="13">
-        <v>221</v>
-      </c>
-      <c r="AD16" s="13">
-        <v>229</v>
-      </c>
-      <c r="AE16" s="13">
-        <v>230</v>
-      </c>
-      <c r="AF16" s="13">
-        <v>218</v>
-      </c>
-      <c r="AG16" s="13">
-        <v>210</v>
-      </c>
-      <c r="AH16" s="13">
-        <v>184</v>
-      </c>
-      <c r="AI16" s="13">
+      <c r="AO16" s="13">
+        <v>224</v>
+      </c>
+      <c r="AP16" s="13">
+        <v>201</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>169</v>
+      </c>
+      <c r="AR16" s="13">
+        <v>127</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>156</v>
+      </c>
+      <c r="AT16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="13">
         <v>118</v>
       </c>
-      <c r="AJ16" s="13">
-        <v>217</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>177</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>205</v>
-      </c>
-      <c r="AM16" s="13">
-        <v>200</v>
-      </c>
-      <c r="AN16" s="13">
-        <v>197</v>
-      </c>
-      <c r="AO16" s="13">
-        <v>211</v>
-      </c>
-      <c r="AP16" s="13">
-        <v>224</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>201</v>
-      </c>
-      <c r="AR16" s="13">
-        <v>169</v>
-      </c>
-      <c r="AS16" s="13">
-        <v>127</v>
-      </c>
-      <c r="AT16" s="13">
-        <v>156</v>
-      </c>
-      <c r="AU16" s="13">
-        <v>0</v>
-      </c>
       <c r="AV16" s="13">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="AW16" s="13">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="AX16" s="13">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="AY16" s="13">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="AZ16" s="13">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="BA16" s="13">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="BB16" s="13">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2401,140 +2401,140 @@
       <c r="I17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>57</v>
+      <c r="J17" s="11">
+        <v>299</v>
       </c>
       <c r="K17" s="11">
-        <v>299</v>
+        <v>543</v>
       </c>
       <c r="L17" s="11">
-        <v>543</v>
+        <v>303</v>
       </c>
       <c r="M17" s="11">
+        <v>396</v>
+      </c>
+      <c r="N17" s="11">
+        <v>194</v>
+      </c>
+      <c r="O17" s="11">
         <v>303</v>
       </c>
-      <c r="N17" s="11">
-        <v>396</v>
-      </c>
-      <c r="O17" s="11">
-        <v>194</v>
-      </c>
       <c r="P17" s="11">
-        <v>303</v>
+        <v>168</v>
       </c>
       <c r="Q17" s="11">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="R17" s="11">
+        <v>185</v>
+      </c>
+      <c r="S17" s="11">
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <v>390</v>
+      </c>
+      <c r="U17" s="11">
+        <v>135</v>
+      </c>
+      <c r="V17" s="11">
+        <v>159</v>
+      </c>
+      <c r="W17" s="11">
+        <v>189</v>
+      </c>
+      <c r="X17" s="11">
+        <v>245</v>
+      </c>
+      <c r="Y17" s="11">
+        <v>318</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>144</v>
+      </c>
+      <c r="AA17" s="11">
+        <v>139</v>
+      </c>
+      <c r="AB17" s="11">
+        <v>163</v>
+      </c>
+      <c r="AC17" s="11">
+        <v>138</v>
+      </c>
+      <c r="AD17" s="11">
+        <v>191</v>
+      </c>
+      <c r="AE17" s="11">
+        <v>173</v>
+      </c>
+      <c r="AF17" s="11">
+        <v>137</v>
+      </c>
+      <c r="AG17" s="11">
+        <v>68</v>
+      </c>
+      <c r="AH17" s="11">
+        <v>133</v>
+      </c>
+      <c r="AI17" s="11">
+        <v>327</v>
+      </c>
+      <c r="AJ17" s="11">
+        <v>146</v>
+      </c>
+      <c r="AK17" s="11">
+        <v>80</v>
+      </c>
+      <c r="AL17" s="11">
+        <v>127</v>
+      </c>
+      <c r="AM17" s="11">
         <v>186</v>
       </c>
-      <c r="S17" s="11">
-        <v>185</v>
-      </c>
-      <c r="T17" s="11">
-        <v>0</v>
-      </c>
-      <c r="U17" s="11">
-        <v>390</v>
-      </c>
-      <c r="V17" s="11">
-        <v>135</v>
-      </c>
-      <c r="W17" s="11">
-        <v>159</v>
-      </c>
-      <c r="X17" s="11">
-        <v>189</v>
-      </c>
-      <c r="Y17" s="11">
-        <v>245</v>
-      </c>
-      <c r="Z17" s="11">
-        <v>318</v>
-      </c>
-      <c r="AA17" s="11">
-        <v>144</v>
-      </c>
-      <c r="AB17" s="11">
-        <v>139</v>
-      </c>
-      <c r="AC17" s="11">
-        <v>163</v>
-      </c>
-      <c r="AD17" s="11">
-        <v>138</v>
-      </c>
-      <c r="AE17" s="11">
-        <v>191</v>
-      </c>
-      <c r="AF17" s="11">
-        <v>173</v>
-      </c>
-      <c r="AG17" s="11">
-        <v>137</v>
-      </c>
-      <c r="AH17" s="11">
+      <c r="AN17" s="11">
+        <v>165</v>
+      </c>
+      <c r="AO17" s="11">
+        <v>179</v>
+      </c>
+      <c r="AP17" s="11">
+        <v>151</v>
+      </c>
+      <c r="AQ17" s="11">
+        <v>226</v>
+      </c>
+      <c r="AR17" s="11">
+        <v>232</v>
+      </c>
+      <c r="AS17" s="11">
+        <v>230</v>
+      </c>
+      <c r="AT17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="11">
+        <v>109</v>
+      </c>
+      <c r="AV17" s="11">
+        <v>178</v>
+      </c>
+      <c r="AW17" s="11">
+        <v>186</v>
+      </c>
+      <c r="AX17" s="11">
         <v>68</v>
       </c>
-      <c r="AI17" s="11">
-        <v>133</v>
-      </c>
-      <c r="AJ17" s="11">
-        <v>327</v>
-      </c>
-      <c r="AK17" s="11">
-        <v>146</v>
-      </c>
-      <c r="AL17" s="11">
-        <v>80</v>
-      </c>
-      <c r="AM17" s="11">
-        <v>127</v>
-      </c>
-      <c r="AN17" s="11">
-        <v>186</v>
-      </c>
-      <c r="AO17" s="11">
-        <v>165</v>
-      </c>
-      <c r="AP17" s="11">
-        <v>179</v>
-      </c>
-      <c r="AQ17" s="11">
-        <v>151</v>
-      </c>
-      <c r="AR17" s="11">
-        <v>226</v>
-      </c>
-      <c r="AS17" s="11">
-        <v>232</v>
-      </c>
-      <c r="AT17" s="11">
-        <v>230</v>
-      </c>
-      <c r="AU17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV17" s="11">
-        <v>109</v>
-      </c>
-      <c r="AW17" s="11">
-        <v>178</v>
-      </c>
-      <c r="AX17" s="11">
-        <v>186</v>
-      </c>
       <c r="AY17" s="11">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AZ17" s="11">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="BA17" s="11">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="BB17" s="11">
-        <v>154</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2560,140 +2560,140 @@
       <c r="I18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="13" t="s">
-        <v>57</v>
+      <c r="J18" s="13">
+        <v>152</v>
       </c>
       <c r="K18" s="13">
-        <v>152</v>
+        <v>239</v>
       </c>
       <c r="L18" s="13">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="M18" s="13">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="N18" s="13">
-        <v>113</v>
+        <v>268</v>
       </c>
       <c r="O18" s="13">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="P18" s="13">
+        <v>247</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>237</v>
+      </c>
+      <c r="R18" s="13">
+        <v>212</v>
+      </c>
+      <c r="S18" s="13">
+        <v>287</v>
+      </c>
+      <c r="T18" s="13">
+        <v>244</v>
+      </c>
+      <c r="U18" s="13">
+        <v>259</v>
+      </c>
+      <c r="V18" s="13">
+        <v>174</v>
+      </c>
+      <c r="W18" s="13">
+        <v>284</v>
+      </c>
+      <c r="X18" s="13">
+        <v>286</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>196</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>75</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>125</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>141</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>147</v>
+      </c>
+      <c r="AD18" s="13">
+        <v>230</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>232</v>
+      </c>
+      <c r="AF18" s="13">
+        <v>216</v>
+      </c>
+      <c r="AG18" s="13">
+        <v>255</v>
+      </c>
+      <c r="AH18" s="13">
+        <v>101</v>
+      </c>
+      <c r="AI18" s="13">
+        <v>259</v>
+      </c>
+      <c r="AJ18" s="13">
+        <v>183</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>228</v>
+      </c>
+      <c r="AL18" s="13">
+        <v>74</v>
+      </c>
+      <c r="AM18" s="13">
+        <v>291</v>
+      </c>
+      <c r="AN18" s="13">
+        <v>194</v>
+      </c>
+      <c r="AO18" s="13">
+        <v>144</v>
+      </c>
+      <c r="AP18" s="13">
+        <v>338</v>
+      </c>
+      <c r="AQ18" s="13">
+        <v>221</v>
+      </c>
+      <c r="AR18" s="13">
+        <v>194</v>
+      </c>
+      <c r="AS18" s="13">
+        <v>219</v>
+      </c>
+      <c r="AT18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="13">
+        <v>245</v>
+      </c>
+      <c r="AW18" s="13">
+        <v>398</v>
+      </c>
+      <c r="AX18" s="13">
+        <v>332</v>
+      </c>
+      <c r="AY18" s="13">
+        <v>351</v>
+      </c>
+      <c r="AZ18" s="13">
+        <v>252</v>
+      </c>
+      <c r="BA18" s="13">
         <v>229</v>
       </c>
-      <c r="Q18" s="13">
-        <v>247</v>
-      </c>
-      <c r="R18" s="13">
-        <v>237</v>
-      </c>
-      <c r="S18" s="13">
-        <v>212</v>
-      </c>
-      <c r="T18" s="13">
-        <v>287</v>
-      </c>
-      <c r="U18" s="13">
-        <v>244</v>
-      </c>
-      <c r="V18" s="13">
-        <v>259</v>
-      </c>
-      <c r="W18" s="13">
-        <v>174</v>
-      </c>
-      <c r="X18" s="13">
-        <v>284</v>
-      </c>
-      <c r="Y18" s="13">
-        <v>286</v>
-      </c>
-      <c r="Z18" s="13">
-        <v>196</v>
-      </c>
-      <c r="AA18" s="13">
-        <v>75</v>
-      </c>
-      <c r="AB18" s="13">
-        <v>125</v>
-      </c>
-      <c r="AC18" s="13">
-        <v>141</v>
-      </c>
-      <c r="AD18" s="13">
-        <v>147</v>
-      </c>
-      <c r="AE18" s="13">
-        <v>230</v>
-      </c>
-      <c r="AF18" s="13">
-        <v>232</v>
-      </c>
-      <c r="AG18" s="13">
-        <v>216</v>
-      </c>
-      <c r="AH18" s="13">
-        <v>255</v>
-      </c>
-      <c r="AI18" s="13">
-        <v>101</v>
-      </c>
-      <c r="AJ18" s="13">
-        <v>259</v>
-      </c>
-      <c r="AK18" s="13">
-        <v>183</v>
-      </c>
-      <c r="AL18" s="13">
-        <v>228</v>
-      </c>
-      <c r="AM18" s="13">
-        <v>74</v>
-      </c>
-      <c r="AN18" s="13">
-        <v>291</v>
-      </c>
-      <c r="AO18" s="13">
-        <v>194</v>
-      </c>
-      <c r="AP18" s="13">
-        <v>144</v>
-      </c>
-      <c r="AQ18" s="13">
-        <v>338</v>
-      </c>
-      <c r="AR18" s="13">
-        <v>221</v>
-      </c>
-      <c r="AS18" s="13">
-        <v>194</v>
-      </c>
-      <c r="AT18" s="13">
-        <v>219</v>
-      </c>
-      <c r="AU18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="13">
-        <v>245</v>
-      </c>
-      <c r="AX18" s="13">
-        <v>398</v>
-      </c>
-      <c r="AY18" s="13">
-        <v>332</v>
-      </c>
-      <c r="AZ18" s="13">
-        <v>351</v>
-      </c>
-      <c r="BA18" s="13">
-        <v>252</v>
-      </c>
       <c r="BB18" s="13">
-        <v>229</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2719,140 +2719,140 @@
       <c r="I19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="11" t="s">
-        <v>57</v>
+      <c r="J19" s="11">
+        <v>97</v>
       </c>
       <c r="K19" s="11">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="L19" s="11">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="M19" s="11">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="N19" s="11">
+        <v>201</v>
+      </c>
+      <c r="O19" s="11">
+        <v>137</v>
+      </c>
+      <c r="P19" s="11">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>115</v>
+      </c>
+      <c r="R19" s="11">
+        <v>110</v>
+      </c>
+      <c r="S19" s="11">
+        <v>136</v>
+      </c>
+      <c r="T19" s="11">
+        <v>40</v>
+      </c>
+      <c r="U19" s="11">
+        <v>95</v>
+      </c>
+      <c r="V19" s="11">
+        <v>152</v>
+      </c>
+      <c r="W19" s="11">
+        <v>223</v>
+      </c>
+      <c r="X19" s="11">
+        <v>96</v>
+      </c>
+      <c r="Y19" s="11">
+        <v>119</v>
+      </c>
+      <c r="Z19" s="11">
+        <v>50</v>
+      </c>
+      <c r="AA19" s="11">
+        <v>46</v>
+      </c>
+      <c r="AB19" s="11">
+        <v>86</v>
+      </c>
+      <c r="AC19" s="11">
+        <v>25</v>
+      </c>
+      <c r="AD19" s="11">
+        <v>61</v>
+      </c>
+      <c r="AE19" s="11">
+        <v>77</v>
+      </c>
+      <c r="AF19" s="11">
+        <v>141</v>
+      </c>
+      <c r="AG19" s="11">
+        <v>116</v>
+      </c>
+      <c r="AH19" s="11">
+        <v>47</v>
+      </c>
+      <c r="AI19" s="11">
+        <v>45</v>
+      </c>
+      <c r="AJ19" s="11">
+        <v>40</v>
+      </c>
+      <c r="AK19" s="11">
+        <v>47</v>
+      </c>
+      <c r="AL19" s="11">
+        <v>38</v>
+      </c>
+      <c r="AM19" s="11">
+        <v>82</v>
+      </c>
+      <c r="AN19" s="11">
         <v>84</v>
       </c>
-      <c r="O19" s="11">
-        <v>201</v>
-      </c>
-      <c r="P19" s="11">
-        <v>137</v>
-      </c>
-      <c r="Q19" s="11">
-        <v>24</v>
-      </c>
-      <c r="R19" s="11">
-        <v>115</v>
-      </c>
-      <c r="S19" s="11">
-        <v>110</v>
-      </c>
-      <c r="T19" s="11">
-        <v>136</v>
-      </c>
-      <c r="U19" s="11">
+      <c r="AO19" s="11">
+        <v>29</v>
+      </c>
+      <c r="AP19" s="11">
+        <v>17</v>
+      </c>
+      <c r="AQ19" s="11">
+        <v>44</v>
+      </c>
+      <c r="AR19" s="11">
+        <v>45</v>
+      </c>
+      <c r="AS19" s="11">
+        <v>49</v>
+      </c>
+      <c r="AT19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="11">
+        <v>66</v>
+      </c>
+      <c r="AW19" s="11">
+        <v>77</v>
+      </c>
+      <c r="AX19" s="11">
+        <v>50</v>
+      </c>
+      <c r="AY19" s="11">
+        <v>23</v>
+      </c>
+      <c r="AZ19" s="11">
         <v>40</v>
       </c>
-      <c r="V19" s="11">
-        <v>95</v>
-      </c>
-      <c r="W19" s="11">
-        <v>152</v>
-      </c>
-      <c r="X19" s="11">
-        <v>223</v>
-      </c>
-      <c r="Y19" s="11">
-        <v>96</v>
-      </c>
-      <c r="Z19" s="11">
-        <v>119</v>
-      </c>
-      <c r="AA19" s="11">
-        <v>50</v>
-      </c>
-      <c r="AB19" s="11">
-        <v>46</v>
-      </c>
-      <c r="AC19" s="11">
-        <v>86</v>
-      </c>
-      <c r="AD19" s="11">
-        <v>25</v>
-      </c>
-      <c r="AE19" s="11">
-        <v>61</v>
-      </c>
-      <c r="AF19" s="11">
-        <v>77</v>
-      </c>
-      <c r="AG19" s="11">
-        <v>141</v>
-      </c>
-      <c r="AH19" s="11">
-        <v>116</v>
-      </c>
-      <c r="AI19" s="11">
-        <v>47</v>
-      </c>
-      <c r="AJ19" s="11">
-        <v>45</v>
-      </c>
-      <c r="AK19" s="11">
-        <v>40</v>
-      </c>
-      <c r="AL19" s="11">
-        <v>47</v>
-      </c>
-      <c r="AM19" s="11">
-        <v>38</v>
-      </c>
-      <c r="AN19" s="11">
-        <v>82</v>
-      </c>
-      <c r="AO19" s="11">
-        <v>84</v>
-      </c>
-      <c r="AP19" s="11">
-        <v>29</v>
-      </c>
-      <c r="AQ19" s="11">
-        <v>17</v>
-      </c>
-      <c r="AR19" s="11">
-        <v>44</v>
-      </c>
-      <c r="AS19" s="11">
-        <v>45</v>
-      </c>
-      <c r="AT19" s="11">
-        <v>49</v>
-      </c>
-      <c r="AU19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW19" s="11">
-        <v>66</v>
-      </c>
-      <c r="AX19" s="11">
-        <v>77</v>
-      </c>
-      <c r="AY19" s="11">
-        <v>50</v>
-      </c>
-      <c r="AZ19" s="11">
+      <c r="BA19" s="11">
+        <v>8</v>
+      </c>
+      <c r="BB19" s="11">
         <v>23</v>
-      </c>
-      <c r="BA19" s="11">
-        <v>40</v>
-      </c>
-      <c r="BB19" s="11">
-        <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2878,140 +2878,140 @@
       <c r="I20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="13" t="s">
-        <v>57</v>
+      <c r="J20" s="13">
+        <v>224</v>
       </c>
       <c r="K20" s="13">
-        <v>224</v>
+        <v>481</v>
       </c>
       <c r="L20" s="13">
-        <v>481</v>
+        <v>300</v>
       </c>
       <c r="M20" s="13">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="N20" s="13">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="O20" s="13">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="P20" s="13">
-        <v>389</v>
+        <v>291</v>
       </c>
       <c r="Q20" s="13">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="R20" s="13">
-        <v>283</v>
+        <v>385</v>
       </c>
       <c r="S20" s="13">
-        <v>385</v>
+        <v>183</v>
       </c>
       <c r="T20" s="13">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="U20" s="13">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="V20" s="13">
-        <v>288</v>
+        <v>169</v>
       </c>
       <c r="W20" s="13">
+        <v>323</v>
+      </c>
+      <c r="X20" s="13">
+        <v>467</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>97</v>
+      </c>
+      <c r="AA20" s="13">
+        <v>211</v>
+      </c>
+      <c r="AB20" s="13">
+        <v>261</v>
+      </c>
+      <c r="AC20" s="13">
+        <v>231</v>
+      </c>
+      <c r="AD20" s="13">
+        <v>466</v>
+      </c>
+      <c r="AE20" s="13">
+        <v>238</v>
+      </c>
+      <c r="AF20" s="13">
+        <v>387</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>421</v>
+      </c>
+      <c r="AH20" s="13">
+        <v>242</v>
+      </c>
+      <c r="AI20" s="13">
+        <v>552</v>
+      </c>
+      <c r="AJ20" s="13">
+        <v>133</v>
+      </c>
+      <c r="AK20" s="13">
+        <v>184</v>
+      </c>
+      <c r="AL20" s="13">
+        <v>465</v>
+      </c>
+      <c r="AM20" s="13">
+        <v>438</v>
+      </c>
+      <c r="AN20" s="13">
+        <v>277</v>
+      </c>
+      <c r="AO20" s="13">
+        <v>366</v>
+      </c>
+      <c r="AP20" s="13">
+        <v>428</v>
+      </c>
+      <c r="AQ20" s="13">
+        <v>453</v>
+      </c>
+      <c r="AR20" s="13">
+        <v>377</v>
+      </c>
+      <c r="AS20" s="13">
+        <v>373</v>
+      </c>
+      <c r="AT20" s="13">
+        <v>11</v>
+      </c>
+      <c r="AU20" s="13">
+        <v>226</v>
+      </c>
+      <c r="AV20" s="13">
+        <v>310</v>
+      </c>
+      <c r="AW20" s="13">
+        <v>184</v>
+      </c>
+      <c r="AX20" s="13">
         <v>169</v>
       </c>
-      <c r="X20" s="13">
-        <v>323</v>
-      </c>
-      <c r="Y20" s="13">
-        <v>467</v>
-      </c>
-      <c r="Z20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="13">
-        <v>97</v>
-      </c>
-      <c r="AB20" s="13">
-        <v>211</v>
-      </c>
-      <c r="AC20" s="13">
-        <v>261</v>
-      </c>
-      <c r="AD20" s="13">
-        <v>231</v>
-      </c>
-      <c r="AE20" s="13">
-        <v>466</v>
-      </c>
-      <c r="AF20" s="13">
-        <v>238</v>
-      </c>
-      <c r="AG20" s="13">
-        <v>387</v>
-      </c>
-      <c r="AH20" s="13">
-        <v>421</v>
-      </c>
-      <c r="AI20" s="13">
-        <v>242</v>
-      </c>
-      <c r="AJ20" s="13">
-        <v>552</v>
-      </c>
-      <c r="AK20" s="13">
-        <v>133</v>
-      </c>
-      <c r="AL20" s="13">
-        <v>184</v>
-      </c>
-      <c r="AM20" s="13">
-        <v>465</v>
-      </c>
-      <c r="AN20" s="13">
-        <v>438</v>
-      </c>
-      <c r="AO20" s="13">
-        <v>277</v>
-      </c>
-      <c r="AP20" s="13">
-        <v>366</v>
-      </c>
-      <c r="AQ20" s="13">
-        <v>428</v>
-      </c>
-      <c r="AR20" s="13">
-        <v>453</v>
-      </c>
-      <c r="AS20" s="13">
-        <v>377</v>
-      </c>
-      <c r="AT20" s="13">
-        <v>373</v>
-      </c>
-      <c r="AU20" s="13">
-        <v>11</v>
-      </c>
-      <c r="AV20" s="13">
-        <v>226</v>
-      </c>
-      <c r="AW20" s="13">
-        <v>310</v>
-      </c>
-      <c r="AX20" s="13">
-        <v>184</v>
-      </c>
       <c r="AY20" s="13">
-        <v>169</v>
+        <v>275</v>
       </c>
       <c r="AZ20" s="13">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="BA20" s="13">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="BB20" s="13">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3109,68 +3109,68 @@
       <c r="AG21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH21" s="11" t="s">
-        <v>57</v>
+      <c r="AH21" s="11">
+        <v>1349</v>
       </c>
       <c r="AI21" s="11">
-        <v>1349</v>
+        <v>4198</v>
       </c>
       <c r="AJ21" s="11">
-        <v>4198</v>
+        <v>355</v>
       </c>
       <c r="AK21" s="11">
-        <v>355</v>
+        <v>524</v>
       </c>
       <c r="AL21" s="11">
-        <v>524</v>
+        <v>1088</v>
       </c>
       <c r="AM21" s="11">
-        <v>1088</v>
+        <v>2991</v>
       </c>
       <c r="AN21" s="11">
-        <v>2991</v>
+        <v>797</v>
       </c>
       <c r="AO21" s="11">
-        <v>797</v>
+        <v>3403</v>
       </c>
       <c r="AP21" s="11">
-        <v>3403</v>
+        <v>5451</v>
       </c>
       <c r="AQ21" s="11">
-        <v>5451</v>
+        <v>2065</v>
       </c>
       <c r="AR21" s="11">
-        <v>2065</v>
+        <v>2035</v>
       </c>
       <c r="AS21" s="11">
-        <v>2035</v>
+        <v>4308</v>
       </c>
       <c r="AT21" s="11">
-        <v>4308</v>
+        <v>477</v>
       </c>
       <c r="AU21" s="11">
-        <v>477</v>
+        <v>969</v>
       </c>
       <c r="AV21" s="11">
-        <v>969</v>
+        <v>913</v>
       </c>
       <c r="AW21" s="11">
-        <v>913</v>
+        <v>2068</v>
       </c>
       <c r="AX21" s="11">
-        <v>2068</v>
+        <v>181</v>
       </c>
       <c r="AY21" s="11">
-        <v>181</v>
+        <v>443</v>
       </c>
       <c r="AZ21" s="11">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="BA21" s="11">
-        <v>429</v>
+        <v>1446</v>
       </c>
       <c r="BB21" s="11">
-        <v>1446</v>
+        <v>839</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3268,68 +3268,68 @@
       <c r="AG22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH22" s="13" t="s">
-        <v>57</v>
+      <c r="AH22" s="13">
+        <v>194</v>
       </c>
       <c r="AI22" s="13">
-        <v>194</v>
+        <v>477</v>
       </c>
       <c r="AJ22" s="13">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="AK22" s="13">
-        <v>482</v>
+        <v>210</v>
       </c>
       <c r="AL22" s="13">
-        <v>210</v>
+        <v>641</v>
       </c>
       <c r="AM22" s="13">
-        <v>641</v>
+        <v>420</v>
       </c>
       <c r="AN22" s="13">
-        <v>420</v>
+        <v>304</v>
       </c>
       <c r="AO22" s="13">
-        <v>304</v>
+        <v>982</v>
       </c>
       <c r="AP22" s="13">
-        <v>982</v>
+        <v>494</v>
       </c>
       <c r="AQ22" s="13">
-        <v>494</v>
+        <v>1338</v>
       </c>
       <c r="AR22" s="13">
-        <v>1338</v>
+        <v>771</v>
       </c>
       <c r="AS22" s="13">
-        <v>771</v>
+        <v>1063</v>
       </c>
       <c r="AT22" s="13">
-        <v>1063</v>
+        <v>230</v>
       </c>
       <c r="AU22" s="13">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AV22" s="13">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AW22" s="13">
-        <v>34</v>
+        <v>529</v>
       </c>
       <c r="AX22" s="13">
-        <v>529</v>
+        <v>232</v>
       </c>
       <c r="AY22" s="13">
-        <v>232</v>
+        <v>664</v>
       </c>
       <c r="AZ22" s="13">
-        <v>664</v>
+        <v>137</v>
       </c>
       <c r="BA22" s="13">
-        <v>137</v>
+        <v>2750</v>
       </c>
       <c r="BB22" s="13">
-        <v>2750</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3427,68 +3427,68 @@
       <c r="AG23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH23" s="11" t="s">
-        <v>57</v>
+      <c r="AH23" s="11">
+        <v>13</v>
       </c>
       <c r="AI23" s="11">
+        <v>5</v>
+      </c>
+      <c r="AJ23" s="11">
+        <v>2</v>
+      </c>
+      <c r="AK23" s="11">
+        <v>21</v>
+      </c>
+      <c r="AL23" s="11">
+        <v>10</v>
+      </c>
+      <c r="AM23" s="11">
+        <v>8</v>
+      </c>
+      <c r="AN23" s="11">
         <v>13</v>
       </c>
-      <c r="AJ23" s="11">
-        <v>5</v>
-      </c>
-      <c r="AK23" s="11">
+      <c r="AO23" s="11">
+        <v>12</v>
+      </c>
+      <c r="AP23" s="11">
+        <v>15</v>
+      </c>
+      <c r="AQ23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="11">
+        <v>102</v>
+      </c>
+      <c r="AS23" s="11">
+        <v>9</v>
+      </c>
+      <c r="AT23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="11">
+        <v>99</v>
+      </c>
+      <c r="AW23" s="11">
+        <v>-79</v>
+      </c>
+      <c r="AX23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="11">
+        <v>1</v>
+      </c>
+      <c r="AZ23" s="11">
         <v>2</v>
       </c>
-      <c r="AL23" s="11">
-        <v>21</v>
-      </c>
-      <c r="AM23" s="11">
-        <v>10</v>
-      </c>
-      <c r="AN23" s="11">
-        <v>8</v>
-      </c>
-      <c r="AO23" s="11">
-        <v>13</v>
-      </c>
-      <c r="AP23" s="11">
+      <c r="BA23" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB23" s="11">
         <v>12</v>
-      </c>
-      <c r="AQ23" s="11">
-        <v>15</v>
-      </c>
-      <c r="AR23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS23" s="11">
-        <v>102</v>
-      </c>
-      <c r="AT23" s="11">
-        <v>9</v>
-      </c>
-      <c r="AU23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW23" s="11">
-        <v>99</v>
-      </c>
-      <c r="AX23" s="11">
-        <v>-79</v>
-      </c>
-      <c r="AY23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ23" s="11">
-        <v>1</v>
-      </c>
-      <c r="BA23" s="11">
-        <v>2</v>
-      </c>
-      <c r="BB23" s="11">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3614,8 +3614,8 @@
       <c r="X25" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y25" s="17" t="s">
-        <v>57</v>
+      <c r="Y25" s="17">
+        <v>0</v>
       </c>
       <c r="Z25" s="17">
         <v>0</v>
@@ -3727,139 +3727,139 @@
         <v>0</v>
       </c>
       <c r="J26" s="19">
-        <v>0</v>
+        <v>3929</v>
       </c>
       <c r="K26" s="19">
-        <v>3929</v>
+        <v>18887</v>
       </c>
       <c r="L26" s="19">
-        <v>18887</v>
+        <v>20185</v>
       </c>
       <c r="M26" s="19">
-        <v>20185</v>
+        <v>17407</v>
       </c>
       <c r="N26" s="19">
-        <v>17407</v>
+        <v>14311</v>
       </c>
       <c r="O26" s="19">
-        <v>14311</v>
+        <v>16647</v>
       </c>
       <c r="P26" s="19">
-        <v>16647</v>
+        <v>12290</v>
       </c>
       <c r="Q26" s="19">
-        <v>12290</v>
+        <v>13672</v>
       </c>
       <c r="R26" s="19">
-        <v>13672</v>
+        <v>17203</v>
       </c>
       <c r="S26" s="19">
-        <v>17203</v>
+        <v>17716</v>
       </c>
       <c r="T26" s="19">
-        <v>17716</v>
+        <v>16285</v>
       </c>
       <c r="U26" s="19">
-        <v>16285</v>
+        <v>18551</v>
       </c>
       <c r="V26" s="19">
-        <v>18551</v>
+        <v>16239</v>
       </c>
       <c r="W26" s="19">
-        <v>16239</v>
+        <v>12051</v>
       </c>
       <c r="X26" s="19">
-        <v>12051</v>
+        <v>25287</v>
       </c>
       <c r="Y26" s="19">
-        <v>25287</v>
+        <v>22285</v>
       </c>
       <c r="Z26" s="19">
-        <v>22285</v>
+        <v>19154</v>
       </c>
       <c r="AA26" s="19">
-        <v>19154</v>
+        <v>19141</v>
       </c>
       <c r="AB26" s="19">
-        <v>19141</v>
+        <v>21411</v>
       </c>
       <c r="AC26" s="19">
-        <v>21411</v>
+        <v>25840</v>
       </c>
       <c r="AD26" s="19">
-        <v>25840</v>
+        <v>19052</v>
       </c>
       <c r="AE26" s="19">
-        <v>19052</v>
+        <v>18369</v>
       </c>
       <c r="AF26" s="19">
-        <v>18369</v>
+        <v>18065</v>
       </c>
       <c r="AG26" s="19">
-        <v>18065</v>
+        <v>20108</v>
       </c>
       <c r="AH26" s="19">
-        <v>20108</v>
+        <v>8902</v>
       </c>
       <c r="AI26" s="19">
-        <v>8902</v>
+        <v>22996</v>
       </c>
       <c r="AJ26" s="19">
-        <v>22996</v>
+        <v>23893</v>
       </c>
       <c r="AK26" s="19">
-        <v>23893</v>
+        <v>22460</v>
       </c>
       <c r="AL26" s="19">
-        <v>22460</v>
+        <v>23877</v>
       </c>
       <c r="AM26" s="19">
-        <v>23877</v>
+        <v>20707</v>
       </c>
       <c r="AN26" s="19">
-        <v>20707</v>
+        <v>17672</v>
       </c>
       <c r="AO26" s="19">
-        <v>17672</v>
+        <v>24140</v>
       </c>
       <c r="AP26" s="19">
-        <v>24140</v>
+        <v>23221</v>
       </c>
       <c r="AQ26" s="19">
-        <v>23221</v>
+        <v>20074</v>
       </c>
       <c r="AR26" s="19">
-        <v>20074</v>
+        <v>16696</v>
       </c>
       <c r="AS26" s="19">
-        <v>16696</v>
+        <v>20609</v>
       </c>
       <c r="AT26" s="19">
-        <v>20609</v>
+        <v>1870</v>
       </c>
       <c r="AU26" s="19">
-        <v>1870</v>
+        <v>16295</v>
       </c>
       <c r="AV26" s="19">
-        <v>16295</v>
+        <v>20605</v>
       </c>
       <c r="AW26" s="19">
-        <v>20605</v>
+        <v>14377</v>
       </c>
       <c r="AX26" s="19">
-        <v>14377</v>
+        <v>10510</v>
       </c>
       <c r="AY26" s="19">
-        <v>10510</v>
+        <v>11865</v>
       </c>
       <c r="AZ26" s="19">
-        <v>11865</v>
+        <v>9623</v>
       </c>
       <c r="BA26" s="19">
-        <v>9623</v>
+        <v>19444</v>
       </c>
       <c r="BB26" s="19">
-        <v>19444</v>
+        <v>13966</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -4391,8 +4391,8 @@
       <c r="AG33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH33" s="11" t="s">
-        <v>57</v>
+      <c r="AH33" s="11">
+        <v>0</v>
       </c>
       <c r="AI33" s="11">
         <v>0</v>
@@ -4478,140 +4478,140 @@
       <c r="I34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J34" s="13" t="s">
-        <v>57</v>
+      <c r="J34" s="13">
+        <v>74</v>
       </c>
       <c r="K34" s="13">
-        <v>74</v>
+        <v>378</v>
       </c>
       <c r="L34" s="13">
-        <v>378</v>
+        <v>99</v>
       </c>
       <c r="M34" s="13">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="N34" s="13">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="O34" s="13">
-        <v>63</v>
+        <v>2157</v>
       </c>
       <c r="P34" s="13">
-        <v>2157</v>
+        <v>80</v>
       </c>
       <c r="Q34" s="13">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="R34" s="13">
-        <v>201</v>
+        <v>1193</v>
       </c>
       <c r="S34" s="13">
-        <v>1193</v>
+        <v>220</v>
       </c>
       <c r="T34" s="13">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="U34" s="13">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="V34" s="13">
-        <v>310</v>
+        <v>134</v>
       </c>
       <c r="W34" s="13">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="X34" s="13">
-        <v>239</v>
+        <v>365</v>
       </c>
       <c r="Y34" s="13">
-        <v>365</v>
+        <v>778</v>
       </c>
       <c r="Z34" s="13">
-        <v>778</v>
+        <v>579</v>
       </c>
       <c r="AA34" s="13">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="AB34" s="13">
-        <v>596</v>
+        <v>1031</v>
       </c>
       <c r="AC34" s="13">
-        <v>1031</v>
+        <v>491</v>
       </c>
       <c r="AD34" s="13">
-        <v>491</v>
+        <v>449</v>
       </c>
       <c r="AE34" s="13">
-        <v>449</v>
+        <v>534</v>
       </c>
       <c r="AF34" s="13">
-        <v>534</v>
+        <v>623</v>
       </c>
       <c r="AG34" s="13">
-        <v>623</v>
+        <v>838</v>
       </c>
       <c r="AH34" s="13">
-        <v>838</v>
+        <v>207</v>
       </c>
       <c r="AI34" s="13">
-        <v>207</v>
+        <v>522</v>
       </c>
       <c r="AJ34" s="13">
-        <v>522</v>
+        <v>690</v>
       </c>
       <c r="AK34" s="13">
-        <v>690</v>
+        <v>544</v>
       </c>
       <c r="AL34" s="13">
-        <v>544</v>
+        <v>247</v>
       </c>
       <c r="AM34" s="13">
-        <v>247</v>
+        <v>149</v>
       </c>
       <c r="AN34" s="13">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="AO34" s="13">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AP34" s="13">
-        <v>193</v>
+        <v>370</v>
       </c>
       <c r="AQ34" s="13">
-        <v>370</v>
+        <v>479</v>
       </c>
       <c r="AR34" s="13">
-        <v>479</v>
+        <v>398</v>
       </c>
       <c r="AS34" s="13">
-        <v>398</v>
+        <v>483</v>
       </c>
       <c r="AT34" s="13">
-        <v>483</v>
+        <v>146</v>
       </c>
       <c r="AU34" s="13">
-        <v>146</v>
+        <v>637</v>
       </c>
       <c r="AV34" s="13">
-        <v>637</v>
+        <v>833</v>
       </c>
       <c r="AW34" s="13">
-        <v>833</v>
+        <v>885</v>
       </c>
       <c r="AX34" s="13">
-        <v>885</v>
+        <v>806</v>
       </c>
       <c r="AY34" s="13">
-        <v>806</v>
+        <v>513</v>
       </c>
       <c r="AZ34" s="13">
-        <v>513</v>
+        <v>440</v>
       </c>
       <c r="BA34" s="13">
-        <v>440</v>
+        <v>608</v>
       </c>
       <c r="BB34" s="13">
-        <v>608</v>
+        <v>584</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4637,83 +4637,83 @@
       <c r="I35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J35" s="11" t="s">
-        <v>57</v>
+      <c r="J35" s="11">
+        <v>4</v>
       </c>
       <c r="K35" s="11">
+        <v>23</v>
+      </c>
+      <c r="L35" s="11">
+        <v>6</v>
+      </c>
+      <c r="M35" s="11">
+        <v>19</v>
+      </c>
+      <c r="N35" s="11">
+        <v>10</v>
+      </c>
+      <c r="O35" s="11">
+        <v>13</v>
+      </c>
+      <c r="P35" s="11">
+        <v>15</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>37</v>
+      </c>
+      <c r="R35" s="11">
+        <v>51</v>
+      </c>
+      <c r="S35" s="11">
+        <v>48</v>
+      </c>
+      <c r="T35" s="11">
+        <v>46</v>
+      </c>
+      <c r="U35" s="11">
+        <v>77</v>
+      </c>
+      <c r="V35" s="11">
+        <v>2</v>
+      </c>
+      <c r="W35" s="11">
         <v>4</v>
       </c>
-      <c r="L35" s="11">
-        <v>23</v>
-      </c>
-      <c r="M35" s="11">
+      <c r="X35" s="11">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="11">
+        <v>7</v>
+      </c>
+      <c r="Z35" s="11">
+        <v>3</v>
+      </c>
+      <c r="AA35" s="11">
+        <v>8</v>
+      </c>
+      <c r="AB35" s="11">
+        <v>5</v>
+      </c>
+      <c r="AC35" s="11">
+        <v>7</v>
+      </c>
+      <c r="AD35" s="11">
         <v>6</v>
       </c>
-      <c r="N35" s="11">
-        <v>19</v>
-      </c>
-      <c r="O35" s="11">
-        <v>10</v>
-      </c>
-      <c r="P35" s="11">
+      <c r="AE35" s="11">
+        <v>5</v>
+      </c>
+      <c r="AF35" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG35" s="11">
         <v>13</v>
       </c>
-      <c r="Q35" s="11">
-        <v>15</v>
-      </c>
-      <c r="R35" s="11">
-        <v>37</v>
-      </c>
-      <c r="S35" s="11">
-        <v>51</v>
-      </c>
-      <c r="T35" s="11">
-        <v>48</v>
-      </c>
-      <c r="U35" s="11">
-        <v>46</v>
-      </c>
-      <c r="V35" s="11">
-        <v>77</v>
-      </c>
-      <c r="W35" s="11">
-        <v>2</v>
-      </c>
-      <c r="X35" s="11">
-        <v>4</v>
-      </c>
-      <c r="Y35" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z35" s="11">
-        <v>7</v>
-      </c>
-      <c r="AA35" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB35" s="11">
-        <v>8</v>
-      </c>
-      <c r="AC35" s="11">
-        <v>5</v>
-      </c>
-      <c r="AD35" s="11">
-        <v>7</v>
-      </c>
-      <c r="AE35" s="11">
+      <c r="AH35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="11">
         <v>6</v>
-      </c>
-      <c r="AF35" s="11">
-        <v>5</v>
-      </c>
-      <c r="AG35" s="11">
-        <v>6</v>
-      </c>
-      <c r="AH35" s="11">
-        <v>13</v>
-      </c>
-      <c r="AI35" s="11">
-        <v>0</v>
       </c>
       <c r="AJ35" s="11">
         <v>6</v>
@@ -4722,31 +4722,31 @@
         <v>6</v>
       </c>
       <c r="AL35" s="11">
+        <v>7</v>
+      </c>
+      <c r="AM35" s="11">
         <v>6</v>
       </c>
-      <c r="AM35" s="11">
+      <c r="AN35" s="11">
         <v>7</v>
       </c>
-      <c r="AN35" s="11">
-        <v>6</v>
-      </c>
       <c r="AO35" s="11">
+        <v>13</v>
+      </c>
+      <c r="AP35" s="11">
         <v>7</v>
       </c>
-      <c r="AP35" s="11">
-        <v>13</v>
-      </c>
       <c r="AQ35" s="11">
+        <v>8</v>
+      </c>
+      <c r="AR35" s="11">
         <v>7</v>
       </c>
-      <c r="AR35" s="11">
-        <v>8</v>
-      </c>
       <c r="AS35" s="11">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AT35" s="11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AU35" s="11">
         <v>0</v>
@@ -4761,10 +4761,10 @@
         <v>0</v>
       </c>
       <c r="AY35" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ35" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA35" s="11">
         <v>0</v>
@@ -4796,140 +4796,140 @@
       <c r="I36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J36" s="13" t="s">
-        <v>57</v>
+      <c r="J36" s="13">
+        <v>2032</v>
       </c>
       <c r="K36" s="13">
-        <v>2032</v>
+        <v>13101</v>
       </c>
       <c r="L36" s="13">
-        <v>13101</v>
+        <v>13755</v>
       </c>
       <c r="M36" s="13">
-        <v>13755</v>
+        <v>12430</v>
       </c>
       <c r="N36" s="13">
-        <v>12430</v>
+        <v>10515</v>
       </c>
       <c r="O36" s="13">
-        <v>10515</v>
+        <v>10152</v>
       </c>
       <c r="P36" s="13">
-        <v>10152</v>
+        <v>10861</v>
       </c>
       <c r="Q36" s="13">
-        <v>10861</v>
+        <v>10092</v>
       </c>
       <c r="R36" s="13">
-        <v>10092</v>
+        <v>11884</v>
       </c>
       <c r="S36" s="13">
-        <v>11884</v>
+        <v>11992</v>
       </c>
       <c r="T36" s="13">
-        <v>11992</v>
+        <v>13446</v>
       </c>
       <c r="U36" s="13">
-        <v>13446</v>
+        <v>16727</v>
       </c>
       <c r="V36" s="13">
-        <v>16727</v>
+        <v>13395</v>
       </c>
       <c r="W36" s="13">
-        <v>13395</v>
+        <v>9796</v>
       </c>
       <c r="X36" s="13">
-        <v>9796</v>
+        <v>13281</v>
       </c>
       <c r="Y36" s="13">
-        <v>13281</v>
+        <v>13264</v>
       </c>
       <c r="Z36" s="13">
-        <v>13264</v>
+        <v>13833</v>
       </c>
       <c r="AA36" s="13">
-        <v>13833</v>
+        <v>11275</v>
       </c>
       <c r="AB36" s="13">
-        <v>11275</v>
+        <v>16972</v>
       </c>
       <c r="AC36" s="13">
-        <v>16972</v>
+        <v>20277</v>
       </c>
       <c r="AD36" s="13">
-        <v>20277</v>
+        <v>9815</v>
       </c>
       <c r="AE36" s="13">
-        <v>9815</v>
+        <v>14661</v>
       </c>
       <c r="AF36" s="13">
-        <v>14661</v>
+        <v>12199</v>
       </c>
       <c r="AG36" s="13">
-        <v>12199</v>
+        <v>14504</v>
       </c>
       <c r="AH36" s="13">
-        <v>14504</v>
+        <v>6813</v>
       </c>
       <c r="AI36" s="13">
-        <v>6813</v>
+        <v>10423</v>
       </c>
       <c r="AJ36" s="13">
-        <v>10423</v>
+        <v>22437</v>
       </c>
       <c r="AK36" s="13">
-        <v>22437</v>
+        <v>19668</v>
       </c>
       <c r="AL36" s="13">
-        <v>19668</v>
+        <v>15370</v>
       </c>
       <c r="AM36" s="13">
-        <v>15370</v>
+        <v>12765</v>
       </c>
       <c r="AN36" s="13">
-        <v>12765</v>
+        <v>10898</v>
       </c>
       <c r="AO36" s="13">
-        <v>10898</v>
+        <v>13579</v>
       </c>
       <c r="AP36" s="13">
-        <v>13579</v>
+        <v>9928</v>
       </c>
       <c r="AQ36" s="13">
-        <v>9928</v>
+        <v>11979</v>
       </c>
       <c r="AR36" s="13">
-        <v>11979</v>
+        <v>9617</v>
       </c>
       <c r="AS36" s="13">
-        <v>9617</v>
+        <v>9553</v>
       </c>
       <c r="AT36" s="13">
-        <v>9553</v>
+        <v>1529</v>
       </c>
       <c r="AU36" s="13">
-        <v>1529</v>
+        <v>11211</v>
       </c>
       <c r="AV36" s="13">
-        <v>11211</v>
+        <v>13159</v>
       </c>
       <c r="AW36" s="13">
-        <v>13159</v>
+        <v>6587</v>
       </c>
       <c r="AX36" s="13">
-        <v>6587</v>
+        <v>5800</v>
       </c>
       <c r="AY36" s="13">
-        <v>5800</v>
+        <v>8431</v>
       </c>
       <c r="AZ36" s="13">
-        <v>8431</v>
+        <v>6359</v>
       </c>
       <c r="BA36" s="13">
-        <v>6359</v>
+        <v>10896</v>
       </c>
       <c r="BB36" s="13">
-        <v>10896</v>
+        <v>8487</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4955,140 +4955,140 @@
       <c r="I37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J37" s="11" t="s">
-        <v>57</v>
+      <c r="J37" s="11">
+        <v>775</v>
       </c>
       <c r="K37" s="11">
-        <v>775</v>
+        <v>2743</v>
       </c>
       <c r="L37" s="11">
-        <v>2743</v>
+        <v>1619</v>
       </c>
       <c r="M37" s="11">
-        <v>1619</v>
+        <v>2664</v>
       </c>
       <c r="N37" s="11">
-        <v>2664</v>
+        <v>2527</v>
       </c>
       <c r="O37" s="11">
-        <v>2527</v>
+        <v>2172</v>
       </c>
       <c r="P37" s="11">
-        <v>2172</v>
+        <v>2285</v>
       </c>
       <c r="Q37" s="11">
-        <v>2285</v>
+        <v>2638</v>
       </c>
       <c r="R37" s="11">
-        <v>2638</v>
+        <v>2974</v>
       </c>
       <c r="S37" s="11">
+        <v>2839</v>
+      </c>
+      <c r="T37" s="11">
+        <v>2957</v>
+      </c>
+      <c r="U37" s="11">
+        <v>3562</v>
+      </c>
+      <c r="V37" s="11">
+        <v>1813</v>
+      </c>
+      <c r="W37" s="11">
+        <v>2494</v>
+      </c>
+      <c r="X37" s="11">
+        <v>3483</v>
+      </c>
+      <c r="Y37" s="11">
+        <v>2868</v>
+      </c>
+      <c r="Z37" s="11">
+        <v>2396</v>
+      </c>
+      <c r="AA37" s="11">
+        <v>2340</v>
+      </c>
+      <c r="AB37" s="11">
+        <v>3056</v>
+      </c>
+      <c r="AC37" s="11">
+        <v>4129</v>
+      </c>
+      <c r="AD37" s="11">
+        <v>3129</v>
+      </c>
+      <c r="AE37" s="11">
+        <v>3152</v>
+      </c>
+      <c r="AF37" s="11">
+        <v>3085</v>
+      </c>
+      <c r="AG37" s="11">
+        <v>3132</v>
+      </c>
+      <c r="AH37" s="11">
+        <v>1415</v>
+      </c>
+      <c r="AI37" s="11">
+        <v>2136</v>
+      </c>
+      <c r="AJ37" s="11">
+        <v>2727</v>
+      </c>
+      <c r="AK37" s="11">
+        <v>3723</v>
+      </c>
+      <c r="AL37" s="11">
+        <v>2745</v>
+      </c>
+      <c r="AM37" s="11">
+        <v>3453</v>
+      </c>
+      <c r="AN37" s="11">
+        <v>3586</v>
+      </c>
+      <c r="AO37" s="11">
+        <v>3102</v>
+      </c>
+      <c r="AP37" s="11">
+        <v>3229</v>
+      </c>
+      <c r="AQ37" s="11">
+        <v>3088</v>
+      </c>
+      <c r="AR37" s="11">
+        <v>2626</v>
+      </c>
+      <c r="AS37" s="11">
         <v>2974</v>
       </c>
-      <c r="T37" s="11">
-        <v>2839</v>
-      </c>
-      <c r="U37" s="11">
-        <v>2957</v>
-      </c>
-      <c r="V37" s="11">
-        <v>3562</v>
-      </c>
-      <c r="W37" s="11">
-        <v>1813</v>
-      </c>
-      <c r="X37" s="11">
-        <v>2494</v>
-      </c>
-      <c r="Y37" s="11">
-        <v>3483</v>
-      </c>
-      <c r="Z37" s="11">
-        <v>2868</v>
-      </c>
-      <c r="AA37" s="11">
+      <c r="AT37" s="11">
+        <v>504</v>
+      </c>
+      <c r="AU37" s="11">
+        <v>2423</v>
+      </c>
+      <c r="AV37" s="11">
+        <v>4156</v>
+      </c>
+      <c r="AW37" s="11">
         <v>2396</v>
       </c>
-      <c r="AB37" s="11">
-        <v>2340</v>
-      </c>
-      <c r="AC37" s="11">
-        <v>3056</v>
-      </c>
-      <c r="AD37" s="11">
-        <v>4129</v>
-      </c>
-      <c r="AE37" s="11">
-        <v>3129</v>
-      </c>
-      <c r="AF37" s="11">
-        <v>3152</v>
-      </c>
-      <c r="AG37" s="11">
-        <v>3085</v>
-      </c>
-      <c r="AH37" s="11">
-        <v>3132</v>
-      </c>
-      <c r="AI37" s="11">
-        <v>1415</v>
-      </c>
-      <c r="AJ37" s="11">
-        <v>2136</v>
-      </c>
-      <c r="AK37" s="11">
-        <v>2727</v>
-      </c>
-      <c r="AL37" s="11">
-        <v>3723</v>
-      </c>
-      <c r="AM37" s="11">
-        <v>2745</v>
-      </c>
-      <c r="AN37" s="11">
-        <v>3453</v>
-      </c>
-      <c r="AO37" s="11">
-        <v>3586</v>
-      </c>
-      <c r="AP37" s="11">
-        <v>3102</v>
-      </c>
-      <c r="AQ37" s="11">
-        <v>3229</v>
-      </c>
-      <c r="AR37" s="11">
-        <v>3088</v>
-      </c>
-      <c r="AS37" s="11">
-        <v>2626</v>
-      </c>
-      <c r="AT37" s="11">
-        <v>2974</v>
-      </c>
-      <c r="AU37" s="11">
-        <v>504</v>
-      </c>
-      <c r="AV37" s="11">
-        <v>2423</v>
-      </c>
-      <c r="AW37" s="11">
-        <v>4156</v>
-      </c>
       <c r="AX37" s="11">
-        <v>2396</v>
+        <v>1966</v>
       </c>
       <c r="AY37" s="11">
-        <v>1966</v>
+        <v>2576</v>
       </c>
       <c r="AZ37" s="11">
-        <v>2576</v>
+        <v>2155</v>
       </c>
       <c r="BA37" s="11">
-        <v>2155</v>
+        <v>2250</v>
       </c>
       <c r="BB37" s="11">
-        <v>2250</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5114,140 +5114,140 @@
       <c r="I38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J38" s="13" t="s">
-        <v>57</v>
+      <c r="J38" s="13">
+        <v>55</v>
       </c>
       <c r="K38" s="13">
-        <v>55</v>
+        <v>236</v>
       </c>
       <c r="L38" s="13">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="M38" s="13">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N38" s="13">
         <v>166</v>
       </c>
       <c r="O38" s="13">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="P38" s="13">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q38" s="13">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="R38" s="13">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="S38" s="13">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="T38" s="13">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="U38" s="13">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="V38" s="13">
-        <v>278</v>
+        <v>101</v>
       </c>
       <c r="W38" s="13">
+        <v>225</v>
+      </c>
+      <c r="X38" s="13">
+        <v>240</v>
+      </c>
+      <c r="Y38" s="13">
+        <v>206</v>
+      </c>
+      <c r="Z38" s="13">
+        <v>196</v>
+      </c>
+      <c r="AA38" s="13">
+        <v>192</v>
+      </c>
+      <c r="AB38" s="13">
+        <v>208</v>
+      </c>
+      <c r="AC38" s="13">
+        <v>170</v>
+      </c>
+      <c r="AD38" s="13">
+        <v>199</v>
+      </c>
+      <c r="AE38" s="13">
+        <v>192</v>
+      </c>
+      <c r="AF38" s="13">
+        <v>188</v>
+      </c>
+      <c r="AG38" s="13">
+        <v>204</v>
+      </c>
+      <c r="AH38" s="13">
         <v>101</v>
       </c>
-      <c r="X38" s="13">
-        <v>225</v>
-      </c>
-      <c r="Y38" s="13">
-        <v>240</v>
-      </c>
-      <c r="Z38" s="13">
+      <c r="AI38" s="13">
+        <v>170</v>
+      </c>
+      <c r="AJ38" s="13">
+        <v>159</v>
+      </c>
+      <c r="AK38" s="13">
+        <v>254</v>
+      </c>
+      <c r="AL38" s="13">
+        <v>184</v>
+      </c>
+      <c r="AM38" s="13">
+        <v>178</v>
+      </c>
+      <c r="AN38" s="13">
+        <v>184</v>
+      </c>
+      <c r="AO38" s="13">
         <v>206</v>
       </c>
-      <c r="AA38" s="13">
-        <v>196</v>
-      </c>
-      <c r="AB38" s="13">
-        <v>192</v>
-      </c>
-      <c r="AC38" s="13">
-        <v>208</v>
-      </c>
-      <c r="AD38" s="13">
-        <v>170</v>
-      </c>
-      <c r="AE38" s="13">
-        <v>199</v>
-      </c>
-      <c r="AF38" s="13">
-        <v>192</v>
-      </c>
-      <c r="AG38" s="13">
-        <v>188</v>
-      </c>
-      <c r="AH38" s="13">
-        <v>204</v>
-      </c>
-      <c r="AI38" s="13">
-        <v>101</v>
-      </c>
-      <c r="AJ38" s="13">
-        <v>170</v>
-      </c>
-      <c r="AK38" s="13">
-        <v>159</v>
-      </c>
-      <c r="AL38" s="13">
-        <v>254</v>
-      </c>
-      <c r="AM38" s="13">
-        <v>184</v>
-      </c>
-      <c r="AN38" s="13">
-        <v>178</v>
-      </c>
-      <c r="AO38" s="13">
-        <v>184</v>
-      </c>
       <c r="AP38" s="13">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="AQ38" s="13">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="AR38" s="13">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="AS38" s="13">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="AT38" s="13">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="AU38" s="13">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="AV38" s="13">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="AW38" s="13">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="AX38" s="13">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="AY38" s="13">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="AZ38" s="13">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="BA38" s="13">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="BB38" s="13">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5273,140 +5273,140 @@
       <c r="I39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J39" s="11" t="s">
-        <v>57</v>
+      <c r="J39" s="11">
+        <v>214</v>
       </c>
       <c r="K39" s="11">
-        <v>214</v>
+        <v>495</v>
       </c>
       <c r="L39" s="11">
-        <v>495</v>
+        <v>291</v>
       </c>
       <c r="M39" s="11">
-        <v>291</v>
+        <v>364</v>
       </c>
       <c r="N39" s="11">
-        <v>364</v>
+        <v>115</v>
       </c>
       <c r="O39" s="11">
-        <v>115</v>
+        <v>301</v>
       </c>
       <c r="P39" s="11">
-        <v>301</v>
+        <v>108</v>
       </c>
       <c r="Q39" s="11">
+        <v>212</v>
+      </c>
+      <c r="R39" s="11">
+        <v>208</v>
+      </c>
+      <c r="S39" s="11">
+        <v>156</v>
+      </c>
+      <c r="T39" s="11">
+        <v>353</v>
+      </c>
+      <c r="U39" s="11">
+        <v>199</v>
+      </c>
+      <c r="V39" s="11">
+        <v>152</v>
+      </c>
+      <c r="W39" s="11">
+        <v>277</v>
+      </c>
+      <c r="X39" s="11">
+        <v>123</v>
+      </c>
+      <c r="Y39" s="11">
+        <v>208</v>
+      </c>
+      <c r="Z39" s="11">
+        <v>125</v>
+      </c>
+      <c r="AA39" s="11">
+        <v>104</v>
+      </c>
+      <c r="AB39" s="11">
+        <v>150</v>
+      </c>
+      <c r="AC39" s="11">
+        <v>131</v>
+      </c>
+      <c r="AD39" s="11">
+        <v>156</v>
+      </c>
+      <c r="AE39" s="11">
+        <v>123</v>
+      </c>
+      <c r="AF39" s="11">
+        <v>127</v>
+      </c>
+      <c r="AG39" s="11">
+        <v>121</v>
+      </c>
+      <c r="AH39" s="11">
+        <v>105</v>
+      </c>
+      <c r="AI39" s="11">
+        <v>239</v>
+      </c>
+      <c r="AJ39" s="11">
+        <v>120</v>
+      </c>
+      <c r="AK39" s="11">
+        <v>180</v>
+      </c>
+      <c r="AL39" s="11">
+        <v>121</v>
+      </c>
+      <c r="AM39" s="11">
+        <v>145</v>
+      </c>
+      <c r="AN39" s="11">
+        <v>157</v>
+      </c>
+      <c r="AO39" s="11">
+        <v>183</v>
+      </c>
+      <c r="AP39" s="11">
         <v>108</v>
       </c>
-      <c r="R39" s="11">
-        <v>212</v>
-      </c>
-      <c r="S39" s="11">
-        <v>208</v>
-      </c>
-      <c r="T39" s="11">
-        <v>156</v>
-      </c>
-      <c r="U39" s="11">
-        <v>353</v>
-      </c>
-      <c r="V39" s="11">
-        <v>199</v>
-      </c>
-      <c r="W39" s="11">
-        <v>152</v>
-      </c>
-      <c r="X39" s="11">
-        <v>277</v>
-      </c>
-      <c r="Y39" s="11">
-        <v>123</v>
-      </c>
-      <c r="Z39" s="11">
-        <v>208</v>
-      </c>
-      <c r="AA39" s="11">
-        <v>125</v>
-      </c>
-      <c r="AB39" s="11">
-        <v>104</v>
-      </c>
-      <c r="AC39" s="11">
-        <v>150</v>
-      </c>
-      <c r="AD39" s="11">
-        <v>131</v>
-      </c>
-      <c r="AE39" s="11">
-        <v>156</v>
-      </c>
-      <c r="AF39" s="11">
-        <v>123</v>
-      </c>
-      <c r="AG39" s="11">
+      <c r="AQ39" s="11">
+        <v>225</v>
+      </c>
+      <c r="AR39" s="11">
+        <v>139</v>
+      </c>
+      <c r="AS39" s="11">
+        <v>173</v>
+      </c>
+      <c r="AT39" s="11">
+        <v>44</v>
+      </c>
+      <c r="AU39" s="11">
         <v>127</v>
       </c>
-      <c r="AH39" s="11">
-        <v>121</v>
-      </c>
-      <c r="AI39" s="11">
-        <v>105</v>
-      </c>
-      <c r="AJ39" s="11">
-        <v>239</v>
-      </c>
-      <c r="AK39" s="11">
-        <v>120</v>
-      </c>
-      <c r="AL39" s="11">
-        <v>180</v>
-      </c>
-      <c r="AM39" s="11">
-        <v>121</v>
-      </c>
-      <c r="AN39" s="11">
-        <v>145</v>
-      </c>
-      <c r="AO39" s="11">
-        <v>157</v>
-      </c>
-      <c r="AP39" s="11">
-        <v>183</v>
-      </c>
-      <c r="AQ39" s="11">
-        <v>108</v>
-      </c>
-      <c r="AR39" s="11">
-        <v>225</v>
-      </c>
-      <c r="AS39" s="11">
-        <v>139</v>
-      </c>
-      <c r="AT39" s="11">
+      <c r="AV39" s="11">
+        <v>165</v>
+      </c>
+      <c r="AW39" s="11">
+        <v>98</v>
+      </c>
+      <c r="AX39" s="11">
+        <v>92</v>
+      </c>
+      <c r="AY39" s="11">
+        <v>101</v>
+      </c>
+      <c r="AZ39" s="11">
+        <v>100</v>
+      </c>
+      <c r="BA39" s="11">
+        <v>159</v>
+      </c>
+      <c r="BB39" s="11">
         <v>173</v>
-      </c>
-      <c r="AU39" s="11">
-        <v>44</v>
-      </c>
-      <c r="AV39" s="11">
-        <v>127</v>
-      </c>
-      <c r="AW39" s="11">
-        <v>165</v>
-      </c>
-      <c r="AX39" s="11">
-        <v>98</v>
-      </c>
-      <c r="AY39" s="11">
-        <v>92</v>
-      </c>
-      <c r="AZ39" s="11">
-        <v>101</v>
-      </c>
-      <c r="BA39" s="11">
-        <v>100</v>
-      </c>
-      <c r="BB39" s="11">
-        <v>159</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5432,140 +5432,140 @@
       <c r="I40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J40" s="13" t="s">
-        <v>57</v>
+      <c r="J40" s="13">
+        <v>58</v>
       </c>
       <c r="K40" s="13">
-        <v>58</v>
+        <v>311</v>
       </c>
       <c r="L40" s="13">
-        <v>311</v>
+        <v>169</v>
       </c>
       <c r="M40" s="13">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="N40" s="13">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="O40" s="13">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="P40" s="13">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="Q40" s="13">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="R40" s="13">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="S40" s="13">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="T40" s="13">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="U40" s="13">
-        <v>243</v>
+        <v>381</v>
       </c>
       <c r="V40" s="13">
-        <v>381</v>
+        <v>172</v>
       </c>
       <c r="W40" s="13">
+        <v>223</v>
+      </c>
+      <c r="X40" s="13">
+        <v>323</v>
+      </c>
+      <c r="Y40" s="13">
+        <v>117</v>
+      </c>
+      <c r="Z40" s="13">
+        <v>89</v>
+      </c>
+      <c r="AA40" s="13">
+        <v>96</v>
+      </c>
+      <c r="AB40" s="13">
+        <v>159</v>
+      </c>
+      <c r="AC40" s="13">
+        <v>153</v>
+      </c>
+      <c r="AD40" s="13">
+        <v>215</v>
+      </c>
+      <c r="AE40" s="13">
+        <v>225</v>
+      </c>
+      <c r="AF40" s="13">
+        <v>219</v>
+      </c>
+      <c r="AG40" s="13">
+        <v>249</v>
+      </c>
+      <c r="AH40" s="13">
+        <v>135</v>
+      </c>
+      <c r="AI40" s="13">
+        <v>223</v>
+      </c>
+      <c r="AJ40" s="13">
+        <v>221</v>
+      </c>
+      <c r="AK40" s="13">
+        <v>285</v>
+      </c>
+      <c r="AL40" s="13">
+        <v>97</v>
+      </c>
+      <c r="AM40" s="13">
+        <v>286</v>
+      </c>
+      <c r="AN40" s="13">
+        <v>210</v>
+      </c>
+      <c r="AO40" s="13">
+        <v>152</v>
+      </c>
+      <c r="AP40" s="13">
+        <v>268</v>
+      </c>
+      <c r="AQ40" s="13">
+        <v>218</v>
+      </c>
+      <c r="AR40" s="13">
+        <v>253</v>
+      </c>
+      <c r="AS40" s="13">
         <v>172</v>
       </c>
-      <c r="X40" s="13">
-        <v>223</v>
-      </c>
-      <c r="Y40" s="13">
-        <v>323</v>
-      </c>
-      <c r="Z40" s="13">
-        <v>117</v>
-      </c>
-      <c r="AA40" s="13">
-        <v>89</v>
-      </c>
-      <c r="AB40" s="13">
-        <v>96</v>
-      </c>
-      <c r="AC40" s="13">
-        <v>159</v>
-      </c>
-      <c r="AD40" s="13">
-        <v>153</v>
-      </c>
-      <c r="AE40" s="13">
-        <v>215</v>
-      </c>
-      <c r="AF40" s="13">
-        <v>225</v>
-      </c>
-      <c r="AG40" s="13">
-        <v>219</v>
-      </c>
-      <c r="AH40" s="13">
-        <v>249</v>
-      </c>
-      <c r="AI40" s="13">
-        <v>135</v>
-      </c>
-      <c r="AJ40" s="13">
-        <v>223</v>
-      </c>
-      <c r="AK40" s="13">
-        <v>221</v>
-      </c>
-      <c r="AL40" s="13">
-        <v>285</v>
-      </c>
-      <c r="AM40" s="13">
-        <v>97</v>
-      </c>
-      <c r="AN40" s="13">
-        <v>286</v>
-      </c>
-      <c r="AO40" s="13">
+      <c r="AT40" s="13">
+        <v>45</v>
+      </c>
+      <c r="AU40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV40" s="13">
         <v>210</v>
       </c>
-      <c r="AP40" s="13">
-        <v>152</v>
-      </c>
-      <c r="AQ40" s="13">
-        <v>268</v>
-      </c>
-      <c r="AR40" s="13">
-        <v>218</v>
-      </c>
-      <c r="AS40" s="13">
-        <v>253</v>
-      </c>
-      <c r="AT40" s="13">
-        <v>172</v>
-      </c>
-      <c r="AU40" s="13">
-        <v>45</v>
-      </c>
-      <c r="AV40" s="13">
-        <v>0</v>
-      </c>
       <c r="AW40" s="13">
-        <v>210</v>
+        <v>398</v>
       </c>
       <c r="AX40" s="13">
-        <v>398</v>
+        <v>302</v>
       </c>
       <c r="AY40" s="13">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="AZ40" s="13">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="BA40" s="13">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="BB40" s="13">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5591,140 +5591,140 @@
       <c r="I41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J41" s="11" t="s">
-        <v>57</v>
+      <c r="J41" s="11">
+        <v>33</v>
       </c>
       <c r="K41" s="11">
+        <v>118</v>
+      </c>
+      <c r="L41" s="11">
+        <v>56</v>
+      </c>
+      <c r="M41" s="11">
+        <v>106</v>
+      </c>
+      <c r="N41" s="11">
+        <v>100</v>
+      </c>
+      <c r="O41" s="11">
+        <v>79</v>
+      </c>
+      <c r="P41" s="11">
+        <v>65</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>81</v>
+      </c>
+      <c r="R41" s="11">
+        <v>114</v>
+      </c>
+      <c r="S41" s="11">
+        <v>157</v>
+      </c>
+      <c r="T41" s="11">
+        <v>100</v>
+      </c>
+      <c r="U41" s="11">
+        <v>170</v>
+      </c>
+      <c r="V41" s="11">
+        <v>142</v>
+      </c>
+      <c r="W41" s="11">
+        <v>153</v>
+      </c>
+      <c r="X41" s="11">
+        <v>206</v>
+      </c>
+      <c r="Y41" s="11">
         <v>33</v>
       </c>
-      <c r="L41" s="11">
-        <v>118</v>
-      </c>
-      <c r="M41" s="11">
-        <v>56</v>
-      </c>
-      <c r="N41" s="11">
-        <v>106</v>
-      </c>
-      <c r="O41" s="11">
-        <v>100</v>
-      </c>
-      <c r="P41" s="11">
-        <v>79</v>
-      </c>
-      <c r="Q41" s="11">
-        <v>65</v>
-      </c>
-      <c r="R41" s="11">
-        <v>81</v>
-      </c>
-      <c r="S41" s="11">
-        <v>114</v>
-      </c>
-      <c r="T41" s="11">
-        <v>157</v>
-      </c>
-      <c r="U41" s="11">
-        <v>100</v>
-      </c>
-      <c r="V41" s="11">
-        <v>170</v>
-      </c>
-      <c r="W41" s="11">
-        <v>142</v>
-      </c>
-      <c r="X41" s="11">
-        <v>153</v>
-      </c>
-      <c r="Y41" s="11">
-        <v>206</v>
-      </c>
       <c r="Z41" s="11">
+        <v>21</v>
+      </c>
+      <c r="AA41" s="11">
+        <v>13</v>
+      </c>
+      <c r="AB41" s="11">
+        <v>91</v>
+      </c>
+      <c r="AC41" s="11">
+        <v>54</v>
+      </c>
+      <c r="AD41" s="11">
+        <v>83</v>
+      </c>
+      <c r="AE41" s="11">
+        <v>82</v>
+      </c>
+      <c r="AF41" s="11">
+        <v>117</v>
+      </c>
+      <c r="AG41" s="11">
+        <v>119</v>
+      </c>
+      <c r="AH41" s="11">
+        <v>53</v>
+      </c>
+      <c r="AI41" s="11">
+        <v>68</v>
+      </c>
+      <c r="AJ41" s="11">
+        <v>58</v>
+      </c>
+      <c r="AK41" s="11">
+        <v>110</v>
+      </c>
+      <c r="AL41" s="11">
+        <v>22</v>
+      </c>
+      <c r="AM41" s="11">
+        <v>87</v>
+      </c>
+      <c r="AN41" s="11">
+        <v>76</v>
+      </c>
+      <c r="AO41" s="11">
+        <v>46</v>
+      </c>
+      <c r="AP41" s="11">
+        <v>19</v>
+      </c>
+      <c r="AQ41" s="11">
+        <v>40</v>
+      </c>
+      <c r="AR41" s="11">
+        <v>32</v>
+      </c>
+      <c r="AS41" s="11">
+        <v>51</v>
+      </c>
+      <c r="AT41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="11">
+        <v>1</v>
+      </c>
+      <c r="AV41" s="11">
+        <v>58</v>
+      </c>
+      <c r="AW41" s="11">
+        <v>60</v>
+      </c>
+      <c r="AX41" s="11">
+        <v>27</v>
+      </c>
+      <c r="AY41" s="11">
+        <v>41</v>
+      </c>
+      <c r="AZ41" s="11">
+        <v>26</v>
+      </c>
+      <c r="BA41" s="11">
+        <v>30</v>
+      </c>
+      <c r="BB41" s="11">
         <v>33</v>
-      </c>
-      <c r="AA41" s="11">
-        <v>21</v>
-      </c>
-      <c r="AB41" s="11">
-        <v>13</v>
-      </c>
-      <c r="AC41" s="11">
-        <v>91</v>
-      </c>
-      <c r="AD41" s="11">
-        <v>54</v>
-      </c>
-      <c r="AE41" s="11">
-        <v>83</v>
-      </c>
-      <c r="AF41" s="11">
-        <v>82</v>
-      </c>
-      <c r="AG41" s="11">
-        <v>117</v>
-      </c>
-      <c r="AH41" s="11">
-        <v>119</v>
-      </c>
-      <c r="AI41" s="11">
-        <v>53</v>
-      </c>
-      <c r="AJ41" s="11">
-        <v>68</v>
-      </c>
-      <c r="AK41" s="11">
-        <v>58</v>
-      </c>
-      <c r="AL41" s="11">
-        <v>110</v>
-      </c>
-      <c r="AM41" s="11">
-        <v>22</v>
-      </c>
-      <c r="AN41" s="11">
-        <v>87</v>
-      </c>
-      <c r="AO41" s="11">
-        <v>76</v>
-      </c>
-      <c r="AP41" s="11">
-        <v>46</v>
-      </c>
-      <c r="AQ41" s="11">
-        <v>19</v>
-      </c>
-      <c r="AR41" s="11">
-        <v>40</v>
-      </c>
-      <c r="AS41" s="11">
-        <v>32</v>
-      </c>
-      <c r="AT41" s="11">
-        <v>51</v>
-      </c>
-      <c r="AU41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV41" s="11">
-        <v>1</v>
-      </c>
-      <c r="AW41" s="11">
-        <v>58</v>
-      </c>
-      <c r="AX41" s="11">
-        <v>60</v>
-      </c>
-      <c r="AY41" s="11">
-        <v>27</v>
-      </c>
-      <c r="AZ41" s="11">
-        <v>41</v>
-      </c>
-      <c r="BA41" s="11">
-        <v>26</v>
-      </c>
-      <c r="BB41" s="11">
-        <v>30</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5750,140 +5750,140 @@
       <c r="I42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J42" s="13" t="s">
-        <v>57</v>
+      <c r="J42" s="13">
+        <v>114</v>
       </c>
       <c r="K42" s="13">
-        <v>114</v>
+        <v>398</v>
       </c>
       <c r="L42" s="13">
-        <v>398</v>
+        <v>252</v>
       </c>
       <c r="M42" s="13">
-        <v>252</v>
+        <v>116</v>
       </c>
       <c r="N42" s="13">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O42" s="13">
-        <v>126</v>
+        <v>316</v>
       </c>
       <c r="P42" s="13">
+        <v>255</v>
+      </c>
+      <c r="Q42" s="13">
+        <v>258</v>
+      </c>
+      <c r="R42" s="13">
+        <v>235</v>
+      </c>
+      <c r="S42" s="13">
+        <v>264</v>
+      </c>
+      <c r="T42" s="13">
+        <v>300</v>
+      </c>
+      <c r="U42" s="13">
+        <v>338</v>
+      </c>
+      <c r="V42" s="13">
+        <v>151</v>
+      </c>
+      <c r="W42" s="13">
+        <v>251</v>
+      </c>
+      <c r="X42" s="13">
+        <v>315</v>
+      </c>
+      <c r="Y42" s="13">
+        <v>49</v>
+      </c>
+      <c r="Z42" s="13">
+        <v>65</v>
+      </c>
+      <c r="AA42" s="13">
+        <v>86</v>
+      </c>
+      <c r="AB42" s="13">
+        <v>218</v>
+      </c>
+      <c r="AC42" s="13">
+        <v>209</v>
+      </c>
+      <c r="AD42" s="13">
+        <v>315</v>
+      </c>
+      <c r="AE42" s="13">
+        <v>298</v>
+      </c>
+      <c r="AF42" s="13">
+        <v>283</v>
+      </c>
+      <c r="AG42" s="13">
+        <v>282</v>
+      </c>
+      <c r="AH42" s="13">
+        <v>358</v>
+      </c>
+      <c r="AI42" s="13">
+        <v>337</v>
+      </c>
+      <c r="AJ42" s="13">
+        <v>160</v>
+      </c>
+      <c r="AK42" s="13">
+        <v>256</v>
+      </c>
+      <c r="AL42" s="13">
+        <v>290</v>
+      </c>
+      <c r="AM42" s="13">
+        <v>325</v>
+      </c>
+      <c r="AN42" s="13">
+        <v>276</v>
+      </c>
+      <c r="AO42" s="13">
         <v>316</v>
       </c>
-      <c r="Q42" s="13">
-        <v>255</v>
-      </c>
-      <c r="R42" s="13">
-        <v>258</v>
-      </c>
-      <c r="S42" s="13">
-        <v>235</v>
-      </c>
-      <c r="T42" s="13">
-        <v>264</v>
-      </c>
-      <c r="U42" s="13">
-        <v>300</v>
-      </c>
-      <c r="V42" s="13">
-        <v>338</v>
-      </c>
-      <c r="W42" s="13">
-        <v>151</v>
-      </c>
-      <c r="X42" s="13">
-        <v>251</v>
-      </c>
-      <c r="Y42" s="13">
-        <v>315</v>
-      </c>
-      <c r="Z42" s="13">
-        <v>49</v>
-      </c>
-      <c r="AA42" s="13">
-        <v>65</v>
-      </c>
-      <c r="AB42" s="13">
-        <v>86</v>
-      </c>
-      <c r="AC42" s="13">
-        <v>218</v>
-      </c>
-      <c r="AD42" s="13">
-        <v>209</v>
-      </c>
-      <c r="AE42" s="13">
-        <v>315</v>
-      </c>
-      <c r="AF42" s="13">
-        <v>298</v>
-      </c>
-      <c r="AG42" s="13">
-        <v>283</v>
-      </c>
-      <c r="AH42" s="13">
-        <v>282</v>
-      </c>
-      <c r="AI42" s="13">
-        <v>358</v>
-      </c>
-      <c r="AJ42" s="13">
-        <v>337</v>
-      </c>
-      <c r="AK42" s="13">
-        <v>160</v>
-      </c>
-      <c r="AL42" s="13">
-        <v>256</v>
-      </c>
-      <c r="AM42" s="13">
-        <v>290</v>
-      </c>
-      <c r="AN42" s="13">
-        <v>325</v>
-      </c>
-      <c r="AO42" s="13">
-        <v>276</v>
-      </c>
       <c r="AP42" s="13">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AQ42" s="13">
-        <v>328</v>
+        <v>400</v>
       </c>
       <c r="AR42" s="13">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="AS42" s="13">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="AT42" s="13">
-        <v>329</v>
+        <v>19</v>
       </c>
       <c r="AU42" s="13">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="AV42" s="13">
-        <v>195</v>
+        <v>295</v>
       </c>
       <c r="AW42" s="13">
-        <v>295</v>
+        <v>142</v>
       </c>
       <c r="AX42" s="13">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="AY42" s="13">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="AZ42" s="13">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="BA42" s="13">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="BB42" s="13">
-        <v>278</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5981,68 +5981,68 @@
       <c r="AG43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH43" s="11" t="s">
-        <v>57</v>
+      <c r="AH43" s="11">
+        <v>1187</v>
       </c>
       <c r="AI43" s="11">
-        <v>1187</v>
+        <v>3233</v>
       </c>
       <c r="AJ43" s="11">
-        <v>3233</v>
+        <v>225</v>
       </c>
       <c r="AK43" s="11">
-        <v>225</v>
+        <v>686</v>
       </c>
       <c r="AL43" s="11">
-        <v>686</v>
+        <v>1017</v>
       </c>
       <c r="AM43" s="11">
-        <v>1017</v>
+        <v>2907</v>
       </c>
       <c r="AN43" s="11">
-        <v>2907</v>
+        <v>886</v>
       </c>
       <c r="AO43" s="11">
-        <v>886</v>
+        <v>3204</v>
       </c>
       <c r="AP43" s="11">
-        <v>3204</v>
+        <v>5547</v>
       </c>
       <c r="AQ43" s="11">
-        <v>5547</v>
+        <v>1891</v>
       </c>
       <c r="AR43" s="11">
-        <v>1891</v>
+        <v>2328</v>
       </c>
       <c r="AS43" s="11">
-        <v>2328</v>
+        <v>4146</v>
       </c>
       <c r="AT43" s="11">
-        <v>4146</v>
+        <v>585</v>
       </c>
       <c r="AU43" s="11">
-        <v>585</v>
+        <v>1002</v>
       </c>
       <c r="AV43" s="11">
-        <v>1002</v>
+        <v>790</v>
       </c>
       <c r="AW43" s="11">
-        <v>790</v>
+        <v>2190</v>
       </c>
       <c r="AX43" s="11">
-        <v>2190</v>
+        <v>152</v>
       </c>
       <c r="AY43" s="11">
-        <v>152</v>
+        <v>449</v>
       </c>
       <c r="AZ43" s="11">
-        <v>449</v>
+        <v>327</v>
       </c>
       <c r="BA43" s="11">
-        <v>327</v>
+        <v>1521</v>
       </c>
       <c r="BB43" s="11">
-        <v>1521</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -6140,68 +6140,68 @@
       <c r="AG44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH44" s="13" t="s">
-        <v>57</v>
+      <c r="AH44" s="13">
+        <v>186</v>
       </c>
       <c r="AI44" s="13">
-        <v>186</v>
+        <v>413</v>
       </c>
       <c r="AJ44" s="13">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AK44" s="13">
-        <v>415</v>
+        <v>325</v>
       </c>
       <c r="AL44" s="13">
-        <v>325</v>
+        <v>477</v>
       </c>
       <c r="AM44" s="13">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="AN44" s="13">
-        <v>493</v>
+        <v>315</v>
       </c>
       <c r="AO44" s="13">
-        <v>315</v>
+        <v>903</v>
       </c>
       <c r="AP44" s="13">
-        <v>903</v>
+        <v>605</v>
       </c>
       <c r="AQ44" s="13">
-        <v>605</v>
+        <v>1224</v>
       </c>
       <c r="AR44" s="13">
-        <v>1224</v>
+        <v>763</v>
       </c>
       <c r="AS44" s="13">
-        <v>763</v>
+        <v>1199</v>
       </c>
       <c r="AT44" s="13">
-        <v>1199</v>
+        <v>242</v>
       </c>
       <c r="AU44" s="13">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="AV44" s="13">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="AW44" s="13">
-        <v>153</v>
+        <v>266</v>
       </c>
       <c r="AX44" s="13">
-        <v>266</v>
+        <v>368</v>
       </c>
       <c r="AY44" s="13">
-        <v>368</v>
+        <v>661</v>
       </c>
       <c r="AZ44" s="13">
-        <v>661</v>
+        <v>112</v>
       </c>
       <c r="BA44" s="13">
-        <v>112</v>
+        <v>2659</v>
       </c>
       <c r="BB44" s="13">
-        <v>2659</v>
+        <v>986</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6299,56 +6299,56 @@
       <c r="AG45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH45" s="11" t="s">
-        <v>57</v>
+      <c r="AH45" s="11">
+        <v>4</v>
       </c>
       <c r="AI45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="11">
+        <v>14</v>
+      </c>
+      <c r="AK45" s="11">
+        <v>8</v>
+      </c>
+      <c r="AL45" s="11">
+        <v>23</v>
+      </c>
+      <c r="AM45" s="11">
+        <v>8</v>
+      </c>
+      <c r="AN45" s="11">
+        <v>15</v>
+      </c>
+      <c r="AO45" s="11">
+        <v>11</v>
+      </c>
+      <c r="AP45" s="11">
+        <v>2</v>
+      </c>
+      <c r="AQ45" s="11">
+        <v>13</v>
+      </c>
+      <c r="AR45" s="11">
+        <v>46</v>
+      </c>
+      <c r="AS45" s="11">
+        <v>62</v>
+      </c>
+      <c r="AT45" s="11">
         <v>4</v>
       </c>
-      <c r="AJ45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK45" s="11">
-        <v>14</v>
-      </c>
-      <c r="AL45" s="11">
-        <v>8</v>
-      </c>
-      <c r="AM45" s="11">
-        <v>23</v>
-      </c>
-      <c r="AN45" s="11">
-        <v>8</v>
-      </c>
-      <c r="AO45" s="11">
-        <v>15</v>
-      </c>
-      <c r="AP45" s="11">
-        <v>11</v>
-      </c>
-      <c r="AQ45" s="11">
-        <v>2</v>
-      </c>
-      <c r="AR45" s="11">
-        <v>13</v>
-      </c>
-      <c r="AS45" s="11">
-        <v>46</v>
-      </c>
-      <c r="AT45" s="11">
-        <v>62</v>
-      </c>
       <c r="AU45" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="11">
         <v>0</v>
       </c>
       <c r="AW45" s="11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AX45" s="11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AY45" s="11">
         <v>1</v>
@@ -6357,10 +6357,10 @@
         <v>1</v>
       </c>
       <c r="BA45" s="11">
+        <v>2</v>
+      </c>
+      <c r="BB45" s="11">
         <v>1</v>
-      </c>
-      <c r="BB45" s="11">
-        <v>2</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6486,8 +6486,8 @@
       <c r="X47" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y47" s="17" t="s">
-        <v>57</v>
+      <c r="Y47" s="17">
+        <v>0</v>
       </c>
       <c r="Z47" s="17">
         <v>0</v>
@@ -6700,8 +6700,8 @@
       <c r="X49" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y49" s="17" t="s">
-        <v>57</v>
+      <c r="Y49" s="17">
+        <v>0</v>
       </c>
       <c r="Z49" s="17">
         <v>0</v>
@@ -6813,139 +6813,139 @@
         <v>0</v>
       </c>
       <c r="J50" s="19">
-        <v>0</v>
+        <v>3359</v>
       </c>
       <c r="K50" s="19">
-        <v>3359</v>
+        <v>17803</v>
       </c>
       <c r="L50" s="19">
-        <v>17803</v>
+        <v>16422</v>
       </c>
       <c r="M50" s="19">
-        <v>16422</v>
+        <v>16062</v>
       </c>
       <c r="N50" s="19">
+        <v>13803</v>
+      </c>
+      <c r="O50" s="19">
+        <v>15544</v>
+      </c>
+      <c r="P50" s="19">
+        <v>14020</v>
+      </c>
+      <c r="Q50" s="19">
+        <v>13898</v>
+      </c>
+      <c r="R50" s="19">
+        <v>17074</v>
+      </c>
+      <c r="S50" s="19">
+        <v>16101</v>
+      </c>
+      <c r="T50" s="19">
+        <v>17893</v>
+      </c>
+      <c r="U50" s="19">
+        <v>22042</v>
+      </c>
+      <c r="V50" s="19">
         <v>16062</v>
       </c>
-      <c r="O50" s="19">
-        <v>13803</v>
-      </c>
-      <c r="P50" s="19">
-        <v>15544</v>
-      </c>
-      <c r="Q50" s="19">
-        <v>14020</v>
-      </c>
-      <c r="R50" s="19">
-        <v>13898</v>
-      </c>
-      <c r="S50" s="19">
-        <v>17074</v>
-      </c>
-      <c r="T50" s="19">
-        <v>16101</v>
-      </c>
-      <c r="U50" s="19">
-        <v>17893</v>
-      </c>
-      <c r="V50" s="19">
-        <v>22042</v>
-      </c>
       <c r="W50" s="19">
-        <v>16062</v>
+        <v>13662</v>
       </c>
       <c r="X50" s="19">
-        <v>13662</v>
+        <v>18341</v>
       </c>
       <c r="Y50" s="19">
-        <v>18341</v>
+        <v>17530</v>
       </c>
       <c r="Z50" s="19">
-        <v>17530</v>
+        <v>17307</v>
       </c>
       <c r="AA50" s="19">
-        <v>17307</v>
+        <v>14710</v>
       </c>
       <c r="AB50" s="19">
-        <v>14710</v>
+        <v>21890</v>
       </c>
       <c r="AC50" s="19">
-        <v>21890</v>
+        <v>25621</v>
       </c>
       <c r="AD50" s="19">
-        <v>25621</v>
+        <v>14367</v>
       </c>
       <c r="AE50" s="19">
-        <v>14367</v>
+        <v>19272</v>
       </c>
       <c r="AF50" s="19">
-        <v>19272</v>
+        <v>16847</v>
       </c>
       <c r="AG50" s="19">
-        <v>16847</v>
+        <v>19462</v>
       </c>
       <c r="AH50" s="19">
-        <v>19462</v>
+        <v>10564</v>
       </c>
       <c r="AI50" s="19">
-        <v>10564</v>
+        <v>17770</v>
       </c>
       <c r="AJ50" s="19">
-        <v>17770</v>
+        <v>27232</v>
       </c>
       <c r="AK50" s="19">
-        <v>27232</v>
+        <v>26045</v>
       </c>
       <c r="AL50" s="19">
-        <v>26045</v>
+        <v>20600</v>
       </c>
       <c r="AM50" s="19">
-        <v>20600</v>
+        <v>20802</v>
       </c>
       <c r="AN50" s="19">
-        <v>20802</v>
+        <v>16809</v>
       </c>
       <c r="AO50" s="19">
-        <v>16809</v>
+        <v>21908</v>
       </c>
       <c r="AP50" s="19">
-        <v>21908</v>
+        <v>20590</v>
       </c>
       <c r="AQ50" s="19">
-        <v>20590</v>
+        <v>19733</v>
       </c>
       <c r="AR50" s="19">
-        <v>19733</v>
+        <v>16666</v>
       </c>
       <c r="AS50" s="19">
-        <v>16666</v>
+        <v>19284</v>
       </c>
       <c r="AT50" s="19">
-        <v>19284</v>
+        <v>3137</v>
       </c>
       <c r="AU50" s="19">
-        <v>3137</v>
+        <v>15689</v>
       </c>
       <c r="AV50" s="19">
-        <v>15689</v>
+        <v>19970</v>
       </c>
       <c r="AW50" s="19">
-        <v>19970</v>
+        <v>13232</v>
       </c>
       <c r="AX50" s="19">
-        <v>13232</v>
+        <v>9865</v>
       </c>
       <c r="AY50" s="19">
-        <v>9865</v>
+        <v>13431</v>
       </c>
       <c r="AZ50" s="19">
-        <v>13431</v>
+        <v>10154</v>
       </c>
       <c r="BA50" s="19">
-        <v>10154</v>
+        <v>18869</v>
       </c>
       <c r="BB50" s="19">
-        <v>18869</v>
+        <v>14988</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -7477,8 +7477,8 @@
       <c r="AG57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH57" s="11" t="s">
-        <v>57</v>
+      <c r="AH57" s="11">
+        <v>0</v>
       </c>
       <c r="AI57" s="11">
         <v>0</v>
@@ -7564,140 +7564,140 @@
       <c r="I58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J58" s="13" t="s">
-        <v>57</v>
+      <c r="J58" s="13">
+        <v>10105</v>
       </c>
       <c r="K58" s="13">
-        <v>10105</v>
+        <v>58183</v>
       </c>
       <c r="L58" s="13">
-        <v>58183</v>
+        <v>16425</v>
       </c>
       <c r="M58" s="13">
-        <v>16425</v>
+        <v>8222</v>
       </c>
       <c r="N58" s="13">
-        <v>8222</v>
+        <v>13079</v>
       </c>
       <c r="O58" s="13">
-        <v>13079</v>
+        <v>36717</v>
       </c>
       <c r="P58" s="13">
-        <v>36717</v>
+        <v>13454</v>
       </c>
       <c r="Q58" s="13">
-        <v>13454</v>
+        <v>29499</v>
       </c>
       <c r="R58" s="13">
-        <v>29499</v>
+        <v>55137</v>
       </c>
       <c r="S58" s="13">
-        <v>55137</v>
+        <v>32544</v>
       </c>
       <c r="T58" s="13">
-        <v>32544</v>
+        <v>39080</v>
       </c>
       <c r="U58" s="13">
-        <v>39080</v>
+        <v>45457</v>
       </c>
       <c r="V58" s="13">
-        <v>45457</v>
+        <v>19752</v>
       </c>
       <c r="W58" s="13">
-        <v>19752</v>
+        <v>358617</v>
       </c>
       <c r="X58" s="13">
-        <v>358617</v>
+        <v>60401</v>
       </c>
       <c r="Y58" s="13">
-        <v>60401</v>
+        <v>108663</v>
       </c>
       <c r="Z58" s="13">
-        <v>108663</v>
+        <v>94348</v>
       </c>
       <c r="AA58" s="13">
-        <v>94348</v>
+        <v>107444</v>
       </c>
       <c r="AB58" s="13">
-        <v>107444</v>
+        <v>190049</v>
       </c>
       <c r="AC58" s="13">
-        <v>190049</v>
+        <v>134759</v>
       </c>
       <c r="AD58" s="13">
-        <v>134759</v>
+        <v>137151</v>
       </c>
       <c r="AE58" s="13">
-        <v>137151</v>
+        <v>191996</v>
       </c>
       <c r="AF58" s="13">
-        <v>191996</v>
+        <v>246892</v>
       </c>
       <c r="AG58" s="13">
-        <v>246892</v>
+        <v>373913</v>
       </c>
       <c r="AH58" s="13">
-        <v>373913</v>
+        <v>98738</v>
       </c>
       <c r="AI58" s="13">
-        <v>98738</v>
+        <v>279757</v>
       </c>
       <c r="AJ58" s="13">
-        <v>279757</v>
+        <v>356211</v>
       </c>
       <c r="AK58" s="13">
-        <v>356211</v>
+        <v>296506</v>
       </c>
       <c r="AL58" s="13">
-        <v>296506</v>
+        <v>116349</v>
       </c>
       <c r="AM58" s="13">
-        <v>116349</v>
+        <v>58505</v>
       </c>
       <c r="AN58" s="13">
-        <v>58505</v>
+        <v>103229</v>
       </c>
       <c r="AO58" s="13">
-        <v>103229</v>
+        <v>100868</v>
       </c>
       <c r="AP58" s="13">
-        <v>100868</v>
+        <v>101907</v>
       </c>
       <c r="AQ58" s="13">
-        <v>101907</v>
+        <v>149477</v>
       </c>
       <c r="AR58" s="13">
-        <v>149477</v>
+        <v>121351</v>
       </c>
       <c r="AS58" s="13">
-        <v>121351</v>
+        <v>154285</v>
       </c>
       <c r="AT58" s="13">
-        <v>154285</v>
+        <v>71739</v>
       </c>
       <c r="AU58" s="13">
-        <v>71739</v>
+        <v>182398</v>
       </c>
       <c r="AV58" s="13">
-        <v>182398</v>
+        <v>388392</v>
       </c>
       <c r="AW58" s="13">
-        <v>388392</v>
+        <v>438788</v>
       </c>
       <c r="AX58" s="13">
-        <v>438788</v>
+        <v>465754</v>
       </c>
       <c r="AY58" s="13">
-        <v>465754</v>
+        <v>249163</v>
       </c>
       <c r="AZ58" s="13">
-        <v>249163</v>
+        <v>254591</v>
       </c>
       <c r="BA58" s="13">
-        <v>254591</v>
+        <v>358699</v>
       </c>
       <c r="BB58" s="13">
-        <v>358699</v>
+        <v>325998</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7723,140 +7723,140 @@
       <c r="I59" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J59" s="11" t="s">
-        <v>57</v>
+      <c r="J59" s="11">
+        <v>389</v>
       </c>
       <c r="K59" s="11">
-        <v>389</v>
+        <v>1498</v>
       </c>
       <c r="L59" s="11">
-        <v>1498</v>
+        <v>744</v>
       </c>
       <c r="M59" s="11">
-        <v>744</v>
+        <v>2020</v>
       </c>
       <c r="N59" s="11">
-        <v>2020</v>
+        <v>424</v>
       </c>
       <c r="O59" s="11">
-        <v>424</v>
+        <v>947</v>
       </c>
       <c r="P59" s="11">
-        <v>947</v>
+        <v>1255</v>
       </c>
       <c r="Q59" s="11">
-        <v>1255</v>
+        <v>2990</v>
       </c>
       <c r="R59" s="11">
-        <v>2990</v>
+        <v>3714</v>
       </c>
       <c r="S59" s="11">
-        <v>3714</v>
+        <v>4264</v>
       </c>
       <c r="T59" s="11">
-        <v>4264</v>
+        <v>4401</v>
       </c>
       <c r="U59" s="11">
-        <v>4401</v>
+        <v>5558</v>
       </c>
       <c r="V59" s="11">
-        <v>5558</v>
+        <v>274</v>
       </c>
       <c r="W59" s="11">
-        <v>274</v>
+        <v>197</v>
       </c>
       <c r="X59" s="11">
-        <v>197</v>
+        <v>61</v>
       </c>
       <c r="Y59" s="11">
-        <v>61</v>
+        <v>1111</v>
       </c>
       <c r="Z59" s="11">
-        <v>1111</v>
+        <v>483</v>
       </c>
       <c r="AA59" s="11">
-        <v>483</v>
+        <v>961</v>
       </c>
       <c r="AB59" s="11">
-        <v>961</v>
+        <v>729</v>
       </c>
       <c r="AC59" s="11">
-        <v>729</v>
+        <v>807</v>
       </c>
       <c r="AD59" s="11">
-        <v>807</v>
+        <v>986</v>
       </c>
       <c r="AE59" s="11">
-        <v>986</v>
+        <v>753</v>
       </c>
       <c r="AF59" s="11">
-        <v>753</v>
+        <v>621</v>
       </c>
       <c r="AG59" s="11">
-        <v>621</v>
+        <v>1690</v>
       </c>
       <c r="AH59" s="11">
-        <v>1690</v>
+        <v>0</v>
       </c>
       <c r="AI59" s="11">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="AJ59" s="11">
-        <v>1010</v>
+        <v>805</v>
       </c>
       <c r="AK59" s="11">
-        <v>805</v>
+        <v>672</v>
       </c>
       <c r="AL59" s="11">
-        <v>672</v>
+        <v>893</v>
       </c>
       <c r="AM59" s="11">
-        <v>893</v>
+        <v>839</v>
       </c>
       <c r="AN59" s="11">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="AO59" s="11">
-        <v>829</v>
+        <v>1694</v>
       </c>
       <c r="AP59" s="11">
-        <v>1694</v>
+        <v>926</v>
       </c>
       <c r="AQ59" s="11">
-        <v>926</v>
+        <v>940</v>
       </c>
       <c r="AR59" s="11">
-        <v>940</v>
+        <v>1009</v>
       </c>
       <c r="AS59" s="11">
-        <v>1009</v>
+        <v>2247</v>
       </c>
       <c r="AT59" s="11">
-        <v>2247</v>
+        <v>17</v>
       </c>
       <c r="AU59" s="11">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AV59" s="11">
+        <v>44</v>
+      </c>
+      <c r="AW59" s="11">
         <v>2</v>
-      </c>
-      <c r="AW59" s="11">
-        <v>44</v>
       </c>
       <c r="AX59" s="11">
         <v>2</v>
       </c>
       <c r="AY59" s="11">
-        <v>2</v>
+        <v>865</v>
       </c>
       <c r="AZ59" s="11">
-        <v>865</v>
+        <v>10</v>
       </c>
       <c r="BA59" s="11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BB59" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7882,140 +7882,140 @@
       <c r="I60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J60" s="13" t="s">
-        <v>57</v>
+      <c r="J60" s="13">
+        <v>63911</v>
       </c>
       <c r="K60" s="13">
-        <v>63911</v>
+        <v>557327</v>
       </c>
       <c r="L60" s="13">
-        <v>557327</v>
+        <v>646946</v>
       </c>
       <c r="M60" s="13">
-        <v>646946</v>
+        <v>621464</v>
       </c>
       <c r="N60" s="13">
-        <v>621464</v>
+        <v>522152</v>
       </c>
       <c r="O60" s="13">
-        <v>522152</v>
+        <v>512632</v>
       </c>
       <c r="P60" s="13">
-        <v>512632</v>
+        <v>545201</v>
       </c>
       <c r="Q60" s="13">
-        <v>545201</v>
+        <v>495582</v>
       </c>
       <c r="R60" s="13">
-        <v>495582</v>
+        <v>603547</v>
       </c>
       <c r="S60" s="13">
-        <v>603547</v>
+        <v>586345</v>
       </c>
       <c r="T60" s="13">
-        <v>586345</v>
+        <v>659480</v>
       </c>
       <c r="U60" s="13">
-        <v>659480</v>
+        <v>851039</v>
       </c>
       <c r="V60" s="13">
-        <v>851039</v>
+        <v>675812</v>
       </c>
       <c r="W60" s="13">
-        <v>675812</v>
+        <v>544681</v>
       </c>
       <c r="X60" s="13">
-        <v>544681</v>
+        <v>1043517</v>
       </c>
       <c r="Y60" s="13">
-        <v>1043517</v>
+        <v>1007923</v>
       </c>
       <c r="Z60" s="13">
-        <v>1007923</v>
+        <v>1019172</v>
       </c>
       <c r="AA60" s="13">
-        <v>1019172</v>
+        <v>854376</v>
       </c>
       <c r="AB60" s="13">
-        <v>854376</v>
+        <v>1293664</v>
       </c>
       <c r="AC60" s="13">
-        <v>1293664</v>
+        <v>1656363</v>
       </c>
       <c r="AD60" s="13">
-        <v>1656363</v>
+        <v>835325</v>
       </c>
       <c r="AE60" s="13">
-        <v>835325</v>
+        <v>1285037</v>
       </c>
       <c r="AF60" s="13">
-        <v>1285037</v>
+        <v>984172</v>
       </c>
       <c r="AG60" s="13">
-        <v>984172</v>
+        <v>1222339</v>
       </c>
       <c r="AH60" s="13">
-        <v>1222339</v>
+        <v>566003</v>
       </c>
       <c r="AI60" s="13">
-        <v>566003</v>
+        <v>888768</v>
       </c>
       <c r="AJ60" s="13">
-        <v>888768</v>
+        <v>1980433</v>
       </c>
       <c r="AK60" s="13">
-        <v>1980433</v>
+        <v>1563890</v>
       </c>
       <c r="AL60" s="13">
-        <v>1563890</v>
+        <v>1208470</v>
       </c>
       <c r="AM60" s="13">
-        <v>1208470</v>
+        <v>996961</v>
       </c>
       <c r="AN60" s="13">
-        <v>996961</v>
+        <v>838674</v>
       </c>
       <c r="AO60" s="13">
-        <v>838674</v>
+        <v>1027046</v>
       </c>
       <c r="AP60" s="13">
-        <v>1027046</v>
+        <v>758393</v>
       </c>
       <c r="AQ60" s="13">
-        <v>758393</v>
+        <v>913473</v>
       </c>
       <c r="AR60" s="13">
-        <v>913473</v>
+        <v>764171</v>
       </c>
       <c r="AS60" s="13">
-        <v>764171</v>
+        <v>788459</v>
       </c>
       <c r="AT60" s="13">
-        <v>788459</v>
+        <v>142009</v>
       </c>
       <c r="AU60" s="13">
-        <v>142009</v>
+        <v>2786230</v>
       </c>
       <c r="AV60" s="13">
-        <v>2786230</v>
+        <v>3315731</v>
       </c>
       <c r="AW60" s="13">
-        <v>3315731</v>
+        <v>1663541</v>
       </c>
       <c r="AX60" s="13">
-        <v>1663541</v>
+        <v>1465062</v>
       </c>
       <c r="AY60" s="13">
-        <v>1465062</v>
+        <v>2114315</v>
       </c>
       <c r="AZ60" s="13">
-        <v>2114315</v>
+        <v>1583838</v>
       </c>
       <c r="BA60" s="13">
-        <v>1583838</v>
+        <v>2708027</v>
       </c>
       <c r="BB60" s="13">
-        <v>2708027</v>
+        <v>2106694</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -8041,140 +8041,140 @@
       <c r="I61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J61" s="11" t="s">
-        <v>57</v>
+      <c r="J61" s="11">
+        <v>22795</v>
       </c>
       <c r="K61" s="11">
-        <v>22795</v>
+        <v>135650</v>
       </c>
       <c r="L61" s="11">
-        <v>135650</v>
+        <v>91894</v>
       </c>
       <c r="M61" s="11">
-        <v>91894</v>
+        <v>157230</v>
       </c>
       <c r="N61" s="11">
-        <v>157230</v>
+        <v>147540</v>
       </c>
       <c r="O61" s="11">
-        <v>147540</v>
+        <v>128683</v>
       </c>
       <c r="P61" s="11">
-        <v>128683</v>
+        <v>137616</v>
       </c>
       <c r="Q61" s="11">
-        <v>137616</v>
+        <v>154389</v>
       </c>
       <c r="R61" s="11">
-        <v>154389</v>
+        <v>170076</v>
       </c>
       <c r="S61" s="11">
-        <v>170076</v>
+        <v>163167</v>
       </c>
       <c r="T61" s="11">
-        <v>163167</v>
+        <v>173569</v>
       </c>
       <c r="U61" s="11">
-        <v>173569</v>
+        <v>211943</v>
       </c>
       <c r="V61" s="11">
-        <v>211943</v>
+        <v>103838</v>
       </c>
       <c r="W61" s="11">
-        <v>103838</v>
+        <v>173290</v>
       </c>
       <c r="X61" s="11">
-        <v>173290</v>
+        <v>320391</v>
       </c>
       <c r="Y61" s="11">
-        <v>320391</v>
+        <v>265065</v>
       </c>
       <c r="Z61" s="11">
-        <v>265065</v>
+        <v>220836</v>
       </c>
       <c r="AA61" s="11">
-        <v>220836</v>
+        <v>216962</v>
       </c>
       <c r="AB61" s="11">
-        <v>216962</v>
+        <v>292803</v>
       </c>
       <c r="AC61" s="11">
-        <v>292803</v>
+        <v>398130</v>
       </c>
       <c r="AD61" s="11">
-        <v>398130</v>
+        <v>314937</v>
       </c>
       <c r="AE61" s="11">
-        <v>314937</v>
+        <v>332294</v>
       </c>
       <c r="AF61" s="11">
-        <v>332294</v>
+        <v>307799</v>
       </c>
       <c r="AG61" s="11">
-        <v>307799</v>
+        <v>322048</v>
       </c>
       <c r="AH61" s="11">
-        <v>322048</v>
+        <v>149373</v>
       </c>
       <c r="AI61" s="11">
-        <v>149373</v>
+        <v>229490</v>
       </c>
       <c r="AJ61" s="11">
-        <v>229490</v>
+        <v>282099</v>
       </c>
       <c r="AK61" s="11">
-        <v>282099</v>
+        <v>377989</v>
       </c>
       <c r="AL61" s="11">
-        <v>377989</v>
+        <v>282479</v>
       </c>
       <c r="AM61" s="11">
-        <v>282479</v>
+        <v>342298</v>
       </c>
       <c r="AN61" s="11">
-        <v>342298</v>
+        <v>361616</v>
       </c>
       <c r="AO61" s="11">
-        <v>361616</v>
+        <v>317010</v>
       </c>
       <c r="AP61" s="11">
-        <v>317010</v>
+        <v>320709</v>
       </c>
       <c r="AQ61" s="11">
-        <v>320709</v>
+        <v>305179</v>
       </c>
       <c r="AR61" s="11">
-        <v>305179</v>
+        <v>276534</v>
       </c>
       <c r="AS61" s="11">
-        <v>276534</v>
+        <v>318270</v>
       </c>
       <c r="AT61" s="11">
-        <v>318270</v>
+        <v>57179</v>
       </c>
       <c r="AU61" s="11">
-        <v>57179</v>
+        <v>743627</v>
       </c>
       <c r="AV61" s="11">
-        <v>743627</v>
+        <v>1302328</v>
       </c>
       <c r="AW61" s="11">
-        <v>1302328</v>
+        <v>781302</v>
       </c>
       <c r="AX61" s="11">
-        <v>781302</v>
+        <v>629672</v>
       </c>
       <c r="AY61" s="11">
-        <v>629672</v>
+        <v>817617</v>
       </c>
       <c r="AZ61" s="11">
-        <v>817617</v>
+        <v>675159</v>
       </c>
       <c r="BA61" s="11">
-        <v>675159</v>
+        <v>715479</v>
       </c>
       <c r="BB61" s="11">
-        <v>715479</v>
+        <v>1099432</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8200,140 +8200,140 @@
       <c r="I62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J62" s="13" t="s">
-        <v>57</v>
+      <c r="J62" s="13">
+        <v>3781</v>
       </c>
       <c r="K62" s="13">
-        <v>3781</v>
+        <v>21845</v>
       </c>
       <c r="L62" s="13">
-        <v>21845</v>
+        <v>20126</v>
       </c>
       <c r="M62" s="13">
-        <v>20126</v>
+        <v>24108</v>
       </c>
       <c r="N62" s="13">
-        <v>24108</v>
+        <v>24175</v>
       </c>
       <c r="O62" s="13">
-        <v>24175</v>
+        <v>18985</v>
       </c>
       <c r="P62" s="13">
-        <v>18985</v>
+        <v>19745</v>
       </c>
       <c r="Q62" s="13">
-        <v>19745</v>
+        <v>21671</v>
       </c>
       <c r="R62" s="13">
-        <v>21671</v>
+        <v>27145</v>
       </c>
       <c r="S62" s="13">
-        <v>27145</v>
+        <v>22710</v>
       </c>
       <c r="T62" s="13">
-        <v>22710</v>
+        <v>24565</v>
       </c>
       <c r="U62" s="13">
-        <v>24565</v>
+        <v>39701</v>
       </c>
       <c r="V62" s="13">
-        <v>39701</v>
+        <v>14729</v>
       </c>
       <c r="W62" s="13">
-        <v>14729</v>
+        <v>50786</v>
       </c>
       <c r="X62" s="13">
-        <v>50786</v>
+        <v>56395</v>
       </c>
       <c r="Y62" s="13">
-        <v>56395</v>
+        <v>49323</v>
       </c>
       <c r="Z62" s="13">
-        <v>49323</v>
+        <v>47045</v>
       </c>
       <c r="AA62" s="13">
-        <v>47045</v>
+        <v>46193</v>
       </c>
       <c r="AB62" s="13">
-        <v>46193</v>
+        <v>50540</v>
       </c>
       <c r="AC62" s="13">
-        <v>50540</v>
+        <v>43750</v>
       </c>
       <c r="AD62" s="13">
-        <v>43750</v>
+        <v>61447</v>
       </c>
       <c r="AE62" s="13">
-        <v>61447</v>
+        <v>60196</v>
       </c>
       <c r="AF62" s="13">
-        <v>60196</v>
+        <v>56916</v>
       </c>
       <c r="AG62" s="13">
-        <v>56916</v>
+        <v>61798</v>
       </c>
       <c r="AH62" s="13">
-        <v>61798</v>
+        <v>31477</v>
       </c>
       <c r="AI62" s="13">
-        <v>31477</v>
+        <v>53770</v>
       </c>
       <c r="AJ62" s="13">
-        <v>53770</v>
+        <v>47809</v>
       </c>
       <c r="AK62" s="13">
-        <v>47809</v>
+        <v>72368</v>
       </c>
       <c r="AL62" s="13">
-        <v>72368</v>
+        <v>53171</v>
       </c>
       <c r="AM62" s="13">
-        <v>53171</v>
+        <v>52107</v>
       </c>
       <c r="AN62" s="13">
-        <v>52107</v>
+        <v>52967</v>
       </c>
       <c r="AO62" s="13">
-        <v>52967</v>
+        <v>60628</v>
       </c>
       <c r="AP62" s="13">
-        <v>60628</v>
+        <v>51287</v>
       </c>
       <c r="AQ62" s="13">
-        <v>51287</v>
+        <v>48078</v>
       </c>
       <c r="AR62" s="13">
-        <v>48078</v>
+        <v>32370</v>
       </c>
       <c r="AS62" s="13">
-        <v>32370</v>
+        <v>39513</v>
       </c>
       <c r="AT62" s="13">
-        <v>39513</v>
+        <v>6745</v>
       </c>
       <c r="AU62" s="13">
-        <v>6745</v>
+        <v>65975</v>
       </c>
       <c r="AV62" s="13">
-        <v>65975</v>
+        <v>110448</v>
       </c>
       <c r="AW62" s="13">
-        <v>110448</v>
+        <v>138226</v>
       </c>
       <c r="AX62" s="13">
-        <v>138226</v>
+        <v>99021</v>
       </c>
       <c r="AY62" s="13">
-        <v>99021</v>
+        <v>87340</v>
       </c>
       <c r="AZ62" s="13">
-        <v>87340</v>
+        <v>110786</v>
       </c>
       <c r="BA62" s="13">
-        <v>110786</v>
+        <v>116071</v>
       </c>
       <c r="BB62" s="13">
-        <v>116071</v>
+        <v>104077</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -8359,140 +8359,140 @@
       <c r="I63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J63" s="11" t="s">
-        <v>57</v>
+      <c r="J63" s="11">
+        <v>13857</v>
       </c>
       <c r="K63" s="11">
-        <v>13857</v>
+        <v>28239</v>
       </c>
       <c r="L63" s="11">
-        <v>28239</v>
+        <v>23133</v>
       </c>
       <c r="M63" s="11">
-        <v>23133</v>
+        <v>28294</v>
       </c>
       <c r="N63" s="11">
-        <v>28294</v>
+        <v>10068</v>
       </c>
       <c r="O63" s="11">
-        <v>10068</v>
+        <v>23307</v>
       </c>
       <c r="P63" s="11">
-        <v>23307</v>
+        <v>10245</v>
       </c>
       <c r="Q63" s="11">
-        <v>10245</v>
+        <v>17543</v>
       </c>
       <c r="R63" s="11">
-        <v>17543</v>
+        <v>26571</v>
       </c>
       <c r="S63" s="11">
-        <v>26571</v>
+        <v>14006</v>
       </c>
       <c r="T63" s="11">
-        <v>14006</v>
+        <v>28828</v>
       </c>
       <c r="U63" s="11">
-        <v>28828</v>
+        <v>18724</v>
       </c>
       <c r="V63" s="11">
-        <v>18724</v>
+        <v>12542</v>
       </c>
       <c r="W63" s="11">
-        <v>12542</v>
+        <v>28076</v>
       </c>
       <c r="X63" s="11">
-        <v>28076</v>
+        <v>19615</v>
       </c>
       <c r="Y63" s="11">
-        <v>19615</v>
+        <v>27484</v>
       </c>
       <c r="Z63" s="11">
-        <v>27484</v>
+        <v>18402</v>
       </c>
       <c r="AA63" s="11">
-        <v>18402</v>
+        <v>16690</v>
       </c>
       <c r="AB63" s="11">
-        <v>16690</v>
+        <v>24946</v>
       </c>
       <c r="AC63" s="11">
-        <v>24946</v>
+        <v>22849</v>
       </c>
       <c r="AD63" s="11">
-        <v>22849</v>
+        <v>27697</v>
       </c>
       <c r="AE63" s="11">
-        <v>27697</v>
+        <v>21504</v>
       </c>
       <c r="AF63" s="11">
-        <v>21504</v>
+        <v>21096</v>
       </c>
       <c r="AG63" s="11">
-        <v>21096</v>
+        <v>20534</v>
       </c>
       <c r="AH63" s="11">
-        <v>20534</v>
+        <v>17970</v>
       </c>
       <c r="AI63" s="11">
-        <v>17970</v>
+        <v>34127</v>
       </c>
       <c r="AJ63" s="11">
-        <v>34127</v>
+        <v>16978</v>
       </c>
       <c r="AK63" s="11">
-        <v>16978</v>
+        <v>31214</v>
       </c>
       <c r="AL63" s="11">
-        <v>31214</v>
+        <v>21035</v>
       </c>
       <c r="AM63" s="11">
-        <v>21035</v>
+        <v>24884</v>
       </c>
       <c r="AN63" s="11">
-        <v>24884</v>
+        <v>27480</v>
       </c>
       <c r="AO63" s="11">
-        <v>27480</v>
+        <v>31785</v>
       </c>
       <c r="AP63" s="11">
-        <v>31785</v>
+        <v>18679</v>
       </c>
       <c r="AQ63" s="11">
-        <v>18679</v>
+        <v>38368</v>
       </c>
       <c r="AR63" s="11">
-        <v>38368</v>
+        <v>24941</v>
       </c>
       <c r="AS63" s="11">
-        <v>24941</v>
+        <v>31023</v>
       </c>
       <c r="AT63" s="11">
-        <v>31023</v>
+        <v>8348</v>
       </c>
       <c r="AU63" s="11">
-        <v>8348</v>
+        <v>50463</v>
       </c>
       <c r="AV63" s="11">
-        <v>50463</v>
+        <v>68547</v>
       </c>
       <c r="AW63" s="11">
-        <v>68547</v>
+        <v>41742</v>
       </c>
       <c r="AX63" s="11">
-        <v>41742</v>
+        <v>39813</v>
       </c>
       <c r="AY63" s="11">
-        <v>39813</v>
+        <v>42838</v>
       </c>
       <c r="AZ63" s="11">
-        <v>42838</v>
+        <v>42030</v>
       </c>
       <c r="BA63" s="11">
-        <v>42030</v>
+        <v>66226</v>
       </c>
       <c r="BB63" s="11">
-        <v>66226</v>
+        <v>71779</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8518,140 +8518,140 @@
       <c r="I64" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J64" s="13" t="s">
-        <v>57</v>
+      <c r="J64" s="13">
+        <v>1601</v>
       </c>
       <c r="K64" s="13">
-        <v>1601</v>
+        <v>12434</v>
       </c>
       <c r="L64" s="13">
-        <v>12434</v>
+        <v>8070</v>
       </c>
       <c r="M64" s="13">
-        <v>8070</v>
+        <v>8141</v>
       </c>
       <c r="N64" s="13">
-        <v>8141</v>
+        <v>9500</v>
       </c>
       <c r="O64" s="13">
-        <v>9500</v>
+        <v>11708</v>
       </c>
       <c r="P64" s="13">
-        <v>11708</v>
+        <v>11474</v>
       </c>
       <c r="Q64" s="13">
-        <v>11474</v>
+        <v>11915</v>
       </c>
       <c r="R64" s="13">
-        <v>11915</v>
+        <v>12271</v>
       </c>
       <c r="S64" s="13">
-        <v>12271</v>
+        <v>13052</v>
       </c>
       <c r="T64" s="13">
-        <v>13052</v>
+        <v>12668</v>
       </c>
       <c r="U64" s="13">
-        <v>12668</v>
+        <v>19835</v>
       </c>
       <c r="V64" s="13">
-        <v>19835</v>
+        <v>8649</v>
       </c>
       <c r="W64" s="13">
-        <v>8649</v>
+        <v>19558</v>
       </c>
       <c r="X64" s="13">
-        <v>19558</v>
+        <v>29217</v>
       </c>
       <c r="Y64" s="13">
-        <v>29217</v>
+        <v>10408</v>
       </c>
       <c r="Z64" s="13">
-        <v>10408</v>
+        <v>7859</v>
       </c>
       <c r="AA64" s="13">
-        <v>7859</v>
+        <v>8833</v>
       </c>
       <c r="AB64" s="13">
-        <v>8833</v>
+        <v>14069</v>
       </c>
       <c r="AC64" s="13">
-        <v>14069</v>
+        <v>14195</v>
       </c>
       <c r="AD64" s="13">
-        <v>14195</v>
+        <v>18763</v>
       </c>
       <c r="AE64" s="13">
-        <v>18763</v>
+        <v>19911</v>
       </c>
       <c r="AF64" s="13">
-        <v>19911</v>
+        <v>18547</v>
       </c>
       <c r="AG64" s="13">
-        <v>18547</v>
+        <v>20908</v>
       </c>
       <c r="AH64" s="13">
-        <v>20908</v>
+        <v>11762</v>
       </c>
       <c r="AI64" s="13">
-        <v>11762</v>
+        <v>19634</v>
       </c>
       <c r="AJ64" s="13">
-        <v>19634</v>
+        <v>18274</v>
       </c>
       <c r="AK64" s="13">
-        <v>18274</v>
+        <v>23989</v>
       </c>
       <c r="AL64" s="13">
-        <v>23989</v>
+        <v>8317</v>
       </c>
       <c r="AM64" s="13">
-        <v>8317</v>
+        <v>24266</v>
       </c>
       <c r="AN64" s="13">
-        <v>24266</v>
+        <v>17751</v>
       </c>
       <c r="AO64" s="13">
-        <v>17751</v>
+        <v>12850</v>
       </c>
       <c r="AP64" s="13">
-        <v>12850</v>
+        <v>22491</v>
       </c>
       <c r="AQ64" s="13">
-        <v>22491</v>
+        <v>18410</v>
       </c>
       <c r="AR64" s="13">
-        <v>18410</v>
+        <v>21385</v>
       </c>
       <c r="AS64" s="13">
-        <v>21385</v>
+        <v>14727</v>
       </c>
       <c r="AT64" s="13">
-        <v>14727</v>
+        <v>3724</v>
       </c>
       <c r="AU64" s="13">
-        <v>3724</v>
+        <v>0</v>
       </c>
       <c r="AV64" s="13">
-        <v>0</v>
+        <v>48188</v>
       </c>
       <c r="AW64" s="13">
-        <v>48188</v>
+        <v>91031</v>
       </c>
       <c r="AX64" s="13">
-        <v>91031</v>
+        <v>69274</v>
       </c>
       <c r="AY64" s="13">
-        <v>69274</v>
+        <v>66077</v>
       </c>
       <c r="AZ64" s="13">
-        <v>66077</v>
+        <v>56991</v>
       </c>
       <c r="BA64" s="13">
-        <v>56991</v>
+        <v>69028</v>
       </c>
       <c r="BB64" s="13">
-        <v>69028</v>
+        <v>65946</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -8677,140 +8677,140 @@
       <c r="I65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J65" s="11" t="s">
-        <v>57</v>
+      <c r="J65" s="11">
+        <v>3395</v>
       </c>
       <c r="K65" s="11">
-        <v>3395</v>
+        <v>13479</v>
       </c>
       <c r="L65" s="11">
-        <v>13479</v>
+        <v>7639</v>
       </c>
       <c r="M65" s="11">
-        <v>7639</v>
+        <v>16499</v>
       </c>
       <c r="N65" s="11">
-        <v>16499</v>
+        <v>15743</v>
       </c>
       <c r="O65" s="11">
-        <v>15743</v>
+        <v>12651</v>
       </c>
       <c r="P65" s="11">
-        <v>12651</v>
+        <v>10205</v>
       </c>
       <c r="Q65" s="11">
-        <v>10205</v>
+        <v>12202</v>
       </c>
       <c r="R65" s="11">
-        <v>12202</v>
+        <v>17466</v>
       </c>
       <c r="S65" s="11">
-        <v>17466</v>
+        <v>22438</v>
       </c>
       <c r="T65" s="11">
-        <v>22438</v>
+        <v>15176</v>
       </c>
       <c r="U65" s="11">
-        <v>15176</v>
+        <v>26237</v>
       </c>
       <c r="V65" s="11">
-        <v>26237</v>
+        <v>20981</v>
       </c>
       <c r="W65" s="11">
-        <v>20981</v>
+        <v>36532</v>
       </c>
       <c r="X65" s="11">
-        <v>36532</v>
+        <v>57270</v>
       </c>
       <c r="Y65" s="11">
-        <v>57270</v>
+        <v>8316</v>
       </c>
       <c r="Z65" s="11">
-        <v>8316</v>
+        <v>4065</v>
       </c>
       <c r="AA65" s="11">
-        <v>4065</v>
+        <v>2267</v>
       </c>
       <c r="AB65" s="11">
-        <v>2267</v>
+        <v>22808</v>
       </c>
       <c r="AC65" s="11">
-        <v>22808</v>
+        <v>14798</v>
       </c>
       <c r="AD65" s="11">
-        <v>14798</v>
+        <v>20571</v>
       </c>
       <c r="AE65" s="11">
-        <v>20571</v>
+        <v>20717</v>
       </c>
       <c r="AF65" s="11">
-        <v>20717</v>
+        <v>29009</v>
       </c>
       <c r="AG65" s="11">
-        <v>29009</v>
+        <v>29418</v>
       </c>
       <c r="AH65" s="11">
-        <v>29418</v>
+        <v>12655</v>
       </c>
       <c r="AI65" s="11">
-        <v>12655</v>
+        <v>16567</v>
       </c>
       <c r="AJ65" s="11">
-        <v>16567</v>
+        <v>13430</v>
       </c>
       <c r="AK65" s="11">
-        <v>13430</v>
+        <v>29327</v>
       </c>
       <c r="AL65" s="11">
-        <v>29327</v>
+        <v>5865</v>
       </c>
       <c r="AM65" s="11">
-        <v>5865</v>
+        <v>23529</v>
       </c>
       <c r="AN65" s="11">
-        <v>23529</v>
+        <v>20592</v>
       </c>
       <c r="AO65" s="11">
-        <v>20592</v>
+        <v>11910</v>
       </c>
       <c r="AP65" s="11">
-        <v>11910</v>
+        <v>5129</v>
       </c>
       <c r="AQ65" s="11">
-        <v>5129</v>
+        <v>10487</v>
       </c>
       <c r="AR65" s="11">
-        <v>10487</v>
+        <v>8206</v>
       </c>
       <c r="AS65" s="11">
-        <v>8206</v>
+        <v>13577</v>
       </c>
       <c r="AT65" s="11">
-        <v>13577</v>
+        <v>-35</v>
       </c>
       <c r="AU65" s="11">
-        <v>-35</v>
+        <v>322</v>
       </c>
       <c r="AV65" s="11">
-        <v>322</v>
+        <v>40809</v>
       </c>
       <c r="AW65" s="11">
-        <v>40809</v>
+        <v>42542</v>
       </c>
       <c r="AX65" s="11">
-        <v>42542</v>
+        <v>19311</v>
       </c>
       <c r="AY65" s="11">
-        <v>19311</v>
+        <v>28976</v>
       </c>
       <c r="AZ65" s="11">
-        <v>28976</v>
+        <v>17690</v>
       </c>
       <c r="BA65" s="11">
-        <v>17690</v>
+        <v>20910</v>
       </c>
       <c r="BB65" s="11">
-        <v>20910</v>
+        <v>22550</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8836,140 +8836,140 @@
       <c r="I66" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J66" s="13" t="s">
-        <v>57</v>
+      <c r="J66" s="13">
+        <v>5163</v>
       </c>
       <c r="K66" s="13">
-        <v>5163</v>
+        <v>22633</v>
       </c>
       <c r="L66" s="13">
-        <v>22633</v>
+        <v>18108</v>
       </c>
       <c r="M66" s="13">
-        <v>18108</v>
+        <v>8192</v>
       </c>
       <c r="N66" s="13">
-        <v>8192</v>
+        <v>8763</v>
       </c>
       <c r="O66" s="13">
-        <v>8763</v>
+        <v>21113</v>
       </c>
       <c r="P66" s="13">
-        <v>21113</v>
+        <v>17352</v>
       </c>
       <c r="Q66" s="13">
-        <v>17352</v>
+        <v>17989</v>
       </c>
       <c r="R66" s="13">
-        <v>17989</v>
+        <v>17289</v>
       </c>
       <c r="S66" s="13">
-        <v>17289</v>
+        <v>18715</v>
       </c>
       <c r="T66" s="13">
-        <v>18715</v>
+        <v>21398</v>
       </c>
       <c r="U66" s="13">
-        <v>21398</v>
+        <v>25273</v>
       </c>
       <c r="V66" s="13">
-        <v>25273</v>
+        <v>11317</v>
       </c>
       <c r="W66" s="13">
-        <v>11317</v>
+        <v>20259</v>
       </c>
       <c r="X66" s="13">
-        <v>20259</v>
+        <v>35526</v>
       </c>
       <c r="Y66" s="13">
-        <v>35526</v>
+        <v>5167</v>
       </c>
       <c r="Z66" s="13">
-        <v>5167</v>
+        <v>6007</v>
       </c>
       <c r="AA66" s="13">
-        <v>6007</v>
+        <v>8693</v>
       </c>
       <c r="AB66" s="13">
-        <v>8693</v>
+        <v>23786</v>
       </c>
       <c r="AC66" s="13">
-        <v>23786</v>
+        <v>25057</v>
       </c>
       <c r="AD66" s="13">
-        <v>25057</v>
+        <v>37003</v>
       </c>
       <c r="AE66" s="13">
-        <v>37003</v>
+        <v>32383</v>
       </c>
       <c r="AF66" s="13">
-        <v>32383</v>
+        <v>28459</v>
       </c>
       <c r="AG66" s="13">
-        <v>28459</v>
+        <v>30165</v>
       </c>
       <c r="AH66" s="13">
-        <v>30165</v>
+        <v>37837</v>
       </c>
       <c r="AI66" s="13">
-        <v>37837</v>
+        <v>36353</v>
       </c>
       <c r="AJ66" s="13">
-        <v>36353</v>
+        <v>15787</v>
       </c>
       <c r="AK66" s="13">
-        <v>15787</v>
+        <v>29392</v>
       </c>
       <c r="AL66" s="13">
-        <v>29392</v>
+        <v>34864</v>
       </c>
       <c r="AM66" s="13">
-        <v>34864</v>
+        <v>38488</v>
       </c>
       <c r="AN66" s="13">
-        <v>38488</v>
+        <v>32693</v>
       </c>
       <c r="AO66" s="13">
-        <v>32693</v>
+        <v>37838</v>
       </c>
       <c r="AP66" s="13">
-        <v>37838</v>
+        <v>38609</v>
       </c>
       <c r="AQ66" s="13">
-        <v>38609</v>
+        <v>48351</v>
       </c>
       <c r="AR66" s="13">
-        <v>48351</v>
+        <v>43690</v>
       </c>
       <c r="AS66" s="13">
-        <v>43690</v>
+        <v>41390</v>
       </c>
       <c r="AT66" s="13">
-        <v>41390</v>
+        <v>1729</v>
       </c>
       <c r="AU66" s="13">
-        <v>1729</v>
+        <v>65314</v>
       </c>
       <c r="AV66" s="13">
-        <v>65314</v>
+        <v>98534</v>
       </c>
       <c r="AW66" s="13">
-        <v>98534</v>
+        <v>48013</v>
       </c>
       <c r="AX66" s="13">
-        <v>48013</v>
+        <v>70118</v>
       </c>
       <c r="AY66" s="13">
-        <v>70118</v>
+        <v>80911</v>
       </c>
       <c r="AZ66" s="13">
-        <v>80911</v>
+        <v>74330</v>
       </c>
       <c r="BA66" s="13">
-        <v>74330</v>
+        <v>90419</v>
       </c>
       <c r="BB66" s="13">
-        <v>90419</v>
+        <v>98216</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -9067,68 +9067,68 @@
       <c r="AG67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH67" s="11" t="s">
-        <v>57</v>
+      <c r="AH67" s="11">
+        <v>116620</v>
       </c>
       <c r="AI67" s="11">
-        <v>116620</v>
+        <v>309568</v>
       </c>
       <c r="AJ67" s="11">
-        <v>309568</v>
+        <v>21173</v>
       </c>
       <c r="AK67" s="11">
-        <v>21173</v>
+        <v>66694</v>
       </c>
       <c r="AL67" s="11">
-        <v>66694</v>
+        <v>99832</v>
       </c>
       <c r="AM67" s="11">
-        <v>99832</v>
+        <v>341273</v>
       </c>
       <c r="AN67" s="11">
-        <v>341273</v>
+        <v>97524</v>
       </c>
       <c r="AO67" s="11">
-        <v>97524</v>
+        <v>302812</v>
       </c>
       <c r="AP67" s="11">
-        <v>302812</v>
+        <v>520476</v>
       </c>
       <c r="AQ67" s="11">
-        <v>520476</v>
+        <v>183036</v>
       </c>
       <c r="AR67" s="11">
-        <v>183036</v>
+        <v>210854</v>
       </c>
       <c r="AS67" s="11">
-        <v>210854</v>
+        <v>368803</v>
       </c>
       <c r="AT67" s="11">
-        <v>368803</v>
+        <v>50271</v>
       </c>
       <c r="AU67" s="11">
-        <v>50271</v>
+        <v>87798</v>
       </c>
       <c r="AV67" s="11">
-        <v>87798</v>
+        <v>85431</v>
       </c>
       <c r="AW67" s="11">
-        <v>85431</v>
+        <v>210620</v>
       </c>
       <c r="AX67" s="11">
-        <v>210620</v>
+        <v>29453</v>
       </c>
       <c r="AY67" s="11">
-        <v>29453</v>
+        <v>86442</v>
       </c>
       <c r="AZ67" s="11">
-        <v>86442</v>
+        <v>60226</v>
       </c>
       <c r="BA67" s="11">
-        <v>60226</v>
+        <v>262478</v>
       </c>
       <c r="BB67" s="11">
-        <v>262478</v>
+        <v>72699</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9226,68 +9226,68 @@
       <c r="AG68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH68" s="13" t="s">
-        <v>57</v>
+      <c r="AH68" s="13">
+        <v>18758</v>
       </c>
       <c r="AI68" s="13">
-        <v>18758</v>
+        <v>40047</v>
       </c>
       <c r="AJ68" s="13">
-        <v>40047</v>
+        <v>38955</v>
       </c>
       <c r="AK68" s="13">
-        <v>38955</v>
+        <v>32052</v>
       </c>
       <c r="AL68" s="13">
-        <v>32052</v>
+        <v>46364</v>
       </c>
       <c r="AM68" s="13">
-        <v>46364</v>
+        <v>54176</v>
       </c>
       <c r="AN68" s="13">
-        <v>54176</v>
+        <v>38711</v>
       </c>
       <c r="AO68" s="13">
-        <v>38711</v>
+        <v>94801</v>
       </c>
       <c r="AP68" s="13">
-        <v>94801</v>
+        <v>57500</v>
       </c>
       <c r="AQ68" s="13">
-        <v>57500</v>
+        <v>124393</v>
       </c>
       <c r="AR68" s="13">
-        <v>124393</v>
+        <v>76660</v>
       </c>
       <c r="AS68" s="13">
-        <v>76660</v>
+        <v>111746</v>
       </c>
       <c r="AT68" s="13">
-        <v>111746</v>
+        <v>21156</v>
       </c>
       <c r="AU68" s="13">
-        <v>21156</v>
+        <v>0</v>
       </c>
       <c r="AV68" s="13">
-        <v>0</v>
+        <v>17497</v>
       </c>
       <c r="AW68" s="13">
-        <v>17497</v>
+        <v>25520</v>
       </c>
       <c r="AX68" s="13">
-        <v>25520</v>
+        <v>46649</v>
       </c>
       <c r="AY68" s="13">
-        <v>46649</v>
+        <v>119878</v>
       </c>
       <c r="AZ68" s="13">
-        <v>119878</v>
+        <v>21157</v>
       </c>
       <c r="BA68" s="13">
-        <v>21157</v>
+        <v>446434</v>
       </c>
       <c r="BB68" s="13">
-        <v>446434</v>
+        <v>166255</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -9385,68 +9385,68 @@
       <c r="AG69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH69" s="11" t="s">
-        <v>57</v>
+      <c r="AH69" s="11">
+        <v>943</v>
       </c>
       <c r="AI69" s="11">
-        <v>943</v>
+        <v>0</v>
       </c>
       <c r="AJ69" s="11">
-        <v>0</v>
+        <v>4324</v>
       </c>
       <c r="AK69" s="11">
-        <v>4324</v>
+        <v>2050</v>
       </c>
       <c r="AL69" s="11">
-        <v>2050</v>
+        <v>6310</v>
       </c>
       <c r="AM69" s="11">
-        <v>6310</v>
+        <v>2026</v>
       </c>
       <c r="AN69" s="11">
-        <v>2026</v>
+        <v>3966</v>
       </c>
       <c r="AO69" s="11">
-        <v>3966</v>
+        <v>1146</v>
       </c>
       <c r="AP69" s="11">
-        <v>1146</v>
+        <v>168</v>
       </c>
       <c r="AQ69" s="11">
-        <v>168</v>
+        <v>4244</v>
       </c>
       <c r="AR69" s="11">
-        <v>4244</v>
+        <v>13410</v>
       </c>
       <c r="AS69" s="11">
-        <v>13410</v>
+        <v>17769</v>
       </c>
       <c r="AT69" s="11">
-        <v>17769</v>
+        <v>308</v>
       </c>
       <c r="AU69" s="11">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="AV69" s="11">
         <v>0</v>
       </c>
       <c r="AW69" s="11">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="AX69" s="11">
-        <v>1920</v>
+        <v>54</v>
       </c>
       <c r="AY69" s="11">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="AZ69" s="11">
-        <v>220</v>
+        <v>282</v>
       </c>
       <c r="BA69" s="11">
-        <v>282</v>
+        <v>634</v>
       </c>
       <c r="BB69" s="11">
-        <v>634</v>
+        <v>393</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -9574,8 +9574,8 @@
       <c r="X71" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y71" s="17" t="s">
-        <v>57</v>
+      <c r="Y71" s="17">
+        <v>0</v>
       </c>
       <c r="Z71" s="17">
         <v>0</v>
@@ -9790,8 +9790,8 @@
       <c r="X73" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y73" s="17" t="s">
-        <v>57</v>
+      <c r="Y73" s="17">
+        <v>0</v>
       </c>
       <c r="Z73" s="17">
         <v>0</v>
@@ -10006,8 +10006,8 @@
       <c r="X75" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y75" s="11" t="s">
-        <v>57</v>
+      <c r="Y75" s="11">
+        <v>0</v>
       </c>
       <c r="Z75" s="11">
         <v>0</v>
@@ -10119,139 +10119,139 @@
         <v>0</v>
       </c>
       <c r="J76" s="19">
-        <v>0</v>
+        <v>124997</v>
       </c>
       <c r="K76" s="19">
-        <v>124997</v>
+        <v>851288</v>
       </c>
       <c r="L76" s="19">
-        <v>851288</v>
+        <v>833085</v>
       </c>
       <c r="M76" s="19">
-        <v>833085</v>
+        <v>874170</v>
       </c>
       <c r="N76" s="19">
-        <v>874170</v>
+        <v>751444</v>
       </c>
       <c r="O76" s="19">
-        <v>751444</v>
+        <v>766743</v>
       </c>
       <c r="P76" s="19">
-        <v>766743</v>
+        <v>766547</v>
       </c>
       <c r="Q76" s="19">
-        <v>766547</v>
+        <v>763780</v>
       </c>
       <c r="R76" s="19">
-        <v>763780</v>
+        <v>933216</v>
       </c>
       <c r="S76" s="19">
-        <v>933216</v>
+        <v>877241</v>
       </c>
       <c r="T76" s="19">
-        <v>877241</v>
+        <v>979165</v>
       </c>
       <c r="U76" s="19">
-        <v>979165</v>
+        <v>1243767</v>
       </c>
       <c r="V76" s="19">
-        <v>1243767</v>
+        <v>867894</v>
       </c>
       <c r="W76" s="19">
-        <v>867894</v>
+        <v>1231996</v>
       </c>
       <c r="X76" s="19">
-        <v>1231996</v>
+        <v>1622393</v>
       </c>
       <c r="Y76" s="19">
-        <v>1622393</v>
+        <v>1483460</v>
       </c>
       <c r="Z76" s="19">
-        <v>1483460</v>
+        <v>1418217</v>
       </c>
       <c r="AA76" s="19">
-        <v>1418217</v>
+        <v>1262419</v>
       </c>
       <c r="AB76" s="19">
-        <v>1262419</v>
+        <v>1913394</v>
       </c>
       <c r="AC76" s="19">
-        <v>1913394</v>
+        <v>2310708</v>
       </c>
       <c r="AD76" s="19">
-        <v>2310708</v>
+        <v>1453880</v>
       </c>
       <c r="AE76" s="19">
-        <v>1453880</v>
+        <v>1964791</v>
       </c>
       <c r="AF76" s="19">
-        <v>1964791</v>
+        <v>1693511</v>
       </c>
       <c r="AG76" s="19">
-        <v>1693511</v>
+        <v>2082813</v>
       </c>
       <c r="AH76" s="19">
-        <v>2082813</v>
+        <v>1062136</v>
       </c>
       <c r="AI76" s="19">
-        <v>1062136</v>
+        <v>1909091</v>
       </c>
       <c r="AJ76" s="19">
-        <v>1909091</v>
+        <v>2796278</v>
       </c>
       <c r="AK76" s="19">
-        <v>2796278</v>
+        <v>2526143</v>
       </c>
       <c r="AL76" s="19">
-        <v>2526143</v>
+        <v>1883949</v>
       </c>
       <c r="AM76" s="19">
-        <v>1883949</v>
+        <v>1959352</v>
       </c>
       <c r="AN76" s="19">
-        <v>1959352</v>
+        <v>1596032</v>
       </c>
       <c r="AO76" s="19">
-        <v>1596032</v>
+        <v>2000388</v>
       </c>
       <c r="AP76" s="19">
-        <v>2000388</v>
+        <v>1896274</v>
       </c>
       <c r="AQ76" s="19">
-        <v>1896274</v>
+        <v>1844436</v>
       </c>
       <c r="AR76" s="19">
-        <v>1844436</v>
+        <v>1594581</v>
       </c>
       <c r="AS76" s="19">
-        <v>1594581</v>
+        <v>1901809</v>
       </c>
       <c r="AT76" s="19">
-        <v>1901809</v>
+        <v>363190</v>
       </c>
       <c r="AU76" s="19">
-        <v>363190</v>
+        <v>3982129</v>
       </c>
       <c r="AV76" s="19">
-        <v>3982129</v>
+        <v>5475949</v>
       </c>
       <c r="AW76" s="19">
-        <v>5475949</v>
+        <v>3483247</v>
       </c>
       <c r="AX76" s="19">
-        <v>3483247</v>
+        <v>2934183</v>
       </c>
       <c r="AY76" s="19">
-        <v>2934183</v>
+        <v>3694642</v>
       </c>
       <c r="AZ76" s="19">
-        <v>3694642</v>
+        <v>2897090</v>
       </c>
       <c r="BA76" s="19">
-        <v>2897090</v>
+        <v>4854409</v>
       </c>
       <c r="BB76" s="19">
-        <v>4854409</v>
+        <v>4134040</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -10711,140 +10711,140 @@
       <c r="I83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J83" s="11" t="s">
-        <v>57</v>
+      <c r="J83" s="11">
+        <v>136554054</v>
       </c>
       <c r="K83" s="11">
-        <v>136554054</v>
+        <v>153923280</v>
       </c>
       <c r="L83" s="11">
-        <v>153923280</v>
+        <v>165909091</v>
       </c>
       <c r="M83" s="11">
-        <v>165909091</v>
+        <v>200536585</v>
       </c>
       <c r="N83" s="11">
-        <v>200536585</v>
+        <v>207603175</v>
       </c>
       <c r="O83" s="11">
-        <v>207603175</v>
+        <v>17022253</v>
       </c>
       <c r="P83" s="11">
-        <v>17022253</v>
+        <v>168175000</v>
       </c>
       <c r="Q83" s="11">
-        <v>168175000</v>
+        <v>146761194</v>
       </c>
       <c r="R83" s="11">
-        <v>146761194</v>
+        <v>46217100</v>
       </c>
       <c r="S83" s="11">
-        <v>46217100</v>
+        <v>147927273</v>
       </c>
       <c r="T83" s="11">
-        <v>147927273</v>
+        <v>142109091</v>
       </c>
       <c r="U83" s="11">
-        <v>142109091</v>
+        <v>146635484</v>
       </c>
       <c r="V83" s="11">
-        <v>146635484</v>
+        <v>147402985</v>
       </c>
       <c r="W83" s="11">
-        <v>147402985</v>
+        <v>1500489540</v>
       </c>
       <c r="X83" s="11">
-        <v>1500489540</v>
+        <v>165482192</v>
       </c>
       <c r="Y83" s="11">
-        <v>165482192</v>
+        <v>139669666</v>
       </c>
       <c r="Z83" s="11">
-        <v>139669666</v>
+        <v>162949914</v>
       </c>
       <c r="AA83" s="11">
-        <v>162949914</v>
+        <v>180275168</v>
       </c>
       <c r="AB83" s="11">
-        <v>180275168</v>
+        <v>184334627</v>
       </c>
       <c r="AC83" s="11">
-        <v>184334627</v>
+        <v>274458248</v>
       </c>
       <c r="AD83" s="11">
-        <v>274458248</v>
+        <v>305458797</v>
       </c>
       <c r="AE83" s="11">
-        <v>305458797</v>
+        <v>359543071</v>
       </c>
       <c r="AF83" s="11">
-        <v>359543071</v>
+        <v>396295345</v>
       </c>
       <c r="AG83" s="11">
-        <v>396295345</v>
+        <v>446196897</v>
       </c>
       <c r="AH83" s="11">
-        <v>446196897</v>
+        <v>476995169</v>
       </c>
       <c r="AI83" s="11">
-        <v>476995169</v>
+        <v>535932950</v>
       </c>
       <c r="AJ83" s="11">
-        <v>535932950</v>
+        <v>516247826</v>
       </c>
       <c r="AK83" s="11">
-        <v>516247826</v>
+        <v>545047794</v>
       </c>
       <c r="AL83" s="11">
-        <v>545047794</v>
+        <v>471048583</v>
       </c>
       <c r="AM83" s="11">
-        <v>471048583</v>
+        <v>392651007</v>
       </c>
       <c r="AN83" s="11">
-        <v>392651007</v>
+        <v>518738693</v>
       </c>
       <c r="AO83" s="11">
-        <v>518738693</v>
+        <v>522632124</v>
       </c>
       <c r="AP83" s="11">
-        <v>522632124</v>
+        <v>275424324</v>
       </c>
       <c r="AQ83" s="11">
-        <v>275424324</v>
+        <v>312060543</v>
       </c>
       <c r="AR83" s="11">
-        <v>312060543</v>
+        <v>304902010</v>
       </c>
       <c r="AS83" s="11">
-        <v>304902010</v>
+        <v>319430642</v>
       </c>
       <c r="AT83" s="11">
-        <v>319430642</v>
+        <v>491363014</v>
       </c>
       <c r="AU83" s="11">
-        <v>491363014</v>
+        <v>286339089</v>
       </c>
       <c r="AV83" s="11">
-        <v>286339089</v>
+        <v>466256903</v>
       </c>
       <c r="AW83" s="11">
-        <v>466256903</v>
+        <v>495805650</v>
       </c>
       <c r="AX83" s="11">
-        <v>495805650</v>
+        <v>577858561</v>
       </c>
       <c r="AY83" s="11">
-        <v>577858561</v>
+        <v>485697856</v>
       </c>
       <c r="AZ83" s="11">
-        <v>485697856</v>
+        <v>578615909</v>
       </c>
       <c r="BA83" s="11">
-        <v>578615909</v>
+        <v>589965461</v>
       </c>
       <c r="BB83" s="11">
-        <v>589965461</v>
+        <v>558215753</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -10870,117 +10870,117 @@
       <c r="I84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J84" s="13" t="s">
-        <v>57</v>
+      <c r="J84" s="13">
+        <v>97250000</v>
       </c>
       <c r="K84" s="13">
-        <v>97250000</v>
+        <v>65130435</v>
       </c>
       <c r="L84" s="13">
-        <v>65130435</v>
+        <v>124000000</v>
       </c>
       <c r="M84" s="13">
-        <v>124000000</v>
+        <v>106315789</v>
       </c>
       <c r="N84" s="13">
-        <v>106315789</v>
+        <v>42400000</v>
       </c>
       <c r="O84" s="13">
-        <v>42400000</v>
+        <v>72846154</v>
       </c>
       <c r="P84" s="13">
-        <v>72846154</v>
+        <v>83666667</v>
       </c>
       <c r="Q84" s="13">
-        <v>83666667</v>
+        <v>80810811</v>
       </c>
       <c r="R84" s="13">
-        <v>80810811</v>
+        <v>72823529</v>
       </c>
       <c r="S84" s="13">
-        <v>72823529</v>
+        <v>88833333</v>
       </c>
       <c r="T84" s="13">
-        <v>88833333</v>
+        <v>95673913</v>
       </c>
       <c r="U84" s="13">
-        <v>95673913</v>
+        <v>72181818</v>
       </c>
       <c r="V84" s="13">
-        <v>72181818</v>
+        <v>137000000</v>
       </c>
       <c r="W84" s="13">
-        <v>137000000</v>
+        <v>49250000</v>
       </c>
       <c r="X84" s="13">
-        <v>49250000</v>
+        <v>12200000</v>
       </c>
       <c r="Y84" s="13">
-        <v>12200000</v>
+        <v>158714286</v>
       </c>
       <c r="Z84" s="13">
-        <v>158714286</v>
+        <v>161000000</v>
       </c>
       <c r="AA84" s="13">
-        <v>161000000</v>
+        <v>120125000</v>
       </c>
       <c r="AB84" s="13">
-        <v>120125000</v>
+        <v>145800000</v>
       </c>
       <c r="AC84" s="13">
-        <v>145800000</v>
+        <v>115285714</v>
       </c>
       <c r="AD84" s="13">
-        <v>115285714</v>
+        <v>164333333</v>
       </c>
       <c r="AE84" s="13">
-        <v>164333333</v>
+        <v>150600000</v>
       </c>
       <c r="AF84" s="13">
-        <v>150600000</v>
+        <v>103500000</v>
       </c>
       <c r="AG84" s="13">
-        <v>103500000</v>
-      </c>
-      <c r="AH84" s="13">
         <v>130000000</v>
       </c>
-      <c r="AI84" s="13" t="s">
-        <v>57</v>
+      <c r="AH84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI84" s="13">
+        <v>168333333</v>
       </c>
       <c r="AJ84" s="13">
-        <v>168333333</v>
+        <v>134166667</v>
       </c>
       <c r="AK84" s="13">
-        <v>134166667</v>
+        <v>112000000</v>
       </c>
       <c r="AL84" s="13">
-        <v>112000000</v>
+        <v>127571429</v>
       </c>
       <c r="AM84" s="13">
-        <v>127571429</v>
+        <v>139833333</v>
       </c>
       <c r="AN84" s="13">
-        <v>139833333</v>
+        <v>118428571</v>
       </c>
       <c r="AO84" s="13">
-        <v>118428571</v>
+        <v>130307692</v>
       </c>
       <c r="AP84" s="13">
-        <v>130307692</v>
+        <v>132285714</v>
       </c>
       <c r="AQ84" s="13">
-        <v>132285714</v>
+        <v>117500000</v>
       </c>
       <c r="AR84" s="13">
-        <v>117500000</v>
+        <v>144142857</v>
       </c>
       <c r="AS84" s="13">
-        <v>144142857</v>
-      </c>
-      <c r="AT84" s="13">
         <v>149800000</v>
       </c>
+      <c r="AT84" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AU84" s="13" t="s">
         <v>57</v>
       </c>
@@ -10993,11 +10993,11 @@
       <c r="AX84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AY84" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ84" s="13">
+      <c r="AY84" s="13">
         <v>432500000</v>
+      </c>
+      <c r="AZ84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BA84" s="13" t="s">
         <v>57</v>
@@ -11029,140 +11029,140 @@
       <c r="I85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J85" s="11" t="s">
-        <v>57</v>
+      <c r="J85" s="11">
+        <v>31452264</v>
       </c>
       <c r="K85" s="11">
-        <v>31452264</v>
+        <v>42540798</v>
       </c>
       <c r="L85" s="11">
-        <v>42540798</v>
+        <v>47033515</v>
       </c>
       <c r="M85" s="11">
-        <v>47033515</v>
+        <v>49997104</v>
       </c>
       <c r="N85" s="11">
-        <v>49997104</v>
+        <v>49657822</v>
       </c>
       <c r="O85" s="11">
-        <v>49657822</v>
+        <v>50495666</v>
       </c>
       <c r="P85" s="11">
-        <v>50495666</v>
+        <v>50198048</v>
       </c>
       <c r="Q85" s="11">
-        <v>50198048</v>
+        <v>49106421</v>
       </c>
       <c r="R85" s="11">
-        <v>49106421</v>
+        <v>50786520</v>
       </c>
       <c r="S85" s="11">
-        <v>50786520</v>
+        <v>48894680</v>
       </c>
       <c r="T85" s="11">
-        <v>48894680</v>
+        <v>49046557</v>
       </c>
       <c r="U85" s="11">
-        <v>49046557</v>
+        <v>50878161</v>
       </c>
       <c r="V85" s="11">
-        <v>50878161</v>
+        <v>50452557</v>
       </c>
       <c r="W85" s="11">
-        <v>50452557</v>
+        <v>55602389</v>
       </c>
       <c r="X85" s="11">
-        <v>55602389</v>
+        <v>78572171</v>
       </c>
       <c r="Y85" s="11">
-        <v>78572171</v>
+        <v>75989370</v>
       </c>
       <c r="Z85" s="11">
-        <v>75989370</v>
+        <v>73676860</v>
       </c>
       <c r="AA85" s="11">
-        <v>73676860</v>
+        <v>75776142</v>
       </c>
       <c r="AB85" s="11">
-        <v>75776142</v>
+        <v>76223427</v>
       </c>
       <c r="AC85" s="11">
-        <v>76223427</v>
+        <v>81686788</v>
       </c>
       <c r="AD85" s="11">
-        <v>81686788</v>
+        <v>85106979</v>
       </c>
       <c r="AE85" s="11">
-        <v>85106979</v>
+        <v>87650024</v>
       </c>
       <c r="AF85" s="11">
-        <v>87650024</v>
+        <v>80676449</v>
       </c>
       <c r="AG85" s="11">
-        <v>80676449</v>
+        <v>84275993</v>
       </c>
       <c r="AH85" s="11">
-        <v>84275993</v>
+        <v>83076912</v>
       </c>
       <c r="AI85" s="11">
-        <v>83076912</v>
+        <v>85269884</v>
       </c>
       <c r="AJ85" s="11">
-        <v>85269884</v>
+        <v>88266390</v>
       </c>
       <c r="AK85" s="11">
-        <v>88266390</v>
+        <v>79514440</v>
       </c>
       <c r="AL85" s="11">
-        <v>79514440</v>
+        <v>78625244</v>
       </c>
       <c r="AM85" s="11">
-        <v>78625244</v>
+        <v>78101136</v>
       </c>
       <c r="AN85" s="11">
-        <v>78101136</v>
+        <v>76956689</v>
       </c>
       <c r="AO85" s="11">
-        <v>76956689</v>
+        <v>75634877</v>
       </c>
       <c r="AP85" s="11">
-        <v>75634877</v>
+        <v>76389303</v>
       </c>
       <c r="AQ85" s="11">
-        <v>76389303</v>
+        <v>76256198</v>
       </c>
       <c r="AR85" s="11">
-        <v>76256198</v>
+        <v>79460435</v>
       </c>
       <c r="AS85" s="11">
-        <v>79460435</v>
+        <v>82535225</v>
       </c>
       <c r="AT85" s="11">
-        <v>82535225</v>
+        <v>92877044</v>
       </c>
       <c r="AU85" s="11">
-        <v>92877044</v>
+        <v>248526447</v>
       </c>
       <c r="AV85" s="11">
-        <v>248526447</v>
+        <v>251974390</v>
       </c>
       <c r="AW85" s="11">
-        <v>251974390</v>
+        <v>252549112</v>
       </c>
       <c r="AX85" s="11">
-        <v>252549112</v>
+        <v>252596897</v>
       </c>
       <c r="AY85" s="11">
-        <v>252596897</v>
+        <v>250778674</v>
       </c>
       <c r="AZ85" s="11">
-        <v>250778674</v>
+        <v>249070294</v>
       </c>
       <c r="BA85" s="11">
-        <v>249070294</v>
+        <v>248534049</v>
       </c>
       <c r="BB85" s="11">
-        <v>248534049</v>
+        <v>248225993</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11188,140 +11188,140 @@
       <c r="I86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J86" s="13" t="s">
-        <v>57</v>
+      <c r="J86" s="13">
+        <v>29412903</v>
       </c>
       <c r="K86" s="13">
-        <v>29412903</v>
+        <v>49453153</v>
       </c>
       <c r="L86" s="13">
-        <v>49453153</v>
+        <v>56759728</v>
       </c>
       <c r="M86" s="13">
-        <v>56759728</v>
+        <v>59020270</v>
       </c>
       <c r="N86" s="13">
-        <v>59020270</v>
+        <v>58385437</v>
       </c>
       <c r="O86" s="13">
-        <v>58385437</v>
+        <v>59246317</v>
       </c>
       <c r="P86" s="13">
-        <v>59246317</v>
+        <v>60225821</v>
       </c>
       <c r="Q86" s="13">
-        <v>60225821</v>
+        <v>58525019</v>
       </c>
       <c r="R86" s="13">
-        <v>58525019</v>
+        <v>57187626</v>
       </c>
       <c r="S86" s="13">
-        <v>57187626</v>
+        <v>57473406</v>
       </c>
       <c r="T86" s="13">
-        <v>57473406</v>
+        <v>58697667</v>
       </c>
       <c r="U86" s="13">
-        <v>58697667</v>
+        <v>59501123</v>
       </c>
       <c r="V86" s="13">
-        <v>59501123</v>
+        <v>57274131</v>
       </c>
       <c r="W86" s="13">
-        <v>57274131</v>
+        <v>69482759</v>
       </c>
       <c r="X86" s="13">
-        <v>69482759</v>
+        <v>91987080</v>
       </c>
       <c r="Y86" s="13">
-        <v>91987080</v>
+        <v>92421548</v>
       </c>
       <c r="Z86" s="13">
-        <v>92421548</v>
+        <v>92168614</v>
       </c>
       <c r="AA86" s="13">
-        <v>92168614</v>
+        <v>92718803</v>
       </c>
       <c r="AB86" s="13">
-        <v>92718803</v>
+        <v>95812500</v>
       </c>
       <c r="AC86" s="13">
-        <v>95812500</v>
+        <v>96422863</v>
       </c>
       <c r="AD86" s="13">
-        <v>96422863</v>
+        <v>100651007</v>
       </c>
       <c r="AE86" s="13">
-        <v>100651007</v>
+        <v>105423223</v>
       </c>
       <c r="AF86" s="13">
-        <v>105423223</v>
+        <v>99772771</v>
       </c>
       <c r="AG86" s="13">
-        <v>99772771</v>
+        <v>102825032</v>
       </c>
       <c r="AH86" s="13">
-        <v>102825032</v>
+        <v>105563958</v>
       </c>
       <c r="AI86" s="13">
-        <v>105563958</v>
+        <v>107439139</v>
       </c>
       <c r="AJ86" s="13">
-        <v>107439139</v>
+        <v>103446645</v>
       </c>
       <c r="AK86" s="13">
-        <v>103446645</v>
+        <v>101528069</v>
       </c>
       <c r="AL86" s="13">
-        <v>101528069</v>
+        <v>102906740</v>
       </c>
       <c r="AM86" s="13">
-        <v>102906740</v>
+        <v>99130611</v>
       </c>
       <c r="AN86" s="13">
-        <v>99130611</v>
+        <v>100841049</v>
       </c>
       <c r="AO86" s="13">
-        <v>100841049</v>
+        <v>102195358</v>
       </c>
       <c r="AP86" s="13">
-        <v>102195358</v>
+        <v>99321462</v>
       </c>
       <c r="AQ86" s="13">
-        <v>99321462</v>
+        <v>98827396</v>
       </c>
       <c r="AR86" s="13">
-        <v>98827396</v>
+        <v>105306169</v>
       </c>
       <c r="AS86" s="13">
-        <v>105306169</v>
+        <v>107017485</v>
       </c>
       <c r="AT86" s="13">
-        <v>107017485</v>
+        <v>113450397</v>
       </c>
       <c r="AU86" s="13">
-        <v>113450397</v>
+        <v>306903426</v>
       </c>
       <c r="AV86" s="13">
-        <v>306903426</v>
+        <v>313360924</v>
       </c>
       <c r="AW86" s="13">
-        <v>313360924</v>
+        <v>326085977</v>
       </c>
       <c r="AX86" s="13">
-        <v>326085977</v>
+        <v>320280773</v>
       </c>
       <c r="AY86" s="13">
-        <v>320280773</v>
+        <v>317397904</v>
       </c>
       <c r="AZ86" s="13">
-        <v>317397904</v>
+        <v>313298840</v>
       </c>
       <c r="BA86" s="13">
-        <v>313298840</v>
+        <v>317990667</v>
       </c>
       <c r="BB86" s="13">
-        <v>317990667</v>
+        <v>309786419</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -11347,140 +11347,140 @@
       <c r="I87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J87" s="11" t="s">
-        <v>57</v>
+      <c r="J87" s="11">
+        <v>68745455</v>
       </c>
       <c r="K87" s="11">
-        <v>68745455</v>
+        <v>92563559</v>
       </c>
       <c r="L87" s="11">
-        <v>92563559</v>
+        <v>115005714</v>
       </c>
       <c r="M87" s="11">
-        <v>115005714</v>
+        <v>145228916</v>
       </c>
       <c r="N87" s="11">
-        <v>145228916</v>
+        <v>145632530</v>
       </c>
       <c r="O87" s="11">
-        <v>145632530</v>
+        <v>146038462</v>
       </c>
       <c r="P87" s="11">
-        <v>146038462</v>
+        <v>146259259</v>
       </c>
       <c r="Q87" s="11">
-        <v>146259259</v>
+        <v>144473333</v>
       </c>
       <c r="R87" s="11">
-        <v>144473333</v>
+        <v>146729730</v>
       </c>
       <c r="S87" s="11">
-        <v>146729730</v>
+        <v>137636364</v>
       </c>
       <c r="T87" s="11">
-        <v>137636364</v>
+        <v>141994220</v>
       </c>
       <c r="U87" s="11">
-        <v>141994220</v>
+        <v>142809353</v>
       </c>
       <c r="V87" s="11">
-        <v>142809353</v>
+        <v>145831683</v>
       </c>
       <c r="W87" s="11">
-        <v>145831683</v>
+        <v>225715556</v>
       </c>
       <c r="X87" s="11">
-        <v>225715556</v>
+        <v>234979167</v>
       </c>
       <c r="Y87" s="11">
-        <v>234979167</v>
+        <v>239432039</v>
       </c>
       <c r="Z87" s="11">
-        <v>239432039</v>
+        <v>240025510</v>
       </c>
       <c r="AA87" s="11">
-        <v>240025510</v>
+        <v>240588542</v>
       </c>
       <c r="AB87" s="11">
-        <v>240588542</v>
+        <v>242980769</v>
       </c>
       <c r="AC87" s="11">
-        <v>242980769</v>
+        <v>257352941</v>
       </c>
       <c r="AD87" s="11">
-        <v>257352941</v>
+        <v>308778894</v>
       </c>
       <c r="AE87" s="11">
-        <v>308778894</v>
+        <v>313520833</v>
       </c>
       <c r="AF87" s="11">
-        <v>313520833</v>
+        <v>302744681</v>
       </c>
       <c r="AG87" s="11">
-        <v>302744681</v>
+        <v>302931373</v>
       </c>
       <c r="AH87" s="11">
-        <v>302931373</v>
+        <v>311653465</v>
       </c>
       <c r="AI87" s="11">
-        <v>311653465</v>
+        <v>316294118</v>
       </c>
       <c r="AJ87" s="11">
-        <v>316294118</v>
+        <v>300685535</v>
       </c>
       <c r="AK87" s="11">
-        <v>300685535</v>
+        <v>284913386</v>
       </c>
       <c r="AL87" s="11">
-        <v>284913386</v>
+        <v>288972826</v>
       </c>
       <c r="AM87" s="11">
-        <v>288972826</v>
+        <v>292735955</v>
       </c>
       <c r="AN87" s="11">
-        <v>292735955</v>
+        <v>287864130</v>
       </c>
       <c r="AO87" s="11">
-        <v>287864130</v>
+        <v>294310680</v>
       </c>
       <c r="AP87" s="11">
-        <v>294310680</v>
+        <v>286519553</v>
       </c>
       <c r="AQ87" s="11">
-        <v>286519553</v>
+        <v>286178571</v>
       </c>
       <c r="AR87" s="11">
-        <v>286178571</v>
+        <v>305377358</v>
       </c>
       <c r="AS87" s="11">
-        <v>305377358</v>
+        <v>311125984</v>
       </c>
       <c r="AT87" s="11">
-        <v>311125984</v>
+        <v>355000000</v>
       </c>
       <c r="AU87" s="11">
-        <v>355000000</v>
+        <v>709408602</v>
       </c>
       <c r="AV87" s="11">
-        <v>709408602</v>
+        <v>731443709</v>
       </c>
       <c r="AW87" s="11">
-        <v>731443709</v>
+        <v>727505263</v>
       </c>
       <c r="AX87" s="11">
-        <v>727505263</v>
+        <v>728095588</v>
       </c>
       <c r="AY87" s="11">
-        <v>728095588</v>
+        <v>727833333</v>
       </c>
       <c r="AZ87" s="11">
-        <v>727833333</v>
+        <v>724091503</v>
       </c>
       <c r="BA87" s="11">
-        <v>724091503</v>
+        <v>720937888</v>
       </c>
       <c r="BB87" s="11">
-        <v>720937888</v>
+        <v>717772414</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
@@ -11506,140 +11506,140 @@
       <c r="I88" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J88" s="13" t="s">
-        <v>57</v>
+      <c r="J88" s="13">
+        <v>64752336</v>
       </c>
       <c r="K88" s="13">
-        <v>64752336</v>
+        <v>57048485</v>
       </c>
       <c r="L88" s="13">
-        <v>57048485</v>
+        <v>79494845</v>
       </c>
       <c r="M88" s="13">
-        <v>79494845</v>
+        <v>77730769</v>
       </c>
       <c r="N88" s="13">
-        <v>77730769</v>
+        <v>87547826</v>
       </c>
       <c r="O88" s="13">
-        <v>87547826</v>
+        <v>77431894</v>
       </c>
       <c r="P88" s="13">
-        <v>77431894</v>
+        <v>94861111</v>
       </c>
       <c r="Q88" s="13">
-        <v>94861111</v>
+        <v>82750000</v>
       </c>
       <c r="R88" s="13">
-        <v>82750000</v>
+        <v>127745192</v>
       </c>
       <c r="S88" s="13">
-        <v>127745192</v>
+        <v>89782051</v>
       </c>
       <c r="T88" s="13">
-        <v>89782051</v>
+        <v>81665722</v>
       </c>
       <c r="U88" s="13">
-        <v>81665722</v>
+        <v>94090452</v>
       </c>
       <c r="V88" s="13">
-        <v>94090452</v>
+        <v>82513158</v>
       </c>
       <c r="W88" s="13">
-        <v>82513158</v>
+        <v>101357401</v>
       </c>
       <c r="X88" s="13">
-        <v>101357401</v>
+        <v>159471545</v>
       </c>
       <c r="Y88" s="13">
-        <v>159471545</v>
+        <v>132134615</v>
       </c>
       <c r="Z88" s="13">
-        <v>132134615</v>
+        <v>147216000</v>
       </c>
       <c r="AA88" s="13">
-        <v>147216000</v>
+        <v>160480769</v>
       </c>
       <c r="AB88" s="13">
-        <v>160480769</v>
+        <v>166306667</v>
       </c>
       <c r="AC88" s="13">
-        <v>166306667</v>
+        <v>174419847</v>
       </c>
       <c r="AD88" s="13">
-        <v>174419847</v>
+        <v>177544872</v>
       </c>
       <c r="AE88" s="13">
-        <v>177544872</v>
+        <v>174829268</v>
       </c>
       <c r="AF88" s="13">
-        <v>174829268</v>
+        <v>166110236</v>
       </c>
       <c r="AG88" s="13">
-        <v>166110236</v>
+        <v>169702479</v>
       </c>
       <c r="AH88" s="13">
-        <v>169702479</v>
+        <v>171142857</v>
       </c>
       <c r="AI88" s="13">
-        <v>171142857</v>
+        <v>142790795</v>
       </c>
       <c r="AJ88" s="13">
-        <v>142790795</v>
+        <v>141483333</v>
       </c>
       <c r="AK88" s="13">
-        <v>141483333</v>
+        <v>173411111</v>
       </c>
       <c r="AL88" s="13">
-        <v>173411111</v>
+        <v>173842975</v>
       </c>
       <c r="AM88" s="13">
-        <v>173842975</v>
+        <v>171613793</v>
       </c>
       <c r="AN88" s="13">
-        <v>171613793</v>
+        <v>175031847</v>
       </c>
       <c r="AO88" s="13">
-        <v>175031847</v>
+        <v>173688525</v>
       </c>
       <c r="AP88" s="13">
-        <v>173688525</v>
+        <v>172953704</v>
       </c>
       <c r="AQ88" s="13">
-        <v>172953704</v>
+        <v>170524444</v>
       </c>
       <c r="AR88" s="13">
-        <v>170524444</v>
+        <v>179431655</v>
       </c>
       <c r="AS88" s="13">
-        <v>179431655</v>
+        <v>179323699</v>
       </c>
       <c r="AT88" s="13">
-        <v>179323699</v>
+        <v>189727273</v>
       </c>
       <c r="AU88" s="13">
-        <v>189727273</v>
+        <v>397346457</v>
       </c>
       <c r="AV88" s="13">
-        <v>397346457</v>
+        <v>415436364</v>
       </c>
       <c r="AW88" s="13">
-        <v>415436364</v>
+        <v>425938776</v>
       </c>
       <c r="AX88" s="13">
-        <v>425938776</v>
+        <v>432750000</v>
       </c>
       <c r="AY88" s="13">
-        <v>432750000</v>
+        <v>424138614</v>
       </c>
       <c r="AZ88" s="13">
-        <v>424138614</v>
+        <v>420300000</v>
       </c>
       <c r="BA88" s="13">
-        <v>420300000</v>
+        <v>416515723</v>
       </c>
       <c r="BB88" s="13">
-        <v>416515723</v>
+        <v>414907514</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -11665,140 +11665,140 @@
       <c r="I89" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J89" s="11" t="s">
-        <v>57</v>
+      <c r="J89" s="11">
+        <v>27603448</v>
       </c>
       <c r="K89" s="11">
-        <v>27603448</v>
+        <v>39980707</v>
       </c>
       <c r="L89" s="11">
-        <v>39980707</v>
+        <v>47751479</v>
       </c>
       <c r="M89" s="11">
-        <v>47751479</v>
+        <v>52185897</v>
       </c>
       <c r="N89" s="11">
-        <v>52185897</v>
+        <v>52486188</v>
       </c>
       <c r="O89" s="11">
-        <v>52486188</v>
+        <v>52267857</v>
       </c>
       <c r="P89" s="11">
-        <v>52267857</v>
+        <v>53120370</v>
       </c>
       <c r="Q89" s="11">
-        <v>53120370</v>
+        <v>52030568</v>
       </c>
       <c r="R89" s="11">
-        <v>52030568</v>
+        <v>53352174</v>
       </c>
       <c r="S89" s="11">
-        <v>53352174</v>
+        <v>50200000</v>
       </c>
       <c r="T89" s="11">
-        <v>50200000</v>
+        <v>52131687</v>
       </c>
       <c r="U89" s="11">
-        <v>52131687</v>
+        <v>52060367</v>
       </c>
       <c r="V89" s="11">
-        <v>52060367</v>
+        <v>50284884</v>
       </c>
       <c r="W89" s="11">
-        <v>50284884</v>
+        <v>87704036</v>
       </c>
       <c r="X89" s="11">
-        <v>87704036</v>
+        <v>90455108</v>
       </c>
       <c r="Y89" s="11">
-        <v>90455108</v>
+        <v>88957265</v>
       </c>
       <c r="Z89" s="11">
-        <v>88957265</v>
+        <v>88303371</v>
       </c>
       <c r="AA89" s="11">
-        <v>88303371</v>
+        <v>92010417</v>
       </c>
       <c r="AB89" s="11">
-        <v>92010417</v>
+        <v>88484277</v>
       </c>
       <c r="AC89" s="11">
-        <v>88484277</v>
+        <v>92777778</v>
       </c>
       <c r="AD89" s="11">
-        <v>92777778</v>
+        <v>87269767</v>
       </c>
       <c r="AE89" s="11">
-        <v>87269767</v>
+        <v>88493333</v>
       </c>
       <c r="AF89" s="11">
-        <v>88493333</v>
+        <v>84689498</v>
       </c>
       <c r="AG89" s="11">
-        <v>84689498</v>
+        <v>83967871</v>
       </c>
       <c r="AH89" s="11">
-        <v>83967871</v>
+        <v>87125926</v>
       </c>
       <c r="AI89" s="11">
-        <v>87125926</v>
+        <v>88044843</v>
       </c>
       <c r="AJ89" s="11">
-        <v>88044843</v>
+        <v>82687783</v>
       </c>
       <c r="AK89" s="11">
-        <v>82687783</v>
+        <v>84171930</v>
       </c>
       <c r="AL89" s="11">
-        <v>84171930</v>
+        <v>85742268</v>
       </c>
       <c r="AM89" s="11">
-        <v>85742268</v>
+        <v>84846154</v>
       </c>
       <c r="AN89" s="11">
-        <v>84846154</v>
+        <v>84528571</v>
       </c>
       <c r="AO89" s="11">
-        <v>84528571</v>
+        <v>84539474</v>
       </c>
       <c r="AP89" s="11">
-        <v>84539474</v>
+        <v>83921642</v>
       </c>
       <c r="AQ89" s="11">
-        <v>83921642</v>
+        <v>84449541</v>
       </c>
       <c r="AR89" s="11">
-        <v>84449541</v>
+        <v>84525692</v>
       </c>
       <c r="AS89" s="11">
-        <v>84525692</v>
+        <v>85622093</v>
       </c>
       <c r="AT89" s="11">
-        <v>85622093</v>
-      </c>
-      <c r="AU89" s="11">
         <v>82755556</v>
       </c>
-      <c r="AV89" s="11" t="s">
-        <v>57</v>
+      <c r="AU89" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV89" s="11">
+        <v>229466667</v>
       </c>
       <c r="AW89" s="11">
-        <v>229466667</v>
+        <v>228721106</v>
       </c>
       <c r="AX89" s="11">
-        <v>228721106</v>
+        <v>229384106</v>
       </c>
       <c r="AY89" s="11">
-        <v>229384106</v>
+        <v>228640138</v>
       </c>
       <c r="AZ89" s="11">
-        <v>228640138</v>
+        <v>227055777</v>
       </c>
       <c r="BA89" s="11">
-        <v>227055777</v>
+        <v>226321311</v>
       </c>
       <c r="BB89" s="11">
-        <v>226321311</v>
+        <v>226618557</v>
       </c>
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.3">
@@ -11824,140 +11824,140 @@
       <c r="I90" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J90" s="13" t="s">
-        <v>57</v>
+      <c r="J90" s="13">
+        <v>102878788</v>
       </c>
       <c r="K90" s="13">
-        <v>102878788</v>
+        <v>114228814</v>
       </c>
       <c r="L90" s="13">
-        <v>114228814</v>
+        <v>136410714</v>
       </c>
       <c r="M90" s="13">
-        <v>136410714</v>
+        <v>155650943</v>
       </c>
       <c r="N90" s="13">
-        <v>155650943</v>
+        <v>157430000</v>
       </c>
       <c r="O90" s="13">
-        <v>157430000</v>
+        <v>160139241</v>
       </c>
       <c r="P90" s="13">
-        <v>160139241</v>
+        <v>157000000</v>
       </c>
       <c r="Q90" s="13">
-        <v>157000000</v>
+        <v>150641975</v>
       </c>
       <c r="R90" s="13">
-        <v>150641975</v>
+        <v>153210526</v>
       </c>
       <c r="S90" s="13">
-        <v>153210526</v>
+        <v>142917197</v>
       </c>
       <c r="T90" s="13">
-        <v>142917197</v>
+        <v>151760000</v>
       </c>
       <c r="U90" s="13">
-        <v>151760000</v>
+        <v>154335294</v>
       </c>
       <c r="V90" s="13">
-        <v>154335294</v>
+        <v>147753521</v>
       </c>
       <c r="W90" s="13">
-        <v>147753521</v>
+        <v>238771242</v>
       </c>
       <c r="X90" s="13">
-        <v>238771242</v>
+        <v>278009709</v>
       </c>
       <c r="Y90" s="13">
-        <v>278009709</v>
+        <v>252000000</v>
       </c>
       <c r="Z90" s="13">
-        <v>252000000</v>
+        <v>193571429</v>
       </c>
       <c r="AA90" s="13">
-        <v>193571429</v>
+        <v>174384615</v>
       </c>
       <c r="AB90" s="13">
-        <v>174384615</v>
+        <v>250637363</v>
       </c>
       <c r="AC90" s="13">
-        <v>250637363</v>
+        <v>274037037</v>
       </c>
       <c r="AD90" s="13">
-        <v>274037037</v>
+        <v>247843373</v>
       </c>
       <c r="AE90" s="13">
-        <v>247843373</v>
+        <v>252646341</v>
       </c>
       <c r="AF90" s="13">
-        <v>252646341</v>
+        <v>247940171</v>
       </c>
       <c r="AG90" s="13">
-        <v>247940171</v>
+        <v>247210084</v>
       </c>
       <c r="AH90" s="13">
-        <v>247210084</v>
+        <v>238773585</v>
       </c>
       <c r="AI90" s="13">
-        <v>238773585</v>
+        <v>243632353</v>
       </c>
       <c r="AJ90" s="13">
-        <v>243632353</v>
+        <v>231551724</v>
       </c>
       <c r="AK90" s="13">
-        <v>231551724</v>
+        <v>266609091</v>
       </c>
       <c r="AL90" s="13">
-        <v>266609091</v>
+        <v>266590909</v>
       </c>
       <c r="AM90" s="13">
-        <v>266590909</v>
+        <v>270448276</v>
       </c>
       <c r="AN90" s="13">
-        <v>270448276</v>
+        <v>270947368</v>
       </c>
       <c r="AO90" s="13">
-        <v>270947368</v>
+        <v>258913043</v>
       </c>
       <c r="AP90" s="13">
-        <v>258913043</v>
+        <v>269947368</v>
       </c>
       <c r="AQ90" s="13">
-        <v>269947368</v>
+        <v>262175000</v>
       </c>
       <c r="AR90" s="13">
-        <v>262175000</v>
+        <v>256437500</v>
       </c>
       <c r="AS90" s="13">
-        <v>256437500</v>
-      </c>
-      <c r="AT90" s="13">
         <v>266215686</v>
       </c>
-      <c r="AU90" s="13" t="s">
-        <v>57</v>
+      <c r="AT90" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU90" s="13">
+        <v>322000000</v>
       </c>
       <c r="AV90" s="13">
-        <v>322000000</v>
+        <v>703603448</v>
       </c>
       <c r="AW90" s="13">
-        <v>703603448</v>
+        <v>709033333</v>
       </c>
       <c r="AX90" s="13">
-        <v>709033333</v>
+        <v>715222222</v>
       </c>
       <c r="AY90" s="13">
-        <v>715222222</v>
+        <v>706731707</v>
       </c>
       <c r="AZ90" s="13">
-        <v>706731707</v>
+        <v>680384615</v>
       </c>
       <c r="BA90" s="13">
-        <v>680384615</v>
+        <v>697000000</v>
       </c>
       <c r="BB90" s="13">
-        <v>697000000</v>
+        <v>683333333</v>
       </c>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.3">
@@ -11983,140 +11983,140 @@
       <c r="I91" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J91" s="11" t="s">
-        <v>57</v>
+      <c r="J91" s="11">
+        <v>45289474</v>
       </c>
       <c r="K91" s="11">
-        <v>45289474</v>
+        <v>56866834</v>
       </c>
       <c r="L91" s="11">
-        <v>56866834</v>
+        <v>71857143</v>
       </c>
       <c r="M91" s="11">
-        <v>71857143</v>
+        <v>70620690</v>
       </c>
       <c r="N91" s="11">
-        <v>70620690</v>
+        <v>69547619</v>
       </c>
       <c r="O91" s="11">
-        <v>69547619</v>
+        <v>66813291</v>
       </c>
       <c r="P91" s="11">
-        <v>66813291</v>
+        <v>68047059</v>
       </c>
       <c r="Q91" s="11">
-        <v>68047059</v>
+        <v>69724806</v>
       </c>
       <c r="R91" s="11">
-        <v>69724806</v>
+        <v>73570213</v>
       </c>
       <c r="S91" s="11">
-        <v>73570213</v>
+        <v>70890152</v>
       </c>
       <c r="T91" s="11">
-        <v>70890152</v>
+        <v>71326667</v>
       </c>
       <c r="U91" s="11">
-        <v>71326667</v>
+        <v>74772189</v>
       </c>
       <c r="V91" s="11">
-        <v>74772189</v>
+        <v>74947020</v>
       </c>
       <c r="W91" s="11">
-        <v>74947020</v>
+        <v>80713147</v>
       </c>
       <c r="X91" s="11">
-        <v>80713147</v>
+        <v>112780952</v>
       </c>
       <c r="Y91" s="11">
-        <v>112780952</v>
+        <v>105448980</v>
       </c>
       <c r="Z91" s="11">
-        <v>105448980</v>
+        <v>92415385</v>
       </c>
       <c r="AA91" s="11">
-        <v>92415385</v>
+        <v>101081395</v>
       </c>
       <c r="AB91" s="11">
-        <v>101081395</v>
+        <v>109110092</v>
       </c>
       <c r="AC91" s="11">
-        <v>109110092</v>
+        <v>119889952</v>
       </c>
       <c r="AD91" s="11">
-        <v>119889952</v>
+        <v>117469841</v>
       </c>
       <c r="AE91" s="11">
-        <v>117469841</v>
+        <v>108667785</v>
       </c>
       <c r="AF91" s="11">
-        <v>108667785</v>
+        <v>100561837</v>
       </c>
       <c r="AG91" s="11">
-        <v>100561837</v>
+        <v>106968085</v>
       </c>
       <c r="AH91" s="11">
-        <v>106968085</v>
+        <v>105689944</v>
       </c>
       <c r="AI91" s="11">
-        <v>105689944</v>
+        <v>107872404</v>
       </c>
       <c r="AJ91" s="11">
-        <v>107872404</v>
+        <v>98668750</v>
       </c>
       <c r="AK91" s="11">
-        <v>98668750</v>
+        <v>114812500</v>
       </c>
       <c r="AL91" s="11">
-        <v>114812500</v>
+        <v>120220690</v>
       </c>
       <c r="AM91" s="11">
-        <v>120220690</v>
+        <v>118424615</v>
       </c>
       <c r="AN91" s="11">
-        <v>118424615</v>
+        <v>118452899</v>
       </c>
       <c r="AO91" s="11">
-        <v>118452899</v>
+        <v>119740506</v>
       </c>
       <c r="AP91" s="11">
-        <v>119740506</v>
+        <v>117710366</v>
       </c>
       <c r="AQ91" s="11">
-        <v>117710366</v>
+        <v>120877500</v>
       </c>
       <c r="AR91" s="11">
-        <v>120877500</v>
+        <v>124472934</v>
       </c>
       <c r="AS91" s="11">
-        <v>124472934</v>
+        <v>125805471</v>
       </c>
       <c r="AT91" s="11">
-        <v>125805471</v>
+        <v>91000000</v>
       </c>
       <c r="AU91" s="11">
-        <v>91000000</v>
+        <v>334943590</v>
       </c>
       <c r="AV91" s="11">
-        <v>334943590</v>
+        <v>334013559</v>
       </c>
       <c r="AW91" s="11">
-        <v>334013559</v>
+        <v>338119718</v>
       </c>
       <c r="AX91" s="11">
-        <v>338119718</v>
+        <v>326130233</v>
       </c>
       <c r="AY91" s="11">
-        <v>326130233</v>
+        <v>327574899</v>
       </c>
       <c r="AZ91" s="11">
-        <v>327574899</v>
+        <v>323173913</v>
       </c>
       <c r="BA91" s="11">
-        <v>323173913</v>
+        <v>325248201</v>
       </c>
       <c r="BB91" s="11">
-        <v>325248201</v>
+        <v>318883117</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.3">
@@ -12214,68 +12214,68 @@
       <c r="AG92" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH92" s="13" t="s">
-        <v>57</v>
+      <c r="AH92" s="13">
+        <v>98247683</v>
       </c>
       <c r="AI92" s="13">
-        <v>98247683</v>
+        <v>95752552</v>
       </c>
       <c r="AJ92" s="13">
-        <v>95752552</v>
+        <v>94102222</v>
       </c>
       <c r="AK92" s="13">
-        <v>94102222</v>
+        <v>97221574</v>
       </c>
       <c r="AL92" s="13">
-        <v>97221574</v>
+        <v>98163225</v>
       </c>
       <c r="AM92" s="13">
-        <v>98163225</v>
+        <v>117396973</v>
       </c>
       <c r="AN92" s="13">
-        <v>117396973</v>
+        <v>110072235</v>
       </c>
       <c r="AO92" s="13">
-        <v>110072235</v>
+        <v>94510612</v>
       </c>
       <c r="AP92" s="13">
-        <v>94510612</v>
+        <v>93830178</v>
       </c>
       <c r="AQ92" s="13">
-        <v>93830178</v>
+        <v>96793231</v>
       </c>
       <c r="AR92" s="13">
-        <v>96793231</v>
+        <v>90573024</v>
       </c>
       <c r="AS92" s="13">
-        <v>90573024</v>
+        <v>88953932</v>
       </c>
       <c r="AT92" s="13">
-        <v>88953932</v>
+        <v>85933333</v>
       </c>
       <c r="AU92" s="13">
-        <v>85933333</v>
+        <v>87622754</v>
       </c>
       <c r="AV92" s="13">
-        <v>87622754</v>
+        <v>108140506</v>
       </c>
       <c r="AW92" s="13">
-        <v>108140506</v>
+        <v>96173516</v>
       </c>
       <c r="AX92" s="13">
-        <v>96173516</v>
+        <v>193769737</v>
       </c>
       <c r="AY92" s="13">
-        <v>193769737</v>
+        <v>192521158</v>
       </c>
       <c r="AZ92" s="13">
-        <v>192521158</v>
+        <v>184177370</v>
       </c>
       <c r="BA92" s="13">
-        <v>184177370</v>
+        <v>172569362</v>
       </c>
       <c r="BB92" s="13">
-        <v>172569362</v>
+        <v>168675174</v>
       </c>
     </row>
     <row r="93" spans="2:54" x14ac:dyDescent="0.3">
@@ -12373,68 +12373,68 @@
       <c r="AG93" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH93" s="11" t="s">
-        <v>57</v>
+      <c r="AH93" s="11">
+        <v>100849462</v>
       </c>
       <c r="AI93" s="11">
-        <v>100849462</v>
+        <v>96966102</v>
       </c>
       <c r="AJ93" s="11">
-        <v>96966102</v>
+        <v>93867470</v>
       </c>
       <c r="AK93" s="11">
-        <v>93867470</v>
+        <v>98621538</v>
       </c>
       <c r="AL93" s="11">
-        <v>98621538</v>
+        <v>97199161</v>
       </c>
       <c r="AM93" s="11">
-        <v>97199161</v>
+        <v>109890467</v>
       </c>
       <c r="AN93" s="11">
-        <v>109890467</v>
+        <v>122892063</v>
       </c>
       <c r="AO93" s="11">
-        <v>122892063</v>
+        <v>104984496</v>
       </c>
       <c r="AP93" s="11">
-        <v>104984496</v>
+        <v>95041322</v>
       </c>
       <c r="AQ93" s="11">
-        <v>95041322</v>
+        <v>101628268</v>
       </c>
       <c r="AR93" s="11">
-        <v>101628268</v>
+        <v>100471822</v>
       </c>
       <c r="AS93" s="11">
-        <v>100471822</v>
+        <v>93199333</v>
       </c>
       <c r="AT93" s="11">
-        <v>93199333</v>
-      </c>
-      <c r="AU93" s="11">
         <v>87421488</v>
       </c>
-      <c r="AV93" s="11" t="s">
-        <v>57</v>
+      <c r="AU93" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV93" s="11">
+        <v>114359477</v>
       </c>
       <c r="AW93" s="11">
-        <v>114359477</v>
+        <v>95939850</v>
       </c>
       <c r="AX93" s="11">
-        <v>95939850</v>
+        <v>126763587</v>
       </c>
       <c r="AY93" s="11">
-        <v>126763587</v>
+        <v>181358548</v>
       </c>
       <c r="AZ93" s="11">
-        <v>181358548</v>
+        <v>188901786</v>
       </c>
       <c r="BA93" s="11">
-        <v>188901786</v>
+        <v>167895449</v>
       </c>
       <c r="BB93" s="11">
-        <v>167895449</v>
+        <v>168615619</v>
       </c>
     </row>
     <row r="94" spans="2:54" x14ac:dyDescent="0.3">
@@ -12532,68 +12532,68 @@
       <c r="AG94" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH94" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI94" s="13">
+      <c r="AH94" s="13">
         <v>235750000</v>
       </c>
-      <c r="AJ94" s="13" t="s">
-        <v>57</v>
+      <c r="AI94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ94" s="13">
+        <v>308857143</v>
       </c>
       <c r="AK94" s="13">
-        <v>308857143</v>
+        <v>256250000</v>
       </c>
       <c r="AL94" s="13">
-        <v>256250000</v>
+        <v>274347826</v>
       </c>
       <c r="AM94" s="13">
-        <v>274347826</v>
+        <v>253250000</v>
       </c>
       <c r="AN94" s="13">
-        <v>253250000</v>
+        <v>264400000</v>
       </c>
       <c r="AO94" s="13">
-        <v>264400000</v>
+        <v>104181818</v>
       </c>
       <c r="AP94" s="13">
-        <v>104181818</v>
+        <v>84000000</v>
       </c>
       <c r="AQ94" s="13">
-        <v>84000000</v>
+        <v>326461538</v>
       </c>
       <c r="AR94" s="13">
-        <v>326461538</v>
+        <v>291521739</v>
       </c>
       <c r="AS94" s="13">
-        <v>291521739</v>
+        <v>286596774</v>
       </c>
       <c r="AT94" s="13">
-        <v>286596774</v>
-      </c>
-      <c r="AU94" s="13">
         <v>77000000</v>
       </c>
+      <c r="AU94" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AV94" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW94" s="13" t="s">
-        <v>57</v>
+      <c r="AW94" s="13">
+        <v>96000000</v>
       </c>
       <c r="AX94" s="13">
-        <v>96000000</v>
+        <v>54000000</v>
       </c>
       <c r="AY94" s="13">
-        <v>54000000</v>
+        <v>220000000</v>
       </c>
       <c r="AZ94" s="13">
-        <v>220000000</v>
+        <v>282000000</v>
       </c>
       <c r="BA94" s="13">
-        <v>282000000</v>
+        <v>317000000</v>
       </c>
       <c r="BB94" s="13">
-        <v>317000000</v>
+        <v>393000000</v>
       </c>
     </row>
   </sheetData>
